--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814B3C94-39B1-4CF3-83FF-05EFABBEC644}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D789370-B3A5-401E-9586-DBD58A2836DB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,34 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="190">
   <si>
-    <t>等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>星级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能一等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能二等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能三等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>陈</t>
   </si>
   <si>
@@ -193,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -264,10 +228,6 @@
     <t>归溟幽灵鲨</t>
   </si>
   <si>
-    <t>皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -295,10 +255,6 @@
   </si>
   <si>
     <t>间隙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -658,10 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模组光效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -685,6 +637,54 @@
   </si>
   <si>
     <t>2022.06.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules Shining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1119,15 +1119,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>1618440</v>
@@ -1135,39 +1135,39 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2">
         <v>170</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2">
         <v>170</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2">
         <v>150</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2">
         <v>60</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2">
         <v>25</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2">
         <v>147</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2">
         <v>69</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
         <v>150</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2">
         <v>400</v>
@@ -1249,8 +1249,8 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1262,33 +1262,33 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="5"/>
       <c r="E1" s="7"/>
       <c r="F1" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="11" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6">
         <v>6</v>
@@ -1312,57 +1312,57 @@
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>183</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>184</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1386,12 +1386,12 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -1415,21 +1415,21 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1453,12 +1453,12 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1482,12 +1482,12 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1511,12 +1511,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1540,21 +1540,21 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1578,21 +1578,21 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1616,12 +1616,12 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -1645,12 +1645,12 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1674,12 +1674,12 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>6</v>
@@ -1703,21 +1703,21 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1741,12 +1741,12 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -1770,12 +1770,12 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1799,21 +1799,21 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1837,21 +1837,21 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1875,12 +1875,12 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -1904,12 +1904,12 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1933,12 +1933,12 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -1962,12 +1962,12 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -1991,21 +1991,21 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2029,21 +2029,21 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2067,21 +2067,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2105,12 +2105,12 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2134,21 +2134,21 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2172,21 +2172,21 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J28" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2210,21 +2210,21 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2248,12 +2248,12 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2277,12 +2277,12 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2306,12 +2306,12 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2335,12 +2335,12 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2364,12 +2364,12 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2393,21 +2393,21 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J35" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2431,12 +2431,12 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2460,12 +2460,12 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2489,12 +2489,12 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2518,21 +2518,21 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J39" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -2556,12 +2556,12 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2585,12 +2585,12 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2614,21 +2614,21 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2652,21 +2652,21 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J43" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2690,12 +2690,12 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2719,21 +2719,21 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J45" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -2757,12 +2757,12 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -2786,21 +2786,21 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -2824,12 +2824,12 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2853,21 +2853,21 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -2891,21 +2891,21 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2929,12 +2929,12 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -2958,21 +2958,21 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J52" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -2996,21 +2996,21 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J53" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3034,21 +3034,21 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J54" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3072,12 +3072,12 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3101,12 +3101,12 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3130,12 +3130,12 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -3159,21 +3159,21 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3197,21 +3197,21 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J59" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3235,21 +3235,21 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J60" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3273,12 +3273,12 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3302,12 +3302,12 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -3331,12 +3331,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3360,12 +3360,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3389,12 +3389,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3418,12 +3418,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3447,12 +3447,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3476,21 +3476,21 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3514,12 +3514,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3543,12 +3543,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3572,12 +3572,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3601,12 +3601,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3630,21 +3630,21 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J73" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
       <c r="L73" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3668,12 +3668,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3697,21 +3697,21 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J75" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K75">
         <v>3</v>
       </c>
       <c r="L75" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3735,12 +3735,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3764,12 +3764,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3793,21 +3793,21 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J78" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3831,12 +3831,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3860,21 +3860,21 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -3898,12 +3898,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3927,12 +3927,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -3956,21 +3956,21 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J83" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -3994,12 +3994,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4023,12 +4023,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4052,12 +4052,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4081,12 +4081,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4110,12 +4110,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4139,12 +4139,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4168,21 +4168,21 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J90" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K90">
         <v>1</v>
       </c>
       <c r="L90" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4206,12 +4206,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4235,21 +4235,21 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J92" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4273,12 +4273,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4302,21 +4302,21 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J94" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4340,21 +4340,21 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J95" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K95">
         <v>1</v>
       </c>
       <c r="L95" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4378,21 +4378,21 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J96" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K96">
         <v>1</v>
       </c>
       <c r="L96" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4416,21 +4416,21 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J97" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4454,12 +4454,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4483,12 +4483,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4512,12 +4512,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B101">
         <v>4</v>
@@ -4541,12 +4541,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <v>4</v>
@@ -4570,12 +4570,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B103">
         <v>4</v>
@@ -4599,21 +4599,21 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J103" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K103">
         <v>1</v>
       </c>
       <c r="L103" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -4637,12 +4637,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -4666,12 +4666,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -4695,12 +4695,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -4724,12 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4753,21 +4753,21 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J108" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="L108" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -4791,21 +4791,21 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="J109" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="K109">
         <v>1</v>
       </c>
       <c r="L109" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -4829,12 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -4858,21 +4858,21 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="J111" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K111">
         <v>1</v>
       </c>
       <c r="L111" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -4896,21 +4896,21 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -4934,21 +4934,21 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J113" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -4972,21 +4972,21 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="J114" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="K114">
         <v>1</v>
       </c>
       <c r="L114" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5024,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I115" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 B101:G115 J101:K115 J118:K1048576 B118:H1048576 J1:J3 B1:H3" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 B101:G115 J101:K115 J118:K1048576 B118:H1048576 E1:H2 B1:B2 C1:C2 D1:D2 J1:J2" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D789370-B3A5-401E-9586-DBD58A2836DB}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A953E76-B46C-4824-85AA-D3452189007C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1249,8 +1249,8 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5021,17 +5021,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I115" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I149" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K2 B101:G115 J101:K115 J118:K1048576 B118:H1048576 E1:H2 B1:B2 C1:C2 D1:D2 J1:J2" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101:G115 J101:K115 J118:K1048576 B118:H1048576 B1:H2 J1:K2" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L116:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L155:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L115 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L154 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1249,8 +1249,8 @@
   <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
+      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A953E76-B46C-4824-85AA-D3452189007C}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC245D5-D24C-407E-8D47-84F81710D876}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$121</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="202">
   <si>
     <t>陈</t>
   </si>
@@ -378,9 +381,6 @@
     <t>夜半</t>
   </si>
   <si>
-    <t>阿米娅(近卫)</t>
-  </si>
-  <si>
     <t>鞭刃</t>
   </si>
   <si>
@@ -614,77 +614,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>grey</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>elite2</t>
+  </si>
+  <si>
+    <t>elite1</t>
+  </si>
+  <si>
+    <t>Operator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules Stage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modules Shining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级字体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BenderBold.otf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可填Source/TTF路径下的文件名，推荐BenderBold或BenderRegular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>elite2</t>
-  </si>
-  <si>
-    <t>elite1</t>
-  </si>
-  <si>
-    <t>2022.06.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Potential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Star</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modules</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modules Stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Modules Shining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illustration</t>
+  </si>
+  <si>
+    <t>阿米娅(近卫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAR-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAR-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多萝西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃拉托</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏栎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调香师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIN-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏苏洛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1104,10 +1155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1117,15 +1168,15 @@
     <col min="3" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1133,7 +1184,7 @@
         <v>1618440</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1141,31 +1192,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1173,7 +1224,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1181,7 +1232,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1189,7 +1240,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1197,7 +1248,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1205,7 +1256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1213,7 +1264,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1221,7 +1272,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1229,12 +1280,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="2">
         <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1246,11 +1308,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L119" sqref="L119"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1283,7 +1345,7 @@
       </c>
       <c r="K1" s="9"/>
       <c r="L1" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1312,52 +1374,52 @@
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" s="6">
         <v>1</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="I3" t="s">
-        <v>189</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1386,7 +1448,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1418,13 +1480,13 @@
         <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1540,16 +1602,16 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1581,13 +1643,13 @@
         <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1706,13 +1768,13 @@
         <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1802,13 +1864,13 @@
         <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K17">
         <v>3</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1837,16 +1899,16 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -1904,7 +1966,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
@@ -1915,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1953,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>10</v>
@@ -1994,13 +2056,13 @@
         <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2032,13 +2094,13 @@
         <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
@@ -2070,13 +2132,13 @@
         <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
@@ -2096,7 +2158,7 @@
         <v>90</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>10</v>
@@ -2137,13 +2199,13 @@
         <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -2163,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -2172,16 +2234,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2213,13 +2275,13 @@
         <v>61</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
@@ -2250,6 +2312,15 @@
       <c r="I30" t="s">
         <v>60</v>
       </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -2268,16 +2339,16 @@
         <v>90</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
@@ -2308,6 +2379,15 @@
       <c r="I32" t="s">
         <v>60</v>
       </c>
+      <c r="J32" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2335,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2366,6 +2446,15 @@
       <c r="I34" t="s">
         <v>60</v>
       </c>
+      <c r="J34" t="s">
+        <v>194</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2384,7 +2473,7 @@
         <v>90</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G35">
         <v>10</v>
@@ -2393,16 +2482,16 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2422,7 +2511,7 @@
         <v>90</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G36">
         <v>10</v>
@@ -2451,7 +2540,7 @@
         <v>90</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -2471,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2489,7 +2578,7 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2518,16 +2607,16 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2538,7 +2627,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2556,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2605,7 +2694,7 @@
         <v>90</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G42">
         <v>10</v>
@@ -2617,13 +2706,13 @@
         <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2655,13 +2744,13 @@
         <v>60</v>
       </c>
       <c r="J43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2710,7 +2799,7 @@
         <v>90</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -2719,16 +2808,16 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -2757,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -2786,16 +2875,16 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -2856,13 +2945,13 @@
         <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -2894,13 +2983,13 @@
         <v>61</v>
       </c>
       <c r="J50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2920,7 +3009,7 @@
         <v>90</v>
       </c>
       <c r="F51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>10</v>
@@ -2961,13 +3050,13 @@
         <v>60</v>
       </c>
       <c r="J52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -2996,16 +3085,16 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K53">
         <v>3</v>
       </c>
       <c r="L53" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3037,13 +3126,13 @@
         <v>60</v>
       </c>
       <c r="J54" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -3092,10 +3181,10 @@
         <v>90</v>
       </c>
       <c r="F56">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H56">
         <v>10</v>
@@ -3106,13 +3195,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>195</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3121,7 +3210,7 @@
         <v>90</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -3130,12 +3219,12 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -3159,65 +3248,56 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>175</v>
-      </c>
-      <c r="J58" t="s">
-        <v>162</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" s="14" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>173</v>
+      </c>
+      <c r="J59" t="s">
+        <v>161</v>
+      </c>
+      <c r="K59">
         <v>3</v>
       </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>90</v>
-      </c>
-      <c r="F59">
-        <v>10</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>61</v>
-      </c>
-      <c r="J59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
       <c r="L59" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3235,56 +3315,65 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="J60" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>90</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="I61" t="s">
+        <v>173</v>
+      </c>
+      <c r="J61" t="s">
+        <v>163</v>
+      </c>
+      <c r="K61">
         <v>1</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>90</v>
-      </c>
-      <c r="F61">
-        <v>10</v>
-      </c>
-      <c r="G61">
-        <v>10</v>
-      </c>
-      <c r="H61">
-        <v>10</v>
-      </c>
-      <c r="I61" t="s">
-        <v>175</v>
+      <c r="L61" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3302,41 +3391,41 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G63">
         <v>10</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -3351,7 +3440,7 @@
         <v>80</v>
       </c>
       <c r="F64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G64">
         <v>10</v>
@@ -3360,12 +3449,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -3380,7 +3469,7 @@
         <v>80</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -3389,12 +3478,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3418,12 +3507,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3447,12 +3536,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3467,30 +3556,21 @@
         <v>80</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H68">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J68" t="s">
-        <v>143</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3505,21 +3585,30 @@
         <v>80</v>
       </c>
       <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
         <v>7</v>
       </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
       <c r="H69">
         <v>0</v>
       </c>
       <c r="I69" t="s">
         <v>60</v>
+      </c>
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3548,7 +3637,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3563,7 +3652,7 @@
         <v>80</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -3577,7 +3666,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3592,7 +3681,7 @@
         <v>80</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -3601,12 +3690,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3621,7 +3710,7 @@
         <v>80</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -3630,21 +3719,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
-      </c>
-      <c r="J73" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3659,21 +3739,30 @@
         <v>80</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="J74" t="s">
+        <v>141</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3688,30 +3777,21 @@
         <v>80</v>
       </c>
       <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
         <v>7</v>
       </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>60</v>
-      </c>
-      <c r="J75" t="s">
-        <v>151</v>
-      </c>
-      <c r="K75">
-        <v>3</v>
-      </c>
-      <c r="L75" s="14" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3729,24 +3809,24 @@
         <v>7</v>
       </c>
       <c r="G76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B77">
         <v>5</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -3764,12 +3844,21 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="J77" t="s">
+        <v>150</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3793,27 +3882,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>61</v>
-      </c>
-      <c r="J78" t="s">
-        <v>165</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="14" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3831,12 +3911,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3854,33 +3934,33 @@
         <v>10</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J80" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B81">
         <v>5</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3898,12 +3978,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3918,27 +3998,36 @@
         <v>80</v>
       </c>
       <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
         <v>7</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
         <v>60</v>
+      </c>
+      <c r="J82" t="s">
+        <v>148</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -3956,21 +4045,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" t="s">
-        <v>157</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -3985,7 +4065,7 @@
         <v>80</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -3994,12 +4074,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4014,27 +4094,36 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="J85" t="s">
+        <v>156</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4043,7 +4132,7 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -4052,12 +4141,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4072,27 +4161,27 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4115,7 +4204,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4130,7 +4219,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4144,7 +4233,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4170,19 +4259,10 @@
       <c r="I90" t="s">
         <v>60</v>
       </c>
-      <c r="J90" t="s">
-        <v>161</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="14" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4197,7 +4277,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4211,7 +4291,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4235,21 +4315,21 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="J92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K92">
         <v>1</v>
       </c>
       <c r="L92" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4264,27 +4344,27 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4293,7 +4373,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4302,21 +4382,21 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4331,7 +4411,7 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
         <v>10</v>
@@ -4340,21 +4420,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>60</v>
-      </c>
-      <c r="J95" t="s">
-        <v>166</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4369,36 +4440,27 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>60</v>
-      </c>
-      <c r="J96" t="s">
-        <v>163</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4410,27 +4472,27 @@
         <v>10</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J97" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4456,10 +4518,19 @@
       <c r="I98" t="s">
         <v>60</v>
       </c>
+      <c r="J98" t="s">
+        <v>165</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4477,24 +4548,33 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>60</v>
+      </c>
+      <c r="J99" t="s">
+        <v>162</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -4503,33 +4583,42 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>175</v>
+        <v>60</v>
+      </c>
+      <c r="J100" t="s">
+        <v>165</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
         <v>80</v>
-      </c>
-      <c r="B101">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="E101">
-        <v>70</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -4546,10 +4635,10 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -4558,13 +4647,13 @@
         <v>2</v>
       </c>
       <c r="E102">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F102">
         <v>10</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4575,22 +4664,22 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>135</v>
       </c>
       <c r="B103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -4599,21 +4688,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>175</v>
-      </c>
-      <c r="J103" t="s">
-        <v>167</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B104">
         <v>4</v>
@@ -4631,18 +4711,18 @@
         <v>10</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -4657,7 +4737,7 @@
         <v>70</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -4666,12 +4746,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B106">
         <v>4</v>
@@ -4700,7 +4780,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B107">
         <v>4</v>
@@ -4715,7 +4795,7 @@
         <v>70</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -4724,12 +4804,21 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J107" t="s">
+        <v>166</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B108">
         <v>4</v>
@@ -4744,30 +4833,21 @@
         <v>70</v>
       </c>
       <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
         <v>7</v>
       </c>
-      <c r="G108">
-        <v>10</v>
-      </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>175</v>
-      </c>
-      <c r="J108" t="s">
-        <v>165</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="L108" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -4782,30 +4862,21 @@
         <v>70</v>
       </c>
       <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
         <v>7</v>
       </c>
-      <c r="G109">
-        <v>10</v>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>72</v>
-      </c>
-      <c r="J109" t="s">
-        <v>149</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -4834,7 +4905,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -4858,21 +4929,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>175</v>
-      </c>
-      <c r="J111" t="s">
-        <v>168</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111" s="14" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -4887,7 +4949,7 @@
         <v>70</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -4896,21 +4958,21 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J112" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -4925,7 +4987,7 @@
         <v>70</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -4934,21 +4996,21 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J113" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="K113">
         <v>1</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -4963,7 +5025,7 @@
         <v>70</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -4973,20 +5035,11 @@
       </c>
       <c r="I114" t="s">
         <v>60</v>
-      </c>
-      <c r="J114" t="s">
-        <v>163</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" s="14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5004,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5012,8 +5065,232 @@
       <c r="I115" t="s">
         <v>60</v>
       </c>
+      <c r="J115" t="s">
+        <v>200</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>75</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>70</v>
+      </c>
+      <c r="F116">
+        <v>7</v>
+      </c>
+      <c r="G116">
+        <v>10</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>173</v>
+      </c>
+      <c r="J116" t="s">
+        <v>167</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>201</v>
+      </c>
+      <c r="B117">
+        <v>4</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <v>70</v>
+      </c>
+      <c r="F117">
+        <v>7</v>
+      </c>
+      <c r="G117">
+        <v>8</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>76</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118">
+        <v>70</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
+        <v>10</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>60</v>
+      </c>
+      <c r="J118" t="s">
+        <v>158</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>77</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119">
+        <v>70</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="G119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>60</v>
+      </c>
+      <c r="J119" t="s">
+        <v>163</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>78</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <v>70</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+      <c r="G120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>60</v>
+      </c>
+      <c r="J120" t="s">
+        <v>162</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>79</v>
+      </c>
+      <c r="B121">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121">
+        <v>70</v>
+      </c>
+      <c r="F121">
+        <v>7</v>
+      </c>
+      <c r="G121">
+        <v>10</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="5" showButton="0"/>
+    <filterColumn colId="6" showButton="0"/>
+  </autoFilter>
   <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="F1:H1"/>
@@ -5021,17 +5298,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I149" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I155" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B101:G115 J101:K115 J118:K1048576 B118:H1048576 B1:H2 J1:K2" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104:G121 J1:K2 J124:K1048576 B124:H1048576 B1:H2 K104:K121 J104:J114 J116:J121" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L155:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L161:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L154 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L160 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="8_{D861895D-AD59-4EF0-B080-FE50D6EF8705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC245D5-D24C-407E-8D47-84F81710D876}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -699,10 +699,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.07.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MAR-Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,6 +732,10 @@
   </si>
   <si>
     <t>苏苏洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.07.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1197,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1310,9 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H77" sqref="H77"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2082,7 +2082,7 @@
         <v>90</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>10</v>
@@ -2313,7 +2313,7 @@
         <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2380,7 +2380,7 @@
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2447,7 +2447,7 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2598,7 +2598,7 @@
         <v>90</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3210,7 +3210,7 @@
         <v>90</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4443,7 +4443,7 @@
         <v>7</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B105">
         <v>4</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5066,7 +5066,7 @@
         <v>60</v>
       </c>
       <c r="J115" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K115">
         <v>1</v>
@@ -5115,7 +5115,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B117">
         <v>4</v>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A505F179-DAC9-4CEA-9F4F-C9DDA8D155CA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3075" windowWidth="11093" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$127</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="211">
   <si>
     <t>陈</t>
   </si>
@@ -735,7 +735,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.07.14</t>
+    <t>柏喙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百炼嘉维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOK-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMB-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晓歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿米娅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin3</t>
+  </si>
+  <si>
+    <t>阿消</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1157,18 +1192,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.4140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.58203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.9140625" style="2"/>
+    <col min="1" max="1" width="20.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.9296875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1176,7 +1211,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1184,7 +1219,7 @@
         <v>1618440</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1192,15 +1227,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>54</v>
       </c>
@@ -1208,7 +1243,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>59</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1224,7 +1259,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1240,7 +1275,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
@@ -1248,7 +1283,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1256,7 +1291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1264,7 +1299,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1272,7 +1307,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>56</v>
       </c>
@@ -1280,7 +1315,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>63</v>
       </c>
@@ -1288,7 +1323,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>187</v>
       </c>
@@ -1308,21 +1343,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.08203125" customWidth="1"/>
+    <col min="1" max="1" width="19.06640625" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.9140625" style="14"/>
+    <col min="12" max="12" width="8.9296875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>50</v>
       </c>
@@ -1348,7 +1383,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1384,7 +1419,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>175</v>
       </c>
@@ -1422,7 +1457,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -1451,7 +1486,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1547,7 +1582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -1576,7 +1611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -1614,9 +1649,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1631,65 +1666,65 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
         <v>141</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>1</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>90</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1710,111 +1745,111 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>90</v>
-      </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>90</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>90</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
-        <v>10</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>90</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
         <v>142</v>
       </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14" s="14" t="s">
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>90</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <v>10</v>
-      </c>
-      <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1835,53 +1870,44 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>90</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>6</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>90</v>
-      </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
-        <v>10</v>
-      </c>
-      <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1899,213 +1925,213 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>143</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J19" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>6</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>90</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>90</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
-        <v>10</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>90</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>90</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>90</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>90</v>
-      </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>90</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
         <v>144</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>90</v>
-      </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>10</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" t="s">
-        <v>145</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2132,112 +2158,112 @@
         <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>90</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>88</v>
       </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>6</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>90</v>
-      </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>10</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>10</v>
-      </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>4</v>
       </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>90</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
         <v>147</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28">
-        <v>6</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>90</v>
-      </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28" t="s">
-        <v>173</v>
-      </c>
-      <c r="J28" t="s">
-        <v>148</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2246,15 +2272,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2272,27 +2298,27 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2310,27 +2336,27 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J30" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2339,21 +2365,21 @@
         <v>90</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2389,15 +2415,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2415,18 +2441,18 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2447,18 +2473,18 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2484,307 +2510,307 @@
       <c r="I35" t="s">
         <v>173</v>
       </c>
-      <c r="J35" t="s">
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>90</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" t="s">
+        <v>193</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" t="s">
         <v>150</v>
       </c>
-      <c r="K35">
+      <c r="K37">
         <v>1</v>
       </c>
-      <c r="L35" s="14" t="s">
+      <c r="L37" s="14" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>92</v>
       </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>90</v>
-      </c>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36">
-        <v>10</v>
-      </c>
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>90</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
         <v>27</v>
       </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-      <c r="C37">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>90</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>90</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>90</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="G41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>173</v>
+      </c>
+      <c r="J41" t="s">
+        <v>151</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>90</v>
-      </c>
-      <c r="F37">
-        <v>10</v>
-      </c>
-      <c r="G37">
-        <v>10</v>
-      </c>
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38">
-        <v>6</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>90</v>
-      </c>
-      <c r="F38">
-        <v>10</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>10</v>
-      </c>
-      <c r="I38" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39">
-        <v>6</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>90</v>
-      </c>
-      <c r="F39">
-        <v>10</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>173</v>
-      </c>
-      <c r="J39" t="s">
-        <v>151</v>
-      </c>
-      <c r="K39">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>90</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>90</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" t="s">
+        <v>152</v>
+      </c>
+      <c r="K44">
         <v>1</v>
       </c>
-      <c r="L39" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40">
-        <v>6</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>90</v>
-      </c>
-      <c r="F40">
-        <v>10</v>
-      </c>
-      <c r="G40">
-        <v>10</v>
-      </c>
-      <c r="H40">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41">
-        <v>6</v>
-      </c>
-      <c r="C41">
-        <v>6</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>90</v>
-      </c>
-      <c r="F41">
-        <v>10</v>
-      </c>
-      <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42">
-        <v>6</v>
-      </c>
-      <c r="C42">
-        <v>6</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>90</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>10</v>
-      </c>
-      <c r="H42">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" t="s">
-        <v>152</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="14" t="s">
+      <c r="L44" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>30</v>
-      </c>
-      <c r="B43">
-        <v>6</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>90</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
-      </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" t="s">
-        <v>153</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>90</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
-      </c>
-      <c r="G44">
-        <v>10</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>32</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2808,10 +2834,10 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2820,9 +2846,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -2846,18 +2872,18 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2878,18 +2904,18 @@
         <v>173</v>
       </c>
       <c r="J47" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -2913,12 +2939,12 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2942,10 +2968,10 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2954,103 +2980,103 @@
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="I51" t="s">
+        <v>60</v>
+      </c>
+      <c r="J51" t="s">
+        <v>156</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B50">
-        <v>6</v>
-      </c>
-      <c r="C50">
-        <v>6</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>90</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
         <v>61</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J52" t="s">
         <v>157</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51">
-        <v>6</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>90</v>
-      </c>
-      <c r="F51">
-        <v>10</v>
-      </c>
-      <c r="G51">
-        <v>10</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>6</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>90</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" t="s">
-        <v>158</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3059,15 +3085,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3085,27 +3111,18 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>173</v>
-      </c>
-      <c r="J53" t="s">
-        <v>159</v>
-      </c>
-      <c r="K53">
-        <v>3</v>
-      </c>
-      <c r="L53" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3126,7 +3143,7 @@
         <v>60</v>
       </c>
       <c r="J54" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3135,131 +3152,149 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>173</v>
+      </c>
+      <c r="J55" t="s">
+        <v>159</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" t="s">
+        <v>160</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>26</v>
       </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>90</v>
-      </c>
-      <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>33</v>
       </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
         <v>3</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>90</v>
-      </c>
-      <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>194</v>
       </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>6</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3279,25 +3314,16 @@
       <c r="I59" t="s">
         <v>173</v>
       </c>
-      <c r="J59" t="s">
-        <v>161</v>
-      </c>
-      <c r="K59">
-        <v>3</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3315,27 +3341,27 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3356,134 +3382,161 @@
         <v>173</v>
       </c>
       <c r="J61" t="s">
+        <v>161</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>61</v>
+      </c>
+      <c r="J62" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>173</v>
+      </c>
+      <c r="J63" t="s">
         <v>163</v>
       </c>
-      <c r="K61">
+      <c r="K63">
         <v>1</v>
       </c>
-      <c r="L61" s="14" t="s">
+      <c r="L63" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>36</v>
       </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" t="s">
+        <v>206</v>
+      </c>
+      <c r="K64">
         <v>1</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>90</v>
-      </c>
-      <c r="F62">
-        <v>10</v>
-      </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="L64" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>37</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>90</v>
-      </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>90</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>99</v>
-      </c>
-      <c r="B64">
-        <v>5</v>
-      </c>
-      <c r="C64">
-        <v>6</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>80</v>
-      </c>
-      <c r="F64">
-        <v>7</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>100</v>
-      </c>
-      <c r="B65">
-        <v>5</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>80</v>
-      </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>101</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -3510,9 +3563,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3527,7 +3580,7 @@
         <v>80</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -3536,12 +3589,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3565,12 +3618,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3585,7 +3638,7 @@
         <v>80</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>7</v>
@@ -3594,21 +3647,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" t="s">
-        <v>142</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3635,9 +3679,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>191</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3661,12 +3705,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3681,7 +3725,7 @@
         <v>80</v>
       </c>
       <c r="F72">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -3693,9 +3737,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3710,21 +3754,30 @@
         <v>80</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J73" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3750,19 +3803,10 @@
       <c r="I74" t="s">
         <v>60</v>
       </c>
-      <c r="J74" t="s">
-        <v>141</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3777,21 +3821,21 @@
         <v>80</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>195</v>
+        <v>106</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3806,21 +3850,21 @@
         <v>80</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3835,7 +3879,7 @@
         <v>80</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -3844,21 +3888,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>60</v>
-      </c>
-      <c r="J77" t="s">
-        <v>150</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3884,16 +3919,25 @@
       <c r="I78" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J78" t="s">
+        <v>141</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3902,21 +3946,21 @@
         <v>80</v>
       </c>
       <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3934,27 +3978,18 @@
         <v>10</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>61</v>
-      </c>
-      <c r="J80" t="s">
-        <v>164</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -3980,10 +4015,19 @@
       <c r="I81" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J81" t="s">
+        <v>150</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -3998,10 +4042,10 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -4009,19 +4053,10 @@
       <c r="I82" t="s">
         <v>60</v>
       </c>
-      <c r="J82" t="s">
-        <v>148</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4048,9 +4083,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4065,7 +4100,7 @@
         <v>80</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -4074,12 +4109,21 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="J84" t="s">
+        <v>164</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4105,19 +4149,10 @@
       <c r="I85" t="s">
         <v>60</v>
       </c>
-      <c r="J85" t="s">
-        <v>156</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4135,18 +4170,27 @@
         <v>10</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J86" t="s">
+        <v>148</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4161,27 +4205,27 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
+        <v>10</v>
+      </c>
+      <c r="H87">
         <v>7</v>
       </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
       <c r="I87" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4199,12 +4243,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4219,7 +4263,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4231,9 +4275,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4259,10 +4303,19 @@
       <c r="I90" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J90" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4277,7 +4330,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4286,12 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4306,36 +4359,27 @@
         <v>80</v>
       </c>
       <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
         <v>7</v>
       </c>
-      <c r="G92">
-        <v>10</v>
-      </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" t="s">
-        <v>160</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4344,7 +4388,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4356,9 +4400,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4373,7 +4417,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4382,21 +4426,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>173</v>
-      </c>
-      <c r="J94" t="s">
-        <v>160</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>123</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4420,12 +4455,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4440,7 +4475,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4449,18 +4484,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4469,7 +4504,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4478,21 +4513,21 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J97" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K97">
         <v>1</v>
       </c>
       <c r="L97" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4518,19 +4553,10 @@
       <c r="I98" t="s">
         <v>60</v>
       </c>
-      <c r="J98" t="s">
-        <v>165</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4545,7 +4571,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -4554,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J99" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K99">
         <v>1</v>
@@ -4566,9 +4592,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4583,30 +4609,21 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>60</v>
-      </c>
-      <c r="J100" t="s">
-        <v>165</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4621,7 +4638,7 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -4630,18 +4647,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4653,24 +4670,33 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="J102" t="s">
+        <v>161</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4679,7 +4705,7 @@
         <v>80</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -4688,25 +4714,34 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J103" t="s">
+        <v>165</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>131</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
         <v>80</v>
       </c>
-      <c r="B104">
-        <v>4</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-      <c r="E104">
-        <v>70</v>
-      </c>
       <c r="F104">
         <v>10</v>
       </c>
@@ -4719,13 +4754,22 @@
       <c r="I104" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
+        <v>162</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="B105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C105">
         <v>6</v>
@@ -4734,10 +4778,10 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>7</v>
@@ -4746,15 +4790,24 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="J105" t="s">
+        <v>165</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="B106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106">
         <v>6</v>
@@ -4763,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="E106">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -4778,12 +4831,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C107">
         <v>6</v>
@@ -4792,51 +4845,42 @@
         <v>2</v>
       </c>
       <c r="E107">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F107">
         <v>10</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>173</v>
-      </c>
-      <c r="J107" t="s">
-        <v>166</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>67</v>
+        <v>135</v>
       </c>
       <c r="B108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>2</v>
       </c>
       <c r="E108">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4845,9 +4889,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B109">
         <v>4</v>
@@ -4865,18 +4909,18 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -4891,21 +4935,21 @@
         <v>70</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -4920,7 +4964,7 @@
         <v>70</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -4932,9 +4976,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -4949,7 +4993,7 @@
         <v>70</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -4961,18 +5005,18 @@
         <v>173</v>
       </c>
       <c r="J112" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K112">
         <v>1</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -4987,30 +5031,21 @@
         <v>70</v>
       </c>
       <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
         <v>7</v>
       </c>
-      <c r="G113">
-        <v>10</v>
-      </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>72</v>
-      </c>
-      <c r="J113" t="s">
-        <v>148</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5028,18 +5063,18 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5054,10 +5089,10 @@
         <v>70</v>
       </c>
       <c r="F115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -5065,19 +5100,10 @@
       <c r="I115" t="s">
         <v>60</v>
       </c>
-      <c r="J115" t="s">
-        <v>199</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5101,21 +5127,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>173</v>
-      </c>
-      <c r="J116" t="s">
-        <v>167</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5133,18 +5150,27 @@
         <v>7</v>
       </c>
       <c r="G117">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+      <c r="J117" t="s">
+        <v>164</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -5159,7 +5185,7 @@
         <v>70</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -5168,21 +5194,21 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J118" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K118">
         <v>1</v>
       </c>
       <c r="L118" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -5208,19 +5234,10 @@
       <c r="I119" t="s">
         <v>60</v>
       </c>
-      <c r="J119" t="s">
-        <v>163</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5247,18 +5264,18 @@
         <v>60</v>
       </c>
       <c r="J120" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5282,11 +5299,221 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
+        <v>173</v>
+      </c>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>200</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122">
+        <v>6</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+      <c r="E122">
+        <v>70</v>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>10</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>76</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123">
+        <v>6</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>70</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
+        <v>10</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>60</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124">
+        <v>6</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>70</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
+        <v>7</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>77</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125">
+        <v>6</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+      <c r="E125">
+        <v>70</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>60</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>78</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>6</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>70</v>
+      </c>
+      <c r="F126">
+        <v>7</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>60</v>
+      </c>
+      <c r="J126" t="s">
+        <v>162</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>79</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>6</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>70</v>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L121" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L127" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5298,17 +5525,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I155" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I161" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B104:G121 J1:K2 J124:K1048576 B124:H1048576 B1:H2 K104:K121 J104:J114 J116:J121" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109:G127 J1:K2 J130:K1048576 B130:H1048576 B1:H2 K109:K127 J109:J119 J121:J127" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L161:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L167:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L160 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L166 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A505F179-DAC9-4CEA-9F4F-C9DDA8D155CA}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4410683D-73AB-456F-8FC2-5CC683734B24}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3075" windowWidth="11093" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$129</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
   <si>
     <t>陈</t>
   </si>
@@ -739,10 +739,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.08.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>百炼嘉维尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -771,6 +767,34 @@
   </si>
   <si>
     <t>阿消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崖心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义骑士号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lancet-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THRM-EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.08.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1193,7 +1217,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1232,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1343,11 +1367,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L127"/>
+  <dimension ref="A1:L133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I124" sqref="I124"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1465,7 +1489,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1651,13 +1675,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1666,13 +1690,13 @@
         <v>90</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
         <v>173</v>
@@ -1849,7 +1873,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1969,7 +1993,7 @@
         <v>143</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>169</v>
@@ -2350,7 +2374,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2365,13 +2389,13 @@
         <v>90</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I31" t="s">
         <v>173</v>
@@ -2423,7 +2447,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2883,7 +2907,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3344,10 +3368,10 @@
         <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" s="14" t="s">
         <v>169</v>
@@ -3496,7 +3520,7 @@
         <v>173</v>
       </c>
       <c r="J64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3623,7 +3647,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3641,7 +3665,7 @@
         <v>7</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3696,7 +3720,7 @@
         <v>80</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -4190,7 +4214,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4205,16 +4229,16 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
@@ -4379,7 +4403,7 @@
         <v>5</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4891,22 +4915,22 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
+        <v>210</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
         <v>80</v>
       </c>
-      <c r="B109">
-        <v>4</v>
-      </c>
-      <c r="C109">
-        <v>6</v>
-      </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-      <c r="E109">
-        <v>70</v>
-      </c>
       <c r="F109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -4915,12 +4939,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -4935,21 +4959,21 @@
         <v>70</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>81</v>
+        <v>197</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -4964,7 +4988,7 @@
         <v>70</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -4973,12 +4997,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -5002,21 +5026,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>173</v>
-      </c>
-      <c r="J112" t="s">
-        <v>166</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" s="14" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -5034,7 +5049,7 @@
         <v>10</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5042,10 +5057,19 @@
       <c r="I113" t="s">
         <v>173</v>
       </c>
+      <c r="J113" t="s">
+        <v>166</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5074,7 +5098,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5089,7 +5113,7 @@
         <v>70</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -5103,7 +5127,7 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5118,21 +5142,21 @@
         <v>70</v>
       </c>
       <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
         <v>7</v>
       </c>
-      <c r="G116">
-        <v>10</v>
-      </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5147,7 +5171,7 @@
         <v>70</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -5156,21 +5180,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>173</v>
-      </c>
-      <c r="J117" t="s">
-        <v>164</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -5194,21 +5209,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>72</v>
-      </c>
-      <c r="J118" t="s">
-        <v>148</v>
-      </c>
-      <c r="K118">
-        <v>1</v>
-      </c>
-      <c r="L118" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -5223,7 +5229,7 @@
         <v>70</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5232,12 +5238,21 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J119" t="s">
+        <v>164</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>71</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5261,21 +5276,21 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J120" t="s">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5290,7 +5305,7 @@
         <v>70</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5299,21 +5314,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>173</v>
-      </c>
-      <c r="J121" t="s">
-        <v>167</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="14" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5339,10 +5345,19 @@
       <c r="I122" t="s">
         <v>60</v>
       </c>
+      <c r="J122" t="s">
+        <v>199</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5357,7 +5372,7 @@
         <v>70</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -5366,10 +5381,10 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J123" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K123">
         <v>1</v>
@@ -5380,7 +5395,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5395,10 +5410,10 @@
         <v>70</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5409,7 +5424,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5436,7 +5451,7 @@
         <v>60</v>
       </c>
       <c r="J125" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -5447,7 +5462,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5462,30 +5477,21 @@
         <v>70</v>
       </c>
       <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
         <v>7</v>
       </c>
-      <c r="G126">
-        <v>10</v>
-      </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>60</v>
-      </c>
-      <c r="J126" t="s">
-        <v>162</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5500,20 +5506,212 @@
         <v>70</v>
       </c>
       <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
+        <v>10</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>60</v>
+      </c>
+      <c r="J127" t="s">
+        <v>163</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+      <c r="E128">
+        <v>70</v>
+      </c>
+      <c r="F128">
         <v>7</v>
       </c>
-      <c r="G127">
-        <v>10</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-      <c r="I127" t="s">
-        <v>60</v>
+      <c r="G128">
+        <v>10</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>60</v>
+      </c>
+      <c r="J128" t="s">
+        <v>162</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>70</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>212</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>30</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>214</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>215</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L127" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L129" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5525,17 +5723,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I161" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I163" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B109:G127 J1:K2 J130:K1048576 B130:H1048576 B1:H2 K109:K127 J109:J119 J121:J127" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110:G129 J1:K2 J132:K1048576 B132:H1048576 B1:H2 K110:K129 J110:J121 J123:J129" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L167:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L169:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L166 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L168 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4410683D-73AB-456F-8FC2-5CC683734B24}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBA4339-D11A-4881-9D5E-C155374C5834}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
   <si>
     <t>陈</t>
   </si>
@@ -795,6 +795,10 @@
   </si>
   <si>
     <t>2022.08.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARC-Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,8 +1374,8 @@
   <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2399,6 +2403,15 @@
       </c>
       <c r="I31" t="s">
         <v>173</v>
+      </c>
+      <c r="J31" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EBA4339-D11A-4881-9D5E-C155374C5834}"/>
+  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6626337D-CBDF-49F8-BF53-AD2C15F2F73B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="214">
   <si>
     <t>陈</t>
   </si>
@@ -629,9 +629,6 @@
     <t>elite2</t>
   </si>
   <si>
-    <t>elite1</t>
-  </si>
-  <si>
     <t>Operator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,28 +775,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Castle-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正义骑士号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lancet-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THRM-EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.08.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARC-Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elite0</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1244,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1353,13 +1337,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -1371,11 +1355,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L133"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31"/>
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1449,40 +1433,40 @@
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I3" t="s">
-        <v>186</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1549,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1679,7 +1663,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2378,7 +2362,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2405,7 +2389,7 @@
         <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2443,7 +2427,7 @@
         <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2478,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -2510,7 +2494,7 @@
         <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2577,7 +2561,7 @@
         <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3325,7 +3309,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3381,7 +3365,7 @@
         <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K60">
         <v>3</v>
@@ -3533,7 +3517,7 @@
         <v>173</v>
       </c>
       <c r="J64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3660,7 +3644,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3718,7 +3702,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3747,7 +3731,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3997,7 +3981,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4227,7 +4211,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4251,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
@@ -4631,7 +4615,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4928,7 +4912,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -4986,7 +4970,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B111">
         <v>4</v>
@@ -5111,7 +5095,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5332,7 +5316,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5359,7 +5343,7 @@
         <v>60</v>
       </c>
       <c r="J122" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -5408,7 +5392,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5475,7 +5459,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5605,122 +5589,6 @@
       </c>
       <c r="I129" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>212</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-      <c r="C130">
-        <v>6</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>30</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-      <c r="I130" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>213</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>6</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>30</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>214</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>6</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>30</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-      <c r="I132" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>215</v>
-      </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>6</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>30</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-      <c r="I133" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5735,8 +5603,8 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I4:I163" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I134:I163" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110:G129 J1:K2 J132:K1048576 B132:H1048576 B1:H2 K110:K129 J110:J121 J123:J129" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
@@ -5749,6 +5617,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L168 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I133" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+      <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="183" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6626337D-CBDF-49F8-BF53-AD2C15F2F73B}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D826239B-89E1-444B-9A06-7CC2D85E905D}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -775,15 +775,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.08.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ARC-Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>elite0</t>
+  </si>
+  <si>
+    <t>2022.09.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1244,7 +1244,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1357,9 +1357,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C123" sqref="C123"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1981,7 +1981,7 @@
         <v>143</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19" s="14" t="s">
         <v>169</v>
@@ -2389,7 +2389,7 @@
         <v>173</v>
       </c>
       <c r="J31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2462,7 +2462,7 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
@@ -3659,7 +3659,7 @@
         <v>80</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>10</v>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D826239B-89E1-444B-9A06-7CC2D85E905D}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485ECBBA-C09A-4A71-986B-60621E4E4C5B}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
   <si>
     <t>陈</t>
   </si>
@@ -782,7 +782,23 @@
     <t>elite0</t>
   </si>
   <si>
-    <t>2022.09.06</t>
+    <t>玛恩纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野鬃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09.14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1205,7 +1221,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1244,7 +1260,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1355,11 +1371,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L129"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K64" sqref="K64"/>
+      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1817,7 +1833,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>213</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1841,27 +1857,18 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>142</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1880,11 +1887,20 @@
       </c>
       <c r="I16" t="s">
         <v>60</v>
+      </c>
+      <c r="J16" t="s">
+        <v>142</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -1913,7 +1929,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -1937,27 +1953,18 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" t="s">
-        <v>143</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1975,7 +1982,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
         <v>143</v>
@@ -1989,13 +1996,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2013,18 +2020,27 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2042,18 +2058,18 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2071,18 +2087,18 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2100,18 +2116,18 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2132,24 +2148,24 @@
         <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2170,18 +2186,18 @@
         <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2208,24 +2224,24 @@
         <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2244,17 +2260,26 @@
       </c>
       <c r="I27" t="s">
         <v>60</v>
+      </c>
+      <c r="J27" t="s">
+        <v>146</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2275,24 +2300,24 @@
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>214</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2310,10 +2335,10 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2324,13 +2349,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2348,27 +2373,27 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="J30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2386,21 +2411,21 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="J31" t="s">
-        <v>211</v>
+        <v>149</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2424,10 +2449,10 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J32" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2438,13 +2463,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2462,18 +2487,27 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>212</v>
+        <v>60</v>
+      </c>
+      <c r="J33" t="s">
+        <v>191</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2491,27 +2525,18 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" t="s">
-        <v>191</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34" s="14" t="s">
-        <v>169</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2529,18 +2554,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="J35" t="s">
+        <v>191</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2558,27 +2592,18 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" t="s">
-        <v>192</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2596,10 +2621,10 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2610,13 +2635,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2634,18 +2659,27 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2668,7 +2702,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -2692,18 +2726,18 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2723,25 +2757,16 @@
       <c r="I41" t="s">
         <v>173</v>
       </c>
-      <c r="J41" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="14" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2759,18 +2784,27 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>61</v>
+        <v>173</v>
+      </c>
+      <c r="J42" t="s">
+        <v>151</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2793,7 +2827,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2817,27 +2851,18 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" t="s">
-        <v>152</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" s="14" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2858,24 +2883,24 @@
         <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2894,17 +2919,26 @@
       </c>
       <c r="I46" t="s">
         <v>60</v>
+      </c>
+      <c r="J46" t="s">
+        <v>153</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2922,27 +2956,18 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
-      </c>
-      <c r="J47" t="s">
-        <v>154</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2962,10 +2987,19 @@
       <c r="I48" t="s">
         <v>173</v>
       </c>
+      <c r="J48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -2991,19 +3025,10 @@
       <c r="I49" t="s">
         <v>173</v>
       </c>
-      <c r="J49" t="s">
-        <v>155</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="14" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3027,12 +3052,21 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J50" t="s">
+        <v>155</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3057,20 +3091,11 @@
       </c>
       <c r="I51" t="s">
         <v>60</v>
-      </c>
-      <c r="J51" t="s">
-        <v>156</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3094,56 +3119,65 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>90</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>61</v>
+      </c>
+      <c r="J53" t="s">
+        <v>157</v>
+      </c>
+      <c r="K53">
         <v>1</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>90</v>
-      </c>
-      <c r="F53">
-        <v>10</v>
-      </c>
-      <c r="G53">
-        <v>10</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53" t="s">
-        <v>60</v>
+      <c r="L53" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3162,20 +3196,11 @@
       </c>
       <c r="I54" t="s">
         <v>60</v>
-      </c>
-      <c r="J54" t="s">
-        <v>158</v>
-      </c>
-      <c r="K54">
-        <v>1</v>
-      </c>
-      <c r="L54" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3199,13 +3224,13 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J55" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="14" t="s">
         <v>170</v>
@@ -3213,13 +3238,13 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3237,13 +3262,13 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="14" t="s">
         <v>170</v>
@@ -3251,13 +3276,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3276,17 +3301,26 @@
       </c>
       <c r="I57" t="s">
         <v>60</v>
+      </c>
+      <c r="J57" t="s">
+        <v>160</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3304,18 +3338,18 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3333,18 +3367,18 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>193</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3362,21 +3396,12 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>60</v>
-      </c>
-      <c r="J60" t="s">
-        <v>203</v>
-      </c>
-      <c r="K60">
-        <v>3</v>
-      </c>
-      <c r="L60" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3400,10 +3425,10 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="K61">
         <v>3</v>
@@ -3414,51 +3439,51 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62">
         <v>3</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>90</v>
-      </c>
-      <c r="F62">
-        <v>10</v>
-      </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>61</v>
-      </c>
-      <c r="J62" t="s">
-        <v>162</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
       <c r="L62" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3476,10 +3501,10 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
       <c r="J63" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3490,7 +3515,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3517,7 +3542,7 @@
         <v>173</v>
       </c>
       <c r="J64" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3528,13 +3553,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3552,41 +3577,50 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J65" t="s">
+        <v>204</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G66">
         <v>10</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3601,7 +3635,7 @@
         <v>80</v>
       </c>
       <c r="F67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -3610,12 +3644,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3630,7 +3664,7 @@
         <v>80</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -3639,12 +3673,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3659,7 +3693,7 @@
         <v>80</v>
       </c>
       <c r="F69">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -3668,12 +3702,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>173</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3688,7 +3722,7 @@
         <v>80</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>10</v>
@@ -3697,12 +3731,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3720,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -3731,7 +3765,7 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3760,7 +3794,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3778,27 +3812,18 @@
         <v>10</v>
       </c>
       <c r="G73">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>60</v>
-      </c>
-      <c r="J73" t="s">
-        <v>142</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3827,7 +3852,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3842,21 +3867,30 @@
         <v>80</v>
       </c>
       <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
         <v>7</v>
       </c>
-      <c r="G75">
-        <v>10</v>
-      </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>60</v>
+      </c>
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3871,7 +3905,7 @@
         <v>80</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -3885,7 +3919,7 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3900,7 +3934,7 @@
         <v>80</v>
       </c>
       <c r="F77">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -3909,12 +3943,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3929,7 +3963,7 @@
         <v>80</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -3939,20 +3973,11 @@
       </c>
       <c r="I78" t="s">
         <v>60</v>
-      </c>
-      <c r="J78" t="s">
-        <v>141</v>
-      </c>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78" s="14" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -3967,21 +3992,21 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -3996,21 +4021,30 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="J80" t="s">
+        <v>141</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4025,30 +4059,21 @@
         <v>80</v>
       </c>
       <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="G81">
         <v>7</v>
       </c>
-      <c r="G81">
-        <v>10</v>
-      </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81" t="s">
-        <v>150</v>
-      </c>
-      <c r="K81">
-        <v>3</v>
-      </c>
-      <c r="L81" s="14" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4063,27 +4088,27 @@
         <v>80</v>
       </c>
       <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="G82">
         <v>7</v>
       </c>
-      <c r="G82">
-        <v>10</v>
-      </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4101,12 +4126,21 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="J83" t="s">
+        <v>150</v>
+      </c>
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4121,7 +4155,7 @@
         <v>80</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -4130,27 +4164,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>61</v>
-      </c>
-      <c r="J84" t="s">
-        <v>164</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4168,12 +4193,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4191,16 +4216,16 @@
         <v>10</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J86" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4211,7 +4236,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4226,27 +4251,27 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4255,21 +4280,30 @@
         <v>80</v>
       </c>
       <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
         <v>7</v>
       </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="J88" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4284,27 +4318,27 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G89">
         <v>10</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4322,21 +4356,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" t="s">
-        <v>156</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4351,7 +4376,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4360,12 +4385,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4380,27 +4405,36 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>173</v>
+        <v>60</v>
+      </c>
+      <c r="J92" t="s">
+        <v>156</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="14" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4409,7 +4443,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4418,12 +4452,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4438,27 +4472,27 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4481,7 +4515,7 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4496,7 +4530,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4510,7 +4544,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4536,19 +4570,10 @@
       <c r="I97" t="s">
         <v>60</v>
       </c>
-      <c r="J97" t="s">
-        <v>160</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" s="14" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4577,7 +4602,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4601,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J99" t="s">
         <v>160</v>
@@ -4615,7 +4640,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4630,7 +4655,7 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -4639,12 +4664,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4670,16 +4695,25 @@
       <c r="I101" t="s">
         <v>173</v>
       </c>
+      <c r="J101" t="s">
+        <v>160</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4688,7 +4722,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -4699,19 +4733,10 @@
       <c r="I102" t="s">
         <v>173</v>
       </c>
-      <c r="J102" t="s">
-        <v>161</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" s="14" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4726,7 +4751,7 @@
         <v>80</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -4735,27 +4760,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>60</v>
-      </c>
-      <c r="J103" t="s">
-        <v>165</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4773,21 +4789,21 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K104">
         <v>1</v>
       </c>
       <c r="L104" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -4805,7 +4821,7 @@
         <v>10</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4825,7 +4841,7 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4851,10 +4867,19 @@
       <c r="I106" t="s">
         <v>60</v>
       </c>
+      <c r="J106" t="s">
+        <v>162</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4880,16 +4905,25 @@
       <c r="I107" t="s">
         <v>60</v>
       </c>
+      <c r="J107" t="s">
+        <v>165</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="14" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4898,7 +4932,7 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -4907,12 +4941,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>209</v>
+        <v>134</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -4927,36 +4961,36 @@
         <v>80</v>
       </c>
       <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
         <v>7</v>
       </c>
-      <c r="G109">
-        <v>10</v>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
         <v>80</v>
       </c>
-      <c r="B110">
-        <v>4</v>
-      </c>
-      <c r="C110">
-        <v>6</v>
-      </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-      <c r="E110">
-        <v>70</v>
-      </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -4965,15 +4999,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C111">
         <v>6</v>
@@ -4982,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="E111">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F111">
         <v>7</v>
@@ -4999,7 +5033,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -5028,7 +5062,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -5043,7 +5077,7 @@
         <v>70</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5052,21 +5086,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>173</v>
-      </c>
-      <c r="J113" t="s">
-        <v>166</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="14" t="s">
-        <v>170</v>
+        <v>61</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5084,18 +5109,18 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>210</v>
+        <v>66</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5110,7 +5135,7 @@
         <v>70</v>
       </c>
       <c r="F115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -5119,12 +5144,21 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J115" t="s">
+        <v>166</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5153,7 +5187,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5168,7 +5202,7 @@
         <v>70</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -5182,7 +5216,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -5197,21 +5231,21 @@
         <v>70</v>
       </c>
       <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
         <v>7</v>
       </c>
-      <c r="G118">
-        <v>10</v>
-      </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -5226,7 +5260,7 @@
         <v>70</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5235,21 +5269,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>173</v>
-      </c>
-      <c r="J119" t="s">
-        <v>164</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="14" t="s">
-        <v>169</v>
+        <v>61</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5273,21 +5298,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>72</v>
-      </c>
-      <c r="J120" t="s">
-        <v>148</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5302,7 +5318,7 @@
         <v>70</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5311,12 +5327,21 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J121" t="s">
+        <v>164</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5340,21 +5365,21 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="J122" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="K122">
         <v>1</v>
       </c>
       <c r="L122" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5369,7 +5394,7 @@
         <v>70</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -5378,21 +5403,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>173</v>
-      </c>
-      <c r="J123" t="s">
-        <v>167</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" s="14" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5418,10 +5434,19 @@
       <c r="I124" t="s">
         <v>60</v>
       </c>
+      <c r="J124" t="s">
+        <v>198</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="14" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5436,7 +5461,7 @@
         <v>70</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -5445,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="J125" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K125">
         <v>1</v>
@@ -5459,7 +5484,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5474,10 +5499,10 @@
         <v>70</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5488,7 +5513,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5515,7 +5540,7 @@
         <v>60</v>
       </c>
       <c r="J127" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K127">
         <v>1</v>
@@ -5526,7 +5551,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5541,30 +5566,21 @@
         <v>70</v>
       </c>
       <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
         <v>7</v>
       </c>
-      <c r="G128">
-        <v>10</v>
-      </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
         <v>60</v>
       </c>
-      <c r="J128" t="s">
-        <v>162</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5579,20 +5595,96 @@
         <v>70</v>
       </c>
       <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>60</v>
+      </c>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130">
+        <v>70</v>
+      </c>
+      <c r="F130">
         <v>7</v>
       </c>
-      <c r="G129">
-        <v>10</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
+      <c r="G130">
+        <v>10</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>60</v>
+      </c>
+      <c r="J130" t="s">
+        <v>162</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>6</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131">
+        <v>70</v>
+      </c>
+      <c r="F131">
+        <v>7</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L129" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L131" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5604,20 +5696,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I134:I163" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I136:I165" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B110:G129 J1:K2 J132:K1048576 B132:H1048576 B1:H2 K110:K129 J110:J121 J123:J129" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112:G131 J1:K2 J134:K1048576 B134:H1048576 B1:H2 K112:K131 J112:J123 J125:J131" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L169:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L171:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L168 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L170 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I133" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I135" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485ECBBA-C09A-4A71-986B-60621E4E4C5B}"/>
+  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3850F0CA-17E3-470F-AD25-12F595987309}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$132</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
   <si>
     <t>陈</t>
   </si>
@@ -779,26 +779,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>玛恩纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRO-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野鬃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>elite0</t>
   </si>
   <si>
-    <t>玛恩纳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO-Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRO-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野鬃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.09.14</t>
+    <t>罗小黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09.15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1221,7 +1225,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1260,7 +1264,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -1371,11 +1375,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K131" sqref="K131"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1833,7 +1837,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2148,7 +2152,7 @@
         <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2300,7 +2304,7 @@
         <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2525,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -3224,7 +3228,7 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J55" t="s">
         <v>158</v>
@@ -3736,7 +3740,7 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -5216,13 +5220,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5231,7 +5235,7 @@
         <v>70</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118">
         <v>7</v>
@@ -5240,12 +5244,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B119">
         <v>4</v>
@@ -5263,18 +5267,18 @@
         <v>10</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5289,7 +5293,7 @@
         <v>70</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -5298,12 +5302,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5327,21 +5331,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>173</v>
-      </c>
-      <c r="J121" t="s">
-        <v>164</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="14" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5365,10 +5360,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="J122" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -5379,7 +5374,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5394,7 +5389,7 @@
         <v>70</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -5403,12 +5398,21 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="J123" t="s">
+        <v>148</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5423,7 +5427,7 @@
         <v>70</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5433,20 +5437,11 @@
       </c>
       <c r="I124" t="s">
         <v>60</v>
-      </c>
-      <c r="J124" t="s">
-        <v>198</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="14" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5470,21 +5465,21 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="J125" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5508,12 +5503,21 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>60</v>
+        <v>173</v>
+      </c>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5528,7 +5532,7 @@
         <v>70</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5538,20 +5542,11 @@
       </c>
       <c r="I127" t="s">
         <v>60</v>
-      </c>
-      <c r="J127" t="s">
-        <v>158</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5569,18 +5564,27 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
         <v>60</v>
+      </c>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>77</v>
+        <v>208</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5598,27 +5602,18 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>60</v>
-      </c>
-      <c r="J129" t="s">
-        <v>163</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="14" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5633,7 +5628,7 @@
         <v>70</v>
       </c>
       <c r="F130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5645,10 +5640,10 @@
         <v>60</v>
       </c>
       <c r="J130" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L130" s="14" t="s">
         <v>170</v>
@@ -5656,7 +5651,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5682,9 +5677,47 @@
       <c r="I131" t="s">
         <v>60</v>
       </c>
+      <c r="J131" t="s">
+        <v>162</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132">
+        <v>6</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="E132">
+        <v>70</v>
+      </c>
+      <c r="F132">
+        <v>7</v>
+      </c>
+      <c r="G132">
+        <v>10</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L131" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L132" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5696,20 +5729,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I136:I165" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I137:I166" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112:G131 J1:K2 J134:K1048576 B134:H1048576 B1:H2 K112:K131 J112:J123 J125:J131" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112:G132 J1:K2 J135:K1048576 B135:H1048576 B1:H2 K112:K132 J112:J124 J126:J132" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L171:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L172:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L170 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L171 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I135" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I136" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="260" documentId="13_ncr:1_{065D8744-4995-44AA-AC03-607167F9895B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3850F0CA-17E3-470F-AD25-12F595987309}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFA8C33-CAEC-4549-B7DE-8AA390DCED02}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$135</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="223">
   <si>
     <t>陈</t>
   </si>
@@ -208,19 +206,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有就填1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>记得填第二页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主头像使用：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四五星一技能填0右对齐，三技能填0左对齐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -610,10 +600,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不填表示随机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
@@ -779,6 +765,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>elite0</t>
+  </si>
+  <si>
     <t>玛恩纳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -795,14 +784,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elite0</t>
+    <t>四五星三技能填0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不填则随机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>罗小黑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.09.15</t>
+    <t>泡泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.09.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒芒克洛丝</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +878,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +894,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,28 +925,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,8 +938,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1222,36 +1242,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9296875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.9296875" style="2"/>
+    <col min="1" max="1" width="20.46484375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.53125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>136</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="2">
         <v>1618440</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1259,31 +1285,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1291,15 +1317,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="2">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1307,23 +1333,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1331,7 +1357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1339,34 +1365,37 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2">
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1375,60 +1404,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J117" sqref="J117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" customWidth="1"/>
+    <col min="1" max="1" width="19.1328125" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.9296875" style="14"/>
+    <col min="12" max="12" width="8.86328125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C1" s="16"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
-      <c r="I1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="11" t="s">
-        <v>168</v>
+      <c r="I1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="6">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="5">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5">
         <v>3</v>
       </c>
       <c r="D2" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>90</v>
       </c>
       <c r="F2" s="3">
@@ -1440,58 +1471,60 @@
       <c r="H2" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="6">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="12" t="s">
+      <c r="I2" s="5" t="s">
         <v>170</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="I3" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1515,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1544,16 +1577,16 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="14" t="s">
-        <v>189</v>
+      <c r="L5" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1582,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1611,12 +1644,12 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1640,12 +1673,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -1669,21 +1702,21 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>169</v>
+      <c r="L9" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -1707,7 +1740,7 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1736,16 +1769,16 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>169</v>
+      <c r="L11" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
@@ -1774,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
@@ -1803,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
@@ -1832,18 +1865,18 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1861,7 +1894,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
@@ -1890,16 +1923,16 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>169</v>
+      <c r="L16" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
@@ -1928,7 +1961,7 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
@@ -1957,7 +1990,7 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
@@ -1986,16 +2019,16 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K19">
         <v>3</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>169</v>
+      <c r="L19" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -2024,16 +2057,16 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K20">
         <v>3</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>169</v>
+      <c r="L20" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
@@ -2062,12 +2095,12 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2091,7 +2124,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
@@ -2120,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
@@ -2149,16 +2182,16 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>172</v>
+      <c r="L24" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
@@ -2187,21 +2220,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>171</v>
+      <c r="L25" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2225,21 +2258,21 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>170</v>
+      <c r="L26" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2263,21 +2296,21 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>172</v>
+      <c r="L27" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2301,16 +2334,16 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>170</v>
+      <c r="L28" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
@@ -2339,21 +2372,21 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>169</v>
+      <c r="L29" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2377,16 +2410,16 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J30" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>169</v>
+      <c r="L30" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
@@ -2415,21 +2448,21 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>170</v>
+      <c r="L31" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2453,16 +2486,16 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>169</v>
+      <c r="L32" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
@@ -2491,21 +2524,21 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>169</v>
+      <c r="L33" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2529,7 +2562,7 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
@@ -2558,16 +2591,16 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K35">
         <v>3</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>169</v>
+      <c r="L35" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
@@ -2596,7 +2629,7 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
@@ -2625,21 +2658,21 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37" s="14" t="s">
-        <v>169</v>
+      <c r="L37" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2663,21 +2696,21 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38" s="14" t="s">
-        <v>169</v>
+      <c r="L38" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2701,7 +2734,7 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
@@ -2712,7 +2745,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2730,12 +2763,12 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -2759,12 +2792,12 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -2788,16 +2821,16 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42" s="14" t="s">
-        <v>169</v>
+      <c r="L42" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
@@ -2826,12 +2859,12 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2855,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
@@ -2884,16 +2917,16 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45" s="14" t="s">
-        <v>170</v>
+      <c r="L45" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
@@ -2922,16 +2955,16 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46" s="14" t="s">
-        <v>169</v>
+      <c r="L46" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
@@ -2960,7 +2993,7 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
@@ -2989,16 +3022,16 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48" s="14" t="s">
-        <v>169</v>
+      <c r="L48" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
@@ -3027,12 +3060,12 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3056,16 +3089,16 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50" s="14" t="s">
-        <v>171</v>
+      <c r="L50" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
@@ -3094,7 +3127,7 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
@@ -3123,16 +3156,16 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52" s="14" t="s">
-        <v>171</v>
+      <c r="L52" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
@@ -3161,16 +3194,16 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53" s="14" t="s">
-        <v>170</v>
+      <c r="L53" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
@@ -3181,7 +3214,7 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3199,7 +3232,7 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
@@ -3228,21 +3261,21 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55" s="14" t="s">
-        <v>170</v>
+      <c r="L55" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3266,16 +3299,16 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J56" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K56">
         <v>3</v>
       </c>
-      <c r="L56" s="14" t="s">
-        <v>170</v>
+      <c r="L56" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
@@ -3304,16 +3337,16 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57" s="14" t="s">
-        <v>170</v>
+      <c r="L57" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
@@ -3342,7 +3375,7 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
@@ -3371,12 +3404,12 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3400,7 +3433,7 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
@@ -3429,21 +3462,21 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K61">
         <v>3</v>
       </c>
-      <c r="L61" s="14" t="s">
-        <v>169</v>
+      <c r="L61" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3467,16 +3500,16 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J62" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K62">
         <v>3</v>
       </c>
-      <c r="L62" s="14" t="s">
-        <v>169</v>
+      <c r="L62" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
@@ -3505,21 +3538,21 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63" s="14" t="s">
-        <v>170</v>
+      <c r="L63" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3543,16 +3576,16 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J64" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64" s="14" t="s">
-        <v>170</v>
+      <c r="L64" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
@@ -3581,16 +3614,16 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J65" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65" s="14" t="s">
-        <v>170</v>
+      <c r="L65" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
@@ -3619,12 +3652,12 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3648,12 +3681,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3677,12 +3710,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3706,12 +3739,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3735,12 +3768,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3764,12 +3797,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3793,12 +3826,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3822,12 +3855,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3851,12 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3880,21 +3913,21 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75" s="14" t="s">
-        <v>169</v>
+      <c r="L75" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3918,12 +3951,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3947,12 +3980,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -3976,12 +4009,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4005,12 +4038,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4034,21 +4067,21 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80" s="14" t="s">
-        <v>169</v>
+      <c r="L80" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4072,12 +4105,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4101,12 +4134,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4130,21 +4163,21 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K83">
         <v>3</v>
       </c>
-      <c r="L83" s="14" t="s">
-        <v>169</v>
+      <c r="L83" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4168,18 +4201,18 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4197,18 +4230,18 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4217,7 +4250,7 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -4226,21 +4259,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>61</v>
-      </c>
-      <c r="J86" t="s">
-        <v>164</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4255,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -4264,12 +4288,21 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="J87" t="s">
+        <v>162</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4284,30 +4317,21 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>60</v>
-      </c>
-      <c r="J88" t="s">
-        <v>148</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="14" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4325,24 +4349,33 @@
         <v>10</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>207</v>
+        <v>58</v>
+      </c>
+      <c r="J89" t="s">
+        <v>146</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4351,27 +4384,27 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4389,12 +4422,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4418,21 +4451,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" t="s">
-        <v>156</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="14" t="s">
-        <v>171</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4447,7 +4471,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4456,12 +4480,21 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="J93" t="s">
+        <v>154</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4479,24 +4512,24 @@
         <v>10</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4505,27 +4538,27 @@
         <v>80</v>
       </c>
       <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>10</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4534,7 +4567,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4543,12 +4576,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4563,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4572,12 +4605,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4592,7 +4625,7 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -4601,12 +4634,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4621,7 +4654,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -4630,21 +4663,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J99" t="s">
-        <v>160</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99" s="14" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4659,7 +4683,7 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -4668,12 +4692,21 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="J100" t="s">
+        <v>158</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4688,7 +4721,7 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -4697,21 +4730,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>173</v>
-      </c>
-      <c r="J101" t="s">
-        <v>160</v>
-      </c>
-      <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" s="14" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4735,12 +4759,21 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="J102" t="s">
+        <v>158</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4764,18 +4797,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4784,7 +4817,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -4793,27 +4826,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>173</v>
-      </c>
-      <c r="J104" t="s">
-        <v>161</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4831,21 +4855,21 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="J105" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
-      <c r="L105" s="14" t="s">
-        <v>169</v>
+      <c r="L105" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4869,21 +4893,21 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J106" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
-      <c r="L106" s="14" t="s">
-        <v>170</v>
+      <c r="L106" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4901,27 +4925,27 @@
         <v>10</v>
       </c>
       <c r="G107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J107" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="K107">
         <v>1</v>
       </c>
-      <c r="L107" s="14" t="s">
-        <v>169</v>
+      <c r="L107" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -4939,18 +4963,27 @@
         <v>10</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="J108" t="s">
+        <v>163</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -4968,24 +5001,24 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -4994,27 +5027,27 @@
         <v>80</v>
       </c>
       <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
         <v>7</v>
       </c>
-      <c r="G110">
-        <v>10</v>
-      </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>173</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5032,27 +5065,27 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
         <v>80</v>
       </c>
-      <c r="B112">
-        <v>4</v>
-      </c>
-      <c r="C112">
-        <v>6</v>
-      </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="E112">
-        <v>70</v>
-      </c>
       <c r="F112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -5061,12 +5094,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>196</v>
+        <v>78</v>
       </c>
       <c r="B113">
         <v>4</v>
@@ -5081,7 +5114,7 @@
         <v>70</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5090,12 +5123,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="B114">
         <v>4</v>
@@ -5110,7 +5143,7 @@
         <v>70</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -5119,12 +5152,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B115">
         <v>4</v>
@@ -5148,21 +5181,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>173</v>
-      </c>
-      <c r="J115" t="s">
-        <v>166</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="14" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B116">
         <v>4</v>
@@ -5180,18 +5204,27 @@
         <v>10</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>173</v>
+        <v>170</v>
+      </c>
+      <c r="J116" t="s">
+        <v>164</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="B117">
         <v>4</v>
@@ -5206,27 +5239,27 @@
         <v>70</v>
       </c>
       <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
         <v>7</v>
       </c>
-      <c r="G117">
-        <v>10</v>
-      </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B118">
         <v>4</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5238,24 +5271,24 @@
         <v>7</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5273,12 +5306,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5296,18 +5329,18 @@
         <v>10</v>
       </c>
       <c r="G120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5322,7 +5355,7 @@
         <v>70</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5331,12 +5364,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5360,21 +5393,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>173</v>
-      </c>
-      <c r="J122" t="s">
-        <v>164</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" s="14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5398,21 +5422,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>72</v>
-      </c>
-      <c r="J123" t="s">
-        <v>148</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" s="14" t="s">
-        <v>169</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B124">
         <v>4</v>
@@ -5427,7 +5442,7 @@
         <v>70</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5436,12 +5451,21 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>60</v>
+        <v>170</v>
+      </c>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>69</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5465,21 +5489,21 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J125" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
-      <c r="L125" s="14" t="s">
-        <v>171</v>
+      <c r="L125" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5494,7 +5518,7 @@
         <v>70</v>
       </c>
       <c r="F126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -5503,21 +5527,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>173</v>
-      </c>
-      <c r="J126" t="s">
-        <v>167</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" s="14" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5541,12 +5556,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="J127" t="s">
+        <v>195</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5561,7 +5585,7 @@
         <v>70</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -5570,21 +5594,21 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="J128" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
-      <c r="L128" s="14" t="s">
-        <v>170</v>
+      <c r="L128" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5599,21 +5623,21 @@
         <v>70</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5637,21 +5661,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J130" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K130">
         <v>1</v>
       </c>
-      <c r="L130" s="14" t="s">
-        <v>170</v>
+      <c r="L130" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5666,30 +5690,21 @@
         <v>70</v>
       </c>
       <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
         <v>7</v>
       </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>60</v>
-      </c>
-      <c r="J131" t="s">
-        <v>162</v>
-      </c>
-      <c r="K131">
-        <v>3</v>
-      </c>
-      <c r="L131" s="14" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5713,11 +5728,116 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>6</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>70</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
+        <v>10</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>58</v>
+      </c>
+      <c r="J133" t="s">
+        <v>161</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>6</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="E134">
+        <v>70</v>
+      </c>
+      <c r="F134">
+        <v>7</v>
+      </c>
+      <c r="G134">
+        <v>10</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>58</v>
+      </c>
+      <c r="J134" t="s">
+        <v>160</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>77</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135">
+        <v>6</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>70</v>
+      </c>
+      <c r="F135">
+        <v>7</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L132" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5728,22 +5848,38 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2 I137:I166" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I140:I169" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B112:G132 J1:K2 J135:K1048576 B135:H1048576 B1:H2 K112:K132 J112:J124 J126:J132" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L172:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L175:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L171 L2" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L174" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I136" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I139" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
+      <formula1>1</formula1>
+      <formula2>3</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576 B4:B1048576" xr:uid="{84D7772C-943A-4833-B43B-BB959E902FB7}">
+      <formula1>1</formula1>
+      <formula2>6</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{46303865-9221-42EA-9065-EB26DEDCE8DA}">
+      <formula1>0</formula1>
+      <formula2>2</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:H1048576" xr:uid="{67FDEC12-179C-4A76-8A0E-A070B04D1D5E}">
+      <formula1>0</formula1>
+      <formula2>10</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AFA8C33-CAEC-4549-B7DE-8AA390DCED02}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F67A4D5-1A13-4300-B98F-37F640365348}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16370" yWindow="7930" windowWidth="14840" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$140</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
   <si>
     <t>陈</t>
   </si>
@@ -812,11 +812,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.09.23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒芒克洛丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九色鹿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食铁兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见行者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海沫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1290,7 +1318,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1404,11 +1432,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F84" sqref="F84"/>
+      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2106,7 +2134,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2573,7 +2601,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2716,7 +2744,7 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3062,6 +3090,15 @@
       <c r="I49" t="s">
         <v>170</v>
       </c>
+      <c r="J49" t="s">
+        <v>226</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
@@ -3129,6 +3166,15 @@
       <c r="I51" t="s">
         <v>58</v>
       </c>
+      <c r="J51" t="s">
+        <v>227</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
@@ -3208,7 +3254,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3232,18 +3278,18 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3262,20 +3308,11 @@
       </c>
       <c r="I55" t="s">
         <v>58</v>
-      </c>
-      <c r="J55" t="s">
-        <v>156</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3299,13 +3336,13 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>167</v>
@@ -3313,13 +3350,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3337,13 +3374,13 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>167</v>
@@ -3351,13 +3388,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3376,17 +3413,26 @@
       </c>
       <c r="I58" t="s">
         <v>58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3404,18 +3450,18 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3433,18 +3479,18 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3462,21 +3508,12 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
-      </c>
-      <c r="J61" t="s">
-        <v>200</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3500,10 +3537,10 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="K62">
         <v>3</v>
@@ -3514,51 +3551,51 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>170</v>
+      </c>
+      <c r="J63" t="s">
+        <v>159</v>
+      </c>
+      <c r="K63">
         <v>3</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>90</v>
-      </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>59</v>
-      </c>
-      <c r="J63" t="s">
-        <v>160</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
       <c r="L63" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3576,10 +3613,10 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3590,7 +3627,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3614,10 +3651,10 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3628,13 +3665,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3652,41 +3689,50 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J66" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G67">
         <v>10</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -3701,7 +3747,7 @@
         <v>80</v>
       </c>
       <c r="F68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G68">
         <v>10</v>
@@ -3710,12 +3756,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -3730,7 +3776,7 @@
         <v>80</v>
       </c>
       <c r="F69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G69">
         <v>10</v>
@@ -3739,12 +3785,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -3759,7 +3805,7 @@
         <v>80</v>
       </c>
       <c r="F70">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G70">
         <v>10</v>
@@ -3768,12 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3791,18 +3837,18 @@
         <v>10</v>
       </c>
       <c r="G71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3817,10 +3863,10 @@
         <v>80</v>
       </c>
       <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
         <v>7</v>
-      </c>
-      <c r="G72">
-        <v>10</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3831,7 +3877,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3846,7 +3892,7 @@
         <v>80</v>
       </c>
       <c r="F73">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G73">
         <v>10</v>
@@ -3855,12 +3901,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3875,7 +3921,7 @@
         <v>80</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>10</v>
@@ -3884,12 +3930,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3904,30 +3950,21 @@
         <v>80</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
         <v>58</v>
-      </c>
-      <c r="J75" t="s">
-        <v>140</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3942,21 +3979,30 @@
         <v>80</v>
       </c>
       <c r="F76">
+        <v>10</v>
+      </c>
+      <c r="G76">
         <v>7</v>
       </c>
-      <c r="G76">
-        <v>10</v>
-      </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>58</v>
+      </c>
+      <c r="J76" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -3971,21 +4017,21 @@
         <v>80</v>
       </c>
       <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
         <v>7</v>
       </c>
-      <c r="G77">
-        <v>10</v>
-      </c>
       <c r="H77">
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4000,7 +4046,7 @@
         <v>80</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -4014,7 +4060,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4029,7 +4075,7 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -4043,7 +4089,7 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4058,7 +4104,7 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -4068,20 +4114,11 @@
       </c>
       <c r="I80" t="s">
         <v>58</v>
-      </c>
-      <c r="J80" t="s">
-        <v>139</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4099,18 +4136,18 @@
         <v>10</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>191</v>
+        <v>106</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4125,21 +4162,30 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4154,30 +4200,21 @@
         <v>80</v>
       </c>
       <c r="F83">
+        <v>10</v>
+      </c>
+      <c r="G83">
         <v>7</v>
       </c>
-      <c r="G83">
-        <v>10</v>
-      </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
-      </c>
-      <c r="J83" t="s">
-        <v>148</v>
-      </c>
-      <c r="K83">
-        <v>3</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4192,21 +4229,21 @@
         <v>80</v>
       </c>
       <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
         <v>7</v>
       </c>
-      <c r="G84">
-        <v>10</v>
-      </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4221,7 +4258,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4230,18 +4267,27 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J85" t="s">
+        <v>148</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>5</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4259,12 +4305,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4279,7 +4325,7 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -4288,10 +4334,10 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J87" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -4302,7 +4348,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4326,12 +4372,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4349,16 +4395,16 @@
         <v>10</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J89" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4369,7 +4415,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4384,27 +4430,27 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4413,21 +4459,30 @@
         <v>80</v>
       </c>
       <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J91" t="s">
+        <v>146</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>203</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4442,27 +4497,27 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4482,19 +4537,10 @@
       <c r="I93" t="s">
         <v>58</v>
       </c>
-      <c r="J93" t="s">
-        <v>154</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4509,7 +4555,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4518,12 +4564,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4538,27 +4584,36 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J95" t="s">
+        <v>154</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4567,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4576,12 +4631,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4596,27 +4651,27 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
       <c r="C98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4639,7 +4694,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4654,7 +4709,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -4668,7 +4723,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4694,25 +4749,16 @@
       <c r="I100" t="s">
         <v>58</v>
       </c>
-      <c r="J100" t="s">
-        <v>158</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -4721,7 +4767,7 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -4730,12 +4776,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4750,7 +4796,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -4759,21 +4805,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>170</v>
-      </c>
-      <c r="J102" t="s">
-        <v>158</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4797,12 +4834,21 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J103" t="s">
+        <v>158</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -4817,7 +4863,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -4826,18 +4872,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -4846,7 +4892,7 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -4858,18 +4904,18 @@
         <v>170</v>
       </c>
       <c r="J105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K105">
         <v>1</v>
       </c>
       <c r="L105" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4884,7 +4930,7 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -4893,21 +4939,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
-      </c>
-      <c r="J106" t="s">
-        <v>163</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4922,7 +4959,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -4931,27 +4968,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>58</v>
-      </c>
-      <c r="J107" t="s">
-        <v>160</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4963,7 +4991,7 @@
         <v>10</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -4972,7 +5000,7 @@
         <v>58</v>
       </c>
       <c r="J108" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K108">
         <v>1</v>
@@ -4983,7 +5011,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5009,10 +5037,19 @@
       <c r="I109" t="s">
         <v>58</v>
       </c>
+      <c r="J109" t="s">
+        <v>163</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5030,24 +5067,33 @@
         <v>10</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
         <v>58</v>
+      </c>
+      <c r="J110" t="s">
+        <v>160</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5056,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5070,7 +5116,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5085,24 +5131,33 @@
         <v>80</v>
       </c>
       <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
         <v>7</v>
       </c>
-      <c r="G112">
-        <v>10</v>
-      </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J112" t="s">
+        <v>163</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -5111,7 +5166,7 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -5128,10 +5183,10 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B114">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -5140,27 +5195,27 @@
         <v>2</v>
       </c>
       <c r="E114">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
         <v>7</v>
       </c>
-      <c r="G114">
-        <v>10</v>
-      </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="B115">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -5169,10 +5224,10 @@
         <v>2</v>
       </c>
       <c r="E115">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -5181,27 +5236,27 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5212,22 +5267,13 @@
       <c r="I116" t="s">
         <v>170</v>
       </c>
-      <c r="J116" t="s">
-        <v>164</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="B117">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -5236,24 +5282,24 @@
         <v>2</v>
       </c>
       <c r="E117">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B118">
         <v>4</v>
@@ -5268,7 +5314,7 @@
         <v>70</v>
       </c>
       <c r="F118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -5282,13 +5328,13 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5297,21 +5343,21 @@
         <v>70</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B120">
         <v>4</v>
@@ -5329,18 +5375,18 @@
         <v>10</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5364,12 +5410,21 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J121" t="s">
+        <v>164</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5384,10 +5439,10 @@
         <v>70</v>
       </c>
       <c r="F122">
+        <v>10</v>
+      </c>
+      <c r="G122">
         <v>7</v>
-      </c>
-      <c r="G122">
-        <v>10</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -5398,7 +5453,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5427,13 +5482,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5442,10 +5497,10 @@
         <v>70</v>
       </c>
       <c r="F124">
+        <v>10</v>
+      </c>
+      <c r="G124">
         <v>7</v>
-      </c>
-      <c r="G124">
-        <v>10</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5453,19 +5508,10 @@
       <c r="I124" t="s">
         <v>170</v>
       </c>
-      <c r="J124" t="s">
-        <v>162</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5480,30 +5526,21 @@
         <v>70</v>
       </c>
       <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
         <v>7</v>
       </c>
-      <c r="G125">
-        <v>10</v>
-      </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>70</v>
-      </c>
-      <c r="J125" t="s">
-        <v>146</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5527,12 +5564,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B127">
         <v>4</v>
@@ -5556,21 +5593,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
-      </c>
-      <c r="J127" t="s">
-        <v>195</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5594,21 +5622,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>170</v>
-      </c>
-      <c r="J128" t="s">
-        <v>165</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5632,12 +5651,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J129" t="s">
+        <v>162</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5652,7 +5680,7 @@
         <v>70</v>
       </c>
       <c r="F130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5661,21 +5689,21 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J130" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="K130">
         <v>1</v>
       </c>
       <c r="L130" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5693,7 +5721,7 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -5704,7 +5732,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5719,7 +5747,7 @@
         <v>70</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -5728,12 +5756,21 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J132" t="s">
+        <v>195</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5748,7 +5785,7 @@
         <v>70</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -5757,10 +5794,10 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J133" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K133">
         <v>1</v>
@@ -5771,7 +5808,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5797,19 +5834,10 @@
       <c r="I134" t="s">
         <v>58</v>
       </c>
-      <c r="J134" t="s">
-        <v>160</v>
-      </c>
-      <c r="K134">
-        <v>3</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5824,20 +5852,192 @@
         <v>70</v>
       </c>
       <c r="F135">
+        <v>10</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>58</v>
+      </c>
+      <c r="J135" t="s">
+        <v>156</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>70</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
         <v>7</v>
       </c>
-      <c r="G135">
-        <v>10</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-      <c r="I135" t="s">
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137">
+        <v>6</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>70</v>
+      </c>
+      <c r="F137">
+        <v>7</v>
+      </c>
+      <c r="G137">
+        <v>10</v>
+      </c>
+      <c r="H137">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>75</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138">
+        <v>6</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="E138">
+        <v>70</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+      <c r="G138">
+        <v>10</v>
+      </c>
+      <c r="H138">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>58</v>
+      </c>
+      <c r="J138" t="s">
+        <v>161</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>76</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139">
+        <v>70</v>
+      </c>
+      <c r="F139">
+        <v>7</v>
+      </c>
+      <c r="G139">
+        <v>10</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>58</v>
+      </c>
+      <c r="J139" t="s">
+        <v>160</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140">
+        <v>70</v>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>10</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L135" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L140" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -5849,35 +6049,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I140:I169" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I145:I174" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L180:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+      <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E1048576 E4:E114" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L175:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
-      <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L174" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L115:L179 L4:L114" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I139" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I115:I144 I4:I114" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K115:K1048576 K4:K114" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576 B4:B1048576" xr:uid="{84D7772C-943A-4833-B43B-BB959E902FB7}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C114 B115:C1048576" xr:uid="{84D7772C-943A-4833-B43B-BB959E902FB7}">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{46303865-9221-42EA-9065-EB26DEDCE8DA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D115:D1048576 D4:D114" xr:uid="{46303865-9221-42EA-9065-EB26DEDCE8DA}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:H1048576" xr:uid="{67FDEC12-179C-4A76-8A0E-A070B04D1D5E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F115:H1048576 F4:H114" xr:uid="{67FDEC12-179C-4A76-8A0E-A070B04D1D5E}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F67A4D5-1A13-4300-B98F-37F640365348}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCAF7B8-75B4-4DE8-92AB-0A0597D22A8A}"/>
   <bookViews>
-    <workbookView xWindow="-16370" yWindow="7930" windowWidth="14840" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
@@ -1435,8 +1435,8 @@
   <dimension ref="A1:L140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5986,7 +5986,7 @@
         <v>70</v>
       </c>
       <c r="F139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G139">
         <v>10</v>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BCAF7B8-75B4-4DE8-92AB-0A0597D22A8A}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556F8635-7BD5-4E03-B5F7-44E2418F5BB5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="11596" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12435" yWindow="540" windowWidth="14843" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$143</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="235">
   <si>
     <t>陈</t>
   </si>
@@ -844,7 +844,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.10.17</t>
+    <t>SOL-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOL-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥罪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缄默德克萨斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.11.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1318,7 +1338,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1432,11 +1452,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L140"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1578,6 +1598,15 @@
       <c r="I4" t="s">
         <v>170</v>
       </c>
+      <c r="J4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1625,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1648,7 +1677,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>231</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1663,27 +1692,27 @@
         <v>90</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -1701,18 +1730,27 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>230</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1730,27 +1768,27 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1770,16 +1808,25 @@
       <c r="I10" t="s">
         <v>170</v>
       </c>
+      <c r="J10" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1797,56 +1844,56 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" t="s">
-        <v>139</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>90</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12" t="s">
-        <v>58</v>
+      <c r="L12" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1869,13 +1916,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1898,7 +1945,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1922,19 +1969,19 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -1951,27 +1998,18 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>140</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1989,12 +2027,21 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2023,7 +2070,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -2047,27 +2094,18 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2085,7 +2123,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
         <v>141</v>
@@ -2099,13 +2137,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2123,18 +2161,27 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2152,18 +2199,18 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2172,21 +2219,21 @@
         <v>90</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2210,21 +2257,12 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" t="s">
-        <v>212</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2248,27 +2286,18 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2289,24 +2318,24 @@
         <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="K26">
         <v>1</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2327,24 +2356,24 @@
         <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2365,7 +2394,7 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2376,13 +2405,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2403,24 +2432,24 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2438,27 +2467,27 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2476,27 +2505,27 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2517,7 +2546,7 @@
         <v>170</v>
       </c>
       <c r="J32" t="s">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2528,13 +2557,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2552,27 +2581,27 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J33" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2590,18 +2619,27 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>170</v>
+      </c>
+      <c r="J34" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2625,7 +2663,7 @@
         <v>188</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
         <v>166</v>
@@ -2633,13 +2671,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2657,18 +2695,18 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2689,10 +2727,10 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>166</v>
@@ -2700,7 +2738,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2724,27 +2762,18 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>170</v>
-      </c>
-      <c r="J38" t="s">
-        <v>148</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2763,17 +2792,26 @@
       </c>
       <c r="I39" t="s">
         <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>189</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2791,18 +2829,27 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J40" t="s">
+        <v>148</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2820,18 +2867,18 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2849,27 +2896,18 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
-      </c>
-      <c r="J42" t="s">
-        <v>149</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2887,18 +2925,18 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2916,18 +2954,27 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J44" t="s">
+        <v>149</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2945,27 +2992,18 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" t="s">
-        <v>150</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -2983,21 +3021,12 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" t="s">
-        <v>151</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3022,17 +3051,26 @@
       </c>
       <c r="I47" t="s">
         <v>58</v>
+      </c>
+      <c r="J47" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3050,10 +3088,10 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3064,7 +3102,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -3088,27 +3126,18 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>170</v>
-      </c>
-      <c r="J49" t="s">
-        <v>226</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3126,21 +3155,21 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -3164,10 +3193,10 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3178,7 +3207,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3202,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3216,7 +3245,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3240,27 +3269,27 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3278,18 +3307,27 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J54" t="s">
+        <v>154</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3307,18 +3345,27 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J55" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3336,27 +3383,18 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
-      </c>
-      <c r="J56" t="s">
-        <v>156</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3374,27 +3412,18 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>170</v>
-      </c>
-      <c r="J57" t="s">
-        <v>157</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3415,7 +3444,7 @@
         <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3426,7 +3455,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3450,18 +3479,27 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J59" t="s">
+        <v>157</v>
+      </c>
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3479,18 +3517,27 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
+        <v>158</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3508,18 +3555,18 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3537,27 +3584,18 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
-      </c>
-      <c r="J62" t="s">
-        <v>200</v>
-      </c>
-      <c r="K62">
-        <v>3</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3577,63 +3615,54 @@
       <c r="I63" t="s">
         <v>170</v>
       </c>
-      <c r="J63" t="s">
-        <v>159</v>
-      </c>
-      <c r="K63">
-        <v>3</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>58</v>
+      </c>
+      <c r="J64" t="s">
+        <v>200</v>
+      </c>
+      <c r="K64">
         <v>3</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>90</v>
-      </c>
-      <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
-        <v>59</v>
-      </c>
-      <c r="J64" t="s">
-        <v>160</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
       <c r="L64" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3651,27 +3680,27 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J65" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3680,10 +3709,10 @@
         <v>90</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66">
         <v>10</v>
@@ -3692,24 +3721,24 @@
         <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3727,53 +3756,71 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J67" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>161</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -3782,44 +3829,53 @@
         <v>10</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J69" t="s">
+        <v>201</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G70">
         <v>10</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -3834,7 +3890,7 @@
         <v>80</v>
       </c>
       <c r="F71">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G71">
         <v>10</v>
@@ -3843,12 +3899,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -3866,7 +3922,7 @@
         <v>10</v>
       </c>
       <c r="G72">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3877,7 +3933,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3901,12 +3957,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3935,7 +3991,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -3950,10 +4006,10 @@
         <v>80</v>
       </c>
       <c r="F75">
+        <v>10</v>
+      </c>
+      <c r="G75">
         <v>7</v>
-      </c>
-      <c r="G75">
-        <v>10</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -3964,7 +4020,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -3979,30 +4035,21 @@
         <v>80</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H76">
         <v>0</v>
       </c>
       <c r="I76" t="s">
         <v>58</v>
-      </c>
-      <c r="J76" t="s">
-        <v>140</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4020,7 +4067,7 @@
         <v>10</v>
       </c>
       <c r="G77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -4031,7 +4078,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4060,7 +4107,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4075,21 +4122,30 @@
         <v>80</v>
       </c>
       <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>58</v>
+      </c>
+      <c r="J79" t="s">
+        <v>140</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4107,18 +4163,18 @@
         <v>10</v>
       </c>
       <c r="G80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4133,7 +4189,7 @@
         <v>80</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -4147,7 +4203,7 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4173,19 +4229,10 @@
       <c r="I82" t="s">
         <v>58</v>
       </c>
-      <c r="J82" t="s">
-        <v>139</v>
-      </c>
-      <c r="K82">
-        <v>1</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4203,18 +4250,18 @@
         <v>10</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>191</v>
+        <v>105</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4232,18 +4279,18 @@
         <v>10</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4258,7 +4305,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4270,10 +4317,10 @@
         <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>166</v>
@@ -4281,7 +4328,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4296,21 +4343,21 @@
         <v>80</v>
       </c>
       <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
         <v>7</v>
       </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4325,10 +4372,10 @@
         <v>80</v>
       </c>
       <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
         <v>7</v>
-      </c>
-      <c r="G87">
-        <v>10</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4336,19 +4383,10 @@
       <c r="I87" t="s">
         <v>170</v>
       </c>
-      <c r="J87" t="s">
-        <v>189</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4363,7 +4401,7 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -4372,12 +4410,21 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J88" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4392,7 +4439,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4401,21 +4448,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>59</v>
-      </c>
-      <c r="J89" t="s">
-        <v>162</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4439,12 +4477,21 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J90" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4459,30 +4506,21 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
-      </c>
-      <c r="J91" t="s">
-        <v>146</v>
-      </c>
-      <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4503,21 +4541,30 @@
         <v>10</v>
       </c>
       <c r="H92">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>204</v>
+        <v>59</v>
+      </c>
+      <c r="J92" t="s">
+        <v>162</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4540,7 +4587,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4555,21 +4602,30 @@
         <v>80</v>
       </c>
       <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94">
         <v>7</v>
       </c>
-      <c r="G94">
-        <v>10</v>
-      </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
         <v>58</v>
+      </c>
+      <c r="J94" t="s">
+        <v>146</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4584,36 +4640,27 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
-      </c>
-      <c r="J95" t="s">
-        <v>154</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4622,7 +4669,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4631,12 +4678,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4651,27 +4698,27 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B98">
         <v>5</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4691,10 +4738,19 @@
       <c r="I98" t="s">
         <v>58</v>
       </c>
+      <c r="J98" t="s">
+        <v>154</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4709,7 +4765,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -4718,12 +4774,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4738,10 +4794,10 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
-      </c>
-      <c r="G100">
-        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4752,13 +4808,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -4776,12 +4832,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4796,7 +4852,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -4810,7 +4866,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4836,25 +4892,16 @@
       <c r="I103" t="s">
         <v>58</v>
       </c>
-      <c r="J103" t="s">
-        <v>158</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4863,7 +4910,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -4872,12 +4919,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -4892,7 +4939,7 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -4901,21 +4948,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>170</v>
-      </c>
-      <c r="J105" t="s">
-        <v>158</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4939,12 +4977,21 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J106" t="s">
+        <v>158</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -4959,7 +5006,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -4968,18 +5015,18 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -4988,7 +5035,7 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -4997,21 +5044,21 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K108">
         <v>1</v>
       </c>
       <c r="L108" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5026,7 +5073,7 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -5035,21 +5082,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
-      </c>
-      <c r="J109" t="s">
-        <v>163</v>
-      </c>
-      <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5064,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -5073,27 +5111,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>58</v>
-      </c>
-      <c r="J110" t="s">
-        <v>160</v>
-      </c>
-      <c r="K110">
-        <v>1</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5102,7 +5131,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5111,12 +5140,21 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J111" t="s">
+        <v>159</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5134,7 +5172,7 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5154,7 +5192,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5180,10 +5218,19 @@
       <c r="I113" t="s">
         <v>58</v>
       </c>
+      <c r="J113" t="s">
+        <v>160</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5198,21 +5245,21 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5227,27 +5274,36 @@
         <v>80</v>
       </c>
       <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115">
         <v>7</v>
       </c>
-      <c r="G115">
-        <v>10</v>
-      </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J115" t="s">
+        <v>163</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B116">
         <v>5</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -5256,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5265,12 +5321,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5285,24 +5341,24 @@
         <v>80</v>
       </c>
       <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
         <v>7</v>
       </c>
-      <c r="G117">
-        <v>10</v>
-      </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -5311,10 +5367,10 @@
         <v>2</v>
       </c>
       <c r="E118">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -5323,24 +5379,24 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F119">
         <v>7</v>
@@ -5352,15 +5408,15 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C120">
         <v>6</v>
@@ -5369,10 +5425,10 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -5381,12 +5437,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B121">
         <v>4</v>
@@ -5410,21 +5466,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>170</v>
-      </c>
-      <c r="J121" t="s">
-        <v>164</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="B122">
         <v>4</v>
@@ -5439,21 +5486,21 @@
         <v>70</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B123">
         <v>4</v>
@@ -5468,7 +5515,7 @@
         <v>70</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -5482,13 +5529,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
       <c r="C124">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5500,7 +5547,7 @@
         <v>10</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5508,10 +5555,19 @@
       <c r="I124" t="s">
         <v>170</v>
       </c>
+      <c r="J124" t="s">
+        <v>164</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B125">
         <v>4</v>
@@ -5540,7 +5596,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="B126">
         <v>4</v>
@@ -5555,7 +5611,7 @@
         <v>70</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -5564,18 +5620,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B127">
         <v>4</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -5584,10 +5640,10 @@
         <v>70</v>
       </c>
       <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127">
         <v>7</v>
-      </c>
-      <c r="G127">
-        <v>10</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5598,7 +5654,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B128">
         <v>4</v>
@@ -5613,21 +5669,21 @@
         <v>70</v>
       </c>
       <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
         <v>7</v>
       </c>
-      <c r="G128">
-        <v>10</v>
-      </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5642,7 +5698,7 @@
         <v>70</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -5651,21 +5707,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>170</v>
-      </c>
-      <c r="J129" t="s">
-        <v>162</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5689,21 +5736,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>70</v>
-      </c>
-      <c r="J130" t="s">
-        <v>146</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5718,7 +5756,7 @@
         <v>70</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -5732,7 +5770,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5747,7 +5785,7 @@
         <v>70</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -5756,21 +5794,21 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J132" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="K132">
         <v>1</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5794,21 +5832,21 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="J133" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K133">
         <v>1</v>
       </c>
       <c r="L133" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5823,7 +5861,7 @@
         <v>70</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -5837,7 +5875,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5864,18 +5902,18 @@
         <v>58</v>
       </c>
       <c r="J135" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="K135">
         <v>1</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -5890,21 +5928,30 @@
         <v>70</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -5928,12 +5975,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -5960,7 +6007,7 @@
         <v>58</v>
       </c>
       <c r="J138" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K138">
         <v>1</v>
@@ -5971,7 +6018,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -5989,27 +6036,18 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
         <v>58</v>
-      </c>
-      <c r="J139" t="s">
-        <v>160</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="L139" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6033,11 +6071,116 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>75</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>70</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
+        <v>10</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>58</v>
+      </c>
+      <c r="J141" t="s">
+        <v>161</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>76</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>6</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142">
+        <v>70</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
+        <v>10</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>58</v>
+      </c>
+      <c r="J142" t="s">
+        <v>160</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143">
+        <v>6</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="E143">
+        <v>70</v>
+      </c>
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>10</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L140" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L143" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6049,35 +6192,35 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I145:I174" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I148:I177" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L180:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L183:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E115:E1048576 E4:E114" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L115:L179 L4:L114" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L182" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I115:I144 I4:I114" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I147" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K115:K1048576 K4:K114" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">
       <formula1>1</formula1>
       <formula2>3</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C114 B115:C1048576" xr:uid="{84D7772C-943A-4833-B43B-BB959E902FB7}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C1048576" xr:uid="{84D7772C-943A-4833-B43B-BB959E902FB7}">
       <formula1>1</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D115:D1048576 D4:D114" xr:uid="{46303865-9221-42EA-9065-EB26DEDCE8DA}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576" xr:uid="{46303865-9221-42EA-9065-EB26DEDCE8DA}">
       <formula1>0</formula1>
       <formula2>2</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F115:H1048576 F4:H114" xr:uid="{67FDEC12-179C-4A76-8A0E-A070B04D1D5E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:H1048576" xr:uid="{67FDEC12-179C-4A76-8A0E-A070B04D1D5E}">
       <formula1>0</formula1>
       <formula2>10</formula2>
     </dataValidation>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{315788DD-20D3-4743-AE64-E916F6B19C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{556F8635-7BD5-4E03-B5F7-44E2418F5BB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="540" windowWidth="14843" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1898" yWindow="0" windowWidth="21600" windowHeight="11303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$154</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
   <si>
     <t>陈</t>
   </si>
@@ -864,7 +864,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.11.02</t>
+    <t>暴行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅踝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUM-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耶拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.12.03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,7 +1333,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1338,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1452,11 +1492,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1692,13 +1732,13 @@
         <v>90</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>170</v>
@@ -2137,13 +2177,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2164,18 +2204,18 @@
         <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2199,18 +2239,27 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2219,27 +2268,27 @@
         <v>90</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2262,13 +2311,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2286,18 +2335,18 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2315,27 +2364,18 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" t="s">
-        <v>212</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2356,24 +2396,24 @@
         <v>58</v>
       </c>
       <c r="J27" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2394,18 +2434,18 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2432,24 +2472,24 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2470,24 +2510,24 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2508,24 +2548,24 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2543,10 +2583,10 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2557,13 +2597,13 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2581,27 +2621,27 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2619,21 +2659,21 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2657,10 +2697,10 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2671,13 +2711,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2695,12 +2735,21 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2724,27 +2773,18 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-      <c r="J37" t="s">
-        <v>188</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2763,17 +2803,26 @@
       </c>
       <c r="I38" t="s">
         <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2792,26 +2841,17 @@
       </c>
       <c r="I39" t="s">
         <v>58</v>
-      </c>
-      <c r="J39" t="s">
-        <v>189</v>
-      </c>
-      <c r="K39">
-        <v>1</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2829,10 +2869,10 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2843,13 +2883,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2867,18 +2907,27 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J41" t="s">
+        <v>148</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2901,7 +2950,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -2925,18 +2974,18 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2956,25 +3005,16 @@
       <c r="I44" t="s">
         <v>170</v>
       </c>
-      <c r="J44" t="s">
-        <v>149</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2992,18 +3032,27 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J45" t="s">
+        <v>149</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3026,7 +3075,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3050,27 +3099,18 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
-      </c>
-      <c r="J47" t="s">
-        <v>150</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3091,24 +3131,24 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3127,17 +3167,26 @@
       </c>
       <c r="I49" t="s">
         <v>58</v>
+      </c>
+      <c r="J49" t="s">
+        <v>151</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3156,26 +3205,17 @@
       </c>
       <c r="I50" t="s">
         <v>58</v>
-      </c>
-      <c r="J50" t="s">
-        <v>152</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3193,21 +3233,21 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3234,7 +3274,7 @@
         <v>170</v>
       </c>
       <c r="J52" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3245,7 +3285,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3269,10 +3309,10 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J53" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3283,7 +3323,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3310,7 +3350,7 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3321,7 +3361,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3345,27 +3385,27 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3383,12 +3423,21 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J56" t="s">
+        <v>155</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3412,18 +3461,18 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3442,20 +3491,11 @@
       </c>
       <c r="I58" t="s">
         <v>58</v>
-      </c>
-      <c r="J58" t="s">
-        <v>156</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3479,13 +3519,13 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" s="8" t="s">
         <v>167</v>
@@ -3493,13 +3533,13 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3517,13 +3557,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>167</v>
@@ -3531,13 +3571,13 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3556,17 +3596,26 @@
       </c>
       <c r="I61" t="s">
         <v>58</v>
+      </c>
+      <c r="J61" t="s">
+        <v>158</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3584,18 +3633,18 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3613,18 +3662,18 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3642,21 +3691,12 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" t="s">
-        <v>200</v>
-      </c>
-      <c r="K64">
-        <v>3</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3680,10 +3720,10 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="K65">
         <v>3</v>
@@ -3694,13 +3734,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3709,10 +3749,10 @@
         <v>90</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>10</v>
@@ -3721,10 +3761,10 @@
         <v>170</v>
       </c>
       <c r="J66" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L66" s="8" t="s">
         <v>166</v>
@@ -3732,51 +3772,51 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>90</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>170</v>
+      </c>
+      <c r="J67" t="s">
+        <v>242</v>
+      </c>
+      <c r="K67">
         <v>3</v>
       </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-      <c r="E67">
-        <v>90</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="G67">
-        <v>10</v>
-      </c>
-      <c r="H67">
-        <v>10</v>
-      </c>
-      <c r="I67" t="s">
-        <v>59</v>
-      </c>
-      <c r="J67" t="s">
-        <v>160</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
       <c r="L67" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3794,27 +3834,27 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J68" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3832,10 +3872,10 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J69" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -3846,13 +3886,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3871,52 +3911,70 @@
       </c>
       <c r="I70" t="s">
         <v>58</v>
+      </c>
+      <c r="J70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71">
         <v>10</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J71" t="s">
+        <v>201</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F72">
         <v>10</v>
@@ -3925,7 +3983,7 @@
         <v>10</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I72" t="s">
         <v>58</v>
@@ -3933,7 +3991,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -3959,10 +4017,19 @@
       <c r="I73" t="s">
         <v>59</v>
       </c>
+      <c r="J73" t="s">
+        <v>229</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -3986,12 +4053,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -4006,21 +4073,21 @@
         <v>80</v>
       </c>
       <c r="F75">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4044,12 +4111,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4078,7 +4145,7 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4093,10 +4160,10 @@
         <v>80</v>
       </c>
       <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
         <v>7</v>
-      </c>
-      <c r="G78">
-        <v>10</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4107,7 +4174,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4122,30 +4189,21 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
         <v>58</v>
-      </c>
-      <c r="J79" t="s">
-        <v>140</v>
-      </c>
-      <c r="K79">
-        <v>1</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4163,7 +4221,7 @@
         <v>10</v>
       </c>
       <c r="G80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -4174,7 +4232,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>197</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4203,13 +4261,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4227,12 +4285,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4250,18 +4308,27 @@
         <v>10</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
         <v>58</v>
+      </c>
+      <c r="J83" t="s">
+        <v>140</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4279,18 +4346,18 @@
         <v>10</v>
       </c>
       <c r="G84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4316,19 +4383,10 @@
       <c r="I85" t="s">
         <v>58</v>
       </c>
-      <c r="J85" t="s">
-        <v>139</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4343,21 +4401,21 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>191</v>
+        <v>104</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4375,18 +4433,18 @@
         <v>10</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4412,19 +4470,10 @@
       <c r="I88" t="s">
         <v>58</v>
       </c>
-      <c r="J88" t="s">
-        <v>148</v>
-      </c>
-      <c r="K88">
-        <v>3</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4450,10 +4499,19 @@
       <c r="I89" t="s">
         <v>58</v>
       </c>
+      <c r="J89" t="s">
+        <v>139</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4477,21 +4535,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>170</v>
-      </c>
-      <c r="J90" t="s">
-        <v>189</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4506,21 +4555,21 @@
         <v>80</v>
       </c>
       <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4538,27 +4587,18 @@
         <v>10</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>59</v>
-      </c>
-      <c r="J92" t="s">
-        <v>162</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4573,7 +4613,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4583,11 +4623,20 @@
       </c>
       <c r="I93" t="s">
         <v>58</v>
+      </c>
+      <c r="J93" t="s">
+        <v>148</v>
+      </c>
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4602,30 +4651,21 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
         <v>58</v>
-      </c>
-      <c r="J94" t="s">
-        <v>146</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4640,27 +4680,36 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
         <v>10</v>
       </c>
       <c r="H95">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>204</v>
+        <v>170</v>
+      </c>
+      <c r="J95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4678,12 +4727,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4698,7 +4747,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4707,12 +4756,21 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J97" t="s">
+        <v>162</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4738,19 +4796,10 @@
       <c r="I98" t="s">
         <v>58</v>
       </c>
-      <c r="J98" t="s">
-        <v>154</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4768,18 +4817,27 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J99" t="s">
+        <v>146</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4794,27 +4852,27 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>203</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -4823,27 +4881,27 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>10</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4852,7 +4910,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -4866,7 +4924,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4895,13 +4953,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -4919,12 +4977,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -4939,7 +4997,7 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -4948,12 +5006,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4980,18 +5038,18 @@
         <v>58</v>
       </c>
       <c r="J106" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K106">
         <v>1</v>
       </c>
       <c r="L106" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5015,12 +5073,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5035,36 +5093,27 @@
         <v>80</v>
       </c>
       <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
         <v>7</v>
       </c>
-      <c r="G108">
-        <v>10</v>
-      </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>170</v>
-      </c>
-      <c r="J108" t="s">
-        <v>158</v>
-      </c>
-      <c r="K108">
-        <v>1</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>192</v>
+        <v>119</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5082,12 +5131,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5102,7 +5151,7 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -5111,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5131,7 +5180,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5141,26 +5190,17 @@
       </c>
       <c r="I111" t="s">
         <v>58</v>
-      </c>
-      <c r="J111" t="s">
-        <v>159</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5169,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -5178,21 +5218,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
-      </c>
-      <c r="J112" t="s">
-        <v>163</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5216,21 +5247,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J113" t="s">
-        <v>160</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5245,7 +5267,7 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -5254,12 +5276,21 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J114" t="s">
+        <v>158</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5277,27 +5308,18 @@
         <v>10</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
         <v>58</v>
-      </c>
-      <c r="J115" t="s">
-        <v>163</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5312,7 +5334,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5321,12 +5343,21 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J116" t="s">
+        <v>158</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5341,21 +5372,21 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>223</v>
+        <v>126</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5379,18 +5410,18 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5399,7 +5430,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5408,12 +5439,21 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J119" t="s">
+        <v>159</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5428,7 +5468,7 @@
         <v>80</v>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -5437,15 +5477,24 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J120" t="s">
+        <v>163</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C121">
         <v>6</v>
@@ -5454,7 +5503,7 @@
         <v>2</v>
       </c>
       <c r="E121">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -5467,14 +5516,23 @@
       </c>
       <c r="I121" t="s">
         <v>58</v>
+      </c>
+      <c r="J121" t="s">
+        <v>160</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="B122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C122">
         <v>6</v>
@@ -5483,10 +5541,10 @@
         <v>2</v>
       </c>
       <c r="E122">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5495,15 +5553,15 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="B123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C123">
         <v>6</v>
@@ -5512,27 +5570,36 @@
         <v>2</v>
       </c>
       <c r="E123">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F123">
         <v>10</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
         <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>163</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="B124">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C124">
         <v>6</v>
@@ -5541,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="E124">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -5553,24 +5620,15 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>170</v>
-      </c>
-      <c r="J124" t="s">
-        <v>164</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C125">
         <v>6</v>
@@ -5579,7 +5637,7 @@
         <v>2</v>
       </c>
       <c r="E125">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -5591,15 +5649,15 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C126">
         <v>6</v>
@@ -5608,7 +5666,7 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F126">
         <v>7</v>
@@ -5620,30 +5678,30 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="B127">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -5654,10 +5712,10 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C128">
         <v>6</v>
@@ -5666,24 +5724,24 @@
         <v>2</v>
       </c>
       <c r="E128">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B129">
         <v>4</v>
@@ -5707,12 +5765,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5736,12 +5794,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5756,7 +5814,7 @@
         <v>70</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -5770,7 +5828,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5785,7 +5843,7 @@
         <v>70</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -5797,18 +5855,18 @@
         <v>170</v>
       </c>
       <c r="J132" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K132">
         <v>1</v>
       </c>
       <c r="L132" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5823,30 +5881,21 @@
         <v>70</v>
       </c>
       <c r="F133">
+        <v>10</v>
+      </c>
+      <c r="G133">
         <v>7</v>
       </c>
-      <c r="G133">
-        <v>10</v>
-      </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>70</v>
-      </c>
-      <c r="J133" t="s">
-        <v>146</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>71</v>
+        <v>207</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5861,7 +5910,7 @@
         <v>70</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -5875,13 +5924,13 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -5893,27 +5942,18 @@
         <v>10</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>58</v>
-      </c>
-      <c r="J135" t="s">
-        <v>195</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B136">
         <v>4</v>
@@ -5928,10 +5968,10 @@
         <v>70</v>
       </c>
       <c r="F136">
+        <v>10</v>
+      </c>
+      <c r="G136">
         <v>7</v>
-      </c>
-      <c r="G136">
-        <v>10</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5939,19 +5979,10 @@
       <c r="I136" t="s">
         <v>170</v>
       </c>
-      <c r="J136" t="s">
-        <v>165</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-      <c r="L136" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -5966,7 +5997,7 @@
         <v>70</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -5975,12 +6006,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -5995,7 +6026,7 @@
         <v>70</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -6004,21 +6035,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
-      </c>
-      <c r="J138" t="s">
-        <v>156</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6033,10 +6055,10 @@
         <v>70</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6047,7 +6069,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>220</v>
+        <v>68</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6071,12 +6093,21 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J140" t="s">
+        <v>162</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -6091,7 +6122,7 @@
         <v>70</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6100,21 +6131,21 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J141" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K141">
         <v>1</v>
       </c>
       <c r="L141" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -6129,30 +6160,21 @@
         <v>70</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142" t="s">
         <v>58</v>
-      </c>
-      <c r="J142" t="s">
-        <v>160</v>
-      </c>
-      <c r="K142">
-        <v>3</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>77</v>
+        <v>238</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -6167,20 +6189,384 @@
         <v>70</v>
       </c>
       <c r="F143">
+        <v>10</v>
+      </c>
+      <c r="G143">
+        <v>8</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>239</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>6</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="E144">
+        <v>70</v>
+      </c>
+      <c r="F144">
         <v>7</v>
       </c>
-      <c r="G143">
-        <v>10</v>
-      </c>
-      <c r="H143">
-        <v>0</v>
-      </c>
-      <c r="I143" t="s">
+      <c r="G144">
+        <v>10</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>71</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>6</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="E145">
+        <v>70</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+      <c r="G145">
+        <v>10</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>194</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="E146">
+        <v>70</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+      <c r="G146">
+        <v>10</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>58</v>
+      </c>
+      <c r="J146" t="s">
+        <v>195</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>73</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>6</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>70</v>
+      </c>
+      <c r="F147">
+        <v>7</v>
+      </c>
+      <c r="G147">
+        <v>10</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>170</v>
+      </c>
+      <c r="J147" t="s">
+        <v>165</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>196</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>70</v>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>74</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>6</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>70</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
+        <v>10</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>58</v>
+      </c>
+      <c r="J149" t="s">
+        <v>156</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>205</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150">
+        <v>2</v>
+      </c>
+      <c r="E150">
+        <v>70</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
+        <v>7</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>220</v>
+      </c>
+      <c r="B151">
+        <v>4</v>
+      </c>
+      <c r="C151">
+        <v>6</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>70</v>
+      </c>
+      <c r="F151">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>10</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152">
+        <v>4</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>70</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
+        <v>10</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>58</v>
+      </c>
+      <c r="J152" t="s">
+        <v>161</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>76</v>
+      </c>
+      <c r="B153">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>70</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+      <c r="G153">
+        <v>10</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>58</v>
+      </c>
+      <c r="J153" t="s">
+        <v>160</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>77</v>
+      </c>
+      <c r="B154">
+        <v>4</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="E154">
+        <v>70</v>
+      </c>
+      <c r="F154">
+        <v>7</v>
+      </c>
+      <c r="G154">
+        <v>10</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L143" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L154" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6192,20 +6578,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I148:I177" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I159:I188" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L183:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L194:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L182" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L193" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I147" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I158" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDF6945-1CFD-4AF7-84AE-969455027718}"/>
   <bookViews>
-    <workbookView xWindow="1898" yWindow="0" windowWidth="21600" windowHeight="11303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$156</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="249">
   <si>
     <t>陈</t>
   </si>
@@ -904,7 +904,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.12.03</t>
+    <t>2022.12.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUS-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIE-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焰影苇草</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1333,17 +1349,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.46484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.53125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.86328125" style="2"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1354,7 +1370,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1381,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1373,7 +1389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1381,7 +1397,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1389,7 +1405,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1397,23 +1413,23 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="2">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1445,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1437,7 +1453,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1445,7 +1461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1461,7 +1477,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1469,7 +1485,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>183</v>
       </c>
@@ -1492,21 +1508,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J106" sqref="J106"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="8.86328125" style="8"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.35546875" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="37.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="37.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -1534,7 +1550,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>171</v>
       </c>
@@ -1610,7 +1626,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1686,7 +1702,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -1715,7 +1731,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>231</v>
       </c>
@@ -1744,7 +1760,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1782,7 +1798,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1820,7 +1836,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1858,7 +1874,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>198</v>
       </c>
@@ -1887,7 +1903,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1941,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1953,8 +1969,17 @@
       <c r="I13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J13" t="s">
+        <v>245</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -1983,7 +2008,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2012,7 +2037,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>210</v>
       </c>
@@ -2041,7 +2066,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2079,7 +2104,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2108,7 +2133,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2175,7 +2200,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2213,7 +2238,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2251,7 +2276,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2280,7 +2305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>232</v>
       </c>
@@ -2309,7 +2334,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>83</v>
       </c>
@@ -2338,7 +2363,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2367,7 +2392,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -2405,7 +2430,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -2443,7 +2468,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -2481,7 +2506,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2519,7 +2544,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -2557,7 +2582,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2595,7 +2620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>87</v>
       </c>
@@ -2603,7 +2628,7 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2633,7 +2658,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -2671,7 +2696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>199</v>
       </c>
@@ -2709,7 +2734,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2747,7 +2772,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -2776,7 +2801,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -2814,7 +2839,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -2843,7 +2868,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -2881,7 +2906,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2919,7 +2944,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -2947,8 +2972,17 @@
       <c r="I42" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J42" t="s">
+        <v>246</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -2977,7 +3011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -3003,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -3044,7 +3078,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -3073,7 +3107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3102,7 +3136,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>29</v>
       </c>
@@ -3140,7 +3174,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>30</v>
       </c>
@@ -3178,7 +3212,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>31</v>
       </c>
@@ -3207,7 +3241,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>32</v>
       </c>
@@ -3215,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3245,7 +3279,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3283,7 +3317,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -3321,7 +3355,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -3359,225 +3393,216 @@
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>90</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+      <c r="G55">
+        <v>10</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>21</v>
       </c>
-      <c r="B55">
-        <v>6</v>
-      </c>
-      <c r="C55">
-        <v>6</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <v>90</v>
-      </c>
-      <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="G55">
-        <v>10</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55" t="s">
-        <v>58</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="B56">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="G56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" t="s">
         <v>154</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56">
-        <v>6</v>
-      </c>
-      <c r="C56">
-        <v>6</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="E56">
-        <v>90</v>
-      </c>
-      <c r="F56">
-        <v>10</v>
-      </c>
-      <c r="G56">
-        <v>10</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-      <c r="I56" t="s">
-        <v>59</v>
-      </c>
-      <c r="J56" t="s">
-        <v>155</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>59</v>
+      </c>
+      <c r="J57" t="s">
+        <v>155</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>228</v>
       </c>
-      <c r="B57">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>23</v>
       </c>
-      <c r="B58">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+      <c r="B59">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>90</v>
-      </c>
-      <c r="F59">
-        <v>10</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
         <v>156</v>
       </c>
-      <c r="K59">
+      <c r="K60">
         <v>1</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>95</v>
-      </c>
-      <c r="B60">
-        <v>6</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>90</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="G60">
-        <v>10</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
-        <v>170</v>
-      </c>
-      <c r="J60" t="s">
-        <v>157</v>
-      </c>
-      <c r="K60">
-        <v>3</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3595,173 +3620,173 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J62" t="s">
+        <v>158</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>26</v>
       </c>
-      <c r="B62">
-        <v>6</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>90</v>
-      </c>
-      <c r="F62">
-        <v>10</v>
-      </c>
-      <c r="G62">
-        <v>10</v>
-      </c>
-      <c r="H62">
-        <v>10</v>
-      </c>
-      <c r="I62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>90</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>33</v>
       </c>
-      <c r="B63">
-        <v>6</v>
-      </c>
-      <c r="C63">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
         <v>3</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>90</v>
-      </c>
-      <c r="F63">
-        <v>10</v>
-      </c>
-      <c r="G63">
-        <v>10</v>
-      </c>
-      <c r="H63">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>90</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>190</v>
       </c>
-      <c r="B64">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>90</v>
-      </c>
-      <c r="F64">
-        <v>10</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
-      </c>
-      <c r="H64">
-        <v>10</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="B65">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>90</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="H65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>34</v>
       </c>
-      <c r="B65">
-        <v>6</v>
-      </c>
-      <c r="C65">
-        <v>6</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>90</v>
-      </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="G65">
-        <v>10</v>
-      </c>
-      <c r="H65">
-        <v>10</v>
-      </c>
-      <c r="I65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" t="s">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>90</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" t="s">
         <v>200</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66">
-        <v>6</v>
-      </c>
-      <c r="C66">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>90</v>
-      </c>
-      <c r="F66">
-        <v>10</v>
-      </c>
-      <c r="G66">
-        <v>10</v>
-      </c>
-      <c r="H66">
-        <v>10</v>
-      </c>
-      <c r="I66" t="s">
-        <v>170</v>
-      </c>
-      <c r="J66" t="s">
-        <v>159</v>
       </c>
       <c r="K66">
         <v>3</v>
@@ -3770,7 +3795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -3799,18 +3824,18 @@
         <v>170</v>
       </c>
       <c r="J67" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="K67">
         <v>3</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3837,83 +3862,83 @@
         <v>170</v>
       </c>
       <c r="J68" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>233</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>90</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="H69">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
+        <v>170</v>
+      </c>
+      <c r="J69" t="s">
+        <v>163</v>
+      </c>
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>35</v>
       </c>
-      <c r="B69">
-        <v>6</v>
-      </c>
-      <c r="C69">
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70">
         <v>4</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>90</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69">
-        <v>10</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>90</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70" t="s">
         <v>59</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J70" t="s">
         <v>160</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>90</v>
-      </c>
-      <c r="F70">
-        <v>10</v>
-      </c>
-      <c r="G70">
-        <v>10</v>
-      </c>
-      <c r="H70">
-        <v>10</v>
-      </c>
-      <c r="I70" t="s">
-        <v>58</v>
-      </c>
-      <c r="J70" t="s">
-        <v>161</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -3922,9 +3947,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -3951,7 +3976,7 @@
         <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -3960,76 +3985,76 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>90</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="G72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>37</v>
       </c>
-      <c r="B72">
-        <v>6</v>
-      </c>
-      <c r="C72">
+      <c r="B73">
+        <v>6</v>
+      </c>
+      <c r="C73">
         <v>4</v>
       </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>90</v>
-      </c>
-      <c r="F72">
-        <v>10</v>
-      </c>
-      <c r="G72">
-        <v>10</v>
-      </c>
-      <c r="H72">
-        <v>10</v>
-      </c>
-      <c r="I72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>90</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="G73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>97</v>
-      </c>
-      <c r="B73">
-        <v>5</v>
-      </c>
-      <c r="C73">
-        <v>6</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="E73">
-        <v>80</v>
-      </c>
-      <c r="F73">
-        <v>7</v>
-      </c>
-      <c r="G73">
-        <v>10</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J73" t="s">
-        <v>229</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>98</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -4044,7 +4069,7 @@
         <v>80</v>
       </c>
       <c r="F74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G74">
         <v>10</v>
@@ -4053,12 +4078,21 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="J74" t="s">
+        <v>229</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -4073,7 +4107,7 @@
         <v>80</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G75">
         <v>10</v>
@@ -4082,12 +4116,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4111,12 +4145,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4131,7 +4165,7 @@
         <v>80</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -4140,12 +4174,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4163,18 +4197,18 @@
         <v>10</v>
       </c>
       <c r="G78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4189,11 +4223,11 @@
         <v>80</v>
       </c>
       <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
         <v>7</v>
       </c>
-      <c r="G79">
-        <v>10</v>
-      </c>
       <c r="H79">
         <v>0</v>
       </c>
@@ -4201,9 +4235,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4218,7 +4252,7 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -4227,12 +4261,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4247,7 +4281,7 @@
         <v>80</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>10</v>
@@ -4256,18 +4290,18 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B82">
         <v>5</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4285,18 +4319,18 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4305,30 +4339,21 @@
         <v>80</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
-      </c>
-      <c r="J83" t="s">
-        <v>140</v>
-      </c>
-      <c r="K83">
-        <v>1</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4352,12 +4377,21 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="J84" t="s">
+        <v>140</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4372,21 +4406,21 @@
         <v>80</v>
       </c>
       <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
         <v>7</v>
       </c>
-      <c r="G85">
-        <v>10</v>
-      </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4413,9 +4447,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4430,7 +4464,7 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -4442,9 +4476,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4471,9 +4505,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4488,7 +4522,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4499,19 +4533,10 @@
       <c r="I89" t="s">
         <v>58</v>
       </c>
-      <c r="J89" t="s">
-        <v>139</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4537,10 +4562,19 @@
       <c r="I90" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J90" t="s">
+        <v>139</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4555,21 +4589,21 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4593,12 +4627,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4616,7 +4650,7 @@
         <v>10</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4624,19 +4658,10 @@
       <c r="I93" t="s">
         <v>58</v>
       </c>
-      <c r="J93" t="s">
-        <v>148</v>
-      </c>
-      <c r="K93">
-        <v>3</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4651,7 +4676,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4662,10 +4687,19 @@
       <c r="I94" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4689,21 +4723,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>170</v>
-      </c>
-      <c r="J95" t="s">
-        <v>189</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4729,10 +4754,19 @@
       <c r="I96" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J96" t="s">
+        <v>189</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4747,7 +4781,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4756,21 +4790,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>59</v>
-      </c>
-      <c r="J97" t="s">
-        <v>162</v>
-      </c>
-      <c r="K97">
-        <v>1</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4785,7 +4810,7 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -4794,12 +4819,21 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="J98" t="s">
+        <v>162</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4814,10 +4848,10 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -4825,19 +4859,10 @@
       <c r="I99" t="s">
         <v>58</v>
       </c>
-      <c r="J99" t="s">
-        <v>146</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4852,21 +4877,30 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="J100" t="s">
+        <v>146</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4881,27 +4915,27 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101">
         <v>10</v>
       </c>
       <c r="H101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4910,27 +4944,27 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>10</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4951,9 +4985,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -4980,9 +5014,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5009,9 +5043,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5037,19 +5071,10 @@
       <c r="I106" t="s">
         <v>58</v>
       </c>
-      <c r="J106" t="s">
-        <v>154</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5064,7 +5089,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -5073,12 +5098,21 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="J107" t="s">
+        <v>154</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5096,24 +5130,24 @@
         <v>10</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5122,11 +5156,11 @@
         <v>80</v>
       </c>
       <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109">
         <v>7</v>
       </c>
-      <c r="G109">
-        <v>10</v>
-      </c>
       <c r="H109">
         <v>0</v>
       </c>
@@ -5134,15 +5168,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -5151,7 +5185,7 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -5163,9 +5197,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5180,7 +5214,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5192,15 +5226,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5218,18 +5252,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5238,7 +5272,7 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5247,12 +5281,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5267,7 +5301,7 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -5276,21 +5310,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
-      </c>
-      <c r="J114" t="s">
-        <v>158</v>
-      </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-      <c r="L114" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5305,7 +5330,7 @@
         <v>80</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -5316,10 +5341,19 @@
       <c r="I115" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5334,7 +5368,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5343,21 +5377,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>170</v>
-      </c>
-      <c r="J116" t="s">
-        <v>158</v>
-      </c>
-      <c r="K116">
-        <v>1</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5383,10 +5408,19 @@
       <c r="I117" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J117" t="s">
+        <v>158</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5413,15 +5447,15 @@
         <v>170</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5430,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5439,27 +5473,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>58</v>
-      </c>
-      <c r="J119" t="s">
-        <v>159</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120">
         <v>5</v>
       </c>
       <c r="C120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -5480,7 +5505,7 @@
         <v>58</v>
       </c>
       <c r="J120" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K120">
         <v>1</v>
@@ -5489,9 +5514,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5518,18 +5543,18 @@
         <v>58</v>
       </c>
       <c r="J121" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K121">
         <v>1</v>
       </c>
       <c r="L121" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5544,7 +5569,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5553,12 +5578,21 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5573,30 +5607,21 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
-      </c>
-      <c r="J123" t="s">
-        <v>163</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5614,7 +5639,7 @@
         <v>10</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -5622,10 +5647,19 @@
       <c r="I124" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J124" t="s">
+        <v>163</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5643,7 +5677,7 @@
         <v>10</v>
       </c>
       <c r="G125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -5652,9 +5686,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5669,27 +5703,27 @@
         <v>80</v>
       </c>
       <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
         <v>7</v>
       </c>
-      <c r="G126">
-        <v>10</v>
-      </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -5707,18 +5741,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -5736,41 +5770,41 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>206</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>6</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129">
+        <v>80</v>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>10</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>78</v>
-      </c>
-      <c r="B129">
-        <v>4</v>
-      </c>
-      <c r="C129">
-        <v>6</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-      <c r="E129">
-        <v>70</v>
-      </c>
-      <c r="F129">
-        <v>10</v>
-      </c>
-      <c r="G129">
-        <v>10</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-      <c r="I129" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>193</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -5785,7 +5819,7 @@
         <v>70</v>
       </c>
       <c r="F130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5794,12 +5828,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B131">
         <v>4</v>
@@ -5814,7 +5848,7 @@
         <v>70</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -5823,12 +5857,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B132">
         <v>4</v>
@@ -5852,21 +5886,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>170</v>
-      </c>
-      <c r="J132" t="s">
-        <v>164</v>
-      </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B133">
         <v>4</v>
@@ -5884,7 +5909,7 @@
         <v>10</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -5892,10 +5917,19 @@
       <c r="I133" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B134">
         <v>4</v>
@@ -5910,27 +5944,27 @@
         <v>70</v>
       </c>
       <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134">
         <v>7</v>
       </c>
-      <c r="G134">
-        <v>10</v>
-      </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B135">
         <v>4</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -5939,27 +5973,27 @@
         <v>70</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -5980,9 +6014,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -6000,18 +6034,18 @@
         <v>10</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6038,9 +6072,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6055,7 +6089,7 @@
         <v>70</v>
       </c>
       <c r="F139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6064,12 +6098,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>219</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6095,19 +6129,10 @@
       <c r="I140" t="s">
         <v>170</v>
       </c>
-      <c r="J140" t="s">
-        <v>162</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B141">
         <v>4</v>
@@ -6131,21 +6156,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>70</v>
-      </c>
-      <c r="J141" t="s">
-        <v>146</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -6163,18 +6179,27 @@
         <v>7</v>
       </c>
       <c r="G142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+      <c r="J142" t="s">
+        <v>162</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>69</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -6189,21 +6214,30 @@
         <v>70</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="J143" t="s">
+        <v>146</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -6218,21 +6252,21 @@
         <v>70</v>
       </c>
       <c r="F144">
+        <v>10</v>
+      </c>
+      <c r="G144">
         <v>7</v>
       </c>
-      <c r="G144">
-        <v>10</v>
-      </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>71</v>
+        <v>238</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -6250,18 +6284,18 @@
         <v>10</v>
       </c>
       <c r="G145">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -6276,7 +6310,7 @@
         <v>70</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6285,21 +6319,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>58</v>
-      </c>
-      <c r="J146" t="s">
-        <v>195</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -6314,7 +6339,7 @@
         <v>70</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6323,21 +6348,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>170</v>
-      </c>
-      <c r="J147" t="s">
-        <v>165</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -6352,7 +6368,7 @@
         <v>70</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6363,10 +6379,19 @@
       <c r="I148" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J148" t="s">
+        <v>195</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6381,7 +6406,7 @@
         <v>70</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -6390,10 +6415,10 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J149" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -6402,9 +6427,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -6419,10 +6444,10 @@
         <v>70</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6431,9 +6456,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>74</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -6448,7 +6473,7 @@
         <v>70</v>
       </c>
       <c r="F151">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -6457,12 +6482,21 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+      <c r="J151" t="s">
+        <v>156</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6480,7 +6514,7 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6488,19 +6522,10 @@
       <c r="I152" t="s">
         <v>58</v>
       </c>
-      <c r="J152" t="s">
-        <v>161</v>
-      </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -6515,7 +6540,7 @@
         <v>70</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6524,21 +6549,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
-      </c>
-      <c r="J153" t="s">
-        <v>160</v>
-      </c>
-      <c r="K153">
-        <v>3</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6553,20 +6569,96 @@
         <v>70</v>
       </c>
       <c r="F154">
+        <v>10</v>
+      </c>
+      <c r="G154">
+        <v>10</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>58</v>
+      </c>
+      <c r="J154" t="s">
+        <v>161</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155">
+        <v>4</v>
+      </c>
+      <c r="C155">
+        <v>6</v>
+      </c>
+      <c r="D155">
+        <v>2</v>
+      </c>
+      <c r="E155">
+        <v>70</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+      <c r="G155">
+        <v>10</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>58</v>
+      </c>
+      <c r="J155" t="s">
+        <v>160</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156">
+        <v>4</v>
+      </c>
+      <c r="C156">
+        <v>6</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="E156">
+        <v>70</v>
+      </c>
+      <c r="F156">
         <v>7</v>
       </c>
-      <c r="G154">
-        <v>10</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
+      <c r="G156">
+        <v>10</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L154" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L156" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6578,20 +6670,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I159:I188" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I161:I190" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L194:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L196:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L193" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L195" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I158" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I160" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BBDF6945-1CFD-4AF7-84AE-969455027718}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CE58BE-43D2-4AE9-8CDB-4B6345DDF882}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6634" yWindow="1303" windowWidth="17555" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$161</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="255">
   <si>
     <t>陈</t>
   </si>
@@ -904,10 +904,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.12.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MUS-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -921,6 +917,34 @@
   </si>
   <si>
     <t>石英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.01.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重岳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCR-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火哨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1348,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1394,7 +1418,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1508,11 +1532,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L156"/>
+  <dimension ref="A1:L161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42:XFD42"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1949,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1970,7 +1994,7 @@
         <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2307,13 +2331,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2322,13 +2346,13 @@
         <v>90</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" t="s">
         <v>170</v>
@@ -2336,13 +2360,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="B25">
         <v>6</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2365,13 +2389,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2389,18 +2413,18 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2418,27 +2442,18 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" t="s">
-        <v>212</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2459,24 +2474,24 @@
         <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2497,18 +2512,18 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2535,24 +2550,24 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2573,24 +2588,24 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2611,24 +2626,24 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2646,10 +2661,10 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2660,13 +2675,13 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2684,27 +2699,27 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2722,21 +2737,21 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2760,10 +2775,10 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2774,13 +2789,13 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2798,12 +2813,21 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>188</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2827,27 +2851,18 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" t="s">
-        <v>188</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2866,17 +2881,26 @@
       </c>
       <c r="I39" t="s">
         <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2895,26 +2919,17 @@
       </c>
       <c r="I40" t="s">
         <v>58</v>
-      </c>
-      <c r="J40" t="s">
-        <v>189</v>
-      </c>
-      <c r="K40">
-        <v>1</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2932,10 +2947,10 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2946,13 +2961,13 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2970,13 +2985,13 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J42" t="s">
-        <v>246</v>
+        <v>148</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>166</v>
@@ -2984,13 +2999,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3009,11 +3024,20 @@
       </c>
       <c r="I43" t="s">
         <v>58</v>
+      </c>
+      <c r="J43" t="s">
+        <v>245</v>
+      </c>
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -3038,17 +3062,26 @@
       </c>
       <c r="I44" t="s">
         <v>58</v>
+      </c>
+      <c r="J44" t="s">
+        <v>250</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3066,27 +3099,18 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" t="s">
-        <v>149</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3104,18 +3128,27 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J46" t="s">
+        <v>149</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3138,7 +3171,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3162,27 +3195,27 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>251</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3191,30 +3224,21 @@
         <v>90</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I49" t="s">
-        <v>58</v>
-      </c>
-      <c r="J49" t="s">
-        <v>151</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3239,17 +3263,26 @@
       </c>
       <c r="I50" t="s">
         <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>150</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3270,7 +3303,7 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3281,7 +3314,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3305,27 +3338,18 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>170</v>
-      </c>
-      <c r="J52" t="s">
-        <v>226</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3343,21 +3367,21 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3381,10 +3405,10 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3395,13 +3419,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3421,10 +3445,19 @@
       <c r="I55" t="s">
         <v>170</v>
       </c>
+      <c r="J55" t="s">
+        <v>153</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3451,7 +3484,7 @@
         <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3462,13 +3495,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3486,27 +3519,18 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
-      </c>
-      <c r="J57" t="s">
-        <v>155</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>21</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3524,18 +3548,27 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>154</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3553,18 +3586,27 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J59" t="s">
+        <v>155</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3582,27 +3624,18 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
-      </c>
-      <c r="J60" t="s">
-        <v>156</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3620,27 +3653,18 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>170</v>
-      </c>
-      <c r="J61" t="s">
-        <v>157</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3661,7 +3685,7 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3672,7 +3696,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3697,17 +3721,26 @@
       </c>
       <c r="I63" t="s">
         <v>58</v>
+      </c>
+      <c r="J63" t="s">
+        <v>157</v>
+      </c>
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3725,18 +3758,27 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J64" t="s">
+        <v>158</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>190</v>
+        <v>26</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3754,18 +3796,18 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3783,27 +3825,18 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" t="s">
-        <v>200</v>
-      </c>
-      <c r="K66">
-        <v>3</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3823,19 +3856,10 @@
       <c r="I67" t="s">
         <v>170</v>
       </c>
-      <c r="J67" t="s">
-        <v>159</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -3859,21 +3883,21 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="K68">
         <v>3</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3900,7 +3924,7 @@
         <v>170</v>
       </c>
       <c r="J69" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -3911,13 +3935,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3935,27 +3959,27 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J70" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3973,27 +3997,27 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J71" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4011,10 +4035,10 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4025,13 +4049,13 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4050,61 +4074,70 @@
       </c>
       <c r="I73" t="s">
         <v>58</v>
+      </c>
+      <c r="J73" t="s">
+        <v>161</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G74">
         <v>10</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -4113,7 +4146,7 @@
         <v>10</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
         <v>58</v>
@@ -4121,7 +4154,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>237</v>
+        <v>97</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -4145,12 +4178,21 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J76" t="s">
+        <v>229</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4165,7 +4207,7 @@
         <v>80</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -4174,12 +4216,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4194,7 +4236,7 @@
         <v>80</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -4208,7 +4250,7 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>99</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4223,21 +4265,21 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4252,7 +4294,7 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -4266,7 +4308,7 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4284,18 +4326,18 @@
         <v>10</v>
       </c>
       <c r="G81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4324,13 +4366,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="B83">
         <v>5</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4339,7 +4381,7 @@
         <v>80</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -4353,7 +4395,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4368,36 +4410,27 @@
         <v>80</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>0</v>
       </c>
       <c r="I84" t="s">
         <v>58</v>
-      </c>
-      <c r="J84" t="s">
-        <v>140</v>
-      </c>
-      <c r="K84">
-        <v>1</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4406,10 +4439,10 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4420,7 +4453,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4435,21 +4468,30 @@
         <v>80</v>
       </c>
       <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="G86">
         <v>7</v>
       </c>
-      <c r="G86">
-        <v>10</v>
-      </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>58</v>
+      </c>
+      <c r="J86" t="s">
+        <v>140</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>225</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4464,21 +4506,21 @@
         <v>80</v>
       </c>
       <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="G87">
         <v>7</v>
       </c>
-      <c r="G87">
-        <v>10</v>
-      </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4493,7 +4535,7 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -4507,7 +4549,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4522,7 +4564,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4536,7 +4578,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4551,7 +4593,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -4561,20 +4603,11 @@
       </c>
       <c r="I90" t="s">
         <v>58</v>
-      </c>
-      <c r="J90" t="s">
-        <v>139</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4589,7 +4622,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4603,7 +4636,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4618,21 +4651,30 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J92" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4647,7 +4689,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>7</v>
@@ -4656,12 +4698,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>108</v>
+        <v>240</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4676,7 +4718,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4686,20 +4728,11 @@
       </c>
       <c r="I94" t="s">
         <v>58</v>
-      </c>
-      <c r="J94" t="s">
-        <v>148</v>
-      </c>
-      <c r="K94">
-        <v>3</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4714,21 +4747,21 @@
         <v>80</v>
       </c>
       <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>10</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4743,36 +4776,27 @@
         <v>80</v>
       </c>
       <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96">
         <v>7</v>
       </c>
-      <c r="G96">
-        <v>10</v>
-      </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>170</v>
-      </c>
-      <c r="J96" t="s">
-        <v>189</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4781,10 +4805,10 @@
         <v>80</v>
       </c>
       <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
         <v>7</v>
-      </c>
-      <c r="G97">
-        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4795,7 +4819,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4813,27 +4837,18 @@
         <v>10</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>59</v>
-      </c>
-      <c r="J98" t="s">
-        <v>162</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4848,7 +4863,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -4858,11 +4873,20 @@
       </c>
       <c r="I99" t="s">
         <v>58</v>
+      </c>
+      <c r="J99" t="s">
+        <v>148</v>
+      </c>
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -4877,30 +4901,21 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>58</v>
-      </c>
-      <c r="J100" t="s">
-        <v>146</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4926,10 +4941,19 @@
       <c r="I101" t="s">
         <v>170</v>
       </c>
+      <c r="J101" t="s">
+        <v>189</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4944,27 +4968,27 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>10</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4973,7 +4997,7 @@
         <v>80</v>
       </c>
       <c r="F103">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -4982,12 +5006,21 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J103" t="s">
+        <v>162</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5016,7 +5049,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5031,21 +5064,30 @@
         <v>80</v>
       </c>
       <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
         <v>7</v>
       </c>
-      <c r="G105">
-        <v>10</v>
-      </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
         <v>58</v>
+      </c>
+      <c r="J105" t="s">
+        <v>146</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5069,12 +5111,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5089,36 +5131,27 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
-        <v>58</v>
-      </c>
-      <c r="J107" t="s">
-        <v>154</v>
-      </c>
-      <c r="K107">
-        <v>1</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5127,7 +5160,7 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -5136,12 +5169,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5156,10 +5189,10 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5170,13 +5203,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -5199,7 +5232,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5214,7 +5247,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5228,7 +5261,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5254,16 +5287,25 @@
       <c r="I112" t="s">
         <v>58</v>
       </c>
+      <c r="J112" t="s">
+        <v>154</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5272,7 +5314,7 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5281,12 +5323,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5304,24 +5346,24 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5339,21 +5381,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
-      </c>
-      <c r="J115" t="s">
-        <v>158</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5368,7 +5401,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5382,7 +5415,7 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5406,27 +5439,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>170</v>
-      </c>
-      <c r="J117" t="s">
-        <v>158</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5449,7 +5473,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5464,7 +5488,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5473,18 +5497,18 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B120">
         <v>5</v>
       </c>
       <c r="C120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -5493,7 +5517,7 @@
         <v>80</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G120">
         <v>10</v>
@@ -5505,18 +5529,18 @@
         <v>58</v>
       </c>
       <c r="J120" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K120">
         <v>1</v>
       </c>
       <c r="L120" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5542,19 +5566,10 @@
       <c r="I121" t="s">
         <v>58</v>
       </c>
-      <c r="J121" t="s">
-        <v>163</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5569,7 +5584,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5578,10 +5593,10 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J122" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K122">
         <v>1</v>
@@ -5592,7 +5607,7 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5607,7 +5622,7 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G123">
         <v>10</v>
@@ -5621,7 +5636,7 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5636,36 +5651,27 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>58</v>
-      </c>
-      <c r="J124" t="s">
-        <v>163</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -5685,10 +5691,19 @@
       <c r="I125" t="s">
         <v>58</v>
       </c>
+      <c r="J125" t="s">
+        <v>159</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5706,18 +5721,27 @@
         <v>10</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>58</v>
+      </c>
+      <c r="J126" t="s">
+        <v>163</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5732,7 +5756,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5741,18 +5765,27 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J127" t="s">
+        <v>160</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -5761,7 +5794,7 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -5775,7 +5808,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5790,24 +5823,33 @@
         <v>80</v>
       </c>
       <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
         <v>7</v>
       </c>
-      <c r="G129">
-        <v>10</v>
-      </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J129" t="s">
+        <v>163</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B130">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C130">
         <v>6</v>
@@ -5816,7 +5858,7 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -5833,10 +5875,10 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131">
         <v>6</v>
@@ -5845,27 +5887,27 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F131">
+        <v>10</v>
+      </c>
+      <c r="G131">
         <v>7</v>
       </c>
-      <c r="G131">
-        <v>10</v>
-      </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="B132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C132">
         <v>6</v>
@@ -5874,10 +5916,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -5886,27 +5928,27 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -5917,22 +5959,13 @@
       <c r="I133" t="s">
         <v>170</v>
       </c>
-      <c r="J133" t="s">
-        <v>164</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="B134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -5941,24 +5974,24 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B135">
         <v>4</v>
@@ -5973,7 +6006,7 @@
         <v>70</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -5987,13 +6020,13 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B136">
         <v>4</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -6002,21 +6035,21 @@
         <v>70</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H136">
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B137">
         <v>4</v>
@@ -6034,18 +6067,18 @@
         <v>10</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6060,7 +6093,7 @@
         <v>70</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -6071,10 +6104,19 @@
       <c r="I138" t="s">
         <v>170</v>
       </c>
+      <c r="J138" t="s">
+        <v>164</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6092,18 +6134,18 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6127,18 +6169,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6147,21 +6189,21 @@
         <v>70</v>
       </c>
       <c r="F141">
+        <v>10</v>
+      </c>
+      <c r="G141">
         <v>7</v>
       </c>
-      <c r="G141">
-        <v>10</v>
-      </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -6176,10 +6218,10 @@
         <v>70</v>
       </c>
       <c r="F142">
+        <v>10</v>
+      </c>
+      <c r="G142">
         <v>7</v>
-      </c>
-      <c r="G142">
-        <v>10</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6187,19 +6229,10 @@
       <c r="I142" t="s">
         <v>170</v>
       </c>
-      <c r="J142" t="s">
-        <v>162</v>
-      </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -6223,21 +6256,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>70</v>
-      </c>
-      <c r="J143" t="s">
-        <v>146</v>
-      </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -6255,18 +6279,18 @@
         <v>10</v>
       </c>
       <c r="G144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -6281,10 +6305,10 @@
         <v>70</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6295,7 +6319,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -6319,12 +6343,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -6339,7 +6363,7 @@
         <v>70</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6348,12 +6372,21 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J147" t="s">
+        <v>162</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -6368,7 +6401,7 @@
         <v>70</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6377,21 +6410,21 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J148" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="K148">
         <v>1</v>
       </c>
       <c r="L148" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6406,30 +6439,21 @@
         <v>70</v>
       </c>
       <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
         <v>7</v>
       </c>
-      <c r="G149">
-        <v>10</v>
-      </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>170</v>
-      </c>
-      <c r="J149" t="s">
-        <v>165</v>
-      </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -6444,21 +6468,21 @@
         <v>70</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -6473,7 +6497,7 @@
         <v>70</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -6482,21 +6506,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
-      </c>
-      <c r="J151" t="s">
-        <v>156</v>
-      </c>
-      <c r="K151">
-        <v>1</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6514,7 +6529,7 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6525,7 +6540,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -6540,7 +6555,7 @@
         <v>70</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6549,12 +6564,21 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J153" t="s">
+        <v>195</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6569,7 +6593,7 @@
         <v>70</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -6578,10 +6602,10 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J154" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -6592,7 +6616,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6607,7 +6631,7 @@
         <v>70</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6617,20 +6641,11 @@
       </c>
       <c r="I155" t="s">
         <v>58</v>
-      </c>
-      <c r="J155" t="s">
-        <v>160</v>
-      </c>
-      <c r="K155">
-        <v>3</v>
-      </c>
-      <c r="L155" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6645,20 +6660,192 @@
         <v>70</v>
       </c>
       <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
+        <v>10</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>58</v>
+      </c>
+      <c r="J156" t="s">
+        <v>156</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>205</v>
+      </c>
+      <c r="B157">
+        <v>4</v>
+      </c>
+      <c r="C157">
+        <v>6</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+      <c r="E157">
+        <v>70</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+      <c r="G157">
         <v>7</v>
       </c>
-      <c r="G156">
-        <v>10</v>
-      </c>
-      <c r="H156">
-        <v>0</v>
-      </c>
-      <c r="I156" t="s">
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>6</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158">
+        <v>70</v>
+      </c>
+      <c r="F158">
+        <v>7</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>75</v>
+      </c>
+      <c r="B159">
+        <v>4</v>
+      </c>
+      <c r="C159">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+      <c r="E159">
+        <v>70</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+      <c r="G159">
+        <v>10</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>58</v>
+      </c>
+      <c r="J159" t="s">
+        <v>161</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>76</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160">
+        <v>6</v>
+      </c>
+      <c r="D160">
+        <v>2</v>
+      </c>
+      <c r="E160">
+        <v>70</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+      <c r="G160">
+        <v>10</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>58</v>
+      </c>
+      <c r="J160" t="s">
+        <v>160</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>77</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>6</v>
+      </c>
+      <c r="D161">
+        <v>2</v>
+      </c>
+      <c r="E161">
+        <v>70</v>
+      </c>
+      <c r="F161">
+        <v>7</v>
+      </c>
+      <c r="G161">
+        <v>10</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L156" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L161" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6670,20 +6857,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I161:I190" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I166:I195" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L196:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L201:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L195" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L200" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I160" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I165" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7CE58BE-43D2-4AE9-8CDB-4B6345DDF882}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B597F8E7-01CC-4971-B8A5-BA54E80446D3}"/>
   <bookViews>
-    <workbookView xWindow="6634" yWindow="1303" windowWidth="17555" windowHeight="8280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="5000" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$165</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="259">
   <si>
     <t>陈</t>
   </si>
@@ -920,10 +920,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.01.17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重岳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,6 +941,26 @@
   </si>
   <si>
     <t>闪击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谜图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.02.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仇白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铎铃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉维尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1373,7 +1389,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1418,7 +1434,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1532,11 +1548,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L161"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1830,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1967,13 +1983,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1982,36 +1998,27 @@
         <v>90</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>244</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2030,17 +2037,26 @@
       </c>
       <c r="I14" t="s">
         <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>244</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2063,7 +2079,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2087,19 +2103,19 @@
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17">
         <v>2</v>
       </c>
@@ -2116,27 +2132,18 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" t="s">
-        <v>140</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2154,12 +2161,21 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -2188,7 +2204,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2212,16 +2228,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2253,18 +2260,18 @@
         <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K21">
         <v>3</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2291,18 +2298,18 @@
         <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -2326,18 +2333,27 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J23" t="s">
+        <v>141</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2346,21 +2362,21 @@
         <v>90</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2389,13 +2405,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2418,13 +2434,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2442,18 +2458,18 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2471,27 +2487,18 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" t="s">
-        <v>212</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2512,24 +2519,24 @@
         <v>58</v>
       </c>
       <c r="J29" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2550,18 +2557,18 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2588,24 +2595,24 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2626,24 +2633,24 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2664,24 +2671,24 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2699,10 +2706,10 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2713,13 +2720,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2737,27 +2744,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2775,21 +2782,21 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -2816,7 +2823,7 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2827,13 +2834,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2851,12 +2858,21 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="J38" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2880,27 +2896,18 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
-      </c>
-      <c r="J39" t="s">
-        <v>188</v>
-      </c>
-      <c r="K39">
-        <v>3</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2919,17 +2926,26 @@
       </c>
       <c r="I40" t="s">
         <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -2948,26 +2964,17 @@
       </c>
       <c r="I41" t="s">
         <v>58</v>
-      </c>
-      <c r="J41" t="s">
-        <v>189</v>
-      </c>
-      <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2985,10 +2992,10 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2999,13 +3006,13 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3023,13 +3030,13 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J43" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="K43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>166</v>
@@ -3037,13 +3044,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3064,7 +3071,7 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K44">
         <v>3</v>
@@ -3075,7 +3082,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -3100,17 +3107,26 @@
       </c>
       <c r="I45" t="s">
         <v>58</v>
+      </c>
+      <c r="J45" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3128,27 +3144,18 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>170</v>
-      </c>
-      <c r="J46" t="s">
-        <v>149</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3166,18 +3173,27 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J47" t="s">
+        <v>149</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3197,25 +3213,16 @@
       <c r="I48" t="s">
         <v>59</v>
       </c>
-      <c r="J48" t="s">
-        <v>250</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3224,27 +3231,36 @@
         <v>90</v>
       </c>
       <c r="F49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J49" t="s">
+        <v>249</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3262,27 +3278,18 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" t="s">
-        <v>150</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3303,24 +3310,24 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3339,17 +3346,26 @@
       </c>
       <c r="I52" t="s">
         <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>151</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3368,26 +3384,17 @@
       </c>
       <c r="I53" t="s">
         <v>58</v>
-      </c>
-      <c r="J53" t="s">
-        <v>152</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3405,21 +3412,21 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3446,7 +3453,7 @@
         <v>170</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -3457,7 +3464,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3481,10 +3488,10 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J56" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3495,42 +3502,51 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" t="s">
+        <v>227</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-      <c r="F57">
-        <v>10</v>
-      </c>
-      <c r="G57">
-        <v>10</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57" t="s">
-        <v>170</v>
+      <c r="L57" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3548,21 +3564,12 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
-      </c>
-      <c r="J58" t="s">
-        <v>154</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3586,27 +3593,27 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3624,12 +3631,21 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J60" t="s">
+        <v>155</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3653,18 +3669,18 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3683,20 +3699,11 @@
       </c>
       <c r="I62" t="s">
         <v>58</v>
-      </c>
-      <c r="J62" t="s">
-        <v>156</v>
-      </c>
-      <c r="K62">
-        <v>1</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3723,10 +3730,10 @@
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>167</v>
@@ -3734,13 +3741,13 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3761,10 +3768,10 @@
         <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>167</v>
@@ -3772,13 +3779,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3797,17 +3804,26 @@
       </c>
       <c r="I65" t="s">
         <v>58</v>
+      </c>
+      <c r="J65" t="s">
+        <v>158</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3825,18 +3841,18 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3854,18 +3870,18 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3883,21 +3899,12 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
-      </c>
-      <c r="J68" t="s">
-        <v>200</v>
-      </c>
-      <c r="K68">
-        <v>3</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -3921,10 +3928,10 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -3962,18 +3969,18 @@
         <v>170</v>
       </c>
       <c r="J70" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="K70">
         <v>3</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4000,24 +4007,24 @@
         <v>170</v>
       </c>
       <c r="J71" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4035,27 +4042,27 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J72" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4073,10 +4080,10 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -4087,7 +4094,7 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4114,7 +4121,7 @@
         <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4125,13 +4132,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4150,49 +4157,49 @@
       </c>
       <c r="I75" t="s">
         <v>58</v>
+      </c>
+      <c r="J75" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G76">
         <v>10</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
-      </c>
-      <c r="J76" t="s">
-        <v>229</v>
-      </c>
-      <c r="K76">
-        <v>1</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>186</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -4207,7 +4214,7 @@
         <v>80</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <v>10</v>
@@ -4216,12 +4223,21 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J77" t="s">
+        <v>229</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4236,7 +4252,7 @@
         <v>80</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -4245,12 +4261,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4274,12 +4290,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4294,7 +4310,7 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -4303,12 +4319,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4332,12 +4348,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4352,7 +4368,7 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>10</v>
@@ -4366,7 +4382,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4384,18 +4400,18 @@
         <v>10</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>100</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4424,13 +4440,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c r="B85">
         <v>5</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4439,7 +4455,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4453,7 +4469,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4468,36 +4484,27 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H86">
         <v>0</v>
       </c>
       <c r="I86" t="s">
         <v>58</v>
-      </c>
-      <c r="J86" t="s">
-        <v>140</v>
-      </c>
-      <c r="K86">
-        <v>1</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4506,10 +4513,10 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4520,7 +4527,7 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4535,27 +4542,36 @@
         <v>80</v>
       </c>
       <c r="F88">
+        <v>10</v>
+      </c>
+      <c r="G88">
         <v>7</v>
       </c>
-      <c r="G88">
-        <v>10</v>
-      </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
         <v>58</v>
+      </c>
+      <c r="J88" t="s">
+        <v>140</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4567,18 +4583,18 @@
         <v>7</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>225</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4596,18 +4612,18 @@
         <v>10</v>
       </c>
       <c r="G90">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4622,7 +4638,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4636,7 +4652,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4662,19 +4678,10 @@
       <c r="I92" t="s">
         <v>58</v>
       </c>
-      <c r="J92" t="s">
-        <v>139</v>
-      </c>
-      <c r="K92">
-        <v>1</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>104</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4689,21 +4696,21 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4718,7 +4725,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4732,7 +4739,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4747,21 +4754,30 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J95" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4785,18 +4801,18 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4805,21 +4821,21 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4843,12 +4859,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4866,33 +4882,24 @@
         <v>10</v>
       </c>
       <c r="G99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
         <v>58</v>
-      </c>
-      <c r="J99" t="s">
-        <v>148</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -4901,21 +4908,21 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4930,30 +4937,21 @@
         <v>80</v>
       </c>
       <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101">
         <v>7</v>
       </c>
-      <c r="G101">
-        <v>10</v>
-      </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>170</v>
-      </c>
-      <c r="J101" t="s">
-        <v>189</v>
-      </c>
-      <c r="K101">
-        <v>3</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4968,7 +4966,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -4977,12 +4975,21 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -4997,7 +5004,7 @@
         <v>80</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -5006,21 +5013,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>59</v>
-      </c>
-      <c r="J103" t="s">
-        <v>162</v>
-      </c>
-      <c r="K103">
-        <v>1</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5044,12 +5042,21 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J104" t="s">
+        <v>189</v>
+      </c>
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5064,30 +5071,21 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>58</v>
-      </c>
-      <c r="J105" t="s">
-        <v>146</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>236</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5102,7 +5100,7 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -5111,12 +5109,21 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J106" t="s">
+        <v>162</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5131,27 +5138,27 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <v>10</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5160,21 +5167,30 @@
         <v>80</v>
       </c>
       <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108">
         <v>7</v>
       </c>
-      <c r="G108">
-        <v>10</v>
-      </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>58</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5198,12 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5218,27 +5234,27 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5261,7 +5277,7 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5287,19 +5303,10 @@
       <c r="I112" t="s">
         <v>58</v>
       </c>
-      <c r="J112" t="s">
-        <v>154</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5314,7 +5321,7 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5323,12 +5330,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>118</v>
+        <v>235</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5343,10 +5350,10 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5357,13 +5364,13 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5381,12 +5388,21 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J115" t="s">
+        <v>154</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5401,7 +5417,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5410,12 +5426,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5430,10 +5446,10 @@
         <v>80</v>
       </c>
       <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="G117">
         <v>7</v>
-      </c>
-      <c r="G117">
-        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5444,13 +5460,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>222</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5468,12 +5484,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5488,7 +5504,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5497,12 +5513,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5528,25 +5544,16 @@
       <c r="I120" t="s">
         <v>58</v>
       </c>
-      <c r="J120" t="s">
-        <v>158</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="B121">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -5555,7 +5562,7 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5564,12 +5571,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5584,7 +5591,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5593,21 +5600,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>170</v>
-      </c>
-      <c r="J122" t="s">
-        <v>158</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5631,12 +5629,21 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5651,7 +5658,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5660,18 +5667,18 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -5680,7 +5687,7 @@
         <v>80</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -5689,21 +5696,21 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K125">
         <v>1</v>
       </c>
       <c r="L125" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5718,7 +5725,7 @@
         <v>80</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -5727,21 +5734,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>58</v>
-      </c>
-      <c r="J126" t="s">
-        <v>163</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5756,7 +5754,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5765,27 +5763,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
-      </c>
-      <c r="J127" t="s">
-        <v>160</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -5794,7 +5783,7 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -5803,12 +5792,21 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J128" t="s">
+        <v>159</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5826,7 +5824,7 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5846,7 +5844,7 @@
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5872,10 +5870,19 @@
       <c r="I130" t="s">
         <v>58</v>
       </c>
+      <c r="J130" t="s">
+        <v>160</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5890,21 +5897,21 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5919,27 +5926,36 @@
         <v>80</v>
       </c>
       <c r="F132">
+        <v>10</v>
+      </c>
+      <c r="G132">
         <v>7</v>
       </c>
-      <c r="G132">
-        <v>10</v>
-      </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J132" t="s">
+        <v>163</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -5948,7 +5964,7 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -5957,12 +5973,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -5977,10 +5993,10 @@
         <v>80</v>
       </c>
       <c r="F134">
+        <v>10</v>
+      </c>
+      <c r="G134">
         <v>7</v>
-      </c>
-      <c r="G134">
-        <v>10</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -5991,10 +6007,10 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>78</v>
+        <v>223</v>
       </c>
       <c r="B135">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C135">
         <v>6</v>
@@ -6003,10 +6019,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -6015,24 +6031,24 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="B136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D136">
         <v>2</v>
       </c>
       <c r="E136">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F136">
         <v>7</v>
@@ -6044,15 +6060,15 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C137">
         <v>6</v>
@@ -6061,10 +6077,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -6073,12 +6089,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B138">
         <v>4</v>
@@ -6102,21 +6118,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>170</v>
-      </c>
-      <c r="J138" t="s">
-        <v>164</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="B139">
         <v>4</v>
@@ -6131,21 +6138,21 @@
         <v>70</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="B140">
         <v>4</v>
@@ -6160,7 +6167,7 @@
         <v>70</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6174,13 +6181,13 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>64</v>
       </c>
       <c r="B141">
         <v>4</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6192,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="G141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -6200,10 +6207,19 @@
       <c r="I141" t="s">
         <v>170</v>
       </c>
+      <c r="J141" t="s">
+        <v>164</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B142">
         <v>4</v>
@@ -6232,7 +6248,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -6256,18 +6272,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>67</v>
+        <v>218</v>
       </c>
       <c r="B144">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6279,18 +6295,18 @@
         <v>10</v>
       </c>
       <c r="G144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -6305,21 +6321,21 @@
         <v>70</v>
       </c>
       <c r="F145">
+        <v>10</v>
+      </c>
+      <c r="G145">
         <v>7</v>
       </c>
-      <c r="G145">
-        <v>10</v>
-      </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -6343,12 +6359,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B147">
         <v>4</v>
@@ -6363,7 +6379,7 @@
         <v>70</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6372,21 +6388,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>170</v>
-      </c>
-      <c r="J147" t="s">
-        <v>162</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>69</v>
+        <v>219</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -6410,21 +6417,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>70</v>
-      </c>
-      <c r="J148" t="s">
-        <v>146</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>72</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6439,10 +6437,10 @@
         <v>70</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6453,7 +6451,7 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -6468,10 +6466,10 @@
         <v>70</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6479,10 +6477,19 @@
       <c r="I150" t="s">
         <v>170</v>
       </c>
+      <c r="J150" t="s">
+        <v>162</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -6506,12 +6513,21 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>170</v>
+        <v>70</v>
+      </c>
+      <c r="J151" t="s">
+        <v>146</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6529,7 +6545,7 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -6540,7 +6556,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>238</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -6558,27 +6574,18 @@
         <v>10</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
-      </c>
-      <c r="J153" t="s">
-        <v>195</v>
-      </c>
-      <c r="K153">
-        <v>1</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6604,19 +6611,10 @@
       <c r="I154" t="s">
         <v>170</v>
       </c>
-      <c r="J154" t="s">
-        <v>165</v>
-      </c>
-      <c r="K154">
-        <v>1</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6631,7 +6629,7 @@
         <v>70</v>
       </c>
       <c r="F155">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6645,7 +6643,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6672,18 +6670,18 @@
         <v>58</v>
       </c>
       <c r="J156" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="K156">
         <v>1</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6712,7 +6710,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6736,12 +6734,21 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J158" t="s">
+        <v>165</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6756,7 +6763,7 @@
         <v>70</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -6766,20 +6773,11 @@
       </c>
       <c r="I159" t="s">
         <v>58</v>
-      </c>
-      <c r="J159" t="s">
-        <v>161</v>
-      </c>
-      <c r="K159">
-        <v>1</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6806,18 +6804,18 @@
         <v>58</v>
       </c>
       <c r="J160" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K160">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L160" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -6832,11 +6830,11 @@
         <v>70</v>
       </c>
       <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
         <v>7</v>
       </c>
-      <c r="G161">
-        <v>10</v>
-      </c>
       <c r="H161">
         <v>0</v>
       </c>
@@ -6844,8 +6842,142 @@
         <v>58</v>
       </c>
     </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>220</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
+      </c>
+      <c r="C162">
+        <v>6</v>
+      </c>
+      <c r="D162">
+        <v>2</v>
+      </c>
+      <c r="E162">
+        <v>70</v>
+      </c>
+      <c r="F162">
+        <v>7</v>
+      </c>
+      <c r="G162">
+        <v>10</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>6</v>
+      </c>
+      <c r="D163">
+        <v>2</v>
+      </c>
+      <c r="E163">
+        <v>70</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+      <c r="G163">
+        <v>10</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>58</v>
+      </c>
+      <c r="J163" t="s">
+        <v>161</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164">
+        <v>4</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>70</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
+        <v>10</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>58</v>
+      </c>
+      <c r="J164" t="s">
+        <v>160</v>
+      </c>
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>77</v>
+      </c>
+      <c r="B165">
+        <v>4</v>
+      </c>
+      <c r="C165">
+        <v>6</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>70</v>
+      </c>
+      <c r="F165">
+        <v>7</v>
+      </c>
+      <c r="G165">
+        <v>10</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L161" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L165" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6857,20 +6989,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I166:I195" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I170:I199" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L201:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L205:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L200" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L204" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I165" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I169" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B597F8E7-01CC-4971-B8A5-BA54E80446D3}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7433D918-ED6B-4E11-BA72-49329200B210}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="5000" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="5040" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$171</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="267">
   <si>
     <t>陈</t>
   </si>
@@ -948,10 +948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.02.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仇白</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,6 +957,42 @@
   </si>
   <si>
     <t>嘉维尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因陀罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断罪者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟X夜刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUS-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLA-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火龙S黑角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.03.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1140,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1121,6 +1153,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,7 +1425,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1434,7 +1470,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1548,11 +1584,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L165"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K150" sqref="K150"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1750,7 +1786,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1951,7 +1987,7 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1983,7 +2019,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1998,10 +2034,10 @@
         <v>90</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>10</v>
@@ -2612,7 +2648,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -3012,7 +3048,7 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3155,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3260,7 +3296,7 @@
         <v>6</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3385,6 +3421,15 @@
       <c r="I53" t="s">
         <v>58</v>
       </c>
+      <c r="J53" t="s">
+        <v>264</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
@@ -3680,7 +3725,7 @@
         <v>6</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3727,7 +3772,7 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="J63" t="s">
         <v>156</v>
@@ -4062,7 +4107,7 @@
         <v>6</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4132,13 +4177,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4156,13 +4201,13 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J75" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>167</v>
@@ -4170,13 +4215,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4195,49 +4240,58 @@
       </c>
       <c r="I76" t="s">
         <v>58</v>
+      </c>
+      <c r="J76" t="s">
+        <v>201</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <v>10</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -4252,7 +4306,7 @@
         <v>80</v>
       </c>
       <c r="F78">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G78">
         <v>10</v>
@@ -4261,12 +4315,21 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J78" t="s">
+        <v>229</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4281,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -4290,12 +4353,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4319,12 +4382,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4339,21 +4402,21 @@
         <v>80</v>
       </c>
       <c r="F81">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H81">
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4371,18 +4434,18 @@
         <v>10</v>
       </c>
       <c r="G82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4400,7 +4463,7 @@
         <v>10</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -4411,7 +4474,7 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4426,10 +4489,10 @@
         <v>80</v>
       </c>
       <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="G84">
         <v>7</v>
-      </c>
-      <c r="G84">
-        <v>10</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4440,7 +4503,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4455,7 +4518,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4464,12 +4527,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4484,7 +4547,7 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -4493,18 +4556,18 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B87">
         <v>5</v>
       </c>
       <c r="C87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4522,18 +4585,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4542,36 +4605,27 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>58</v>
-      </c>
-      <c r="J88" t="s">
-        <v>140</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>257</v>
+        <v>101</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4580,7 +4634,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G89">
         <v>7</v>
@@ -4589,18 +4643,27 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J89" t="s">
+        <v>140</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4609,7 +4672,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>7</v>
@@ -4623,7 +4686,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4638,21 +4701,21 @@
         <v>80</v>
       </c>
       <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="G91">
         <v>7</v>
       </c>
-      <c r="G91">
-        <v>10</v>
-      </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>265</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4676,12 +4739,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4696,7 +4759,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4710,7 +4773,7 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4725,7 +4788,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -4739,13 +4802,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>106</v>
+        <v>259</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4765,19 +4828,10 @@
       <c r="I95" t="s">
         <v>58</v>
       </c>
-      <c r="J95" t="s">
-        <v>139</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4795,18 +4849,18 @@
         <v>10</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4821,7 +4875,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4835,7 +4889,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4850,21 +4904,30 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J98" t="s">
+        <v>139</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4888,18 +4951,18 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -4908,10 +4971,10 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4922,7 +4985,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>240</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -4937,10 +5000,10 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4951,7 +5014,7 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -4969,27 +5032,18 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
-      </c>
-      <c r="J102" t="s">
-        <v>148</v>
-      </c>
-      <c r="K102">
-        <v>3</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>252</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5004,10 +5058,10 @@
         <v>80</v>
       </c>
       <c r="F103">
+        <v>10</v>
+      </c>
+      <c r="G103">
         <v>7</v>
-      </c>
-      <c r="G103">
-        <v>10</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -5018,13 +5072,13 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>253</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -5033,10 +5087,10 @@
         <v>80</v>
       </c>
       <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
         <v>7</v>
-      </c>
-      <c r="G104">
-        <v>10</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5044,19 +5098,10 @@
       <c r="I104" t="s">
         <v>170</v>
       </c>
-      <c r="J104" t="s">
-        <v>189</v>
-      </c>
-      <c r="K104">
-        <v>3</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5071,21 +5116,21 @@
         <v>80</v>
       </c>
       <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105">
         <v>7</v>
       </c>
-      <c r="G105">
-        <v>10</v>
-      </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5109,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J106" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="K106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L106" s="8" t="s">
         <v>166</v>
@@ -5123,7 +5168,7 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5152,7 +5197,7 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5167,22 +5212,22 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J108" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>166</v>
@@ -5190,7 +5235,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5219,7 +5264,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5234,27 +5279,27 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5263,7 +5308,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5272,12 +5317,21 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J111" t="s">
+        <v>162</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5306,7 +5360,7 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5321,21 +5375,30 @@
         <v>80</v>
       </c>
       <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
         <v>7</v>
       </c>
-      <c r="G113">
-        <v>10</v>
-      </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>58</v>
+      </c>
+      <c r="J113" t="s">
+        <v>146</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5359,12 +5422,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5379,36 +5442,27 @@
         <v>80</v>
       </c>
       <c r="F115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>10</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
-      </c>
-      <c r="J115" t="s">
-        <v>154</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>5</v>
       </c>
       <c r="C116">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -5417,7 +5471,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5426,12 +5480,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5446,10 +5500,10 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -5460,13 +5514,13 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5484,12 +5538,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5504,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5518,7 +5572,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5544,16 +5598,25 @@
       <c r="I120" t="s">
         <v>58</v>
       </c>
+      <c r="J120" t="s">
+        <v>154</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="B121">
         <v>5</v>
       </c>
       <c r="C121">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -5562,7 +5625,7 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5571,12 +5634,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5594,24 +5657,24 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -5629,21 +5692,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
-      </c>
-      <c r="J123" t="s">
-        <v>158</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5658,7 +5712,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5672,7 +5726,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5696,27 +5750,18 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>170</v>
-      </c>
-      <c r="J125" t="s">
-        <v>158</v>
-      </c>
-      <c r="K125">
-        <v>1</v>
-      </c>
-      <c r="L125" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -5739,7 +5784,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5754,7 +5799,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5763,18 +5808,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -5783,7 +5828,7 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -5795,18 +5840,18 @@
         <v>58</v>
       </c>
       <c r="J128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K128">
         <v>1</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5832,19 +5877,10 @@
       <c r="I129" t="s">
         <v>58</v>
       </c>
-      <c r="J129" t="s">
-        <v>163</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5859,7 +5895,7 @@
         <v>80</v>
       </c>
       <c r="F130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5871,7 +5907,7 @@
         <v>58</v>
       </c>
       <c r="J130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K130">
         <v>1</v>
@@ -5882,7 +5918,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5897,7 +5933,7 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -5911,7 +5947,7 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5926,36 +5962,27 @@
         <v>80</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
-      </c>
-      <c r="J132" t="s">
-        <v>163</v>
-      </c>
-      <c r="K132">
-        <v>1</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -5975,10 +6002,19 @@
       <c r="I133" t="s">
         <v>58</v>
       </c>
+      <c r="J133" t="s">
+        <v>159</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -5996,18 +6032,27 @@
         <v>10</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J134" t="s">
+        <v>163</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6022,7 +6067,7 @@
         <v>80</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -6031,18 +6076,27 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J135" t="s">
+        <v>160</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="B136">
         <v>5</v>
       </c>
       <c r="C136">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -6051,7 +6105,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6065,7 +6119,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6080,24 +6134,33 @@
         <v>80</v>
       </c>
       <c r="F137">
+        <v>10</v>
+      </c>
+      <c r="G137">
         <v>7</v>
       </c>
-      <c r="G137">
-        <v>10</v>
-      </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J137" t="s">
+        <v>163</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C138">
         <v>6</v>
@@ -6106,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -6123,10 +6186,10 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C139">
         <v>6</v>
@@ -6135,13 +6198,13 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
         <v>7</v>
-      </c>
-      <c r="G139">
-        <v>10</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -6152,10 +6215,10 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="B140">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -6164,10 +6227,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6176,27 +6239,27 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6207,22 +6270,13 @@
       <c r="I141" t="s">
         <v>170</v>
       </c>
-      <c r="J141" t="s">
-        <v>164</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="B142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C142">
         <v>6</v>
@@ -6231,24 +6285,24 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H142">
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="B143">
         <v>4</v>
@@ -6263,7 +6317,7 @@
         <v>70</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G143">
         <v>10</v>
@@ -6277,13 +6331,13 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="B144">
         <v>4</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6292,21 +6346,21 @@
         <v>70</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H144">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -6324,7 +6378,7 @@
         <v>10</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6335,7 +6389,7 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -6350,7 +6404,7 @@
         <v>70</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6361,16 +6415,25 @@
       <c r="I146" t="s">
         <v>170</v>
       </c>
+      <c r="J146" t="s">
+        <v>164</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>67</v>
+        <v>261</v>
       </c>
       <c r="B147">
         <v>4</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -6382,18 +6445,18 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="B148">
         <v>4</v>
@@ -6408,10 +6471,10 @@
         <v>70</v>
       </c>
       <c r="F148">
+        <v>10</v>
+      </c>
+      <c r="G148">
         <v>7</v>
-      </c>
-      <c r="G148">
-        <v>10</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -6422,7 +6485,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6451,13 +6514,13 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>68</v>
+        <v>218</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6466,10 +6529,10 @@
         <v>70</v>
       </c>
       <c r="F150">
+        <v>10</v>
+      </c>
+      <c r="G150">
         <v>7</v>
-      </c>
-      <c r="G150">
-        <v>10</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6477,19 +6540,10 @@
       <c r="I150" t="s">
         <v>170</v>
       </c>
-      <c r="J150" t="s">
-        <v>162</v>
-      </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B151">
         <v>4</v>
@@ -6504,30 +6558,21 @@
         <v>70</v>
       </c>
       <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
         <v>7</v>
       </c>
-      <c r="G151">
-        <v>10</v>
-      </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>70</v>
-      </c>
-      <c r="J151" t="s">
-        <v>146</v>
-      </c>
-      <c r="K151">
-        <v>1</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6542,21 +6587,21 @@
         <v>70</v>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -6574,18 +6619,18 @@
         <v>10</v>
       </c>
       <c r="G153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6614,7 +6659,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6629,7 +6674,7 @@
         <v>70</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6643,7 +6688,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6658,7 +6703,7 @@
         <v>70</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -6667,21 +6712,21 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J156" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="K156">
         <v>1</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6696,21 +6741,30 @@
         <v>70</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G157">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="J157" t="s">
+        <v>146</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6725,30 +6779,21 @@
         <v>70</v>
       </c>
       <c r="F158">
+        <v>10</v>
+      </c>
+      <c r="G158">
         <v>7</v>
       </c>
-      <c r="G158">
-        <v>10</v>
-      </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>170</v>
-      </c>
-      <c r="J158" t="s">
-        <v>165</v>
-      </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
-      <c r="L158" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6763,21 +6808,21 @@
         <v>70</v>
       </c>
       <c r="F159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G159">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6792,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -6801,21 +6846,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>58</v>
-      </c>
-      <c r="J160" t="s">
-        <v>156</v>
-      </c>
-      <c r="K160">
-        <v>1</v>
-      </c>
-      <c r="L160" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>71</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -6833,7 +6869,7 @@
         <v>10</v>
       </c>
       <c r="G161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -6844,7 +6880,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -6859,7 +6895,7 @@
         <v>70</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -6868,12 +6904,21 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J162" t="s">
+        <v>195</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -6891,27 +6936,18 @@
         <v>10</v>
       </c>
       <c r="G163">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
         <v>58</v>
-      </c>
-      <c r="J163" t="s">
-        <v>161</v>
-      </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-      <c r="L163" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -6926,7 +6962,7 @@
         <v>70</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -6935,13 +6971,13 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J164" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="K164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L164" s="8" t="s">
         <v>167</v>
@@ -6949,7 +6985,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -6976,8 +7012,209 @@
         <v>58</v>
       </c>
     </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>74</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>6</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166">
+        <v>70</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+      <c r="G166">
+        <v>10</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>58</v>
+      </c>
+      <c r="J166" t="s">
+        <v>156</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>205</v>
+      </c>
+      <c r="B167">
+        <v>4</v>
+      </c>
+      <c r="C167">
+        <v>6</v>
+      </c>
+      <c r="D167">
+        <v>2</v>
+      </c>
+      <c r="E167">
+        <v>70</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
+        <v>7</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="C168">
+        <v>6</v>
+      </c>
+      <c r="D168">
+        <v>2</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+      <c r="G168">
+        <v>10</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>75</v>
+      </c>
+      <c r="B169">
+        <v>4</v>
+      </c>
+      <c r="C169">
+        <v>6</v>
+      </c>
+      <c r="D169">
+        <v>2</v>
+      </c>
+      <c r="E169">
+        <v>70</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+      <c r="G169">
+        <v>10</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>58</v>
+      </c>
+      <c r="J169" t="s">
+        <v>161</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>76</v>
+      </c>
+      <c r="B170">
+        <v>4</v>
+      </c>
+      <c r="C170">
+        <v>6</v>
+      </c>
+      <c r="D170">
+        <v>2</v>
+      </c>
+      <c r="E170">
+        <v>70</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+      <c r="G170">
+        <v>10</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>58</v>
+      </c>
+      <c r="J170" t="s">
+        <v>160</v>
+      </c>
+      <c r="K170">
+        <v>3</v>
+      </c>
+      <c r="L170" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>77</v>
+      </c>
+      <c r="B171">
+        <v>4</v>
+      </c>
+      <c r="C171">
+        <v>6</v>
+      </c>
+      <c r="D171">
+        <v>2</v>
+      </c>
+      <c r="E171">
+        <v>70</v>
+      </c>
+      <c r="F171">
+        <v>7</v>
+      </c>
+      <c r="G171">
+        <v>10</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L165" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L171" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -6989,20 +7226,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I170:I199" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I176:I205" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L205:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L211:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L204" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L210" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I169" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I175" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="13_ncr:1_{FB7510FE-2A82-42A1-A907-44D489FF94EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7433D918-ED6B-4E11-BA72-49329200B210}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="5040" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="13114" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$172</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
   <si>
     <t>陈</t>
   </si>
@@ -992,7 +992,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.03.23</t>
+    <t>伊内丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLX-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRP-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.04.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1153,10 +1165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1424,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1470,7 +1478,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1584,11 +1592,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I39" sqref="I39"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1914,13 +1922,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>266</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1940,25 +1948,16 @@
       <c r="I10" t="s">
         <v>170</v>
       </c>
-      <c r="J10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1978,10 +1977,19 @@
       <c r="I11" t="s">
         <v>170</v>
       </c>
+      <c r="J11" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -2005,27 +2013,18 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2043,18 +2042,27 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2072,27 +2080,18 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" t="s">
-        <v>244</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2111,17 +2110,26 @@
       </c>
       <c r="I15" t="s">
         <v>58</v>
+      </c>
+      <c r="J15" t="s">
+        <v>244</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2144,7 +2152,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -2168,19 +2176,19 @@
         <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>210</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
         <v>4</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
       <c r="D18">
         <v>2</v>
       </c>
@@ -2197,27 +2205,18 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2235,12 +2234,21 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2269,7 +2277,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -2293,16 +2301,7 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" t="s">
-        <v>141</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2334,18 +2333,18 @@
         <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="K22">
         <v>3</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -2372,18 +2371,18 @@
         <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2407,12 +2406,21 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J24" t="s">
+        <v>141</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2436,12 +2444,12 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2470,13 +2478,13 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>232</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2499,13 +2507,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2523,18 +2531,18 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2552,27 +2560,18 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" t="s">
-        <v>212</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2593,24 +2592,24 @@
         <v>58</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>212</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2631,24 +2630,24 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2669,18 +2668,18 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -2707,24 +2706,24 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2745,24 +2744,24 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2780,10 +2779,10 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2794,13 +2793,13 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2818,27 +2817,27 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2856,21 +2855,21 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -2897,7 +2896,7 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2908,13 +2907,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -2932,12 +2931,21 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -2961,27 +2969,18 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J40" t="s">
-        <v>188</v>
-      </c>
-      <c r="K40">
-        <v>3</v>
-      </c>
-      <c r="L40" s="8" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3000,17 +2999,26 @@
       </c>
       <c r="I41" t="s">
         <v>58</v>
+      </c>
+      <c r="J41" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3029,26 +3037,17 @@
       </c>
       <c r="I42" t="s">
         <v>58</v>
-      </c>
-      <c r="J42" t="s">
-        <v>189</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3066,10 +3065,10 @@
         <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3080,13 +3079,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3104,13 +3103,13 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J44" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>166</v>
@@ -3118,13 +3117,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3145,7 +3144,7 @@
         <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="K45">
         <v>3</v>
@@ -3156,7 +3155,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -3181,17 +3180,26 @@
       </c>
       <c r="I46" t="s">
         <v>58</v>
+      </c>
+      <c r="J46" t="s">
+        <v>249</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3209,21 +3217,12 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>170</v>
-      </c>
-      <c r="J47" t="s">
-        <v>149</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3247,18 +3246,27 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>59</v>
+        <v>170</v>
+      </c>
+      <c r="J48" t="s">
+        <v>149</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3279,53 +3287,62 @@
         <v>59</v>
       </c>
       <c r="J49" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>250</v>
+        <v>93</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>90</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" t="s">
+        <v>249</v>
+      </c>
+      <c r="K50">
         <v>3</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>90</v>
-      </c>
-      <c r="F50">
-        <v>10</v>
-      </c>
-      <c r="G50">
-        <v>10</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50" t="s">
-        <v>170</v>
+      <c r="L50" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3343,65 +3360,65 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>90</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" t="s">
+        <v>150</v>
+      </c>
+      <c r="K52">
         <v>3</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>90</v>
-      </c>
-      <c r="F52">
-        <v>10</v>
-      </c>
-      <c r="G52">
-        <v>10</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52" t="s">
-        <v>151</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
       <c r="L52" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3422,7 +3439,7 @@
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3433,13 +3450,13 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3460,7 +3477,7 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3471,13 +3488,13 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3495,21 +3512,21 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>226</v>
+        <v>152</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3536,7 +3553,7 @@
         <v>170</v>
       </c>
       <c r="J56" t="s">
-        <v>153</v>
+        <v>226</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3547,7 +3564,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3571,10 +3588,10 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J57" t="s">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3585,42 +3602,51 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>90</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>227</v>
+      </c>
+      <c r="K58">
         <v>1</v>
       </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>90</v>
-      </c>
-      <c r="F58">
-        <v>10</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58" t="s">
-        <v>170</v>
+      <c r="L58" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3638,21 +3664,12 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
-      </c>
-      <c r="J59" t="s">
-        <v>154</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3676,27 +3693,27 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3714,12 +3731,21 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J61" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3743,18 +3769,18 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3772,21 +3798,12 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>204</v>
-      </c>
-      <c r="J63" t="s">
-        <v>156</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3810,13 +3827,13 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
       <c r="J64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>167</v>
@@ -3824,13 +3841,13 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3851,10 +3868,10 @@
         <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L65" s="8" t="s">
         <v>167</v>
@@ -3862,13 +3879,13 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3887,17 +3904,26 @@
       </c>
       <c r="I66" t="s">
         <v>58</v>
+      </c>
+      <c r="J66" t="s">
+        <v>158</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3915,18 +3941,18 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3944,18 +3970,18 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3973,10 +3999,10 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J69" t="s">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="K69">
         <v>3</v>
@@ -3987,7 +4013,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4011,10 +4037,10 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="K70">
         <v>3</v>
@@ -4052,18 +4078,18 @@
         <v>170</v>
       </c>
       <c r="J71" t="s">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="K71">
         <v>3</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>55</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4090,24 +4116,24 @@
         <v>170</v>
       </c>
       <c r="J72" t="s">
-        <v>163</v>
+        <v>242</v>
       </c>
       <c r="K72">
         <v>3</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4125,27 +4151,27 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J73" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4163,10 +4189,10 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J74" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4177,13 +4203,13 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4201,13 +4227,13 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>167</v>
@@ -4215,13 +4241,13 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4239,13 +4265,13 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="J76" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L76" s="8" t="s">
         <v>167</v>
@@ -4253,13 +4279,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4280,7 +4306,7 @@
         <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -4291,45 +4317,45 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F78">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G78">
         <v>10</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -4344,7 +4370,7 @@
         <v>80</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -4353,12 +4379,21 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J79" t="s">
+        <v>229</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4373,7 +4408,7 @@
         <v>80</v>
       </c>
       <c r="F80">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G80">
         <v>10</v>
@@ -4382,12 +4417,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -4411,12 +4446,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -4431,21 +4466,21 @@
         <v>80</v>
       </c>
       <c r="F82">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H82">
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4463,18 +4498,18 @@
         <v>10</v>
       </c>
       <c r="G83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4492,7 +4527,7 @@
         <v>10</v>
       </c>
       <c r="G84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -4503,7 +4538,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>213</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4518,10 +4553,10 @@
         <v>80</v>
       </c>
       <c r="F85">
+        <v>10</v>
+      </c>
+      <c r="G85">
         <v>7</v>
-      </c>
-      <c r="G85">
-        <v>10</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -4532,7 +4567,7 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4547,7 +4582,7 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -4556,12 +4591,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4576,7 +4611,7 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -4585,18 +4620,18 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="B88">
         <v>5</v>
       </c>
       <c r="C88">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4614,18 +4649,18 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>234</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4634,36 +4669,27 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
-      </c>
-      <c r="J89" t="s">
-        <v>140</v>
-      </c>
-      <c r="K89">
-        <v>1</v>
-      </c>
-      <c r="L89" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>256</v>
+        <v>101</v>
       </c>
       <c r="B90">
         <v>5</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4672,7 +4698,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G90">
         <v>7</v>
@@ -4681,18 +4707,27 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J90" t="s">
+        <v>140</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4701,7 +4736,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>7</v>
@@ -4715,7 +4750,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4730,10 +4765,10 @@
         <v>80</v>
       </c>
       <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92">
         <v>7</v>
-      </c>
-      <c r="G92">
-        <v>10</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -4744,7 +4779,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4768,12 +4803,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4802,13 +4837,13 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4831,13 +4866,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>259</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4846,7 +4881,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -4860,7 +4895,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4889,7 +4924,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4904,7 +4939,7 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -4914,20 +4949,11 @@
       </c>
       <c r="I98" t="s">
         <v>58</v>
-      </c>
-      <c r="J98" t="s">
-        <v>139</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4942,27 +4968,36 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H99">
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J99" t="s">
+        <v>139</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B100">
         <v>5</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -4971,10 +5006,10 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
-      </c>
-      <c r="G100">
-        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -4985,13 +5020,13 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5009,12 +5044,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5029,21 +5064,21 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5067,18 +5102,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -5096,18 +5131,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5125,12 +5160,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5148,27 +5183,18 @@
         <v>10</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
         <v>58</v>
-      </c>
-      <c r="J106" t="s">
-        <v>148</v>
-      </c>
-      <c r="K106">
-        <v>3</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5183,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -5193,11 +5219,20 @@
       </c>
       <c r="I107" t="s">
         <v>58</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5221,21 +5256,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>170</v>
-      </c>
-      <c r="J108" t="s">
-        <v>189</v>
-      </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5250,7 +5276,7 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -5261,10 +5287,19 @@
       <c r="I109" t="s">
         <v>170</v>
       </c>
+      <c r="J109" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>258</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5293,7 +5328,7 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5308,7 +5343,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5317,21 +5352,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
-      </c>
-      <c r="J111" t="s">
-        <v>162</v>
-      </c>
-      <c r="K111">
-        <v>1</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5346,7 +5372,7 @@
         <v>80</v>
       </c>
       <c r="F112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G112">
         <v>10</v>
@@ -5355,12 +5381,21 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J112" t="s">
+        <v>162</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5375,30 +5410,21 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
         <v>58</v>
-      </c>
-      <c r="J113" t="s">
-        <v>146</v>
-      </c>
-      <c r="K113">
-        <v>1</v>
-      </c>
-      <c r="L113" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5413,21 +5439,30 @@
         <v>80</v>
       </c>
       <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
         <v>7</v>
       </c>
-      <c r="G114">
-        <v>10</v>
-      </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5442,27 +5477,27 @@
         <v>80</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G115">
         <v>10</v>
       </c>
       <c r="H115">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
       <c r="B116">
         <v>5</v>
       </c>
       <c r="C116">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -5471,27 +5506,27 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G116">
         <v>10</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>204</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5514,7 +5549,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5543,7 +5578,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5572,7 +5607,7 @@
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>116</v>
+        <v>235</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5598,19 +5633,10 @@
       <c r="I120" t="s">
         <v>58</v>
       </c>
-      <c r="J120" t="s">
-        <v>154</v>
-      </c>
-      <c r="K120">
-        <v>1</v>
-      </c>
-      <c r="L120" s="8" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5625,7 +5651,7 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5634,12 +5660,21 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J121" t="s">
+        <v>154</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5657,24 +5692,24 @@
         <v>10</v>
       </c>
       <c r="G122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -5683,27 +5718,27 @@
         <v>80</v>
       </c>
       <c r="F123">
+        <v>10</v>
+      </c>
+      <c r="G123">
         <v>7</v>
       </c>
-      <c r="G123">
-        <v>10</v>
-      </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5712,7 +5747,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5721,12 +5756,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5741,7 +5776,7 @@
         <v>80</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -5755,13 +5790,13 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>222</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -5779,18 +5814,18 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -5799,7 +5834,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5808,12 +5843,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -5828,7 +5863,7 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G128">
         <v>10</v>
@@ -5837,21 +5872,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
-      </c>
-      <c r="J128" t="s">
-        <v>158</v>
-      </c>
-      <c r="K128">
-        <v>1</v>
-      </c>
-      <c r="L128" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -5866,7 +5892,7 @@
         <v>80</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -5876,11 +5902,20 @@
       </c>
       <c r="I129" t="s">
         <v>58</v>
+      </c>
+      <c r="J129" t="s">
+        <v>158</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5895,7 +5930,7 @@
         <v>80</v>
       </c>
       <c r="F130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5905,20 +5940,11 @@
       </c>
       <c r="I130" t="s">
         <v>58</v>
-      </c>
-      <c r="J130" t="s">
-        <v>158</v>
-      </c>
-      <c r="K130">
-        <v>1</v>
-      </c>
-      <c r="L130" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5942,12 +5968,21 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J131" t="s">
+        <v>158</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -5976,13 +6011,13 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -5991,7 +6026,7 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -6000,27 +6035,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
-      </c>
-      <c r="J133" t="s">
-        <v>159</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -6041,7 +6067,7 @@
         <v>58</v>
       </c>
       <c r="J134" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K134">
         <v>1</v>
@@ -6052,7 +6078,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6079,18 +6105,18 @@
         <v>58</v>
       </c>
       <c r="J135" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K135">
         <v>1</v>
       </c>
       <c r="L135" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6105,7 +6131,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6114,12 +6140,21 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J136" t="s">
+        <v>160</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6134,30 +6169,21 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
-      </c>
-      <c r="J137" t="s">
-        <v>163</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6175,18 +6201,27 @@
         <v>10</v>
       </c>
       <c r="G138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138" t="s">
         <v>58</v>
+      </c>
+      <c r="J138" t="s">
+        <v>163</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6204,18 +6239,18 @@
         <v>10</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>223</v>
+        <v>132</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6230,10 +6265,10 @@
         <v>80</v>
       </c>
       <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
         <v>7</v>
-      </c>
-      <c r="G140">
-        <v>10</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6244,13 +6279,13 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6268,18 +6303,18 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -6297,15 +6332,15 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>78</v>
+        <v>206</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C143">
         <v>6</v>
@@ -6314,10 +6349,10 @@
         <v>2</v>
       </c>
       <c r="E143">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G143">
         <v>10</v>
@@ -6326,12 +6361,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>78</v>
       </c>
       <c r="B144">
         <v>4</v>
@@ -6346,7 +6381,7 @@
         <v>70</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6355,12 +6390,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B145">
         <v>4</v>
@@ -6375,7 +6410,7 @@
         <v>70</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6384,12 +6419,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B146">
         <v>4</v>
@@ -6413,27 +6448,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>170</v>
-      </c>
-      <c r="J146" t="s">
-        <v>164</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="B147">
         <v>4</v>
       </c>
       <c r="C147">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -6445,24 +6471,33 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J147" t="s">
+        <v>164</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="B148">
         <v>4</v>
       </c>
       <c r="C148">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -6480,12 +6515,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>207</v>
+        <v>65</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6500,27 +6535,27 @@
         <v>70</v>
       </c>
       <c r="F149">
+        <v>10</v>
+      </c>
+      <c r="G149">
         <v>7</v>
       </c>
-      <c r="G149">
-        <v>10</v>
-      </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B150">
         <v>4</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6529,27 +6564,27 @@
         <v>70</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H150">
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -6567,12 +6602,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6587,21 +6622,21 @@
         <v>70</v>
       </c>
       <c r="F152">
+        <v>10</v>
+      </c>
+      <c r="G152">
         <v>7</v>
       </c>
-      <c r="G152">
-        <v>10</v>
-      </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>67</v>
+        <v>247</v>
       </c>
       <c r="B153">
         <v>4</v>
@@ -6616,7 +6651,7 @@
         <v>70</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6625,12 +6660,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6645,7 +6680,7 @@
         <v>70</v>
       </c>
       <c r="F154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -6654,12 +6689,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6683,12 +6718,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6712,21 +6747,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>170</v>
-      </c>
-      <c r="J156" t="s">
-        <v>162</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6750,10 +6776,10 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>70</v>
+        <v>170</v>
       </c>
       <c r="J157" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -6764,7 +6790,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6779,21 +6805,30 @@
         <v>70</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="J158" t="s">
+        <v>146</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6811,18 +6846,18 @@
         <v>10</v>
       </c>
       <c r="G159">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6837,10 +6872,10 @@
         <v>70</v>
       </c>
       <c r="F160">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G160">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6851,7 +6886,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -6866,7 +6901,7 @@
         <v>70</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -6875,12 +6910,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -6906,19 +6941,10 @@
       <c r="I162" t="s">
         <v>58</v>
       </c>
-      <c r="J162" t="s">
-        <v>195</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>194</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -6936,18 +6962,27 @@
         <v>10</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
         <v>58</v>
+      </c>
+      <c r="J163" t="s">
+        <v>195</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -6962,30 +6997,21 @@
         <v>70</v>
       </c>
       <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
         <v>7</v>
       </c>
-      <c r="G164">
-        <v>10</v>
-      </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>170</v>
-      </c>
-      <c r="J164" t="s">
-        <v>165</v>
-      </c>
-      <c r="K164">
-        <v>1</v>
-      </c>
-      <c r="L164" s="8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>73</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7009,12 +7035,21 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>58</v>
+        <v>170</v>
+      </c>
+      <c r="J165" t="s">
+        <v>165</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>74</v>
+        <v>196</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7029,7 +7064,7 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -7039,20 +7074,11 @@
       </c>
       <c r="I166" t="s">
         <v>58</v>
-      </c>
-      <c r="J166" t="s">
-        <v>156</v>
-      </c>
-      <c r="K166">
-        <v>1</v>
-      </c>
-      <c r="L166" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7070,18 +7096,27 @@
         <v>10</v>
       </c>
       <c r="G167">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167" t="s">
         <v>58</v>
+      </c>
+      <c r="J167" t="s">
+        <v>156</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7096,21 +7131,21 @@
         <v>70</v>
       </c>
       <c r="F168">
+        <v>10</v>
+      </c>
+      <c r="G168">
         <v>7</v>
       </c>
-      <c r="G168">
-        <v>10</v>
-      </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>75</v>
+        <v>220</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7125,7 +7160,7 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -7134,21 +7169,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>58</v>
-      </c>
-      <c r="J169" t="s">
-        <v>161</v>
-      </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7175,10 +7201,10 @@
         <v>58</v>
       </c>
       <c r="J170" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L170" s="8" t="s">
         <v>167</v>
@@ -7186,7 +7212,7 @@
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7201,20 +7227,58 @@
         <v>70</v>
       </c>
       <c r="F171">
+        <v>10</v>
+      </c>
+      <c r="G171">
+        <v>10</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>58</v>
+      </c>
+      <c r="J171" t="s">
+        <v>160</v>
+      </c>
+      <c r="K171">
+        <v>3</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>77</v>
+      </c>
+      <c r="B172">
+        <v>4</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172">
+        <v>70</v>
+      </c>
+      <c r="F172">
         <v>7</v>
       </c>
-      <c r="G171">
-        <v>10</v>
-      </c>
-      <c r="H171">
-        <v>0</v>
-      </c>
-      <c r="I171" t="s">
+      <c r="G172">
+        <v>10</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L171" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L172" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -7226,20 +7290,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I176:I205" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I177:I206" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L211:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L212:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L210" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L211" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I175" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I176" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Arknights\ArknightsIDcard-Ebranch\ArknightsIDCard\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC33581F-344E-4CD7-8FDC-3A942C8B09A6}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="13114" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$177</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="283">
   <si>
     <t>陈</t>
   </si>
@@ -472,14 +472,6 @@
     <t>霜华</t>
   </si>
   <si>
-    <t>skin1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浊心斯卡蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DreamHajime #3374</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -765,9 +757,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>elite0</t>
-  </si>
-  <si>
     <t>玛恩纳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1004,8 +993,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.04.21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>星极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缪尔赛思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔海雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淬羽赫默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Castle-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰拉大陆调查团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正义骑士号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lancet-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U-Official</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THRM-EX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯卡蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.05.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMD-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elite1</t>
   </si>
 </sst>
 </file>
@@ -1165,6 +1217,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1432,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1448,7 +1504,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -1478,7 +1534,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1486,7 +1542,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>135</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,7 +1550,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1571,13 +1627,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1592,11 +1648,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:L183"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A157" sqref="A157"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1617,7 +1673,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -1625,13 +1681,13 @@
         <v>56</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1660,54 +1716,54 @@
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K2" s="5">
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1736,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1777,24 +1833,24 @@
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1803,21 +1859,21 @@
         <v>90</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1841,12 +1897,12 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1870,27 +1926,18 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" t="s">
-        <v>230</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1908,27 +1955,27 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1946,18 +1993,27 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J10" t="s">
+        <v>226</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1975,27 +2031,18 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -2013,12 +2060,21 @@
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -2042,27 +2098,18 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="B14">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2080,18 +2127,27 @@
         <v>10</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>252</v>
       </c>
       <c r="B15">
         <v>6</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2109,27 +2165,18 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" t="s">
-        <v>244</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -2148,17 +2195,26 @@
       </c>
       <c r="I16" t="s">
         <v>58</v>
+      </c>
+      <c r="J16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2181,7 +2237,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2205,19 +2261,19 @@
         <v>10</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
       <c r="D19">
         <v>2</v>
       </c>
@@ -2234,27 +2290,18 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2272,12 +2319,21 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -2306,7 +2362,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2330,16 +2386,7 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" t="s">
-        <v>141</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2371,18 +2418,18 @@
         <v>58</v>
       </c>
       <c r="J23" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="K23">
         <v>3</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2406,21 +2453,21 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2444,12 +2491,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>248</v>
+        <v>9</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2473,12 +2529,12 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2502,18 +2558,18 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2531,18 +2587,18 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2560,18 +2616,18 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2589,27 +2645,18 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" t="s">
-        <v>212</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2630,24 +2677,24 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2668,24 +2715,24 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2706,18 +2753,18 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2744,7 +2791,7 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2755,13 +2802,13 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2782,24 +2829,24 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2817,27 +2864,27 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2855,27 +2902,27 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="J37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2893,21 +2940,21 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J38" t="s">
-        <v>208</v>
+        <v>145</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2934,24 +2981,24 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -2969,12 +3016,21 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>58</v>
+      </c>
+      <c r="J40" t="s">
+        <v>186</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3000,25 +3056,16 @@
       <c r="I41" t="s">
         <v>58</v>
       </c>
-      <c r="J41" t="s">
-        <v>188</v>
-      </c>
-      <c r="K41">
-        <v>3</v>
-      </c>
-      <c r="L41" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3037,17 +3084,26 @@
       </c>
       <c r="I42" t="s">
         <v>58</v>
+      </c>
+      <c r="J42" t="s">
+        <v>186</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3068,24 +3124,24 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>279</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3103,27 +3159,27 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3141,27 +3197,27 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J45" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3182,18 +3238,18 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3218,17 +3274,26 @@
       </c>
       <c r="I47" t="s">
         <v>58</v>
+      </c>
+      <c r="J47" t="s">
+        <v>246</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3246,27 +3311,18 @@
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>170</v>
-      </c>
-      <c r="J48" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48">
-        <v>1</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3284,27 +3340,27 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>267</v>
+        <v>147</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3313,36 +3369,27 @@
         <v>90</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
-      </c>
-      <c r="J50" t="s">
-        <v>249</v>
-      </c>
-      <c r="K50">
-        <v>3</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3360,21 +3407,21 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3398,27 +3445,27 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3436,21 +3483,21 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>6</v>
@@ -3477,24 +3524,24 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3515,18 +3562,18 @@
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>6</v>
@@ -3550,27 +3597,27 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3588,21 +3635,21 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -3626,50 +3673,56 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J58" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>19</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>90</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+      <c r="G59">
+        <v>10</v>
+      </c>
+      <c r="H59">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" t="s">
+        <v>280</v>
+      </c>
+      <c r="K59">
         <v>1</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>90</v>
-      </c>
-      <c r="F59">
-        <v>10</v>
-      </c>
-      <c r="G59">
-        <v>10</v>
-      </c>
-      <c r="H59">
-        <v>10</v>
-      </c>
-      <c r="I59" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3696,18 +3749,18 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3731,27 +3784,27 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3769,18 +3822,18 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3799,11 +3852,20 @@
       </c>
       <c r="I63" t="s">
         <v>58</v>
+      </c>
+      <c r="J63" t="s">
+        <v>152</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3827,27 +3889,27 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3865,27 +3927,18 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" t="s">
-        <v>157</v>
-      </c>
-      <c r="K65">
-        <v>3</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>25</v>
+        <v>269</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3894,36 +3947,27 @@
         <v>90</v>
       </c>
       <c r="F66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" t="s">
-        <v>158</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -3942,17 +3986,26 @@
       </c>
       <c r="I67" t="s">
         <v>58</v>
+      </c>
+      <c r="J67" t="s">
+        <v>281</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -3970,18 +4023,27 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
+        <v>202</v>
+      </c>
+      <c r="J68" t="s">
+        <v>154</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3999,27 +4061,27 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>268</v>
+        <v>155</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4040,18 +4102,18 @@
         <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4075,27 +4137,18 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>170</v>
-      </c>
-      <c r="J71" t="s">
-        <v>159</v>
-      </c>
-      <c r="K71">
-        <v>3</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4113,27 +4166,18 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>170</v>
-      </c>
-      <c r="J72" t="s">
-        <v>242</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>169</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4151,27 +4195,27 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="J73" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="K73">
         <v>3</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4189,27 +4233,27 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4227,21 +4271,21 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>55</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4265,10 +4309,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -4279,13 +4323,13 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4303,21 +4347,21 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J77" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4341,62 +4385,62 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>263</v>
+        <v>158</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G79">
         <v>10</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J79" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80">
         <v>6</v>
@@ -4405,7 +4449,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -4414,73 +4458,100 @@
         <v>10</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="J80" t="s">
+        <v>158</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F81">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G81">
         <v>10</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>170</v>
+        <v>58</v>
+      </c>
+      <c r="J81" t="s">
+        <v>199</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B82">
+        <v>6</v>
+      </c>
+      <c r="C82">
         <v>5</v>
       </c>
-      <c r="C82">
-        <v>6</v>
-      </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G82">
         <v>10</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J82" t="s">
+        <v>260</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>254</v>
+        <v>97</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -4495,21 +4566,30 @@
         <v>80</v>
       </c>
       <c r="F83">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H83">
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>170</v>
+        <v>59</v>
+      </c>
+      <c r="J83" t="s">
+        <v>226</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" s="8" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4538,7 +4618,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4553,21 +4633,21 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H85">
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4591,12 +4671,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4614,18 +4694,18 @@
         <v>10</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4640,7 +4720,7 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -4654,13 +4734,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="B89">
         <v>5</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4669,21 +4749,21 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4698,36 +4778,27 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H90">
         <v>0</v>
       </c>
       <c r="I90" t="s">
         <v>58</v>
-      </c>
-      <c r="J90" t="s">
-        <v>140</v>
-      </c>
-      <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4736,21 +4807,21 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4765,27 +4836,27 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4803,12 +4874,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -4823,27 +4894,36 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
         <v>58</v>
+      </c>
+      <c r="J94" t="s">
+        <v>138</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4855,24 +4935,24 @@
         <v>7</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4881,21 +4961,21 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4910,7 +4990,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -4919,12 +4999,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -4939,7 +5019,7 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G98">
         <v>10</v>
@@ -4953,7 +5033,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -4979,19 +5059,10 @@
       <c r="I99" t="s">
         <v>58</v>
       </c>
-      <c r="J99" t="s">
-        <v>139</v>
-      </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5006,27 +5077,27 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5044,12 +5115,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5064,7 +5135,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -5078,7 +5149,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5096,18 +5167,18 @@
         <v>10</v>
       </c>
       <c r="G103">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>106</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5122,27 +5193,36 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
         <v>58</v>
+      </c>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5160,18 +5240,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5180,21 +5260,21 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H106">
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5209,7 +5289,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -5219,20 +5299,11 @@
       </c>
       <c r="I107" t="s">
         <v>58</v>
-      </c>
-      <c r="J107" t="s">
-        <v>148</v>
-      </c>
-      <c r="K107">
-        <v>3</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5247,21 +5318,21 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5279,33 +5350,24 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H109">
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>170</v>
-      </c>
-      <c r="J109" t="s">
-        <v>189</v>
-      </c>
-      <c r="K109">
-        <v>3</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -5314,21 +5376,21 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5343,21 +5405,21 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5381,21 +5443,21 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J112" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5424,7 +5486,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5442,7 +5504,7 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5451,18 +5513,18 @@
         <v>58</v>
       </c>
       <c r="J114" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5486,12 +5548,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5506,27 +5568,27 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>10</v>
       </c>
       <c r="H116">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5535,7 +5597,7 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -5544,12 +5606,21 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J117" t="s">
+        <v>160</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5578,7 +5649,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5593,21 +5664,30 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
         <v>58</v>
+      </c>
+      <c r="J119" t="s">
+        <v>144</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5631,12 +5711,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5651,36 +5731,27 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121">
         <v>10</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
-      </c>
-      <c r="J121" t="s">
-        <v>154</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -5689,7 +5760,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5698,12 +5769,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5718,10 +5789,10 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -5732,13 +5803,13 @@
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>240</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5756,12 +5827,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5776,7 +5847,7 @@
         <v>80</v>
       </c>
       <c r="F125">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G125">
         <v>10</v>
@@ -5790,7 +5861,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5816,16 +5887,25 @@
       <c r="I126" t="s">
         <v>58</v>
       </c>
+      <c r="J126" t="s">
+        <v>152</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>117</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -5834,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5843,12 +5923,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -5866,24 +5946,24 @@
         <v>10</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -5901,21 +5981,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
-      </c>
-      <c r="J129" t="s">
-        <v>158</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -5930,7 +6001,7 @@
         <v>80</v>
       </c>
       <c r="F130">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -5944,7 +6015,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -5970,25 +6041,16 @@
       <c r="I131" t="s">
         <v>58</v>
       </c>
-      <c r="J131" t="s">
-        <v>158</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6006,12 +6068,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6026,7 +6088,7 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -6035,18 +6097,18 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>170</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -6055,7 +6117,7 @@
         <v>80</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -6067,18 +6129,18 @@
         <v>58</v>
       </c>
       <c r="J134" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K134">
         <v>1</v>
       </c>
       <c r="L134" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6104,19 +6166,10 @@
       <c r="I135" t="s">
         <v>58</v>
       </c>
-      <c r="J135" t="s">
-        <v>163</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6131,7 +6184,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6143,18 +6196,18 @@
         <v>58</v>
       </c>
       <c r="J136" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K136">
         <v>1</v>
       </c>
       <c r="L136" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6169,7 +6222,7 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -6178,12 +6231,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6198,36 +6251,27 @@
         <v>80</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H138">
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
-      </c>
-      <c r="J138" t="s">
-        <v>163</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -6247,10 +6291,19 @@
       <c r="I139" t="s">
         <v>58</v>
       </c>
+      <c r="J139" t="s">
+        <v>157</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6268,18 +6321,27 @@
         <v>10</v>
       </c>
       <c r="G140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J140" t="s">
+        <v>161</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6294,7 +6356,7 @@
         <v>80</v>
       </c>
       <c r="F141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6303,18 +6365,27 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J141" t="s">
+        <v>158</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -6323,7 +6394,7 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -6332,12 +6403,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6352,24 +6423,33 @@
         <v>80</v>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J143" t="s">
+        <v>161</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C144">
         <v>6</v>
@@ -6378,7 +6458,7 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -6395,10 +6475,10 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="B145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C145">
         <v>6</v>
@@ -6407,13 +6487,13 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -6424,10 +6504,10 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
       <c r="B146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146">
         <v>6</v>
@@ -6436,10 +6516,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6448,27 +6528,27 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B147">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C147">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>2</v>
       </c>
       <c r="E147">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6477,50 +6557,41 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>170</v>
-      </c>
-      <c r="J147" t="s">
-        <v>164</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="B148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>2</v>
       </c>
       <c r="E148">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G148">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H148">
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B149">
         <v>4</v>
@@ -6538,18 +6609,18 @@
         <v>10</v>
       </c>
       <c r="G149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="B150">
         <v>4</v>
@@ -6573,18 +6644,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="B151">
         <v>4</v>
       </c>
       <c r="C151">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -6596,18 +6667,18 @@
         <v>10</v>
       </c>
       <c r="G151">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B152">
         <v>4</v>
@@ -6625,24 +6696,33 @@
         <v>10</v>
       </c>
       <c r="G152">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H152">
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="J152" t="s">
+        <v>162</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -6651,21 +6731,21 @@
         <v>70</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H153">
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6683,18 +6763,18 @@
         <v>10</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6718,18 +6798,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="B156">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -6738,21 +6818,21 @@
         <v>70</v>
       </c>
       <c r="F156">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B157">
         <v>4</v>
@@ -6767,30 +6847,21 @@
         <v>70</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G157">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H157">
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>170</v>
-      </c>
-      <c r="J157" t="s">
-        <v>162</v>
-      </c>
-      <c r="K157">
-        <v>1</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6814,21 +6885,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>70</v>
-      </c>
-      <c r="J158" t="s">
-        <v>146</v>
-      </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
-      <c r="L158" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6846,18 +6908,18 @@
         <v>10</v>
       </c>
       <c r="G159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -6872,21 +6934,21 @@
         <v>70</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -6910,12 +6972,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>170</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -6930,7 +6992,7 @@
         <v>70</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G162">
         <v>10</v>
@@ -6939,12 +7001,21 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
+        <v>168</v>
+      </c>
+      <c r="J162" t="s">
+        <v>160</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -6959,7 +7030,7 @@
         <v>70</v>
       </c>
       <c r="F163">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G163">
         <v>10</v>
@@ -6968,21 +7039,21 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J163" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="K163">
         <v>1</v>
       </c>
       <c r="L163" s="8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -7011,7 +7082,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7026,30 +7097,21 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>170</v>
-      </c>
-      <c r="J165" t="s">
-        <v>165</v>
-      </c>
-      <c r="K165">
-        <v>1</v>
-      </c>
-      <c r="L165" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7073,12 +7135,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7104,19 +7166,10 @@
       <c r="I167" t="s">
         <v>58</v>
       </c>
-      <c r="J167" t="s">
-        <v>156</v>
-      </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167" s="8" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7134,18 +7187,27 @@
         <v>10</v>
       </c>
       <c r="G168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
         <v>58</v>
+      </c>
+      <c r="J168" t="s">
+        <v>193</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7160,21 +7222,21 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7189,7 +7251,7 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G170">
         <v>10</v>
@@ -7198,21 +7260,21 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>58</v>
+        <v>168</v>
       </c>
       <c r="J170" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K170">
         <v>1</v>
       </c>
       <c r="L170" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7227,7 +7289,7 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G171">
         <v>10</v>
@@ -7237,20 +7299,11 @@
       </c>
       <c r="I171" t="s">
         <v>58</v>
-      </c>
-      <c r="J171" t="s">
-        <v>160</v>
-      </c>
-      <c r="K171">
-        <v>3</v>
-      </c>
-      <c r="L171" s="8" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7265,7 +7318,7 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -7276,9 +7329,355 @@
       <c r="I172" t="s">
         <v>58</v>
       </c>
+      <c r="J172" t="s">
+        <v>154</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>203</v>
+      </c>
+      <c r="B173">
+        <v>4</v>
+      </c>
+      <c r="C173">
+        <v>6</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173">
+        <v>70</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="G173">
+        <v>7</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>217</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>6</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174">
+        <v>70</v>
+      </c>
+      <c r="F174">
+        <v>7</v>
+      </c>
+      <c r="G174">
+        <v>10</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175">
+        <v>4</v>
+      </c>
+      <c r="C175">
+        <v>6</v>
+      </c>
+      <c r="D175">
+        <v>2</v>
+      </c>
+      <c r="E175">
+        <v>70</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+      <c r="G175">
+        <v>10</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>58</v>
+      </c>
+      <c r="J175" t="s">
+        <v>159</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176">
+        <v>4</v>
+      </c>
+      <c r="C176">
+        <v>6</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+      <c r="E176">
+        <v>70</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+      <c r="G176">
+        <v>10</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>58</v>
+      </c>
+      <c r="J176" t="s">
+        <v>158</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>77</v>
+      </c>
+      <c r="B177">
+        <v>4</v>
+      </c>
+      <c r="C177">
+        <v>6</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+      <c r="E177">
+        <v>70</v>
+      </c>
+      <c r="F177">
+        <v>7</v>
+      </c>
+      <c r="G177">
+        <v>10</v>
+      </c>
+      <c r="H177">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>270</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>30</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>271</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>30</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>272</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>30</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>273</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>30</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>274</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>30</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>275</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>30</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>282</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L172" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L177" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -7290,20 +7689,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I177:I206" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I184:I211" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L212:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L217:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L211" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L216" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I176" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I183" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC33581F-344E-4CD7-8FDC-3A942C8B09A6}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F791F3-3287-470D-BF74-CBEB6F94321C}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$185</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="290">
   <si>
     <t>陈</t>
   </si>
@@ -516,10 +516,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ARC-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DEA-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1041,10 +1037,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.05.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOM-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,6 +1050,42 @@
   </si>
   <si>
     <t>elite1</t>
+  </si>
+  <si>
+    <t>2023.05.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玫拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗旺斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特米米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗比菈塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1488,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1534,7 +1562,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1542,7 +1570,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1550,7 +1578,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,18 +1650,18 @@
         <v>61</v>
       </c>
       <c r="B15" s="2">
-        <v>400</v>
+        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1648,11 +1676,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L183"/>
+  <dimension ref="A1:L191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I183" sqref="I183"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1673,7 +1701,7 @@
       <c r="D1" s="11"/>
       <c r="E1" s="12"/>
       <c r="F1" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
@@ -1681,13 +1709,13 @@
         <v>56</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1716,7 +1744,7 @@
         <v>10</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>135</v>
@@ -1725,45 +1753,45 @@
         <v>3</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="I3" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1792,16 +1820,16 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1839,12 +1867,12 @@
         <v>3</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -1859,16 +1887,16 @@
         <v>90</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1902,7 +1930,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1926,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1958,13 +1986,13 @@
         <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1996,18 +2024,18 @@
         <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -2031,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2069,12 +2097,12 @@
         <v>1</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -2098,7 +2126,7 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2136,12 +2164,12 @@
         <v>1</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2165,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2197,13 +2225,13 @@
         <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2266,7 +2294,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -2290,7 +2318,7 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2328,7 +2356,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2424,7 +2452,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2456,13 +2484,13 @@
         <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2500,7 +2528,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2534,7 +2562,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2558,12 +2586,12 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2587,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2677,13 +2705,13 @@
         <v>58</v>
       </c>
       <c r="J31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2721,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2759,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2797,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2829,13 +2857,13 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2873,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2902,7 +2930,7 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J37" t="s">
         <v>144</v>
@@ -2911,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2943,18 +2971,18 @@
         <v>59</v>
       </c>
       <c r="J38" t="s">
-        <v>145</v>
+        <v>205</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -2981,13 +3009,13 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -3019,13 +3047,13 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3086,13 +3114,13 @@
         <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K42">
         <v>3</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -3124,13 +3152,13 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3162,13 +3190,13 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -3197,16 +3225,16 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -3238,13 +3266,13 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K46">
         <v>3</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3276,13 +3304,13 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K47">
         <v>3</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3343,24 +3371,24 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3378,7 +3406,16 @@
         <v>7</v>
       </c>
       <c r="I50" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J50" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3410,13 +3447,13 @@
         <v>59</v>
       </c>
       <c r="J51" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3448,18 +3485,18 @@
         <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K52">
         <v>3</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3483,16 +3520,16 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3524,13 +3561,13 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K54">
         <v>3</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3562,13 +3599,13 @@
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3600,13 +3637,13 @@
         <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3638,13 +3675,13 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3673,16 +3710,16 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J58" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3714,7 +3751,7 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3749,13 +3786,13 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3787,18 +3824,18 @@
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3822,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3854,13 +3891,13 @@
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
       <c r="L63" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3892,18 +3929,18 @@
         <v>59</v>
       </c>
       <c r="J64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3927,12 +3964,12 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -3956,7 +3993,7 @@
         <v>7</v>
       </c>
       <c r="I66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3988,13 +4025,13 @@
         <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -4023,16 +4060,16 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -4064,13 +4101,13 @@
         <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K69">
         <v>3</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -4102,13 +4139,13 @@
         <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
       <c r="L70" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -4171,7 +4208,7 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4195,16 +4232,16 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K73">
         <v>3</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -4236,13 +4273,13 @@
         <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K74">
         <v>3</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4271,16 +4308,16 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K75">
         <v>3</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4312,18 +4349,18 @@
         <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K76">
         <v>3</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4347,16 +4384,16 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J77" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4388,13 +4425,13 @@
         <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4426,18 +4463,18 @@
         <v>58</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4461,16 +4498,16 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K80">
         <v>3</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4502,13 +4539,13 @@
         <v>58</v>
       </c>
       <c r="J81" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4540,13 +4577,13 @@
         <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4578,13 +4615,13 @@
         <v>59</v>
       </c>
       <c r="J83" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4618,7 +4655,7 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4642,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4676,7 +4713,7 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4700,12 +4737,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4734,7 +4771,7 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4792,7 +4829,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4816,12 +4853,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4850,7 +4887,7 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4874,7 +4911,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -4912,12 +4949,12 @@
         <v>1</v>
       </c>
       <c r="L94" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -4935,18 +4972,18 @@
         <v>7</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -4970,12 +5007,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -4999,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -5062,7 +5099,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5091,7 +5128,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5211,12 +5248,12 @@
         <v>1</v>
       </c>
       <c r="L104" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5240,12 +5277,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5269,12 +5306,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5332,7 +5369,7 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5361,7 +5398,7 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5385,12 +5422,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5446,13 +5483,13 @@
         <v>58</v>
       </c>
       <c r="J112" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K112">
         <v>3</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -5486,7 +5523,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5513,18 +5550,18 @@
         <v>58</v>
       </c>
       <c r="J114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K114">
         <v>3</v>
       </c>
       <c r="L114" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5548,12 +5585,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5571,18 +5608,18 @@
         <v>7</v>
       </c>
       <c r="G116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>283</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5597,30 +5634,21 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>59</v>
-      </c>
-      <c r="J117" t="s">
-        <v>160</v>
-      </c>
-      <c r="K117">
-        <v>1</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5644,12 +5672,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5667,27 +5695,27 @@
         <v>10</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J119" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K119">
         <v>1</v>
       </c>
       <c r="L119" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>112</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5711,12 +5739,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5734,24 +5762,33 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H121">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>202</v>
+        <v>58</v>
+      </c>
+      <c r="J121" t="s">
+        <v>144</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -5769,12 +5806,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5789,27 +5826,27 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G123">
         <v>10</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>240</v>
+        <v>114</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5832,7 +5869,7 @@
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>115</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5861,7 +5898,7 @@
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>284</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5879,27 +5916,18 @@
         <v>7</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
         <v>58</v>
-      </c>
-      <c r="J126" t="s">
-        <v>152</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5914,7 +5942,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -5923,12 +5951,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -5943,10 +5971,10 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -5957,13 +5985,13 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -5981,12 +6009,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J129" t="s">
+        <v>151</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6001,7 +6038,7 @@
         <v>80</v>
       </c>
       <c r="F130">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -6010,12 +6047,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6030,10 +6067,10 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -6044,13 +6081,13 @@
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6068,12 +6105,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6088,7 +6125,7 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G133">
         <v>10</v>
@@ -6097,12 +6134,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6128,25 +6165,16 @@
       <c r="I134" t="s">
         <v>58</v>
       </c>
-      <c r="J134" t="s">
-        <v>156</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -6155,7 +6183,7 @@
         <v>80</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -6164,12 +6192,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6184,7 +6212,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6193,21 +6221,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
-      </c>
-      <c r="J136" t="s">
-        <v>156</v>
-      </c>
-      <c r="K136">
-        <v>1</v>
-      </c>
-      <c r="L136" s="8" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>123</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6233,10 +6252,19 @@
       <c r="I137" t="s">
         <v>58</v>
       </c>
+      <c r="J137" t="s">
+        <v>155</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6251,7 +6279,7 @@
         <v>80</v>
       </c>
       <c r="F138">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -6260,18 +6288,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>168</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -6280,7 +6308,7 @@
         <v>80</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6292,7 +6320,7 @@
         <v>58</v>
       </c>
       <c r="J139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K139">
         <v>1</v>
@@ -6303,7 +6331,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6318,7 +6346,7 @@
         <v>80</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6328,20 +6356,11 @@
       </c>
       <c r="I140" t="s">
         <v>58</v>
-      </c>
-      <c r="J140" t="s">
-        <v>161</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>285</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6356,30 +6375,21 @@
         <v>80</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>58</v>
-      </c>
-      <c r="J141" t="s">
-        <v>158</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6394,7 +6404,7 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -6403,18 +6413,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -6426,7 +6436,7 @@
         <v>10</v>
       </c>
       <c r="G143">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -6435,18 +6445,18 @@
         <v>58</v>
       </c>
       <c r="J143" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="K143">
         <v>1</v>
       </c>
       <c r="L143" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -6472,10 +6482,19 @@
       <c r="I144" t="s">
         <v>58</v>
       </c>
+      <c r="J144" t="s">
+        <v>160</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6493,13 +6512,22 @@
         <v>10</v>
       </c>
       <c r="G145">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H145">
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J145" t="s">
+        <v>157</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -6519,7 +6547,7 @@
         <v>80</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6528,18 +6556,18 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B147">
         <v>5</v>
       </c>
       <c r="C147">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -6548,21 +6576,30 @@
         <v>80</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H147">
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>168</v>
+        <v>58</v>
+      </c>
+      <c r="J147" t="s">
+        <v>160</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>131</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6577,7 +6614,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6586,15 +6623,15 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="B149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C149">
         <v>6</v>
@@ -6603,27 +6640,27 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F149">
         <v>10</v>
       </c>
       <c r="G149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H149">
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150">
         <v>6</v>
@@ -6632,7 +6669,7 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F150">
         <v>7</v>
@@ -6649,22 +6686,22 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C151">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
       <c r="E151">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -6673,15 +6710,15 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B152">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C152">
         <v>6</v>
@@ -6690,10 +6727,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -6702,27 +6739,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>168</v>
-      </c>
-      <c r="J152" t="s">
-        <v>162</v>
-      </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>258</v>
+        <v>78</v>
       </c>
       <c r="B153">
         <v>4</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -6734,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="G153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -6745,7 +6773,7 @@
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B154">
         <v>4</v>
@@ -6760,21 +6788,21 @@
         <v>70</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6789,7 +6817,7 @@
         <v>70</v>
       </c>
       <c r="F155">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6803,13 +6831,13 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="B156">
         <v>4</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -6821,24 +6849,33 @@
         <v>10</v>
       </c>
       <c r="G156">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="J156" t="s">
+        <v>161</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="B157">
         <v>4</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -6861,7 +6898,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>244</v>
+        <v>65</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6876,21 +6913,21 @@
         <v>70</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B159">
         <v>4</v>
@@ -6905,7 +6942,7 @@
         <v>70</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -6914,18 +6951,18 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -6934,21 +6971,21 @@
         <v>70</v>
       </c>
       <c r="F160">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>168</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -6963,10 +7000,10 @@
         <v>70</v>
       </c>
       <c r="F161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G161">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -6977,7 +7014,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -7001,21 +7038,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>168</v>
-      </c>
-      <c r="J162" t="s">
-        <v>160</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7030,7 +7058,7 @@
         <v>70</v>
       </c>
       <c r="F163">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G163">
         <v>10</v>
@@ -7039,21 +7067,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>70</v>
-      </c>
-      <c r="J163" t="s">
-        <v>144</v>
-      </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-      <c r="L163" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -7071,7 +7090,7 @@
         <v>10</v>
       </c>
       <c r="G164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -7082,7 +7101,7 @@
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7097,21 +7116,21 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G165">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7135,12 +7154,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7155,7 +7174,7 @@
         <v>70</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -7169,7 +7188,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7184,7 +7203,7 @@
         <v>70</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168">
         <v>10</v>
@@ -7193,21 +7212,21 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J168" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="K168">
         <v>1</v>
       </c>
       <c r="L168" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7222,21 +7241,30 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H169">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="J169" t="s">
+        <v>144</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7251,30 +7279,21 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G170">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>168</v>
-      </c>
-      <c r="J170" t="s">
-        <v>163</v>
-      </c>
-      <c r="K170">
-        <v>1</v>
-      </c>
-      <c r="L170" s="8" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7289,21 +7308,21 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7318,7 +7337,7 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -7327,21 +7346,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>58</v>
-      </c>
-      <c r="J172" t="s">
-        <v>154</v>
-      </c>
-      <c r="K172">
-        <v>1</v>
-      </c>
-      <c r="L172" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7359,7 +7369,7 @@
         <v>10</v>
       </c>
       <c r="G173">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -7370,7 +7380,7 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7385,7 +7395,7 @@
         <v>70</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -7394,12 +7404,21 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J174" t="s">
+        <v>192</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7417,27 +7436,18 @@
         <v>10</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175" t="s">
         <v>58</v>
-      </c>
-      <c r="J175" t="s">
-        <v>159</v>
-      </c>
-      <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7452,7 +7462,7 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -7461,21 +7471,21 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J176" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7502,182 +7512,441 @@
         <v>58</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>6</v>
+      </c>
+      <c r="D178">
+        <v>2</v>
+      </c>
+      <c r="E178">
+        <v>70</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+      <c r="G178">
+        <v>10</v>
+      </c>
+      <c r="H178">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+      <c r="J178" t="s">
+        <v>153</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>288</v>
+      </c>
+      <c r="B179">
+        <v>4</v>
+      </c>
+      <c r="C179">
+        <v>6</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179">
+        <v>70</v>
+      </c>
+      <c r="F179">
+        <v>7</v>
+      </c>
+      <c r="G179">
+        <v>7</v>
+      </c>
+      <c r="H179">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>289</v>
+      </c>
+      <c r="B180">
+        <v>4</v>
+      </c>
+      <c r="C180">
+        <v>6</v>
+      </c>
+      <c r="D180">
+        <v>2</v>
+      </c>
+      <c r="E180">
+        <v>70</v>
+      </c>
+      <c r="F180">
+        <v>7</v>
+      </c>
+      <c r="G180">
+        <v>7</v>
+      </c>
+      <c r="H180">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>202</v>
+      </c>
+      <c r="B181">
+        <v>4</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181">
+        <v>70</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+      <c r="G181">
+        <v>7</v>
+      </c>
+      <c r="H181">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>216</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182">
+        <v>2</v>
+      </c>
+      <c r="E182">
+        <v>70</v>
+      </c>
+      <c r="F182">
+        <v>7</v>
+      </c>
+      <c r="G182">
+        <v>10</v>
+      </c>
+      <c r="H182">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>75</v>
+      </c>
+      <c r="B183">
+        <v>4</v>
+      </c>
+      <c r="C183">
+        <v>6</v>
+      </c>
+      <c r="D183">
+        <v>2</v>
+      </c>
+      <c r="E183">
+        <v>70</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183">
+        <v>10</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>58</v>
+      </c>
+      <c r="J183" t="s">
+        <v>158</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>76</v>
+      </c>
+      <c r="B184">
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <v>6</v>
+      </c>
+      <c r="D184">
+        <v>2</v>
+      </c>
+      <c r="E184">
+        <v>70</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
+        <v>10</v>
+      </c>
+      <c r="H184">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>58</v>
+      </c>
+      <c r="J184" t="s">
+        <v>157</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>77</v>
+      </c>
+      <c r="B185">
+        <v>4</v>
+      </c>
+      <c r="C185">
+        <v>6</v>
+      </c>
+      <c r="D185">
+        <v>2</v>
+      </c>
+      <c r="E185">
+        <v>70</v>
+      </c>
+      <c r="F185">
+        <v>7</v>
+      </c>
+      <c r="G185">
+        <v>10</v>
+      </c>
+      <c r="H185">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>269</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
+        <v>6</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>30</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>270</v>
       </c>
-      <c r="B178">
+      <c r="B187">
         <v>1</v>
       </c>
-      <c r="C178">
-        <v>6</v>
-      </c>
-      <c r="D178">
-        <v>0</v>
-      </c>
-      <c r="E178">
+      <c r="C187">
+        <v>6</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
         <v>30</v>
       </c>
-      <c r="F178">
-        <v>0</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>0</v>
-      </c>
-      <c r="I178" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>271</v>
       </c>
-      <c r="B179">
+      <c r="B188">
         <v>1</v>
       </c>
-      <c r="C179">
-        <v>6</v>
-      </c>
-      <c r="D179">
-        <v>0</v>
-      </c>
-      <c r="E179">
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
         <v>30</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-      <c r="H179">
-        <v>0</v>
-      </c>
-      <c r="I179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>272</v>
       </c>
-      <c r="B180">
+      <c r="B189">
         <v>1</v>
       </c>
-      <c r="C180">
-        <v>6</v>
-      </c>
-      <c r="D180">
-        <v>0</v>
-      </c>
-      <c r="E180">
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
         <v>30</v>
       </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-      <c r="G180">
-        <v>0</v>
-      </c>
-      <c r="H180">
-        <v>0</v>
-      </c>
-      <c r="I180" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>273</v>
       </c>
-      <c r="B181">
+      <c r="B190">
         <v>1</v>
       </c>
-      <c r="C181">
-        <v>6</v>
-      </c>
-      <c r="D181">
-        <v>0</v>
-      </c>
-      <c r="E181">
+      <c r="C190">
+        <v>6</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
         <v>30</v>
       </c>
-      <c r="F181">
-        <v>0</v>
-      </c>
-      <c r="G181">
-        <v>0</v>
-      </c>
-      <c r="H181">
-        <v>0</v>
-      </c>
-      <c r="I181" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>274</v>
       </c>
-      <c r="B182">
+      <c r="B191">
         <v>1</v>
       </c>
-      <c r="C182">
-        <v>6</v>
-      </c>
-      <c r="D182">
-        <v>0</v>
-      </c>
-      <c r="E182">
+      <c r="C191">
+        <v>6</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
         <v>30</v>
       </c>
-      <c r="F182">
-        <v>0</v>
-      </c>
-      <c r="G182">
-        <v>0</v>
-      </c>
-      <c r="H182">
-        <v>0</v>
-      </c>
-      <c r="I182" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>275</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>6</v>
-      </c>
-      <c r="D183">
-        <v>0</v>
-      </c>
-      <c r="E183">
-        <v>30</v>
-      </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-      <c r="H183">
-        <v>0</v>
-      </c>
-      <c r="I183" t="s">
-        <v>282</v>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L177" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L185" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -7689,20 +7958,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I184:I211" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I192:I219" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L217:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L225:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L216" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L224" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I183" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I191" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F791F3-3287-470D-BF74-CBEB6F94321C}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE99CC4-DAEB-46A6-B622-AE3A1BCA2F73}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$187</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="295">
   <si>
     <t>陈</t>
   </si>
@@ -1052,10 +1052,6 @@
     <t>elite1</t>
   </si>
   <si>
-    <t>2023.05.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>玫拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,6 +1081,30 @@
   </si>
   <si>
     <t>罗比菈塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friston-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.06.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣约送葬人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRA-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEE-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1245,10 +1265,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1516,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1562,7 +1578,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1676,11 +1692,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1820,7 +1836,7 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
         <v>225</v>
@@ -1878,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2390,13 +2406,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>292</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2405,21 +2421,21 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>6</v>
@@ -2443,16 +2459,7 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>58</v>
-      </c>
-      <c r="J23" t="s">
-        <v>139</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2481,21 +2488,21 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K24">
         <v>3</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2519,21 +2526,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2557,12 +2564,21 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J26" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2586,12 +2602,12 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2620,13 +2636,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="B29">
         <v>6</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2644,18 +2660,18 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2673,18 +2689,18 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2702,27 +2718,18 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2743,24 +2750,24 @@
         <v>58</v>
       </c>
       <c r="J32" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2781,24 +2788,24 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2819,18 +2826,18 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2857,24 +2864,24 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2895,24 +2902,24 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2930,10 +2937,10 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2944,13 +2951,13 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -2968,13 +2975,13 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J38" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="K38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L38" s="8" t="s">
         <v>163</v>
@@ -2982,13 +2989,13 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3006,13 +3013,13 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J39" t="s">
         <v>205</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>163</v>
@@ -3020,7 +3027,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3047,7 +3054,7 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3058,13 +3065,13 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3084,10 +3091,19 @@
       <c r="I41" t="s">
         <v>58</v>
       </c>
+      <c r="J41" t="s">
+        <v>185</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>6</v>
@@ -3113,25 +3129,16 @@
       <c r="I42" t="s">
         <v>58</v>
       </c>
-      <c r="J42" t="s">
-        <v>185</v>
-      </c>
-      <c r="K42">
-        <v>3</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3152,10 +3159,10 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L43" s="8" t="s">
         <v>163</v>
@@ -3163,13 +3170,13 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3190,7 +3197,7 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>186</v>
+        <v>277</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3201,13 +3208,13 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3225,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3239,13 +3246,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3266,10 +3273,10 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>163</v>
@@ -3277,13 +3284,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3304,7 +3311,7 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K47">
         <v>3</v>
@@ -3315,7 +3322,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3341,16 +3348,25 @@
       <c r="I48" t="s">
         <v>58</v>
       </c>
+      <c r="J48" t="s">
+        <v>245</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3370,25 +3386,16 @@
       <c r="I49" t="s">
         <v>58</v>
       </c>
-      <c r="J49" t="s">
-        <v>146</v>
-      </c>
-      <c r="K49">
-        <v>1</v>
-      </c>
-      <c r="L49" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3397,19 +3404,19 @@
         <v>90</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3420,13 +3427,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3444,27 +3451,27 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J51" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3485,24 +3492,24 @@
         <v>59</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3520,27 +3527,27 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J53" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3558,27 +3565,27 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3599,24 +3606,24 @@
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3637,7 +3644,7 @@
         <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3648,13 +3655,13 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3675,7 +3682,7 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3686,13 +3693,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3710,16 +3717,16 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3748,18 +3755,21 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J59" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
+      <c r="L59" s="8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3786,7 +3796,7 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3797,7 +3807,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3824,7 +3834,7 @@
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3835,13 +3845,13 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3859,18 +3869,27 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J62" t="s">
+        <v>223</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3888,21 +3907,12 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>58</v>
-      </c>
-      <c r="J63" t="s">
-        <v>151</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -3926,27 +3936,27 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3964,18 +3974,27 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="J65" t="s">
+        <v>152</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3984,27 +4003,36 @@
         <v>90</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I66" t="s">
         <v>167</v>
       </c>
+      <c r="J66" t="s">
+        <v>293</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4022,27 +4050,18 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
-      </c>
-      <c r="J67" t="s">
-        <v>279</v>
-      </c>
-      <c r="K67">
-        <v>1</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4060,10 +4079,10 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4074,7 +4093,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4098,13 +4117,13 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>164</v>
@@ -4112,13 +4131,13 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4139,10 +4158,10 @@
         <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>164</v>
@@ -4150,13 +4169,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4176,16 +4195,25 @@
       <c r="I71" t="s">
         <v>58</v>
       </c>
+      <c r="J71" t="s">
+        <v>155</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4203,12 +4231,12 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4232,27 +4260,27 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4270,10 +4298,10 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J74" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="K74">
         <v>3</v>
@@ -4284,7 +4312,7 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4308,10 +4336,10 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -4346,21 +4374,21 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J76" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="K76">
         <v>3</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4384,27 +4412,27 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4422,27 +4450,27 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4460,10 +4488,10 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -4474,13 +4502,13 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4498,13 +4526,13 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K80">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80" s="8" t="s">
         <v>164</v>
@@ -4512,13 +4540,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4536,13 +4564,13 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J81" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>164</v>
@@ -4550,13 +4578,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4577,7 +4605,7 @@
         <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -4588,45 +4616,45 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B83">
+        <v>6</v>
+      </c>
+      <c r="C83">
         <v>5</v>
       </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F83">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G83">
         <v>10</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -4641,7 +4669,7 @@
         <v>80</v>
       </c>
       <c r="F84">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84">
         <v>10</v>
@@ -4650,12 +4678,21 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J84" t="s">
+        <v>225</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4670,7 +4707,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4679,12 +4716,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4708,12 +4745,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4728,21 +4765,21 @@
         <v>80</v>
       </c>
       <c r="F87">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H87">
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4760,18 +4797,18 @@
         <v>10</v>
       </c>
       <c r="G88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4789,7 +4826,7 @@
         <v>10</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4800,7 +4837,7 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4815,10 +4852,10 @@
         <v>80</v>
       </c>
       <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="G90">
         <v>7</v>
-      </c>
-      <c r="G90">
-        <v>10</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4829,7 +4866,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4844,7 +4881,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -4853,12 +4890,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4873,7 +4910,7 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -4882,18 +4919,18 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B93">
         <v>5</v>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4911,18 +4948,18 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4931,36 +4968,27 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>58</v>
-      </c>
-      <c r="J94" t="s">
-        <v>138</v>
-      </c>
-      <c r="K94">
-        <v>1</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4969,27 +4997,36 @@
         <v>80</v>
       </c>
       <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95">
         <v>7</v>
       </c>
-      <c r="G95">
-        <v>10</v>
-      </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -4998,10 +5035,10 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5012,7 +5049,7 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5027,10 +5064,10 @@
         <v>80</v>
       </c>
       <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97">
         <v>7</v>
-      </c>
-      <c r="G97">
-        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5041,7 +5078,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5065,12 +5102,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5099,7 +5136,7 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5123,18 +5160,18 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5152,18 +5189,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -5172,7 +5209,7 @@
         <v>80</v>
       </c>
       <c r="F102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102">
         <v>10</v>
@@ -5186,7 +5223,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5215,7 +5252,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5230,7 +5267,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -5240,20 +5277,11 @@
       </c>
       <c r="I104" t="s">
         <v>58</v>
-      </c>
-      <c r="J104" t="s">
-        <v>137</v>
-      </c>
-      <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5268,27 +5296,36 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5306,12 +5343,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5326,27 +5363,27 @@
         <v>80</v>
       </c>
       <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107">
         <v>7</v>
       </c>
-      <c r="G107">
-        <v>10</v>
-      </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5355,21 +5392,21 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5384,10 +5421,10 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -5398,13 +5435,13 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B110">
         <v>5</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -5422,12 +5459,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5456,13 +5493,13 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5474,27 +5511,18 @@
         <v>10</v>
       </c>
       <c r="G112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
-      </c>
-      <c r="J112" t="s">
-        <v>145</v>
-      </c>
-      <c r="K112">
-        <v>3</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5509,10 +5537,10 @@
         <v>80</v>
       </c>
       <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
         <v>7</v>
-      </c>
-      <c r="G113">
-        <v>10</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -5523,7 +5551,7 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5550,7 +5578,7 @@
         <v>58</v>
       </c>
       <c r="J114" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="K114">
         <v>3</v>
@@ -5561,7 +5589,7 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5585,12 +5613,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>282</v>
+        <v>217</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5605,21 +5633,30 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H116">
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J116" t="s">
+        <v>186</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5637,18 +5674,18 @@
         <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5677,7 +5714,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5692,7 +5729,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5701,21 +5738,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>59</v>
-      </c>
-      <c r="J119" t="s">
-        <v>159</v>
-      </c>
-      <c r="K119">
-        <v>1</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5739,12 +5767,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5762,16 +5790,16 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J121" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K121">
         <v>1</v>
@@ -5782,7 +5810,7 @@
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5806,12 +5834,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5829,24 +5857,33 @@
         <v>10</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>201</v>
+        <v>58</v>
+      </c>
+      <c r="J123" t="s">
+        <v>144</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="B124">
         <v>5</v>
       </c>
       <c r="C124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -5864,12 +5901,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5884,27 +5921,27 @@
         <v>80</v>
       </c>
       <c r="F125">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G125">
         <v>10</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I125" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>284</v>
+        <v>114</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -5916,7 +5953,7 @@
         <v>7</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -5927,7 +5964,7 @@
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -5956,7 +5993,7 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -5985,7 +6022,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -6011,19 +6048,10 @@
       <c r="I129" t="s">
         <v>58</v>
       </c>
-      <c r="J129" t="s">
-        <v>151</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6038,7 +6066,7 @@
         <v>80</v>
       </c>
       <c r="F130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G130">
         <v>10</v>
@@ -6047,12 +6075,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6067,27 +6095,36 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
         <v>58</v>
+      </c>
+      <c r="J131" t="s">
+        <v>151</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6096,7 +6133,7 @@
         <v>80</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -6110,7 +6147,7 @@
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6125,10 +6162,10 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -6139,7 +6176,7 @@
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6163,18 +6200,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -6183,7 +6220,7 @@
         <v>80</v>
       </c>
       <c r="F135">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G135">
         <v>10</v>
@@ -6192,12 +6229,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6212,7 +6249,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6221,18 +6258,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -6250,21 +6287,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
-      </c>
-      <c r="J137" t="s">
-        <v>155</v>
-      </c>
-      <c r="K137">
-        <v>1</v>
-      </c>
-      <c r="L137" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6288,12 +6316,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6331,7 +6359,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6346,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="F140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6360,7 +6388,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>285</v>
+        <v>125</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6378,18 +6406,27 @@
         <v>7</v>
       </c>
       <c r="G141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H141">
         <v>0</v>
       </c>
       <c r="I141" t="s">
         <v>58</v>
+      </c>
+      <c r="J141" t="s">
+        <v>155</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6413,18 +6450,18 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -6433,7 +6470,7 @@
         <v>80</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G143">
         <v>10</v>
@@ -6443,20 +6480,11 @@
       </c>
       <c r="I143" t="s">
         <v>58</v>
-      </c>
-      <c r="J143" t="s">
-        <v>156</v>
-      </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -6471,7 +6499,7 @@
         <v>80</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6480,21 +6508,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>58</v>
-      </c>
-      <c r="J144" t="s">
-        <v>160</v>
-      </c>
-      <c r="K144">
-        <v>1</v>
-      </c>
-      <c r="L144" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6521,18 +6540,18 @@
         <v>58</v>
       </c>
       <c r="J145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K145">
         <v>1</v>
       </c>
       <c r="L145" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6547,7 +6566,7 @@
         <v>80</v>
       </c>
       <c r="F146">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6557,11 +6576,20 @@
       </c>
       <c r="I146" t="s">
         <v>58</v>
+      </c>
+      <c r="J146" t="s">
+        <v>160</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6579,7 +6607,7 @@
         <v>10</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -6588,18 +6616,18 @@
         <v>58</v>
       </c>
       <c r="J147" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6614,7 +6642,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6628,7 +6656,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6652,12 +6680,21 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J149" t="s">
+        <v>160</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6672,7 +6709,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -6681,18 +6718,18 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B151">
         <v>5</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -6701,21 +6738,21 @@
         <v>80</v>
       </c>
       <c r="F151">
+        <v>10</v>
+      </c>
+      <c r="G151">
         <v>7</v>
       </c>
-      <c r="G151">
-        <v>10</v>
-      </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6744,22 +6781,22 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C153">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6768,15 +6805,15 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B154">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C154">
         <v>6</v>
@@ -6785,7 +6822,7 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F154">
         <v>7</v>
@@ -6802,7 +6839,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B155">
         <v>4</v>
@@ -6831,7 +6868,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B156">
         <v>4</v>
@@ -6846,7 +6883,7 @@
         <v>70</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -6855,27 +6892,18 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>167</v>
-      </c>
-      <c r="J156" t="s">
-        <v>161</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="B157">
         <v>4</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -6887,7 +6915,7 @@
         <v>10</v>
       </c>
       <c r="G157">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -6898,7 +6926,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6916,7 +6944,7 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -6924,16 +6952,25 @@
       <c r="I158" t="s">
         <v>167</v>
       </c>
+      <c r="J158" t="s">
+        <v>161</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -6942,10 +6979,10 @@
         <v>70</v>
       </c>
       <c r="F159">
+        <v>10</v>
+      </c>
+      <c r="G159">
         <v>7</v>
-      </c>
-      <c r="G159">
-        <v>10</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6956,13 +6993,13 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="B160">
         <v>4</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -6980,12 +7017,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>280</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -7000,10 +7037,10 @@
         <v>70</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -7014,13 +7051,13 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -7029,21 +7066,21 @@
         <v>70</v>
       </c>
       <c r="F162">
+        <v>10</v>
+      </c>
+      <c r="G162">
         <v>7</v>
       </c>
-      <c r="G162">
-        <v>10</v>
-      </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7061,18 +7098,18 @@
         <v>10</v>
       </c>
       <c r="G163">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -7087,7 +7124,7 @@
         <v>70</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -7096,12 +7133,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>287</v>
+        <v>67</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7116,21 +7153,21 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>215</v>
+        <v>285</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7145,7 +7182,7 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -7154,12 +7191,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>72</v>
+        <v>286</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7183,12 +7220,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7214,19 +7251,10 @@
       <c r="I168" t="s">
         <v>167</v>
       </c>
-      <c r="J168" t="s">
-        <v>159</v>
-      </c>
-      <c r="K168">
-        <v>1</v>
-      </c>
-      <c r="L168" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7250,21 +7278,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>70</v>
-      </c>
-      <c r="J169" t="s">
-        <v>144</v>
-      </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169" s="8" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7279,21 +7298,30 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>58</v>
+        <v>167</v>
+      </c>
+      <c r="J170" t="s">
+        <v>159</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>69</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7308,21 +7336,30 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G171">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>167</v>
+        <v>70</v>
+      </c>
+      <c r="J171" t="s">
+        <v>144</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7337,21 +7374,21 @@
         <v>70</v>
       </c>
       <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
         <v>7</v>
       </c>
-      <c r="G172">
-        <v>10</v>
-      </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7369,18 +7406,18 @@
         <v>10</v>
       </c>
       <c r="G173">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7395,7 +7432,7 @@
         <v>70</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -7404,21 +7441,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>58</v>
-      </c>
-      <c r="J174" t="s">
-        <v>192</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7436,7 +7464,7 @@
         <v>10</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7447,7 +7475,7 @@
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7462,7 +7490,7 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -7471,21 +7499,21 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J176" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K176">
         <v>1</v>
       </c>
       <c r="L176" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7500,10 +7528,10 @@
         <v>70</v>
       </c>
       <c r="F177">
+        <v>10</v>
+      </c>
+      <c r="G177">
         <v>7</v>
-      </c>
-      <c r="G177">
-        <v>10</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -7514,7 +7542,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7529,7 +7557,7 @@
         <v>70</v>
       </c>
       <c r="F178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G178">
         <v>10</v>
@@ -7538,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J178" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -7552,7 +7580,7 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7570,18 +7598,18 @@
         <v>7</v>
       </c>
       <c r="G179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7596,21 +7624,30 @@
         <v>70</v>
       </c>
       <c r="F180">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G180">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J180" t="s">
+        <v>153</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>287</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7625,21 +7662,21 @@
         <v>70</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G181">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7668,7 +7705,7 @@
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7686,27 +7723,18 @@
         <v>10</v>
       </c>
       <c r="G183">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
         <v>58</v>
-      </c>
-      <c r="J183" t="s">
-        <v>158</v>
-      </c>
-      <c r="K183">
-        <v>1</v>
-      </c>
-      <c r="L183" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7721,7 +7749,7 @@
         <v>70</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G184">
         <v>10</v>
@@ -7730,21 +7758,12 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>58</v>
-      </c>
-      <c r="J184" t="s">
-        <v>157</v>
-      </c>
-      <c r="K184">
-        <v>3</v>
-      </c>
-      <c r="L184" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7759,7 +7778,7 @@
         <v>70</v>
       </c>
       <c r="F185">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G185">
         <v>10</v>
@@ -7769,58 +7788,76 @@
       </c>
       <c r="I185" t="s">
         <v>58</v>
+      </c>
+      <c r="J185" t="s">
+        <v>158</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C186">
         <v>6</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H186">
         <v>0</v>
       </c>
       <c r="I186" t="s">
         <v>58</v>
+      </c>
+      <c r="J186" t="s">
+        <v>157</v>
+      </c>
+      <c r="K186">
+        <v>3</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C187">
         <v>6</v>
       </c>
       <c r="D187">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F187">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G187">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -7831,7 +7868,7 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -7855,18 +7892,18 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
       <c r="C189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7884,12 +7921,12 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -7913,12 +7950,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -7942,11 +7979,98 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>272</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>30</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>273</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>30</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
         <v>280</v>
       </c>
     </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>274</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>30</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>280</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L185" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L187" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -7958,20 +8082,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I192:I219" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I195:I222" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L225:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L228:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L224" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L227" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I191" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I194" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE99CC4-DAEB-46A6-B622-AE3A1BCA2F73}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9973D0F-69A5-4CA2-8EF9-28DA29F85601}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$191</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="301">
   <si>
     <t>陈</t>
   </si>
@@ -1025,86 +1025,110 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>斯卡蒂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHY-Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMD-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>elite1</t>
+  </si>
+  <si>
+    <t>玫拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗旺斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特米米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗比菈塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friston-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣约送葬人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRA-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEE-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEA-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIE-X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒檀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杰西卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>THRM-EX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯卡蒂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOM-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHY-Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UMD-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>elite1</t>
-  </si>
-  <si>
-    <t>玫拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普罗旺斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特米米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>古米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗比菈塔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friston-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2023.06.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣约送葬人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRA-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEE-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1578,7 +1602,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1586,7 +1610,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1594,7 +1618,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1692,11 +1716,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1941,7 +1965,16 @@
         <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2287,7 +2320,7 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2406,7 +2439,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2805,7 +2838,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3197,7 +3230,7 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3246,13 +3279,13 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3261,7 +3294,7 @@
         <v>90</v>
       </c>
       <c r="F46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G46">
         <v>10</v>
@@ -3270,13 +3303,13 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>163</v>
@@ -3284,13 +3317,13 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3311,10 +3344,10 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>163</v>
@@ -3322,13 +3355,13 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3349,7 +3382,7 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K48">
         <v>3</v>
@@ -3360,7 +3393,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -3386,16 +3419,25 @@
       <c r="I49" t="s">
         <v>58</v>
       </c>
+      <c r="J49" t="s">
+        <v>245</v>
+      </c>
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3415,25 +3457,16 @@
       <c r="I50" t="s">
         <v>58</v>
       </c>
-      <c r="J50" t="s">
-        <v>146</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3451,10 +3484,10 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3465,13 +3498,13 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3489,27 +3522,27 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J52" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3530,24 +3563,24 @@
         <v>59</v>
       </c>
       <c r="J53" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3565,27 +3598,27 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J54" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3603,27 +3636,27 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J55" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3644,24 +3677,24 @@
         <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3682,7 +3715,7 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3693,13 +3726,13 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3720,7 +3753,7 @@
         <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3731,13 +3764,13 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3755,16 +3788,16 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3793,10 +3826,10 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J60" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3807,7 +3840,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3834,7 +3867,7 @@
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3845,7 +3878,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3872,7 +3905,7 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3883,13 +3916,13 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3907,18 +3940,27 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J63" t="s">
+        <v>223</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3936,21 +3978,12 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
-      </c>
-      <c r="J64" t="s">
-        <v>151</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -3974,27 +4007,27 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
       <c r="L65" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -4012,10 +4045,10 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J66" t="s">
-        <v>293</v>
+        <v>152</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4026,13 +4059,13 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4050,18 +4083,27 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J67" t="s">
+        <v>291</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4079,27 +4121,18 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
-      </c>
-      <c r="J68" t="s">
-        <v>279</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4117,10 +4150,10 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4131,7 +4164,7 @@
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4155,13 +4188,13 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J70" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>164</v>
@@ -4169,13 +4202,13 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4196,10 +4229,10 @@
         <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>164</v>
@@ -4207,13 +4240,13 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4233,16 +4266,25 @@
       <c r="I72" t="s">
         <v>58</v>
       </c>
+      <c r="J72" t="s">
+        <v>155</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4260,21 +4302,12 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>59</v>
-      </c>
-      <c r="J73" t="s">
-        <v>294</v>
-      </c>
-      <c r="K73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4298,27 +4331,27 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J74" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4336,10 +4369,10 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -4350,7 +4383,7 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4374,10 +4407,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -4412,21 +4445,21 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J77" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="K77">
         <v>3</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4450,27 +4483,27 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4488,27 +4521,27 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4526,10 +4559,10 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4540,13 +4573,13 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4564,13 +4597,13 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" s="8" t="s">
         <v>164</v>
@@ -4578,13 +4611,13 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4602,13 +4635,13 @@
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J82" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>164</v>
@@ -4616,13 +4649,13 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4643,7 +4676,7 @@
         <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -4654,45 +4687,45 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
         <v>5</v>
       </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F84">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G84">
         <v>10</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -4707,7 +4740,7 @@
         <v>80</v>
       </c>
       <c r="F85">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G85">
         <v>10</v>
@@ -4716,12 +4749,21 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J85" t="s">
+        <v>225</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -4736,7 +4778,7 @@
         <v>80</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G86">
         <v>10</v>
@@ -4745,12 +4787,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4774,12 +4816,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4794,21 +4836,21 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H88">
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4826,18 +4868,18 @@
         <v>10</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89">
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4855,7 +4897,7 @@
         <v>10</v>
       </c>
       <c r="G90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -4866,7 +4908,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4881,10 +4923,10 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -4895,7 +4937,7 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4910,7 +4952,7 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -4919,12 +4961,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4939,7 +4981,7 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>10</v>
@@ -4953,13 +4995,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B94">
         <v>5</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>2</v>
@@ -4977,18 +5019,18 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4997,36 +5039,27 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
-      </c>
-      <c r="J95" t="s">
-        <v>138</v>
-      </c>
-      <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
       <c r="C96">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D96">
         <v>2</v>
@@ -5035,27 +5068,36 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H96">
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J96" t="s">
+        <v>138</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5064,10 +5106,10 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5078,7 +5120,7 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5093,10 +5135,10 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -5107,7 +5149,7 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5131,12 +5173,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5165,7 +5207,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>265</v>
+        <v>103</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5189,18 +5231,18 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B102">
         <v>5</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -5218,18 +5260,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>255</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5238,7 +5280,7 @@
         <v>80</v>
       </c>
       <c r="F103">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G103">
         <v>10</v>
@@ -5252,7 +5294,7 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5281,7 +5323,7 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5296,7 +5338,7 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -5306,20 +5348,11 @@
       </c>
       <c r="I105" t="s">
         <v>58</v>
-      </c>
-      <c r="J105" t="s">
-        <v>137</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5345,10 +5378,19 @@
       <c r="I106" t="s">
         <v>58</v>
       </c>
+      <c r="J106" t="s">
+        <v>137</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5363,27 +5405,27 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B108">
         <v>5</v>
       </c>
       <c r="C108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -5392,10 +5434,10 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -5406,13 +5448,13 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5430,12 +5472,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5450,21 +5492,21 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5488,18 +5530,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5517,18 +5559,18 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5546,12 +5588,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5569,27 +5611,18 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
         <v>58</v>
-      </c>
-      <c r="J114" t="s">
-        <v>145</v>
-      </c>
-      <c r="K114">
-        <v>3</v>
-      </c>
-      <c r="L114" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5604,7 +5637,7 @@
         <v>80</v>
       </c>
       <c r="F115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G115">
         <v>10</v>
@@ -5614,11 +5647,20 @@
       </c>
       <c r="I115" t="s">
         <v>58</v>
+      </c>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5633,7 +5675,7 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
         <v>10</v>
@@ -5643,20 +5685,11 @@
       </c>
       <c r="I116" t="s">
         <v>58</v>
-      </c>
-      <c r="J116" t="s">
-        <v>186</v>
-      </c>
-      <c r="K116">
-        <v>3</v>
-      </c>
-      <c r="L116" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5671,7 +5704,7 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G117">
         <v>10</v>
@@ -5680,12 +5713,21 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J117" t="s">
+        <v>186</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5714,7 +5756,7 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5738,12 +5780,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5767,12 +5809,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5787,7 +5829,7 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121">
         <v>10</v>
@@ -5796,21 +5838,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>59</v>
-      </c>
-      <c r="J121" t="s">
-        <v>159</v>
-      </c>
-      <c r="K121">
-        <v>1</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5825,7 +5858,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5834,12 +5867,21 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J122" t="s">
+        <v>159</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5854,30 +5896,21 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
         <v>58</v>
-      </c>
-      <c r="J123" t="s">
-        <v>144</v>
-      </c>
-      <c r="K123">
-        <v>1</v>
-      </c>
-      <c r="L123" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5892,21 +5925,30 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J124" t="s">
+        <v>144</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5921,27 +5963,27 @@
         <v>80</v>
       </c>
       <c r="F125">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G125">
         <v>10</v>
       </c>
       <c r="H125">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="B126">
         <v>5</v>
       </c>
       <c r="C126">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -5950,27 +5992,27 @@
         <v>80</v>
       </c>
       <c r="F126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G126">
         <v>10</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -5993,13 +6035,13 @@
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -6011,18 +6053,18 @@
         <v>7</v>
       </c>
       <c r="G128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -6046,12 +6088,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6080,7 +6122,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6106,19 +6148,10 @@
       <c r="I131" t="s">
         <v>58</v>
       </c>
-      <c r="J131" t="s">
-        <v>151</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -6133,7 +6166,7 @@
         <v>80</v>
       </c>
       <c r="F132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -6142,12 +6175,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6162,21 +6195,30 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133" t="s">
         <v>58</v>
+      </c>
+      <c r="J133" t="s">
+        <v>151</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6191,7 +6233,7 @@
         <v>80</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -6205,7 +6247,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6220,10 +6262,10 @@
         <v>80</v>
       </c>
       <c r="F135">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6234,7 +6276,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6258,18 +6300,18 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -6278,7 +6320,7 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -6287,12 +6329,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6307,7 +6349,7 @@
         <v>80</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138">
         <v>10</v>
@@ -6316,18 +6358,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -6345,21 +6387,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
-      </c>
-      <c r="J139" t="s">
-        <v>155</v>
-      </c>
-      <c r="K139">
-        <v>1</v>
-      </c>
-      <c r="L139" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6383,12 +6416,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6426,7 +6459,7 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6441,7 +6474,7 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -6455,7 +6488,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6481,10 +6514,19 @@
       <c r="I143" t="s">
         <v>58</v>
       </c>
+      <c r="J143" t="s">
+        <v>155</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -6508,12 +6550,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6528,7 +6570,7 @@
         <v>80</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6538,20 +6580,11 @@
       </c>
       <c r="I145" t="s">
         <v>58</v>
-      </c>
-      <c r="J145" t="s">
-        <v>156</v>
-      </c>
-      <c r="K145">
-        <v>1</v>
-      </c>
-      <c r="L145" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6566,7 +6599,7 @@
         <v>80</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G146">
         <v>10</v>
@@ -6575,21 +6608,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>58</v>
-      </c>
-      <c r="J146" t="s">
-        <v>160</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6616,18 +6640,18 @@
         <v>58</v>
       </c>
       <c r="J147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K147">
         <v>1</v>
       </c>
       <c r="L147" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6642,7 +6666,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6652,11 +6676,20 @@
       </c>
       <c r="I148" t="s">
         <v>58</v>
+      </c>
+      <c r="J148" t="s">
+        <v>160</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6674,7 +6707,7 @@
         <v>10</v>
       </c>
       <c r="G149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -6683,18 +6716,18 @@
         <v>58</v>
       </c>
       <c r="J149" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6709,7 +6742,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -6723,7 +6756,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6747,18 +6780,27 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J151" t="s">
+        <v>160</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="B152">
         <v>5</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -6776,18 +6818,18 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B153">
         <v>5</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -6796,7 +6838,7 @@
         <v>80</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6805,12 +6847,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -6825,10 +6867,10 @@
         <v>80</v>
       </c>
       <c r="F154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -6839,10 +6881,10 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="B155">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C155">
         <v>6</v>
@@ -6851,10 +6893,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6863,24 +6905,24 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F156">
         <v>7</v>
@@ -6892,15 +6934,15 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="B157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C157">
         <v>6</v>
@@ -6909,10 +6951,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F157">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G157">
         <v>10</v>
@@ -6921,12 +6963,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B158">
         <v>4</v>
@@ -6950,27 +6992,18 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>167</v>
-      </c>
-      <c r="J158" t="s">
-        <v>161</v>
-      </c>
-      <c r="K158">
-        <v>1</v>
-      </c>
-      <c r="L158" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="B159">
         <v>4</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -6979,21 +7012,21 @@
         <v>70</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -7011,18 +7044,18 @@
         <v>10</v>
       </c>
       <c r="G160">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H160">
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -7037,7 +7070,7 @@
         <v>70</v>
       </c>
       <c r="F161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -7046,12 +7079,21 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>58</v>
+        <v>167</v>
+      </c>
+      <c r="J161" t="s">
+        <v>161</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="B162">
         <v>4</v>
@@ -7075,12 +7117,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7104,12 +7146,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="B164">
         <v>4</v>
@@ -7133,18 +7175,18 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
       <c r="C165">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -7156,18 +7198,18 @@
         <v>10</v>
       </c>
       <c r="G165">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>59</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7185,7 +7227,7 @@
         <v>10</v>
       </c>
       <c r="G166">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -7196,7 +7238,7 @@
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7225,7 +7267,7 @@
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7240,7 +7282,7 @@
         <v>70</v>
       </c>
       <c r="F168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G168">
         <v>10</v>
@@ -7249,12 +7291,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>72</v>
+        <v>284</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7269,7 +7311,7 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -7283,7 +7325,7 @@
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>285</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7309,19 +7351,10 @@
       <c r="I170" t="s">
         <v>167</v>
       </c>
-      <c r="J170" t="s">
-        <v>159</v>
-      </c>
-      <c r="K170">
-        <v>1</v>
-      </c>
-      <c r="L170" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7345,21 +7378,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>70</v>
-      </c>
-      <c r="J171" t="s">
-        <v>144</v>
-      </c>
-      <c r="K171">
-        <v>1</v>
-      </c>
-      <c r="L171" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7374,10 +7398,10 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -7388,7 +7412,7 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7403,10 +7427,10 @@
         <v>70</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G173">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -7414,10 +7438,19 @@
       <c r="I173" t="s">
         <v>167</v>
       </c>
+      <c r="J173" t="s">
+        <v>159</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7441,12 +7474,21 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>167</v>
+        <v>70</v>
+      </c>
+      <c r="J174" t="s">
+        <v>144</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7461,7 +7503,7 @@
         <v>70</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -7470,12 +7512,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7493,27 +7535,18 @@
         <v>10</v>
       </c>
       <c r="G176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176" t="s">
         <v>58</v>
-      </c>
-      <c r="J176" t="s">
-        <v>192</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7531,18 +7564,18 @@
         <v>10</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7568,19 +7601,10 @@
       <c r="I178" t="s">
         <v>167</v>
       </c>
-      <c r="J178" t="s">
-        <v>162</v>
-      </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7595,7 +7619,7 @@
         <v>70</v>
       </c>
       <c r="F179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G179">
         <v>10</v>
@@ -7609,7 +7633,7 @@
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7636,18 +7660,18 @@
         <v>58</v>
       </c>
       <c r="J180" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="K180">
         <v>1</v>
       </c>
       <c r="L180" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7662,21 +7686,21 @@
         <v>70</v>
       </c>
       <c r="F181">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G181">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>288</v>
+        <v>73</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7700,12 +7724,21 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="J182" t="s">
+        <v>162</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7720,10 +7753,10 @@
         <v>70</v>
       </c>
       <c r="F183">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G183">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -7734,7 +7767,7 @@
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7749,7 +7782,7 @@
         <v>70</v>
       </c>
       <c r="F184">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G184">
         <v>10</v>
@@ -7758,12 +7791,21 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J184" t="s">
+        <v>153</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7778,7 +7820,7 @@
         <v>70</v>
       </c>
       <c r="F185">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G185">
         <v>10</v>
@@ -7787,21 +7829,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
-      </c>
-      <c r="J185" t="s">
-        <v>158</v>
-      </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="L185" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7816,7 +7849,7 @@
         <v>70</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G186">
         <v>10</v>
@@ -7825,21 +7858,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>58</v>
-      </c>
-      <c r="J186" t="s">
-        <v>157</v>
-      </c>
-      <c r="K186">
-        <v>3</v>
-      </c>
-      <c r="L186" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7854,10 +7878,10 @@
         <v>70</v>
       </c>
       <c r="F187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G187">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -7868,112 +7892,130 @@
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C188">
         <v>6</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F188">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>290</v>
+        <v>75</v>
       </c>
       <c r="B189">
+        <v>4</v>
+      </c>
+      <c r="C189">
+        <v>6</v>
+      </c>
+      <c r="D189">
+        <v>2</v>
+      </c>
+      <c r="E189">
+        <v>70</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189">
+        <v>10</v>
+      </c>
+      <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189" t="s">
+        <v>58</v>
+      </c>
+      <c r="J189" t="s">
+        <v>158</v>
+      </c>
+      <c r="K189">
         <v>1</v>
       </c>
-      <c r="C189">
-        <v>2</v>
-      </c>
-      <c r="D189">
-        <v>0</v>
-      </c>
-      <c r="E189">
-        <v>30</v>
-      </c>
-      <c r="F189">
-        <v>0</v>
-      </c>
-      <c r="G189">
-        <v>0</v>
-      </c>
-      <c r="H189">
-        <v>0</v>
-      </c>
-      <c r="I189" t="s">
-        <v>280</v>
+      <c r="L189" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C190">
         <v>6</v>
       </c>
       <c r="D190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H190">
         <v>0</v>
       </c>
       <c r="I190" t="s">
         <v>58</v>
+      </c>
+      <c r="J190" t="s">
+        <v>157</v>
+      </c>
+      <c r="K190">
+        <v>3</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="B191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C191">
         <v>6</v>
       </c>
       <c r="D191">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -7984,7 +8026,7 @@
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8013,13 +8055,13 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
       <c r="C193">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>0</v>
@@ -8037,12 +8079,12 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -8066,11 +8108,127 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>280</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>271</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>30</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>272</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>30</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>273</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>30</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>300</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>30</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L187" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L191" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8082,20 +8240,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I195:I222" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I199:I226" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L228:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L232:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L227" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L231" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I194" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I198" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="315" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9973D0F-69A5-4CA2-8EF9-28DA29F85601}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814D6460-918C-4945-B55F-56AC5B76D781}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1289,6 +1289,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1719,8 +1723,8 @@
   <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T33" sqref="T33"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2454,10 +2458,10 @@
         <v>90</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -3294,7 +3298,7 @@
         <v>90</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G46">
         <v>10</v>

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{814D6460-918C-4945-B55F-56AC5B76D781}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE796A74-E403-46E1-A694-D5D037DD08AA}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$191</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$193</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="307">
   <si>
     <t>陈</t>
   </si>
@@ -1124,29 +1124,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.07.08</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>THRM-EX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023.07.09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琳琅诗怀雅</t>
+  </si>
+  <si>
+    <t>MER-X</t>
+  </si>
+  <si>
+    <t>CEN-X</t>
+  </si>
+  <si>
+    <t>REA-X</t>
+  </si>
+  <si>
+    <t>纯烬艾雅法拉</t>
+  </si>
+  <si>
+    <t>BEA-X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1155,14 +1173,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1170,7 +1188,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1179,7 +1197,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1289,10 +1307,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1561,17 +1575,17 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="20.4609375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.4609375" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.84375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>42</v>
       </c>
@@ -1582,7 +1596,7 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1593,7 +1607,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1601,15 +1615,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>53</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>57</v>
       </c>
@@ -1625,7 +1639,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1641,7 +1655,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -1649,7 +1663,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1657,7 +1671,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1665,7 +1679,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>49</v>
       </c>
@@ -1673,7 +1687,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -1681,7 +1695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -1689,7 +1703,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>61</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>180</v>
       </c>
@@ -1720,21 +1734,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <pane ySplit="3" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.35546875" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="19.15234375" customWidth="1"/>
+    <col min="9" max="9" width="10.3828125" customWidth="1"/>
+    <col min="12" max="12" width="8.84375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="13" customFormat="1" ht="37.299999999999997" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="13" customFormat="1" ht="37.299999999999997" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>50</v>
       </c>
@@ -1762,7 +1776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1800,7 +1814,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="32.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>168</v>
       </c>
@@ -1838,7 +1852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -1876,7 +1890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1914,7 +1928,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>266</v>
       </c>
@@ -1943,7 +1957,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -1981,7 +1995,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>227</v>
       </c>
@@ -2010,7 +2024,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>81</v>
       </c>
@@ -2086,7 +2100,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>262</v>
       </c>
@@ -2094,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2115,7 +2129,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>82</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -2179,10 +2193,19 @@
         <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2220,7 +2243,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -2249,7 +2272,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2310,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2315,8 +2338,17 @@
       <c r="I17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2345,7 +2377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>206</v>
       </c>
@@ -2374,7 +2406,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2444,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2441,7 +2473,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>290</v>
       </c>
@@ -2469,8 +2501,17 @@
       <c r="I22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2540,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2537,7 +2578,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2616,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2613,7 +2654,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2642,7 +2683,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>244</v>
       </c>
@@ -2671,7 +2712,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>228</v>
       </c>
@@ -2700,7 +2741,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>83</v>
       </c>
@@ -2729,7 +2770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2758,7 +2799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>17</v>
       </c>
@@ -2796,7 +2837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -2834,7 +2875,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2872,7 +2913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -2910,7 +2951,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>86</v>
       </c>
@@ -2948,7 +2989,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2986,7 +3027,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>87</v>
       </c>
@@ -3024,7 +3065,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -3062,7 +3103,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -3100,7 +3141,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -3138,7 +3179,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -3167,7 +3208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3205,7 +3246,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -3243,7 +3284,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3281,7 +3322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>294</v>
       </c>
@@ -3289,7 +3330,7 @@
         <v>6</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3319,7 +3360,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3357,7 +3398,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -3395,7 +3436,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -3433,7 +3474,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -3459,10 +3500,10 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -3500,7 +3541,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>267</v>
       </c>
@@ -3538,7 +3579,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>28</v>
       </c>
@@ -3576,7 +3617,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -3614,7 +3655,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>246</v>
       </c>
@@ -3652,7 +3693,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>29</v>
       </c>
@@ -3690,7 +3731,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>30</v>
       </c>
@@ -3728,7 +3769,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>31</v>
       </c>
@@ -3766,7 +3807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>32</v>
       </c>
@@ -3774,7 +3815,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3804,15 +3845,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>19</v>
+        <v>305</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3832,17 +3873,8 @@
       <c r="I60" t="s">
         <v>167</v>
       </c>
-      <c r="J60" t="s">
-        <v>222</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -3868,10 +3900,10 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J61" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3880,9 +3912,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -3909,7 +3941,7 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3918,9 +3950,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3947,7 +3979,7 @@
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3956,15 +3988,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3982,18 +4014,27 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J64" t="s">
+        <v>223</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4011,21 +4052,12 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" t="s">
-        <v>151</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4049,27 +4081,27 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
       <c r="L66" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="B67">
         <v>6</v>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>2</v>
@@ -4087,10 +4119,10 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J67" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4099,15 +4131,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4125,18 +4157,27 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>291</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4154,27 +4195,18 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>58</v>
-      </c>
-      <c r="J69" t="s">
-        <v>278</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4192,10 +4224,10 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="J70" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4204,9 +4236,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4230,27 +4262,27 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>6</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -4271,24 +4303,24 @@
         <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L72" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4308,16 +4340,25 @@
       <c r="I73" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J73" t="s">
+        <v>155</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4335,21 +4376,12 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>59</v>
-      </c>
-      <c r="J74" t="s">
-        <v>292</v>
-      </c>
-      <c r="K74">
-        <v>1</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4373,27 +4405,27 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J75" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4411,10 +4443,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J76" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="K76">
         <v>3</v>
@@ -4423,9 +4455,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4449,10 +4481,10 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J77" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -4461,7 +4493,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
         <v>55</v>
       </c>
@@ -4487,21 +4519,21 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J78" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="K78">
         <v>3</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -4525,27 +4557,27 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="K79">
         <v>3</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4563,27 +4595,27 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J80" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4601,10 +4633,10 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -4613,15 +4645,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4639,27 +4671,27 @@
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>302</v>
       </c>
       <c r="K82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L82" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>301</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4677,10 +4709,10 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -4689,15 +4721,15 @@
         <v>164</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4715,71 +4747,71 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J84" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B85">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G85">
         <v>10</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B86">
+        <v>6</v>
+      </c>
+      <c r="C86">
         <v>5</v>
       </c>
-      <c r="C86">
-        <v>6</v>
-      </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F86">
         <v>10</v>
@@ -4788,15 +4820,24 @@
         <v>10</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I86" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J86" t="s">
+        <v>259</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4820,12 +4861,21 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="J87" t="s">
+        <v>225</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4840,7 +4890,7 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -4849,12 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4869,10 +4919,10 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -4881,9 +4931,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4898,7 +4948,7 @@
         <v>80</v>
       </c>
       <c r="F90">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G90">
         <v>10</v>
@@ -4907,12 +4957,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4936,12 +4986,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -4956,7 +5006,7 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>10</v>
@@ -4968,9 +5018,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4988,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="G93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4997,9 +5047,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5026,15 +5076,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B95">
         <v>5</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -5043,7 +5093,7 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G95">
         <v>10</v>
@@ -5052,12 +5102,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5072,10 +5122,10 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -5083,25 +5133,16 @@
       <c r="I96" t="s">
         <v>58</v>
       </c>
-      <c r="J96" t="s">
-        <v>138</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5122,9 +5163,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5148,18 +5189,27 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J98" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
       <c r="C99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5180,9 +5230,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5197,21 +5247,21 @@
         <v>80</v>
       </c>
       <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100">
         <v>7</v>
       </c>
-      <c r="G100">
-        <v>10</v>
-      </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5235,12 +5285,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5264,18 +5314,18 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5296,9 +5346,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5313,7 +5363,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -5322,18 +5372,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5342,7 +5392,7 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
         <v>10</v>
@@ -5354,9 +5404,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5371,7 +5421,7 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -5382,19 +5432,10 @@
       <c r="I106" t="s">
         <v>58</v>
       </c>
-      <c r="J106" t="s">
-        <v>137</v>
-      </c>
-      <c r="K106">
-        <v>1</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5409,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -5421,9 +5462,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5438,27 +5479,36 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H108">
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5476,12 +5526,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5496,27 +5546,27 @@
         <v>80</v>
       </c>
       <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
         <v>7</v>
       </c>
-      <c r="G110">
-        <v>10</v>
-      </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5525,21 +5575,21 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5554,10 +5604,10 @@
         <v>80</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -5566,15 +5616,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5592,12 +5642,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5624,15 +5674,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5644,27 +5694,18 @@
         <v>10</v>
       </c>
       <c r="G115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>58</v>
-      </c>
-      <c r="J115" t="s">
-        <v>145</v>
-      </c>
-      <c r="K115">
-        <v>3</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5679,11 +5720,11 @@
         <v>80</v>
       </c>
       <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="G116">
         <v>7</v>
       </c>
-      <c r="G116">
-        <v>10</v>
-      </c>
       <c r="H116">
         <v>0</v>
       </c>
@@ -5691,9 +5732,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5720,7 +5761,7 @@
         <v>58</v>
       </c>
       <c r="J117" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -5729,9 +5770,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5755,12 +5796,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5775,7 +5816,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5784,12 +5825,21 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J119" t="s">
+        <v>186</v>
+      </c>
+      <c r="K119">
+        <v>3</v>
+      </c>
+      <c r="L119" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5813,12 +5863,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5845,9 +5895,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5862,7 +5912,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5871,21 +5921,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>59</v>
-      </c>
-      <c r="J122" t="s">
-        <v>159</v>
-      </c>
-      <c r="K122">
-        <v>1</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5909,12 +5950,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5932,16 +5973,16 @@
         <v>10</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J124" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K124">
         <v>1</v>
@@ -5950,9 +5991,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -5976,12 +6017,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -5999,24 +6040,33 @@
         <v>10</v>
       </c>
       <c r="G126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H126">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J126" t="s">
+        <v>144</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -6034,18 +6084,18 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="B128">
         <v>5</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -6054,27 +6104,27 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G128">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6092,18 +6142,18 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -6115,18 +6165,18 @@
         <v>7</v>
       </c>
       <c r="G130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6150,12 +6200,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -6182,9 +6232,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6210,19 +6260,10 @@
       <c r="I133" t="s">
         <v>58</v>
       </c>
-      <c r="J133" t="s">
-        <v>151</v>
-      </c>
-      <c r="K133">
-        <v>1</v>
-      </c>
-      <c r="L133" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6237,7 +6278,7 @@
         <v>80</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134">
         <v>10</v>
@@ -6246,12 +6287,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6266,10 +6307,10 @@
         <v>80</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G135">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -6277,10 +6318,19 @@
       <c r="I135" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J135" t="s">
+        <v>151</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6295,7 +6345,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6307,9 +6357,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6324,10 +6374,10 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6336,9 +6386,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6362,18 +6412,18 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>5</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -6382,7 +6432,7 @@
         <v>80</v>
       </c>
       <c r="F139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6391,12 +6441,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6411,7 +6461,7 @@
         <v>80</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140">
         <v>10</v>
@@ -6420,18 +6470,18 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6449,21 +6499,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
-      </c>
-      <c r="J141" t="s">
-        <v>155</v>
-      </c>
-      <c r="K141">
-        <v>1</v>
-      </c>
-      <c r="L141" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6487,12 +6528,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6528,9 +6569,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B144">
         <v>5</v>
@@ -6545,7 +6586,7 @@
         <v>80</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6557,9 +6598,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6585,10 +6626,19 @@
       <c r="I145" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J145" t="s">
+        <v>155</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6612,12 +6662,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6632,7 +6682,7 @@
         <v>80</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6643,19 +6693,10 @@
       <c r="I147" t="s">
         <v>58</v>
       </c>
-      <c r="J147" t="s">
-        <v>156</v>
-      </c>
-      <c r="K147">
-        <v>1</v>
-      </c>
-      <c r="L147" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6670,7 +6711,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6679,21 +6720,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
-      </c>
-      <c r="J148" t="s">
-        <v>160</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6720,18 +6752,18 @@
         <v>58</v>
       </c>
       <c r="J149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K149">
         <v>1</v>
       </c>
       <c r="L149" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6746,7 +6778,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -6757,10 +6789,19 @@
       <c r="I150" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J150" t="s">
+        <v>160</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6778,7 +6819,7 @@
         <v>10</v>
       </c>
       <c r="G151">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6787,24 +6828,24 @@
         <v>58</v>
       </c>
       <c r="J151" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K151">
         <v>1</v>
       </c>
       <c r="L151" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="B152">
         <v>5</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -6813,7 +6854,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -6822,12 +6863,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6845,7 +6886,7 @@
         <v>10</v>
       </c>
       <c r="G153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -6853,16 +6894,25 @@
       <c r="I153" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J153" t="s">
+        <v>160</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="B154">
         <v>5</v>
       </c>
       <c r="C154">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -6871,21 +6921,21 @@
         <v>80</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H154">
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -6900,7 +6950,7 @@
         <v>80</v>
       </c>
       <c r="F155">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6909,18 +6959,18 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156">
         <v>5</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -6929,21 +6979,21 @@
         <v>80</v>
       </c>
       <c r="F156">
+        <v>10</v>
+      </c>
+      <c r="G156">
         <v>7</v>
       </c>
-      <c r="G156">
-        <v>10</v>
-      </c>
       <c r="H156">
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B157">
         <v>5</v>
@@ -6970,24 +7020,24 @@
         <v>59</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="B158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
       <c r="E158">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158">
         <v>10</v>
@@ -6996,15 +7046,15 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -7013,7 +7063,7 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F159">
         <v>7</v>
@@ -7028,9 +7078,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B160">
         <v>4</v>
@@ -7057,9 +7107,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B161">
         <v>4</v>
@@ -7074,7 +7124,7 @@
         <v>70</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -7083,27 +7133,18 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>167</v>
-      </c>
-      <c r="J161" t="s">
-        <v>161</v>
-      </c>
-      <c r="K161">
-        <v>1</v>
-      </c>
-      <c r="L161" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="B162">
         <v>4</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -7115,18 +7156,27 @@
         <v>10</v>
       </c>
       <c r="G162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="J162" t="s">
+        <v>306</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B163">
         <v>4</v>
@@ -7144,7 +7194,7 @@
         <v>10</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -7152,16 +7202,25 @@
       <c r="I163" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J163" t="s">
+        <v>161</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="B164">
         <v>4</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -7170,11 +7229,11 @@
         <v>70</v>
       </c>
       <c r="F164">
+        <v>10</v>
+      </c>
+      <c r="G164">
         <v>7</v>
       </c>
-      <c r="G164">
-        <v>10</v>
-      </c>
       <c r="H164">
         <v>0</v>
       </c>
@@ -7182,15 +7241,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="B165">
         <v>4</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -7208,12 +7267,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7228,10 +7287,10 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -7240,15 +7299,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -7257,21 +7316,21 @@
         <v>70</v>
       </c>
       <c r="F167">
+        <v>10</v>
+      </c>
+      <c r="G167">
         <v>7</v>
       </c>
-      <c r="G167">
-        <v>10</v>
-      </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B168">
         <v>4</v>
@@ -7289,18 +7348,18 @@
         <v>10</v>
       </c>
       <c r="G168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7315,7 +7374,7 @@
         <v>70</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -7324,12 +7383,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7344,7 +7403,7 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G170">
         <v>10</v>
@@ -7353,12 +7412,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7373,7 +7432,7 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G171">
         <v>10</v>
@@ -7382,12 +7441,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7411,12 +7470,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7442,19 +7501,10 @@
       <c r="I173" t="s">
         <v>167</v>
       </c>
-      <c r="J173" t="s">
-        <v>159</v>
-      </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7478,21 +7528,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>70</v>
-      </c>
-      <c r="J174" t="s">
-        <v>144</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7516,12 +7557,21 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J175" t="s">
+        <v>159</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7536,21 +7586,30 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H176">
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="J176" t="s">
+        <v>144</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7565,21 +7624,21 @@
         <v>70</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G177">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7594,21 +7653,21 @@
         <v>70</v>
       </c>
       <c r="F178">
+        <v>10</v>
+      </c>
+      <c r="G178">
         <v>7</v>
       </c>
-      <c r="G178">
-        <v>10</v>
-      </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7626,18 +7685,18 @@
         <v>10</v>
       </c>
       <c r="G179">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7652,7 +7711,7 @@
         <v>70</v>
       </c>
       <c r="F180">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G180">
         <v>10</v>
@@ -7661,21 +7720,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
-      </c>
-      <c r="J180" t="s">
-        <v>192</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7693,7 +7743,7 @@
         <v>10</v>
       </c>
       <c r="G181">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -7702,9 +7752,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7719,7 +7769,7 @@
         <v>70</v>
       </c>
       <c r="F182">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G182">
         <v>10</v>
@@ -7728,21 +7778,21 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J182" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K182">
         <v>1</v>
       </c>
       <c r="L182" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7757,11 +7807,11 @@
         <v>70</v>
       </c>
       <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183">
         <v>7</v>
       </c>
-      <c r="G183">
-        <v>10</v>
-      </c>
       <c r="H183">
         <v>0</v>
       </c>
@@ -7769,9 +7819,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7786,7 +7836,7 @@
         <v>70</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G184">
         <v>10</v>
@@ -7795,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J184" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K184">
         <v>1</v>
@@ -7807,9 +7857,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7833,12 +7883,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7853,7 +7903,7 @@
         <v>70</v>
       </c>
       <c r="F186">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G186">
         <v>10</v>
@@ -7862,12 +7912,21 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="J186" t="s">
+        <v>153</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7882,21 +7941,21 @@
         <v>70</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -7923,9 +7982,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -7943,7 +8002,7 @@
         <v>10</v>
       </c>
       <c r="G189">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -7951,19 +8010,10 @@
       <c r="I189" t="s">
         <v>58</v>
       </c>
-      <c r="J189" t="s">
-        <v>158</v>
-      </c>
-      <c r="K189">
-        <v>1</v>
-      </c>
-      <c r="L189" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -7978,7 +8028,7 @@
         <v>70</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G190">
         <v>10</v>
@@ -7987,21 +8037,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
-      </c>
-      <c r="J190" t="s">
-        <v>157</v>
-      </c>
-      <c r="K190">
-        <v>3</v>
-      </c>
-      <c r="L190" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8016,79 +8057,97 @@
         <v>70</v>
       </c>
       <c r="F191">
+        <v>10</v>
+      </c>
+      <c r="G191">
+        <v>10</v>
+      </c>
+      <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>58</v>
+      </c>
+      <c r="J191" t="s">
+        <v>158</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192">
+        <v>4</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+      <c r="E192">
+        <v>70</v>
+      </c>
+      <c r="F192">
+        <v>10</v>
+      </c>
+      <c r="G192">
+        <v>10</v>
+      </c>
+      <c r="H192">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>58</v>
+      </c>
+      <c r="J192" t="s">
+        <v>157</v>
+      </c>
+      <c r="K192">
+        <v>3</v>
+      </c>
+      <c r="L192" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" t="s">
+        <v>77</v>
+      </c>
+      <c r="B193">
+        <v>4</v>
+      </c>
+      <c r="C193">
+        <v>6</v>
+      </c>
+      <c r="D193">
+        <v>2</v>
+      </c>
+      <c r="E193">
+        <v>70</v>
+      </c>
+      <c r="F193">
         <v>7</v>
       </c>
-      <c r="G191">
-        <v>10</v>
-      </c>
-      <c r="H191">
-        <v>0</v>
-      </c>
-      <c r="I191" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="G193">
+        <v>10</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" t="s">
         <v>269</v>
-      </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-      <c r="C192">
-        <v>6</v>
-      </c>
-      <c r="D192">
-        <v>0</v>
-      </c>
-      <c r="E192">
-        <v>30</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
-        <v>289</v>
-      </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-      <c r="C193">
-        <v>2</v>
-      </c>
-      <c r="D193">
-        <v>0</v>
-      </c>
-      <c r="E193">
-        <v>30</v>
-      </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
-        <v>270</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -8115,15 +8174,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
       <c r="C195">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>0</v>
@@ -8141,12 +8200,12 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -8173,9 +8232,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8199,12 +8258,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8228,11 +8287,69 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" t="s">
+        <v>273</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>30</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="200" spans="1:9">
+      <c r="A200" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>30</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L191" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L193" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8244,20 +8361,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I199:I226" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I201:I228" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L232:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L234:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L231" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L233" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I198" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I200" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE796A74-E403-46E1-A694-D5D037DD08AA}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F66F85-F2EA-4E58-A3A3-2EF9B16E6873}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$193</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$197</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="312">
   <si>
     <t>陈</t>
   </si>
@@ -1128,10 +1128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2023.07.09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>琳琅诗怀雅</t>
   </si>
   <si>
@@ -1148,6 +1144,24 @@
   </si>
   <si>
     <t>BEA-X</t>
+  </si>
+  <si>
+    <t>青枳</t>
+  </si>
+  <si>
+    <t>涤火杰西卡</t>
+  </si>
+  <si>
+    <t>冰酿</t>
+  </si>
+  <si>
+    <t>杏仁</t>
+  </si>
+  <si>
+    <t>BLS-X</t>
+  </si>
+  <si>
+    <t>2023.09.08</t>
   </si>
 </sst>
 </file>
@@ -1574,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1620,7 +1634,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1734,11 +1748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I197" sqref="I197"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N71" sqref="N71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2196,7 +2210,7 @@
         <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2269,7 +2283,7 @@
         <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2339,7 +2353,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2481,7 +2495,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2502,7 +2516,7 @@
         <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2743,13 +2757,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2767,18 +2781,18 @@
         <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2796,18 +2810,18 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2825,27 +2839,18 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2866,18 +2871,18 @@
         <v>58</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="K33">
         <v>2</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2904,18 +2909,18 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2942,18 +2947,18 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2980,24 +2985,24 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3018,24 +3023,24 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3053,10 +3058,10 @@
         <v>10</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3067,13 +3072,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3091,13 +3096,13 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J39" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L39" s="8" t="s">
         <v>163</v>
@@ -3105,13 +3110,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3129,13 +3134,13 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J40" t="s">
         <v>205</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>163</v>
@@ -3143,7 +3148,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="B41">
         <v>6</v>
@@ -3170,7 +3175,7 @@
         <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3181,13 +3186,13 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3207,10 +3212,19 @@
       <c r="I42" t="s">
         <v>58</v>
       </c>
+      <c r="J42" t="s">
+        <v>185</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B43">
         <v>6</v>
@@ -3236,25 +3250,16 @@
       <c r="I43" t="s">
         <v>58</v>
       </c>
-      <c r="J43" t="s">
-        <v>185</v>
-      </c>
-      <c r="K43">
-        <v>3</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3275,10 +3280,10 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>163</v>
@@ -3286,13 +3291,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3313,7 +3318,7 @@
         <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3324,13 +3329,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3348,13 +3353,13 @@
         <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>163</v>
@@ -3362,7 +3367,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3389,10 +3394,10 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>163</v>
@@ -3400,13 +3405,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3427,10 +3432,10 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="K48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>163</v>
@@ -3438,13 +3443,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3465,7 +3470,7 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -3476,7 +3481,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3500,18 +3505,27 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J50" t="s">
+        <v>245</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3529,27 +3543,18 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" t="s">
-        <v>146</v>
-      </c>
-      <c r="K51">
-        <v>1</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3567,10 +3572,10 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3581,13 +3586,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3605,27 +3610,27 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J53" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3646,24 +3651,24 @@
         <v>59</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3681,27 +3686,27 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3719,27 +3724,27 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J56" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3760,24 +3765,24 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3798,7 +3803,7 @@
         <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3809,13 +3814,13 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3836,7 +3841,7 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3847,13 +3852,13 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3871,18 +3876,27 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J60" t="s">
+        <v>149</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3901,15 +3915,6 @@
       </c>
       <c r="I61" t="s">
         <v>167</v>
-      </c>
-      <c r="J61" t="s">
-        <v>222</v>
-      </c>
-      <c r="K61">
-        <v>1</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3938,10 +3943,10 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J62" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3952,7 +3957,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B63">
         <v>6</v>
@@ -3979,7 +3984,7 @@
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3990,7 +3995,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -4017,7 +4022,7 @@
         <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4028,13 +4033,13 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4052,18 +4057,27 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J65" t="s">
+        <v>223</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -4081,21 +4095,12 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
-      </c>
-      <c r="J66" t="s">
-        <v>151</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -4119,27 +4124,27 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4157,10 +4162,10 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J68" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4171,13 +4176,13 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4195,18 +4200,27 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J69" t="s">
+        <v>291</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4224,10 +4238,10 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J70" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4238,13 +4252,13 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4262,10 +4276,10 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4276,7 +4290,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4300,13 +4314,13 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72" s="8" t="s">
         <v>164</v>
@@ -4314,13 +4328,13 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4338,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>164</v>
@@ -4352,13 +4366,13 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4378,16 +4392,25 @@
       <c r="I74" t="s">
         <v>58</v>
       </c>
+      <c r="J74" t="s">
+        <v>155</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4405,21 +4428,12 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>59</v>
-      </c>
-      <c r="J75" t="s">
-        <v>292</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="B76">
         <v>6</v>
@@ -4443,27 +4457,27 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J76" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="K76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>187</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4481,10 +4495,10 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J77" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="K77">
         <v>3</v>
@@ -4495,7 +4509,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -4519,10 +4533,10 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="K78">
         <v>3</v>
@@ -4557,21 +4571,21 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="K79">
         <v>3</v>
       </c>
       <c r="L79" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4595,27 +4609,27 @@
         <v>10</v>
       </c>
       <c r="I80" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="K80">
         <v>3</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>229</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4633,27 +4647,27 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J81" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4671,10 +4685,10 @@
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J82" t="s">
-        <v>302</v>
+        <v>157</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -4685,13 +4699,13 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4709,10 +4723,10 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -4723,13 +4737,13 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4750,10 +4764,10 @@
         <v>167</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="K84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84" s="8" t="s">
         <v>164</v>
@@ -4761,13 +4775,13 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>258</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4785,13 +4799,13 @@
         <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J85" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>164</v>
@@ -4799,13 +4813,13 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4826,7 +4840,7 @@
         <v>58</v>
       </c>
       <c r="J86" t="s">
-        <v>259</v>
+        <v>198</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4837,45 +4851,45 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F87">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J87" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K87">
         <v>1</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B88">
         <v>5</v>
@@ -4890,7 +4904,7 @@
         <v>80</v>
       </c>
       <c r="F88">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G88">
         <v>10</v>
@@ -4899,12 +4913,21 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J88" t="s">
+        <v>225</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="B89">
         <v>5</v>
@@ -4919,7 +4942,7 @@
         <v>80</v>
       </c>
       <c r="F89">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G89">
         <v>10</v>
@@ -4928,12 +4951,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4957,12 +4980,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>99</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -4977,21 +5000,21 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H91">
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5009,18 +5032,18 @@
         <v>10</v>
       </c>
       <c r="G92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5035,21 +5058,21 @@
         <v>80</v>
       </c>
       <c r="F93">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H93">
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5064,7 +5087,7 @@
         <v>80</v>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G94">
         <v>10</v>
@@ -5078,7 +5101,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5096,7 +5119,7 @@
         <v>10</v>
       </c>
       <c r="G95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -5107,7 +5130,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5136,13 +5159,13 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -5151,7 +5174,7 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G97">
         <v>10</v>
@@ -5160,12 +5183,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5180,36 +5203,27 @@
         <v>80</v>
       </c>
       <c r="F98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G98">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98" t="s">
         <v>58</v>
-      </c>
-      <c r="J98" t="s">
-        <v>138</v>
-      </c>
-      <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5232,7 +5246,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5256,18 +5270,27 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5290,7 +5313,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5305,21 +5328,21 @@
         <v>80</v>
       </c>
       <c r="F102">
+        <v>10</v>
+      </c>
+      <c r="G102">
         <v>7</v>
       </c>
-      <c r="G102">
-        <v>10</v>
-      </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5343,12 +5366,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5372,18 +5395,18 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -5406,7 +5429,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5421,7 +5444,7 @@
         <v>80</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G106">
         <v>10</v>
@@ -5430,18 +5453,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -5450,7 +5473,7 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107">
         <v>10</v>
@@ -5464,7 +5487,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5479,7 +5502,7 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -5491,10 +5514,10 @@
         <v>58</v>
       </c>
       <c r="J108" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="K108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L108" s="8" t="s">
         <v>163</v>
@@ -5502,7 +5525,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="B109">
         <v>5</v>
@@ -5517,7 +5540,7 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -5531,7 +5554,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5546,27 +5569,36 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J110" t="s">
+        <v>137</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B111">
         <v>5</v>
       </c>
       <c r="C111">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -5584,12 +5616,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5604,27 +5636,27 @@
         <v>80</v>
       </c>
       <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
         <v>7</v>
       </c>
-      <c r="G112">
-        <v>10</v>
-      </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5633,21 +5665,21 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H113">
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5662,10 +5694,10 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -5676,13 +5708,13 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5700,12 +5732,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5734,13 +5766,13 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5752,27 +5784,18 @@
         <v>10</v>
       </c>
       <c r="G117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
-      </c>
-      <c r="J117" t="s">
-        <v>145</v>
-      </c>
-      <c r="K117">
-        <v>3</v>
-      </c>
-      <c r="L117" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5787,10 +5810,10 @@
         <v>80</v>
       </c>
       <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="G118">
         <v>7</v>
-      </c>
-      <c r="G118">
-        <v>10</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -5801,7 +5824,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5828,7 +5851,7 @@
         <v>58</v>
       </c>
       <c r="J119" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="K119">
         <v>3</v>
@@ -5839,7 +5862,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5863,12 +5886,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5886,7 +5909,7 @@
         <v>7</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5897,7 +5920,7 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5912,7 +5935,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5922,11 +5945,20 @@
       </c>
       <c r="I122" t="s">
         <v>58</v>
+      </c>
+      <c r="J122" t="s">
+        <v>186</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5955,7 +5987,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -5970,7 +6002,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -5979,21 +6011,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>59</v>
-      </c>
-      <c r="J124" t="s">
-        <v>159</v>
-      </c>
-      <c r="K124">
-        <v>1</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -6022,7 +6045,7 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -6037,30 +6060,21 @@
         <v>80</v>
       </c>
       <c r="F126">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>58</v>
-      </c>
-      <c r="J126" t="s">
-        <v>144</v>
-      </c>
-      <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6075,7 +6089,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -6084,12 +6098,21 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="J127" t="s">
+        <v>159</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -6104,27 +6127,27 @@
         <v>80</v>
       </c>
       <c r="F128">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G128">
         <v>10</v>
       </c>
       <c r="H128">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129">
         <v>5</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -6133,27 +6156,36 @@
         <v>80</v>
       </c>
       <c r="F129">
+        <v>10</v>
+      </c>
+      <c r="G129">
         <v>7</v>
       </c>
-      <c r="G129">
-        <v>10</v>
-      </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
         <v>58</v>
+      </c>
+      <c r="J129" t="s">
+        <v>144</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="B130">
         <v>5</v>
       </c>
       <c r="C130">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -6165,18 +6197,18 @@
         <v>7</v>
       </c>
       <c r="G130">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H130">
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6191,27 +6223,27 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G131">
         <v>10</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6234,13 +6266,13 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -6258,12 +6290,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6287,12 +6319,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6318,19 +6350,10 @@
       <c r="I135" t="s">
         <v>58</v>
       </c>
-      <c r="J135" t="s">
-        <v>151</v>
-      </c>
-      <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6345,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
         <v>10</v>
@@ -6354,12 +6377,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6374,10 +6397,10 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -6388,7 +6411,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6412,12 +6435,21 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J138" t="s">
+        <v>151</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6432,7 +6464,7 @@
         <v>80</v>
       </c>
       <c r="F139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6441,12 +6473,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6461,10 +6493,10 @@
         <v>80</v>
       </c>
       <c r="F140">
+        <v>10</v>
+      </c>
+      <c r="G140">
         <v>7</v>
-      </c>
-      <c r="G140">
-        <v>10</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -6475,13 +6507,13 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="B141">
         <v>5</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -6499,12 +6531,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6519,7 +6551,7 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -6528,12 +6560,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6559,25 +6591,16 @@
       <c r="I143" t="s">
         <v>58</v>
       </c>
-      <c r="J143" t="s">
-        <v>155</v>
-      </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>218</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6586,7 +6609,7 @@
         <v>80</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6595,12 +6618,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6615,7 +6638,7 @@
         <v>80</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6624,21 +6647,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>58</v>
-      </c>
-      <c r="J145" t="s">
-        <v>155</v>
-      </c>
-      <c r="K145">
-        <v>1</v>
-      </c>
-      <c r="L145" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6664,10 +6678,19 @@
       <c r="I146" t="s">
         <v>58</v>
       </c>
+      <c r="J146" t="s">
+        <v>155</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>283</v>
+        <v>124</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6682,7 +6705,7 @@
         <v>80</v>
       </c>
       <c r="F147">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6696,7 +6719,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6720,12 +6743,21 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J148" t="s">
+        <v>155</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>127</v>
+        <v>189</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6740,7 +6772,7 @@
         <v>80</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -6750,20 +6782,11 @@
       </c>
       <c r="I149" t="s">
         <v>58</v>
-      </c>
-      <c r="J149" t="s">
-        <v>156</v>
-      </c>
-      <c r="K149">
-        <v>1</v>
-      </c>
-      <c r="L149" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6778,7 +6801,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -6788,20 +6811,11 @@
       </c>
       <c r="I150" t="s">
         <v>58</v>
-      </c>
-      <c r="J150" t="s">
-        <v>160</v>
-      </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6816,7 +6830,7 @@
         <v>80</v>
       </c>
       <c r="F151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -6825,21 +6839,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>58</v>
-      </c>
-      <c r="J151" t="s">
-        <v>157</v>
-      </c>
-      <c r="K151">
-        <v>1</v>
-      </c>
-      <c r="L151" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>127</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6854,7 +6859,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -6864,11 +6869,20 @@
       </c>
       <c r="I152" t="s">
         <v>58</v>
+      </c>
+      <c r="J152" t="s">
+        <v>156</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6886,7 +6900,7 @@
         <v>10</v>
       </c>
       <c r="G153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -6906,13 +6920,13 @@
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="B154">
         <v>5</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -6921,7 +6935,7 @@
         <v>80</v>
       </c>
       <c r="F154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -6930,12 +6944,21 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J154" t="s">
+        <v>157</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -6950,7 +6973,7 @@
         <v>80</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6964,7 +6987,7 @@
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -6988,18 +7011,27 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J156" t="s">
+        <v>160</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -7017,18 +7049,18 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B158">
         <v>5</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -7037,7 +7069,7 @@
         <v>80</v>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G158">
         <v>10</v>
@@ -7046,12 +7078,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -7066,10 +7098,10 @@
         <v>80</v>
       </c>
       <c r="F159">
+        <v>10</v>
+      </c>
+      <c r="G159">
         <v>7</v>
-      </c>
-      <c r="G159">
-        <v>10</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -7080,10 +7112,10 @@
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="B160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -7092,10 +7124,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -7104,24 +7136,24 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F161">
         <v>7</v>
@@ -7133,15 +7165,15 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="B162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -7150,36 +7182,27 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>59</v>
-      </c>
-      <c r="J162" t="s">
-        <v>306</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C163">
         <v>6</v>
@@ -7188,10 +7211,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F163">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G163">
         <v>10</v>
@@ -7200,27 +7223,18 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>167</v>
-      </c>
-      <c r="J163" t="s">
-        <v>161</v>
-      </c>
-      <c r="K163">
-        <v>1</v>
-      </c>
-      <c r="L163" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="B164">
         <v>4</v>
       </c>
       <c r="C164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -7232,7 +7246,7 @@
         <v>10</v>
       </c>
       <c r="G164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -7243,7 +7257,7 @@
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B165">
         <v>4</v>
@@ -7258,21 +7272,21 @@
         <v>70</v>
       </c>
       <c r="F165">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7287,7 +7301,7 @@
         <v>70</v>
       </c>
       <c r="F166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -7296,18 +7310,27 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J166" t="s">
+        <v>305</v>
+      </c>
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B167">
         <v>4</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -7319,24 +7342,33 @@
         <v>10</v>
       </c>
       <c r="G167">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>279</v>
+        <v>167</v>
+      </c>
+      <c r="J167" t="s">
+        <v>161</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -7359,7 +7391,7 @@
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7374,10 +7406,10 @@
         <v>70</v>
       </c>
       <c r="F169">
+        <v>10</v>
+      </c>
+      <c r="G169">
         <v>7</v>
-      </c>
-      <c r="G169">
-        <v>10</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7388,7 +7420,7 @@
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B170">
         <v>4</v>
@@ -7403,7 +7435,7 @@
         <v>70</v>
       </c>
       <c r="F170">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G170">
         <v>10</v>
@@ -7412,18 +7444,18 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
       <c r="C171">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -7435,18 +7467,18 @@
         <v>10</v>
       </c>
       <c r="G171">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7461,21 +7493,21 @@
         <v>70</v>
       </c>
       <c r="F172">
+        <v>10</v>
+      </c>
+      <c r="G172">
         <v>7</v>
       </c>
-      <c r="G172">
-        <v>10</v>
-      </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B173">
         <v>4</v>
@@ -7504,7 +7536,7 @@
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7519,7 +7551,7 @@
         <v>70</v>
       </c>
       <c r="F174">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G174">
         <v>10</v>
@@ -7528,12 +7560,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7548,7 +7580,7 @@
         <v>70</v>
       </c>
       <c r="F175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -7558,20 +7590,11 @@
       </c>
       <c r="I175" t="s">
         <v>58</v>
-      </c>
-      <c r="J175" t="s">
-        <v>159</v>
-      </c>
-      <c r="K175">
-        <v>1</v>
-      </c>
-      <c r="L175" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7595,21 +7618,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>70</v>
-      </c>
-      <c r="J176" t="s">
-        <v>144</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7633,12 +7647,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7653,10 +7667,10 @@
         <v>70</v>
       </c>
       <c r="F178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -7667,7 +7681,7 @@
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7682,21 +7696,30 @@
         <v>70</v>
       </c>
       <c r="F179">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G179">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H179">
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J179" t="s">
+        <v>159</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7720,12 +7743,21 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>167</v>
+        <v>70</v>
+      </c>
+      <c r="J180" t="s">
+        <v>144</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7740,7 +7772,7 @@
         <v>70</v>
       </c>
       <c r="F181">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G181">
         <v>10</v>
@@ -7754,7 +7786,7 @@
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7772,27 +7804,18 @@
         <v>10</v>
       </c>
       <c r="G182">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182" t="s">
         <v>58</v>
-      </c>
-      <c r="J182" t="s">
-        <v>192</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7810,18 +7833,18 @@
         <v>10</v>
       </c>
       <c r="G183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7847,19 +7870,10 @@
       <c r="I184" t="s">
         <v>167</v>
       </c>
-      <c r="J184" t="s">
-        <v>162</v>
-      </c>
-      <c r="K184">
-        <v>1</v>
-      </c>
-      <c r="L184" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7874,7 +7888,7 @@
         <v>70</v>
       </c>
       <c r="F185">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G185">
         <v>10</v>
@@ -7888,7 +7902,7 @@
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7915,18 +7929,18 @@
         <v>58</v>
       </c>
       <c r="J186" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="K186">
         <v>1</v>
       </c>
       <c r="L186" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7941,21 +7955,21 @@
         <v>70</v>
       </c>
       <c r="F187">
+        <v>10</v>
+      </c>
+      <c r="G187">
         <v>7</v>
       </c>
-      <c r="G187">
-        <v>10</v>
-      </c>
       <c r="H187">
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -7979,12 +7993,21 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="J188" t="s">
+        <v>162</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -7999,10 +8022,10 @@
         <v>70</v>
       </c>
       <c r="F189">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G189">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8013,7 +8036,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -8028,7 +8051,7 @@
         <v>70</v>
       </c>
       <c r="F190">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G190">
         <v>10</v>
@@ -8037,12 +8060,21 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J190" t="s">
+        <v>153</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8057,7 +8089,7 @@
         <v>70</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G191">
         <v>10</v>
@@ -8066,21 +8098,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>58</v>
-      </c>
-      <c r="J191" t="s">
-        <v>158</v>
-      </c>
-      <c r="K191">
-        <v>1</v>
-      </c>
-      <c r="L191" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -8095,7 +8118,7 @@
         <v>70</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G192">
         <v>10</v>
@@ -8104,21 +8127,12 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>58</v>
-      </c>
-      <c r="J192" t="s">
-        <v>157</v>
-      </c>
-      <c r="K192">
-        <v>3</v>
-      </c>
-      <c r="L192" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -8133,11 +8147,11 @@
         <v>70</v>
       </c>
       <c r="F193">
+        <v>10</v>
+      </c>
+      <c r="G193">
         <v>7</v>
       </c>
-      <c r="G193">
-        <v>10</v>
-      </c>
       <c r="H193">
         <v>0</v>
       </c>
@@ -8145,125 +8159,143 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:12">
       <c r="A194" t="s">
+        <v>216</v>
+      </c>
+      <c r="B194">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>6</v>
+      </c>
+      <c r="D194">
+        <v>2</v>
+      </c>
+      <c r="E194">
+        <v>70</v>
+      </c>
+      <c r="F194">
+        <v>7</v>
+      </c>
+      <c r="G194">
+        <v>10</v>
+      </c>
+      <c r="H194">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" t="s">
+        <v>75</v>
+      </c>
+      <c r="B195">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>2</v>
+      </c>
+      <c r="E195">
+        <v>70</v>
+      </c>
+      <c r="F195">
+        <v>10</v>
+      </c>
+      <c r="G195">
+        <v>10</v>
+      </c>
+      <c r="H195">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>58</v>
+      </c>
+      <c r="J195" t="s">
+        <v>158</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" t="s">
+        <v>76</v>
+      </c>
+      <c r="B196">
+        <v>4</v>
+      </c>
+      <c r="C196">
+        <v>6</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+      <c r="E196">
+        <v>70</v>
+      </c>
+      <c r="F196">
+        <v>10</v>
+      </c>
+      <c r="G196">
+        <v>10</v>
+      </c>
+      <c r="H196">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>58</v>
+      </c>
+      <c r="J196" t="s">
+        <v>157</v>
+      </c>
+      <c r="K196">
+        <v>3</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" t="s">
+        <v>77</v>
+      </c>
+      <c r="B197">
+        <v>4</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>2</v>
+      </c>
+      <c r="E197">
+        <v>70</v>
+      </c>
+      <c r="F197">
+        <v>7</v>
+      </c>
+      <c r="G197">
+        <v>10</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" t="s">
         <v>269</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-      <c r="C194">
-        <v>6</v>
-      </c>
-      <c r="D194">
-        <v>0</v>
-      </c>
-      <c r="E194">
-        <v>30</v>
-      </c>
-      <c r="F194">
-        <v>0</v>
-      </c>
-      <c r="G194">
-        <v>0</v>
-      </c>
-      <c r="H194">
-        <v>0</v>
-      </c>
-      <c r="I194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
-      <c r="A195" t="s">
-        <v>289</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-      <c r="C195">
-        <v>2</v>
-      </c>
-      <c r="D195">
-        <v>0</v>
-      </c>
-      <c r="E195">
-        <v>30</v>
-      </c>
-      <c r="F195">
-        <v>0</v>
-      </c>
-      <c r="G195">
-        <v>0</v>
-      </c>
-      <c r="H195">
-        <v>0</v>
-      </c>
-      <c r="I195" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
-      <c r="A196" t="s">
-        <v>270</v>
-      </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-      <c r="C196">
-        <v>6</v>
-      </c>
-      <c r="D196">
-        <v>0</v>
-      </c>
-      <c r="E196">
-        <v>30</v>
-      </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>0</v>
-      </c>
-      <c r="I196" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
-      <c r="A197" t="s">
-        <v>271</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-      <c r="C197">
-        <v>6</v>
-      </c>
-      <c r="D197">
-        <v>0</v>
-      </c>
-      <c r="E197">
-        <v>30</v>
-      </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
-      <c r="A198" t="s">
-        <v>272</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8290,15 +8322,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8319,9 +8351,9 @@
         <v>279</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8345,11 +8377,127 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" t="s">
+        <v>271</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>30</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" t="s">
+        <v>272</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>30</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" t="s">
+        <v>273</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>30</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="204" spans="1:12">
+      <c r="A204" t="s">
+        <v>299</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>30</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L193" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L197" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8361,20 +8509,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I201:I228" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I205:I232" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L234:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L238:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L233" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L237" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I200" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I204" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F66F85-F2EA-4E58-A3A3-2EF9B16E6873}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADA6EB6-BED1-4BB5-B1FD-0438F8F83522}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$197</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$199</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="315">
   <si>
     <t>陈</t>
   </si>
@@ -1161,7 +1161,16 @@
     <t>BLS-X</t>
   </si>
   <si>
-    <t>2023.09.08</t>
+    <t>2023.10.10</t>
+  </si>
+  <si>
+    <t>赫德雷</t>
+  </si>
+  <si>
+    <t>FOR-X</t>
+  </si>
+  <si>
+    <t>ARC-X</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1748,11 +1757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K178" sqref="K178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2288,14 +2297,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -2306,33 +2315,24 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17">
         <v>6</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2353,18 +2353,18 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>6</v>
@@ -2389,17 +2389,26 @@
       </c>
       <c r="I18" t="s">
         <v>58</v>
+      </c>
+      <c r="J18" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -2417,19 +2426,19 @@
         <v>10</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
       <c r="D20">
         <v>2</v>
       </c>
@@ -2446,27 +2455,18 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>6</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -2484,18 +2484,27 @@
         <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2513,27 +2522,18 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" t="s">
-        <v>303</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2551,12 +2551,21 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2580,16 +2589,7 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" t="s">
-        <v>139</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2618,21 +2618,21 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K25">
         <v>3</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -2656,21 +2656,21 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
         <v>6</v>
@@ -2694,12 +2694,21 @@
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2723,12 +2732,12 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2757,13 +2766,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -2786,13 +2795,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2810,18 +2819,18 @@
         <v>10</v>
       </c>
       <c r="I31" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2839,18 +2848,27 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>313</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2868,27 +2886,18 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-      <c r="J33" t="s">
-        <v>208</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2909,18 +2918,18 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="K34">
         <v>2</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2947,18 +2956,18 @@
         <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -2985,18 +2994,18 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -3023,24 +3032,24 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3061,24 +3070,24 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3096,10 +3105,10 @@
         <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3110,13 +3119,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3134,13 +3143,13 @@
         <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
         <v>163</v>
@@ -3148,13 +3157,13 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3175,24 +3184,24 @@
         <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3210,13 +3219,13 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J42" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>163</v>
@@ -3224,13 +3233,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3249,17 +3258,26 @@
       </c>
       <c r="I43" t="s">
         <v>58</v>
+      </c>
+      <c r="J43" t="s">
+        <v>205</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3283,7 +3301,7 @@
         <v>185</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>163</v>
@@ -3291,13 +3309,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3316,26 +3334,17 @@
       </c>
       <c r="I45" t="s">
         <v>58</v>
-      </c>
-      <c r="J45" t="s">
-        <v>276</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3356,10 +3365,10 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>163</v>
@@ -3367,7 +3376,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3394,10 +3403,10 @@
         <v>58</v>
       </c>
       <c r="J47" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="K47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>163</v>
@@ -3405,13 +3414,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3432,7 +3441,7 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3443,13 +3452,13 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3470,7 +3479,7 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -3481,13 +3490,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3508,10 +3517,10 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="K50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L50" s="8" t="s">
         <v>163</v>
@@ -3519,13 +3528,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3543,18 +3552,27 @@
         <v>10</v>
       </c>
       <c r="I51" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J51" t="s">
+        <v>241</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3575,10 +3593,10 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>163</v>
@@ -3586,7 +3604,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3610,27 +3628,18 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>167</v>
-      </c>
-      <c r="J53" t="s">
-        <v>245</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3648,21 +3657,21 @@
         <v>10</v>
       </c>
       <c r="I54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3686,13 +3695,13 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J55" t="s">
         <v>245</v>
       </c>
       <c r="K55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="8" t="s">
         <v>163</v>
@@ -3700,13 +3709,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3724,7 +3733,7 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J56" t="s">
         <v>263</v>
@@ -3738,7 +3747,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3762,27 +3771,27 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J57" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="K57">
         <v>3</v>
       </c>
       <c r="L57" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3800,21 +3809,21 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J58" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3841,24 +3850,24 @@
         <v>58</v>
       </c>
       <c r="J59" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3879,7 +3888,7 @@
         <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3890,13 +3899,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3914,18 +3923,27 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J61" t="s">
+        <v>260</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3943,27 +3961,27 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3981,21 +3999,12 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>58</v>
-      </c>
-      <c r="J63" t="s">
-        <v>277</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B64">
         <v>6</v>
@@ -4019,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J64" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4033,7 +4042,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65">
         <v>6</v>
@@ -4060,7 +4069,7 @@
         <v>58</v>
       </c>
       <c r="J65" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4071,13 +4080,13 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -4095,12 +4104,21 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J66" t="s">
+        <v>150</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -4127,7 +4145,7 @@
         <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4138,13 +4156,13 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4162,27 +4180,18 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>59</v>
-      </c>
-      <c r="J68" t="s">
-        <v>152</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="B69">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -4203,18 +4212,18 @@
         <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="B70">
         <v>6</v>
@@ -4238,10 +4247,10 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J70" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4252,7 +4261,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="B71">
         <v>6</v>
@@ -4279,7 +4288,7 @@
         <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4290,7 +4299,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4314,10 +4323,10 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="J72" t="s">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4328,13 +4337,13 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4352,13 +4361,13 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>164</v>
@@ -4366,13 +4375,13 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4390,10 +4399,10 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4404,7 +4413,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -4428,18 +4437,27 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J75" t="s">
+        <v>154</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4457,10 +4475,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4471,13 +4489,13 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="B77">
         <v>6</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -4495,27 +4513,18 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>167</v>
-      </c>
-      <c r="J77" t="s">
-        <v>264</v>
-      </c>
-      <c r="K77">
-        <v>3</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4533,27 +4542,27 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J78" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="K78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4571,10 +4580,10 @@
         <v>10</v>
       </c>
       <c r="I79" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J79" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="K79">
         <v>3</v>
@@ -4585,7 +4594,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4612,18 +4621,18 @@
         <v>58</v>
       </c>
       <c r="J80" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="K80">
         <v>3</v>
       </c>
       <c r="L80" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B81">
         <v>6</v>
@@ -4650,7 +4659,7 @@
         <v>167</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K81">
         <v>3</v>
@@ -4661,13 +4670,13 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4685,27 +4694,27 @@
         <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4723,27 +4732,27 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J83" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4761,10 +4770,10 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J84" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -4775,13 +4784,13 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4799,13 +4808,13 @@
         <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="K85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L85" s="8" t="s">
         <v>164</v>
@@ -4813,7 +4822,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4837,10 +4846,10 @@
         <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4851,13 +4860,13 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4875,13 +4884,13 @@
         <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J87" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>164</v>
@@ -4889,57 +4898,57 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88">
         <v>10</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I88" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J88" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="K88">
         <v>1</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B89">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -4948,15 +4957,24 @@
         <v>10</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I89" t="s">
         <v>58</v>
+      </c>
+      <c r="J89" t="s">
+        <v>259</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>5</v>
@@ -4980,12 +4998,21 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="J90" t="s">
+        <v>225</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <v>5</v>
@@ -5000,7 +5027,7 @@
         <v>80</v>
       </c>
       <c r="F91">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -5009,12 +5036,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B92">
         <v>5</v>
@@ -5029,10 +5056,10 @@
         <v>80</v>
       </c>
       <c r="F92">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -5043,7 +5070,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5067,12 +5094,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5090,18 +5117,18 @@
         <v>10</v>
       </c>
       <c r="G94">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5116,21 +5143,21 @@
         <v>80</v>
       </c>
       <c r="F95">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G95">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H95">
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5145,7 +5172,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -5159,7 +5186,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5177,7 +5204,7 @@
         <v>10</v>
       </c>
       <c r="G97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5188,7 +5215,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5217,13 +5244,13 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
       <c r="C99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D99">
         <v>2</v>
@@ -5232,7 +5259,7 @@
         <v>80</v>
       </c>
       <c r="F99">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G99">
         <v>10</v>
@@ -5241,12 +5268,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5261,36 +5288,27 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
         <v>58</v>
-      </c>
-      <c r="J100" t="s">
-        <v>138</v>
-      </c>
-      <c r="K100">
-        <v>1</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5313,7 +5331,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5337,18 +5355,27 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J102" t="s">
+        <v>138</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5371,7 +5398,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="B104">
         <v>5</v>
@@ -5386,21 +5413,21 @@
         <v>80</v>
       </c>
       <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104">
         <v>7</v>
       </c>
-      <c r="G104">
-        <v>10</v>
-      </c>
       <c r="H104">
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>261</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5424,12 +5451,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -5453,18 +5480,18 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="B107">
         <v>5</v>
       </c>
       <c r="C107">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -5487,7 +5514,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>265</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5502,7 +5529,7 @@
         <v>80</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G108">
         <v>10</v>
@@ -5511,27 +5538,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>58</v>
-      </c>
-      <c r="J108" t="s">
-        <v>302</v>
-      </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5540,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -5554,7 +5572,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5569,7 +5587,7 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -5581,10 +5599,10 @@
         <v>58</v>
       </c>
       <c r="J110" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L110" s="8" t="s">
         <v>163</v>
@@ -5592,7 +5610,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>288</v>
+        <v>105</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5607,7 +5625,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5621,7 +5639,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="B112">
         <v>5</v>
@@ -5636,27 +5654,36 @@
         <v>80</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J112" t="s">
+        <v>137</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5674,12 +5701,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5694,27 +5721,27 @@
         <v>80</v>
       </c>
       <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114">
         <v>7</v>
       </c>
-      <c r="G114">
-        <v>10</v>
-      </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5723,21 +5750,21 @@
         <v>80</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G115">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5752,10 +5779,10 @@
         <v>80</v>
       </c>
       <c r="F116">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -5766,13 +5793,13 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>249</v>
+        <v>107</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5790,12 +5817,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>248</v>
       </c>
       <c r="B118">
         <v>5</v>
@@ -5824,13 +5851,13 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>108</v>
+        <v>249</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5842,27 +5869,18 @@
         <v>10</v>
       </c>
       <c r="G119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>58</v>
-      </c>
-      <c r="J119" t="s">
-        <v>145</v>
-      </c>
-      <c r="K119">
-        <v>3</v>
-      </c>
-      <c r="L119" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5877,10 +5895,10 @@
         <v>80</v>
       </c>
       <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="G120">
         <v>7</v>
-      </c>
-      <c r="G120">
-        <v>10</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -5891,7 +5909,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5906,21 +5924,30 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J121" t="s">
+        <v>145</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="B122">
         <v>5</v>
@@ -5935,7 +5962,7 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G122">
         <v>10</v>
@@ -5945,20 +5972,11 @@
       </c>
       <c r="I122" t="s">
         <v>58</v>
-      </c>
-      <c r="J122" t="s">
-        <v>186</v>
-      </c>
-      <c r="K122">
-        <v>3</v>
-      </c>
-      <c r="L122" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5987,7 +6005,7 @@
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>280</v>
+        <v>217</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6002,7 +6020,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -6011,12 +6029,21 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J124" t="s">
+        <v>186</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -6040,12 +6067,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>110</v>
+        <v>280</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -6074,7 +6101,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6089,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -6098,21 +6125,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>59</v>
-      </c>
-      <c r="J127" t="s">
-        <v>159</v>
-      </c>
-      <c r="K127">
-        <v>1</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -6136,12 +6154,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -6159,16 +6177,16 @@
         <v>10</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J129" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="K129">
         <v>1</v>
@@ -6179,7 +6197,7 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6208,7 +6226,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6226,24 +6244,33 @@
         <v>10</v>
       </c>
       <c r="G131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H131">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>201</v>
+        <v>58</v>
+      </c>
+      <c r="J131" t="s">
+        <v>144</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>114</v>
+        <v>232</v>
       </c>
       <c r="B132">
         <v>5</v>
       </c>
       <c r="C132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -6266,13 +6293,13 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>296</v>
+        <v>200</v>
       </c>
       <c r="B133">
         <v>5</v>
       </c>
       <c r="C133">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -6281,27 +6308,27 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G133">
         <v>10</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I133" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -6319,18 +6346,18 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -6348,12 +6375,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>239</v>
+        <v>115</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6377,12 +6404,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="B137">
         <v>5</v>
@@ -6411,7 +6438,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>116</v>
+        <v>239</v>
       </c>
       <c r="B138">
         <v>5</v>
@@ -6437,19 +6464,10 @@
       <c r="I138" t="s">
         <v>58</v>
       </c>
-      <c r="J138" t="s">
-        <v>151</v>
-      </c>
-      <c r="K138">
-        <v>1</v>
-      </c>
-      <c r="L138" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6464,7 +6482,7 @@
         <v>80</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139">
         <v>10</v>
@@ -6473,12 +6491,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6493,21 +6511,30 @@
         <v>80</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H140">
         <v>0</v>
       </c>
       <c r="I140" t="s">
         <v>58</v>
+      </c>
+      <c r="J140" t="s">
+        <v>151</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6522,7 +6549,7 @@
         <v>80</v>
       </c>
       <c r="F141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6536,7 +6563,7 @@
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6551,10 +6578,10 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6565,7 +6592,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6589,18 +6616,18 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>120</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6609,7 +6636,7 @@
         <v>80</v>
       </c>
       <c r="F144">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6618,12 +6645,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6638,7 +6665,7 @@
         <v>80</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6647,18 +6674,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="B146">
         <v>5</v>
       </c>
       <c r="C146">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -6678,19 +6705,10 @@
       <c r="I146" t="s">
         <v>58</v>
       </c>
-      <c r="J146" t="s">
-        <v>155</v>
-      </c>
-      <c r="K146">
-        <v>1</v>
-      </c>
-      <c r="L146" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6714,12 +6732,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6757,7 +6775,7 @@
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>189</v>
+        <v>124</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6772,7 +6790,7 @@
         <v>80</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -6786,7 +6804,7 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="B150">
         <v>5</v>
@@ -6812,10 +6830,19 @@
       <c r="I150" t="s">
         <v>58</v>
       </c>
+      <c r="J150" t="s">
+        <v>155</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6839,12 +6866,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6859,7 +6886,7 @@
         <v>80</v>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G152">
         <v>10</v>
@@ -6869,20 +6896,11 @@
       </c>
       <c r="I152" t="s">
         <v>58</v>
-      </c>
-      <c r="J152" t="s">
-        <v>156</v>
-      </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6897,7 +6915,7 @@
         <v>80</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6906,21 +6924,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
-      </c>
-      <c r="J153" t="s">
-        <v>160</v>
-      </c>
-      <c r="K153">
-        <v>1</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -6947,18 +6956,18 @@
         <v>58</v>
       </c>
       <c r="J154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K154">
         <v>1</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -6973,7 +6982,7 @@
         <v>80</v>
       </c>
       <c r="F155">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6983,11 +6992,20 @@
       </c>
       <c r="I155" t="s">
         <v>58</v>
+      </c>
+      <c r="J155" t="s">
+        <v>160</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -7005,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="G156">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -7014,24 +7032,24 @@
         <v>58</v>
       </c>
       <c r="J156" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K156">
         <v>1</v>
       </c>
       <c r="L156" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>297</v>
+        <v>220</v>
       </c>
       <c r="B157">
         <v>5</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -7040,7 +7058,7 @@
         <v>80</v>
       </c>
       <c r="F157">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G157">
         <v>10</v>
@@ -7049,12 +7067,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B158">
         <v>5</v>
@@ -7072,24 +7090,33 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H158">
         <v>0</v>
       </c>
       <c r="I158" t="s">
         <v>58</v>
+      </c>
+      <c r="J158" t="s">
+        <v>160</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -7098,21 +7125,21 @@
         <v>80</v>
       </c>
       <c r="F159">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H159">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -7127,7 +7154,7 @@
         <v>80</v>
       </c>
       <c r="F160">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -7136,18 +7163,18 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B161">
         <v>5</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -7156,21 +7183,21 @@
         <v>80</v>
       </c>
       <c r="F161">
+        <v>10</v>
+      </c>
+      <c r="G161">
         <v>7</v>
       </c>
-      <c r="G161">
-        <v>10</v>
-      </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -7188,24 +7215,24 @@
         <v>7</v>
       </c>
       <c r="G162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="B163">
         <v>5</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -7223,15 +7250,15 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C164">
         <v>6</v>
@@ -7240,10 +7267,10 @@
         <v>2</v>
       </c>
       <c r="E164">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F164">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -7252,15 +7279,15 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C165">
         <v>6</v>
@@ -7269,7 +7296,7 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F165">
         <v>7</v>
@@ -7286,7 +7313,7 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B166">
         <v>4</v>
@@ -7310,21 +7337,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>59</v>
-      </c>
-      <c r="J166" t="s">
-        <v>305</v>
-      </c>
-      <c r="K166">
-        <v>3</v>
-      </c>
-      <c r="L166" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B167">
         <v>4</v>
@@ -7339,7 +7357,7 @@
         <v>70</v>
       </c>
       <c r="F167">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -7348,27 +7366,18 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>167</v>
-      </c>
-      <c r="J167" t="s">
-        <v>161</v>
-      </c>
-      <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="B168">
         <v>4</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -7380,18 +7389,27 @@
         <v>10</v>
       </c>
       <c r="G168">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J168" t="s">
+        <v>305</v>
+      </c>
+      <c r="K168">
+        <v>3</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B169">
         <v>4</v>
@@ -7409,7 +7427,7 @@
         <v>10</v>
       </c>
       <c r="G169">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -7417,16 +7435,25 @@
       <c r="I169" t="s">
         <v>167</v>
       </c>
+      <c r="J169" t="s">
+        <v>161</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -7435,10 +7462,10 @@
         <v>70</v>
       </c>
       <c r="F170">
+        <v>10</v>
+      </c>
+      <c r="G170">
         <v>7</v>
-      </c>
-      <c r="G170">
-        <v>10</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -7449,13 +7476,13 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="B171">
         <v>4</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -7473,12 +7500,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>279</v>
+        <v>167</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7493,10 +7520,10 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -7507,13 +7534,13 @@
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7522,21 +7549,21 @@
         <v>70</v>
       </c>
       <c r="F173">
+        <v>10</v>
+      </c>
+      <c r="G173">
         <v>7</v>
       </c>
-      <c r="G173">
-        <v>10</v>
-      </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B174">
         <v>4</v>
@@ -7554,18 +7581,18 @@
         <v>10</v>
       </c>
       <c r="G174">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7580,7 +7607,7 @@
         <v>70</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G175">
         <v>10</v>
@@ -7589,12 +7616,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7609,7 +7636,7 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -7618,12 +7645,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="B177">
         <v>4</v>
@@ -7638,7 +7665,7 @@
         <v>70</v>
       </c>
       <c r="F177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G177">
         <v>10</v>
@@ -7647,12 +7674,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>72</v>
+        <v>285</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7676,12 +7703,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7705,21 +7732,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>58</v>
-      </c>
-      <c r="J179" t="s">
-        <v>159</v>
-      </c>
-      <c r="K179">
-        <v>1</v>
-      </c>
-      <c r="L179" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7743,21 +7761,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>70</v>
-      </c>
-      <c r="J180" t="s">
-        <v>144</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180" s="8" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7783,10 +7792,19 @@
       <c r="I181" t="s">
         <v>58</v>
       </c>
+      <c r="J181" t="s">
+        <v>159</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7801,21 +7819,30 @@
         <v>70</v>
       </c>
       <c r="F182">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G182">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H182">
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>58</v>
+        <v>70</v>
+      </c>
+      <c r="J182" t="s">
+        <v>144</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7830,21 +7857,21 @@
         <v>70</v>
       </c>
       <c r="F183">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G183">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7859,21 +7886,21 @@
         <v>70</v>
       </c>
       <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
         <v>7</v>
       </c>
-      <c r="G184">
-        <v>10</v>
-      </c>
       <c r="H184">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>71</v>
+        <v>234</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7891,18 +7918,18 @@
         <v>10</v>
       </c>
       <c r="G185">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7917,7 +7944,7 @@
         <v>70</v>
       </c>
       <c r="F186">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G186">
         <v>10</v>
@@ -7926,21 +7953,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>58</v>
-      </c>
-      <c r="J186" t="s">
-        <v>192</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>253</v>
+        <v>71</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7958,7 +7976,7 @@
         <v>10</v>
       </c>
       <c r="G187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -7969,7 +7987,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>73</v>
+        <v>191</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -7984,7 +8002,7 @@
         <v>70</v>
       </c>
       <c r="F188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G188">
         <v>10</v>
@@ -7993,21 +8011,21 @@
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J188" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="K188">
         <v>1</v>
       </c>
       <c r="L188" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -8022,10 +8040,10 @@
         <v>70</v>
       </c>
       <c r="F189">
+        <v>10</v>
+      </c>
+      <c r="G189">
         <v>7</v>
-      </c>
-      <c r="G189">
-        <v>10</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8036,7 +8054,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -8051,7 +8069,7 @@
         <v>70</v>
       </c>
       <c r="F190">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G190">
         <v>10</v>
@@ -8060,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J190" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -8074,7 +8092,7 @@
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8098,12 +8116,12 @@
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -8118,7 +8136,7 @@
         <v>70</v>
       </c>
       <c r="F192">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G192">
         <v>10</v>
@@ -8127,12 +8145,21 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J192" t="s">
+        <v>153</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -8147,21 +8174,21 @@
         <v>70</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>216</v>
+        <v>287</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -8190,7 +8217,7 @@
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -8208,27 +8235,18 @@
         <v>10</v>
       </c>
       <c r="G195">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195" t="s">
         <v>58</v>
-      </c>
-      <c r="J195" t="s">
-        <v>158</v>
-      </c>
-      <c r="K195">
-        <v>1</v>
-      </c>
-      <c r="L195" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -8243,7 +8261,7 @@
         <v>70</v>
       </c>
       <c r="F196">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G196">
         <v>10</v>
@@ -8252,21 +8270,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
-      </c>
-      <c r="J196" t="s">
-        <v>157</v>
-      </c>
-      <c r="K196">
-        <v>3</v>
-      </c>
-      <c r="L196" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -8281,7 +8290,7 @@
         <v>70</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G197">
         <v>10</v>
@@ -8291,69 +8300,87 @@
       </c>
       <c r="I197" t="s">
         <v>58</v>
+      </c>
+      <c r="J197" t="s">
+        <v>158</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C198">
         <v>6</v>
       </c>
       <c r="D198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198" t="s">
         <v>58</v>
+      </c>
+      <c r="J198" t="s">
+        <v>157</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>289</v>
+        <v>77</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C199">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F199">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -8382,13 +8409,13 @@
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8406,12 +8433,12 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -8440,7 +8467,7 @@
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -8464,12 +8491,12 @@
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>279</v>
+        <v>58</v>
       </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8493,11 +8520,69 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" t="s">
+        <v>273</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>30</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>0</v>
+      </c>
+      <c r="I205" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="206" spans="1:12">
+      <c r="A206" t="s">
+        <v>299</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>30</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L197" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L199" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8509,20 +8594,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I205:I232" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I207:I234" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L238:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L240:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L237" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L239" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I204" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I206" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AADA6EB6-BED1-4BB5-B1FD-0438F8F83522}"/>
+  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C701F12-C497-431B-9FD5-DE936037BE3B}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$199</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$203</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="320">
   <si>
     <t>陈</t>
   </si>
@@ -1161,9 +1161,6 @@
     <t>BLS-X</t>
   </si>
   <si>
-    <t>2023.10.10</t>
-  </si>
-  <si>
     <t>赫德雷</t>
   </si>
   <si>
@@ -1171,6 +1168,24 @@
   </si>
   <si>
     <t>ARC-X</t>
+  </si>
+  <si>
+    <t>刺玫</t>
+  </si>
+  <si>
+    <t>薇薇安娜</t>
+  </si>
+  <si>
+    <t>止颂</t>
+  </si>
+  <si>
+    <t>UNY-X</t>
+  </si>
+  <si>
+    <t>塑心</t>
+  </si>
+  <si>
+    <t>2023.11.02</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1643,7 +1658,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,11 +1772,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L206"/>
+  <dimension ref="A1:L210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K178" sqref="K178"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1939,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
         <v>135</v>
@@ -2297,7 +2312,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2315,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>10</v>
@@ -2455,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -2670,13 +2685,13 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2685,30 +2700,21 @@
         <v>90</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" t="s">
-        <v>139</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2732,12 +2738,21 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J28" t="s">
+        <v>139</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2761,12 +2776,12 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>316</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2781,13 +2796,13 @@
         <v>90</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H30">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I30" t="s">
         <v>167</v>
@@ -2795,13 +2810,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
       <c r="B31">
         <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2824,13 +2839,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>228</v>
       </c>
       <c r="B32">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2848,27 +2863,27 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J32" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>307</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2886,12 +2901,12 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="B34">
         <v>6</v>
@@ -2918,18 +2933,18 @@
         <v>58</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -2953,27 +2968,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J35" t="s">
-        <v>140</v>
+        <v>317</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2994,18 +3009,18 @@
         <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="B37">
         <v>6</v>
@@ -3032,18 +3047,18 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3070,7 +3085,7 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>207</v>
+        <v>141</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3081,13 +3096,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B39">
         <v>6</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2</v>
@@ -3108,24 +3123,24 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B40">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2</v>
@@ -3146,24 +3161,24 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3184,24 +3199,24 @@
         <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>314</v>
+        <v>143</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3219,13 +3234,13 @@
         <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L42" s="8" t="s">
         <v>163</v>
@@ -3233,13 +3248,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3260,24 +3275,24 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3295,13 +3310,13 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L44" s="8" t="s">
         <v>163</v>
@@ -3309,13 +3324,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3334,17 +3349,26 @@
       </c>
       <c r="I45" t="s">
         <v>58</v>
+      </c>
+      <c r="J45" t="s">
+        <v>205</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3368,7 +3392,7 @@
         <v>185</v>
       </c>
       <c r="K46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L46" s="8" t="s">
         <v>163</v>
@@ -3376,13 +3400,13 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3401,26 +3425,17 @@
       </c>
       <c r="I47" t="s">
         <v>58</v>
-      </c>
-      <c r="J47" t="s">
-        <v>276</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3441,10 +3456,10 @@
         <v>58</v>
       </c>
       <c r="J48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L48" s="8" t="s">
         <v>163</v>
@@ -3452,7 +3467,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>6</v>
@@ -3479,10 +3494,10 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>163</v>
@@ -3490,13 +3505,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3517,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3528,13 +3543,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>294</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3555,7 +3570,7 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="K51">
         <v>3</v>
@@ -3566,13 +3581,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3593,10 +3608,10 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>245</v>
+        <v>145</v>
       </c>
       <c r="K52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>163</v>
@@ -3604,13 +3619,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3628,18 +3643,27 @@
         <v>10</v>
       </c>
       <c r="I53" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J53" t="s">
+        <v>241</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3660,10 +3684,10 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>146</v>
+        <v>245</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>163</v>
@@ -3671,7 +3695,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3695,27 +3719,18 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>167</v>
-      </c>
-      <c r="J55" t="s">
-        <v>245</v>
-      </c>
-      <c r="K55">
-        <v>1</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3733,21 +3748,21 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3771,13 +3786,13 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J57" t="s">
         <v>245</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>163</v>
@@ -3785,13 +3800,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3809,7 +3824,7 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
         <v>263</v>
@@ -3823,7 +3838,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>6</v>
@@ -3847,27 +3862,27 @@
         <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>147</v>
+        <v>245</v>
       </c>
       <c r="K59">
         <v>3</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>246</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3885,21 +3900,21 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J60" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -3926,24 +3941,24 @@
         <v>58</v>
       </c>
       <c r="J61" t="s">
-        <v>260</v>
+        <v>147</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3964,7 +3979,7 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3975,13 +3990,13 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3999,18 +4014,27 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J63" t="s">
+        <v>260</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -4028,27 +4052,27 @@
         <v>10</v>
       </c>
       <c r="I64" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>222</v>
+        <v>149</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4066,21 +4090,12 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>58</v>
-      </c>
-      <c r="J65" t="s">
-        <v>277</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B66">
         <v>6</v>
@@ -4104,10 +4119,10 @@
         <v>10</v>
       </c>
       <c r="I66" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J66" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4118,7 +4133,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
         <v>6</v>
@@ -4145,7 +4160,7 @@
         <v>58</v>
       </c>
       <c r="J67" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4156,13 +4171,13 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>6</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>2</v>
@@ -4180,12 +4195,21 @@
         <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J68" t="s">
+        <v>150</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4212,7 +4236,7 @@
         <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4223,13 +4247,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4247,27 +4271,18 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>59</v>
-      </c>
-      <c r="J70" t="s">
-        <v>152</v>
-      </c>
-      <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4288,18 +4303,18 @@
         <v>58</v>
       </c>
       <c r="J71" t="s">
-        <v>291</v>
+        <v>151</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4323,10 +4338,10 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J72" t="s">
-        <v>310</v>
+        <v>152</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4337,7 +4352,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>224</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -4364,7 +4379,7 @@
         <v>58</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -4375,7 +4390,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="B74">
         <v>6</v>
@@ -4399,10 +4414,10 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="J74" t="s">
-        <v>153</v>
+        <v>310</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4413,13 +4428,13 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4437,13 +4452,13 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s">
-        <v>154</v>
+        <v>278</v>
       </c>
       <c r="K75">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L75" s="8" t="s">
         <v>164</v>
@@ -4451,13 +4466,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4475,10 +4490,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4489,7 +4504,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4513,18 +4528,27 @@
         <v>10</v>
       </c>
       <c r="I77" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J77" t="s">
+        <v>154</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4542,10 +4566,10 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J78" t="s">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -4556,13 +4580,13 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>187</v>
+        <v>318</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -4571,30 +4595,21 @@
         <v>90</v>
       </c>
       <c r="F79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I79" t="s">
-        <v>58</v>
-      </c>
-      <c r="J79" t="s">
-        <v>264</v>
-      </c>
-      <c r="K79">
-        <v>3</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B80">
         <v>6</v>
@@ -4619,26 +4634,17 @@
       </c>
       <c r="I80" t="s">
         <v>58</v>
-      </c>
-      <c r="J80" t="s">
-        <v>197</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4656,27 +4662,27 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J81" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="K81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L81" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4697,18 +4703,18 @@
         <v>58</v>
       </c>
       <c r="J82" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="K82">
         <v>3</v>
       </c>
       <c r="L82" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>229</v>
+        <v>34</v>
       </c>
       <c r="B83">
         <v>6</v>
@@ -4732,10 +4738,10 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J83" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="K83">
         <v>3</v>
@@ -4746,13 +4752,13 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4770,27 +4776,27 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L84" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B85">
         <v>6</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4811,24 +4817,24 @@
         <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="B86">
         <v>6</v>
       </c>
       <c r="C86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -4846,27 +4852,27 @@
         <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="K86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L86" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4884,13 +4890,13 @@
         <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J87" t="s">
         <v>157</v>
       </c>
       <c r="K87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87" s="8" t="s">
         <v>164</v>
@@ -4898,7 +4904,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B88">
         <v>6</v>
@@ -4925,7 +4931,7 @@
         <v>58</v>
       </c>
       <c r="J88" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -4936,13 +4942,13 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4960,10 +4966,10 @@
         <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J89" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4974,10 +4980,10 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>258</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>6</v>
@@ -4986,45 +4992,45 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J90" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="B91">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F91">
         <v>10</v>
@@ -5033,44 +5039,62 @@
         <v>10</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I91" t="s">
         <v>58</v>
+      </c>
+      <c r="J91" t="s">
+        <v>198</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="B92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G92">
         <v>10</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J92" t="s">
+        <v>259</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -5096,10 +5120,19 @@
       <c r="I93" t="s">
         <v>59</v>
       </c>
+      <c r="J93" t="s">
+        <v>225</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="B94">
         <v>5</v>
@@ -5117,18 +5150,18 @@
         <v>10</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H94">
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5157,7 +5190,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5172,7 +5205,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -5181,12 +5214,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5210,12 +5243,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>306</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5239,12 +5272,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5273,7 +5306,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5288,10 +5321,10 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -5302,13 +5335,13 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>5</v>
       </c>
       <c r="C101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -5326,12 +5359,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5349,33 +5382,24 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102" t="s">
         <v>58</v>
-      </c>
-      <c r="J102" t="s">
-        <v>138</v>
-      </c>
-      <c r="K102">
-        <v>1</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -5393,18 +5417,18 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -5413,10 +5437,10 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -5427,7 +5451,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>101</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5442,27 +5466,36 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5480,12 +5513,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5500,21 +5533,21 @@
         <v>80</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H107">
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5538,18 +5571,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5572,7 +5605,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5587,7 +5620,7 @@
         <v>80</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G110">
         <v>10</v>
@@ -5597,20 +5630,11 @@
       </c>
       <c r="I110" t="s">
         <v>58</v>
-      </c>
-      <c r="J110" t="s">
-        <v>302</v>
-      </c>
-      <c r="K110">
-        <v>3</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5625,7 +5649,7 @@
         <v>80</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G111">
         <v>10</v>
@@ -5634,18 +5658,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5665,19 +5689,10 @@
       <c r="I112" t="s">
         <v>58</v>
       </c>
-      <c r="J112" t="s">
-        <v>137</v>
-      </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="L112" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -5692,7 +5707,7 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5702,11 +5717,20 @@
       </c>
       <c r="I113" t="s">
         <v>58</v>
+      </c>
+      <c r="J113" t="s">
+        <v>302</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>247</v>
+        <v>105</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5724,24 +5748,24 @@
         <v>10</v>
       </c>
       <c r="G114">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c r="B115">
         <v>5</v>
       </c>
       <c r="C115">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -5759,12 +5783,21 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J115" t="s">
+        <v>137</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5793,7 +5826,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>107</v>
+        <v>247</v>
       </c>
       <c r="B117">
         <v>5</v>
@@ -5817,18 +5850,18 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5837,27 +5870,27 @@
         <v>80</v>
       </c>
       <c r="F118">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H118">
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="B119">
         <v>5</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -5866,21 +5899,21 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5904,12 +5937,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>248</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5927,33 +5960,24 @@
         <v>10</v>
       </c>
       <c r="G121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121" t="s">
         <v>58</v>
-      </c>
-      <c r="J121" t="s">
-        <v>145</v>
-      </c>
-      <c r="K121">
-        <v>3</v>
-      </c>
-      <c r="L121" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>249</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -5962,21 +5986,21 @@
         <v>80</v>
       </c>
       <c r="F122">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G122">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="B123">
         <v>5</v>
@@ -5991,21 +6015,21 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6032,7 +6056,7 @@
         <v>58</v>
       </c>
       <c r="J124" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="K124">
         <v>3</v>
@@ -6043,7 +6067,7 @@
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>254</v>
+        <v>109</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -6067,12 +6091,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -6101,7 +6125,7 @@
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B127">
         <v>5</v>
@@ -6116,7 +6140,7 @@
         <v>80</v>
       </c>
       <c r="F127">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G127">
         <v>10</v>
@@ -6126,11 +6150,20 @@
       </c>
       <c r="I127" t="s">
         <v>58</v>
+      </c>
+      <c r="J127" t="s">
+        <v>186</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -6159,7 +6192,7 @@
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>111</v>
+        <v>280</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -6174,7 +6207,7 @@
         <v>80</v>
       </c>
       <c r="F129">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -6183,21 +6216,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>59</v>
-      </c>
-      <c r="J129" t="s">
-        <v>159</v>
-      </c>
-      <c r="K129">
-        <v>1</v>
-      </c>
-      <c r="L129" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>112</v>
+        <v>281</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6226,7 +6250,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6241,30 +6265,21 @@
         <v>80</v>
       </c>
       <c r="F131">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G131">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>58</v>
-      </c>
-      <c r="J131" t="s">
-        <v>144</v>
-      </c>
-      <c r="K131">
-        <v>1</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -6279,7 +6294,7 @@
         <v>80</v>
       </c>
       <c r="F132">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G132">
         <v>10</v>
@@ -6288,12 +6303,21 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J132" t="s">
+        <v>159</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6308,27 +6332,27 @@
         <v>80</v>
       </c>
       <c r="F133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G133">
         <v>10</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B134">
         <v>5</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -6337,27 +6361,36 @@
         <v>80</v>
       </c>
       <c r="F134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
         <v>58</v>
+      </c>
+      <c r="J134" t="s">
+        <v>144</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="B135">
         <v>5</v>
       </c>
       <c r="C135">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -6375,12 +6408,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6395,27 +6428,27 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G136">
         <v>10</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I136" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -6438,13 +6471,13 @@
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6462,12 +6495,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6491,12 +6524,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>282</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6522,19 +6555,10 @@
       <c r="I140" t="s">
         <v>58</v>
       </c>
-      <c r="J140" t="s">
-        <v>151</v>
-      </c>
-      <c r="K140">
-        <v>1</v>
-      </c>
-      <c r="L140" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>117</v>
+        <v>239</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6549,7 +6573,7 @@
         <v>80</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141">
         <v>10</v>
@@ -6558,12 +6582,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="B142">
         <v>5</v>
@@ -6578,10 +6602,10 @@
         <v>80</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -6592,7 +6616,7 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B143">
         <v>5</v>
@@ -6616,18 +6640,27 @@
         <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J143" t="s">
+        <v>151</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6636,7 +6669,7 @@
         <v>80</v>
       </c>
       <c r="F144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G144">
         <v>10</v>
@@ -6645,12 +6678,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6665,7 +6698,7 @@
         <v>80</v>
       </c>
       <c r="F145">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6674,18 +6707,18 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="B146">
         <v>5</v>
       </c>
       <c r="C146">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -6694,10 +6727,10 @@
         <v>80</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -6708,7 +6741,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6723,7 +6756,7 @@
         <v>80</v>
       </c>
       <c r="F147">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -6737,7 +6770,7 @@
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6752,7 +6785,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6761,21 +6794,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>58</v>
-      </c>
-      <c r="J148" t="s">
-        <v>155</v>
-      </c>
-      <c r="K148">
-        <v>1</v>
-      </c>
-      <c r="L148" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B149">
         <v>5</v>
@@ -6790,7 +6814,7 @@
         <v>80</v>
       </c>
       <c r="F149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -6804,13 +6828,13 @@
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
       <c r="C150">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6830,19 +6854,10 @@
       <c r="I150" t="s">
         <v>58</v>
       </c>
-      <c r="J150" t="s">
-        <v>155</v>
-      </c>
-      <c r="K150">
-        <v>1</v>
-      </c>
-      <c r="L150" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6857,7 +6872,7 @@
         <v>80</v>
       </c>
       <c r="F151">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G151">
         <v>10</v>
@@ -6871,7 +6886,7 @@
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>283</v>
+        <v>123</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6897,10 +6912,19 @@
       <c r="I152" t="s">
         <v>58</v>
       </c>
+      <c r="J152" t="s">
+        <v>155</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6915,7 +6939,7 @@
         <v>80</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6924,12 +6948,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -6944,7 +6968,7 @@
         <v>80</v>
       </c>
       <c r="F154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154">
         <v>10</v>
@@ -6956,18 +6980,18 @@
         <v>58</v>
       </c>
       <c r="J154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K154">
         <v>1</v>
       </c>
       <c r="L154" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="B155">
         <v>5</v>
@@ -6982,7 +7006,7 @@
         <v>80</v>
       </c>
       <c r="F155">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G155">
         <v>10</v>
@@ -6991,21 +7015,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>58</v>
-      </c>
-      <c r="J155" t="s">
-        <v>160</v>
-      </c>
-      <c r="K155">
-        <v>1</v>
-      </c>
-      <c r="L155" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>129</v>
+        <v>283</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -7020,7 +7035,7 @@
         <v>80</v>
       </c>
       <c r="F156">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -7030,20 +7045,11 @@
       </c>
       <c r="I156" t="s">
         <v>58</v>
-      </c>
-      <c r="J156" t="s">
-        <v>157</v>
-      </c>
-      <c r="K156">
-        <v>1</v>
-      </c>
-      <c r="L156" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="B157">
         <v>5</v>
@@ -7058,7 +7064,7 @@
         <v>80</v>
       </c>
       <c r="F157">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G157">
         <v>10</v>
@@ -7067,12 +7073,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B158">
         <v>5</v>
@@ -7090,7 +7096,7 @@
         <v>10</v>
       </c>
       <c r="G158">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -7099,7 +7105,7 @@
         <v>58</v>
       </c>
       <c r="J158" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -7110,13 +7116,13 @@
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="B159">
         <v>5</v>
       </c>
       <c r="C159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -7125,7 +7131,7 @@
         <v>80</v>
       </c>
       <c r="F159">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G159">
         <v>10</v>
@@ -7134,12 +7140,21 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J159" t="s">
+        <v>160</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -7165,10 +7180,19 @@
       <c r="I160" t="s">
         <v>58</v>
       </c>
+      <c r="J160" t="s">
+        <v>157</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -7183,21 +7207,21 @@
         <v>80</v>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G161">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H161">
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>130</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -7212,27 +7236,36 @@
         <v>80</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J162" t="s">
+        <v>160</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="B163">
         <v>5</v>
       </c>
       <c r="C163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -7255,7 +7288,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7270,7 +7303,7 @@
         <v>80</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G164">
         <v>10</v>
@@ -7279,12 +7312,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -7299,10 +7332,10 @@
         <v>80</v>
       </c>
       <c r="F165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G165">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -7313,10 +7346,10 @@
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
       <c r="B166">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C166">
         <v>6</v>
@@ -7325,10 +7358,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -7337,24 +7370,24 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="B167">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F167">
         <v>7</v>
@@ -7366,15 +7399,15 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="B168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -7383,10 +7416,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F168">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G168">
         <v>10</v>
@@ -7395,24 +7428,15 @@
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>59</v>
-      </c>
-      <c r="J168" t="s">
-        <v>305</v>
-      </c>
-      <c r="K168">
-        <v>3</v>
-      </c>
-      <c r="L168" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="B169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C169">
         <v>6</v>
@@ -7421,10 +7445,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F169">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G169">
         <v>10</v>
@@ -7433,27 +7457,18 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>167</v>
-      </c>
-      <c r="J169" t="s">
-        <v>161</v>
-      </c>
-      <c r="K169">
-        <v>1</v>
-      </c>
-      <c r="L169" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="B170">
         <v>4</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -7465,7 +7480,7 @@
         <v>10</v>
       </c>
       <c r="G170">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -7476,7 +7491,7 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="B171">
         <v>4</v>
@@ -7491,21 +7506,21 @@
         <v>70</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G171">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H171">
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="B172">
         <v>4</v>
@@ -7520,7 +7535,7 @@
         <v>70</v>
       </c>
       <c r="F172">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -7529,18 +7544,27 @@
         <v>0</v>
       </c>
       <c r="I172" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J172" t="s">
+        <v>305</v>
+      </c>
+      <c r="K172">
+        <v>3</v>
+      </c>
+      <c r="L172" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B173">
         <v>4</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -7552,24 +7576,33 @@
         <v>10</v>
       </c>
       <c r="G173">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H173">
         <v>0</v>
       </c>
       <c r="I173" t="s">
-        <v>279</v>
+        <v>167</v>
+      </c>
+      <c r="J173" t="s">
+        <v>161</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="B174">
         <v>4</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -7592,7 +7625,7 @@
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="B175">
         <v>4</v>
@@ -7607,10 +7640,10 @@
         <v>70</v>
       </c>
       <c r="F175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -7621,7 +7654,7 @@
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7636,7 +7669,7 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -7645,18 +7678,18 @@
         <v>0</v>
       </c>
       <c r="I176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>284</v>
+        <v>214</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -7668,18 +7701,18 @@
         <v>10</v>
       </c>
       <c r="G177">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>58</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7694,21 +7727,21 @@
         <v>70</v>
       </c>
       <c r="F178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G178">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7737,7 +7770,7 @@
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B180">
         <v>4</v>
@@ -7752,7 +7785,7 @@
         <v>70</v>
       </c>
       <c r="F180">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G180">
         <v>10</v>
@@ -7761,12 +7794,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>68</v>
+        <v>284</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7781,7 +7814,7 @@
         <v>70</v>
       </c>
       <c r="F181">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G181">
         <v>10</v>
@@ -7791,20 +7824,11 @@
       </c>
       <c r="I181" t="s">
         <v>58</v>
-      </c>
-      <c r="J181" t="s">
-        <v>159</v>
-      </c>
-      <c r="K181">
-        <v>1</v>
-      </c>
-      <c r="L181" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7828,21 +7852,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>70</v>
-      </c>
-      <c r="J182" t="s">
-        <v>144</v>
-      </c>
-      <c r="K182">
-        <v>1</v>
-      </c>
-      <c r="L182" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>298</v>
+        <v>215</v>
       </c>
       <c r="B183">
         <v>4</v>
@@ -7866,12 +7881,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7886,10 +7901,10 @@
         <v>70</v>
       </c>
       <c r="F184">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G184">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -7900,7 +7915,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>234</v>
+        <v>68</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7915,21 +7930,30 @@
         <v>70</v>
       </c>
       <c r="F185">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G185">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H185">
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J185" t="s">
+        <v>159</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7953,12 +7977,21 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>167</v>
+        <v>70</v>
+      </c>
+      <c r="J186" t="s">
+        <v>144</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -7973,7 +8006,7 @@
         <v>70</v>
       </c>
       <c r="F187">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G187">
         <v>10</v>
@@ -7987,7 +8020,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -8005,27 +8038,18 @@
         <v>10</v>
       </c>
       <c r="G188">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
         <v>58</v>
-      </c>
-      <c r="J188" t="s">
-        <v>192</v>
-      </c>
-      <c r="K188">
-        <v>1</v>
-      </c>
-      <c r="L188" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -8043,18 +8067,18 @@
         <v>10</v>
       </c>
       <c r="G189">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>73</v>
+        <v>235</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -8080,19 +8104,10 @@
       <c r="I190" t="s">
         <v>167</v>
       </c>
-      <c r="J190" t="s">
-        <v>162</v>
-      </c>
-      <c r="K190">
-        <v>1</v>
-      </c>
-      <c r="L190" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8107,7 +8122,7 @@
         <v>70</v>
       </c>
       <c r="F191">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G191">
         <v>10</v>
@@ -8121,7 +8136,7 @@
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -8148,18 +8163,18 @@
         <v>58</v>
       </c>
       <c r="J192" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="K192">
         <v>1</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -8174,21 +8189,21 @@
         <v>70</v>
       </c>
       <c r="F193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H193">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>287</v>
+        <v>73</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -8212,12 +8227,21 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="J194" t="s">
+        <v>162</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -8232,10 +8256,10 @@
         <v>70</v>
       </c>
       <c r="F195">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G195">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -8246,7 +8270,7 @@
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -8261,7 +8285,7 @@
         <v>70</v>
       </c>
       <c r="F196">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G196">
         <v>10</v>
@@ -8270,12 +8294,21 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J196" t="s">
+        <v>153</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -8290,7 +8323,7 @@
         <v>70</v>
       </c>
       <c r="F197">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G197">
         <v>10</v>
@@ -8299,21 +8332,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>58</v>
-      </c>
-      <c r="J197" t="s">
-        <v>158</v>
-      </c>
-      <c r="K197">
-        <v>1</v>
-      </c>
-      <c r="L197" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -8328,7 +8352,7 @@
         <v>70</v>
       </c>
       <c r="F198">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G198">
         <v>10</v>
@@ -8337,21 +8361,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>58</v>
-      </c>
-      <c r="J198" t="s">
-        <v>157</v>
-      </c>
-      <c r="K198">
-        <v>3</v>
-      </c>
-      <c r="L198" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -8366,10 +8381,10 @@
         <v>70</v>
       </c>
       <c r="F199">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G199">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -8380,112 +8395,130 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>269</v>
+        <v>216</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C200">
         <v>6</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E200">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F200">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="B201">
+        <v>4</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201">
+        <v>2</v>
+      </c>
+      <c r="E201">
+        <v>70</v>
+      </c>
+      <c r="F201">
+        <v>10</v>
+      </c>
+      <c r="G201">
+        <v>10</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>58</v>
+      </c>
+      <c r="J201" t="s">
+        <v>158</v>
+      </c>
+      <c r="K201">
         <v>1</v>
       </c>
-      <c r="C201">
-        <v>2</v>
-      </c>
-      <c r="D201">
-        <v>0</v>
-      </c>
-      <c r="E201">
-        <v>30</v>
-      </c>
-      <c r="F201">
-        <v>0</v>
-      </c>
-      <c r="G201">
-        <v>0</v>
-      </c>
-      <c r="H201">
-        <v>0</v>
-      </c>
-      <c r="I201" t="s">
-        <v>279</v>
+      <c r="L201" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C202">
         <v>6</v>
       </c>
       <c r="D202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E202">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H202">
         <v>0</v>
       </c>
       <c r="I202" t="s">
         <v>58</v>
+      </c>
+      <c r="J202" t="s">
+        <v>157</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+      <c r="L202" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="B203">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C203">
         <v>6</v>
       </c>
       <c r="D203">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E203">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -8496,7 +8529,7 @@
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -8525,13 +8558,13 @@
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="B205">
         <v>1</v>
       </c>
       <c r="C205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8554,7 +8587,7 @@
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -8578,11 +8611,127 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" t="s">
+        <v>271</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>30</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" t="s">
+        <v>272</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" t="s">
+        <v>273</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>30</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
         <v>279</v>
       </c>
     </row>
+    <row r="210" spans="1:9">
+      <c r="A210" t="s">
+        <v>299</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>30</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L199" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L203" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8594,20 +8743,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I207:I234" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I238" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L240:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L244:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L239" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L243" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I206" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I210" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="508" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C701F12-C497-431B-9FD5-DE936037BE3B}"/>
+  <xr:revisionPtr revIDLastSave="612" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC1D704-ED4D-4A7B-B32D-1BD4294577EF}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="其他信息" sheetId="2" r:id="rId1"/>
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$203</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$210</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="329">
   <si>
     <t>陈</t>
   </si>
@@ -1185,7 +1185,34 @@
     <t>塑心</t>
   </si>
   <si>
-    <t>2023.11.02</t>
+    <t>2023.12.10</t>
+  </si>
+  <si>
+    <t>锏</t>
+  </si>
+  <si>
+    <t>FUN-X</t>
+  </si>
+  <si>
+    <t>INC-X</t>
+  </si>
+  <si>
+    <t>DEC-Y</t>
+  </si>
+  <si>
+    <t>赤冬</t>
+  </si>
+  <si>
+    <t>烈夏</t>
+  </si>
+  <si>
+    <t>摩根</t>
+  </si>
+  <si>
+    <t>凛视</t>
+  </si>
+  <si>
+    <t>跃跃</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6345695-2B66-457B-8BCC-599D10A5115F}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1772,11 +1799,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L210"/>
+  <dimension ref="A1:L217"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -2059,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2446,13 +2473,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>320</v>
       </c>
       <c r="B20">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2470,19 +2497,28 @@
         <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>4</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
       <c r="D21">
         <v>2</v>
       </c>
@@ -2500,26 +2536,17 @@
       </c>
       <c r="I21" t="s">
         <v>58</v>
-      </c>
-      <c r="J21" t="s">
-        <v>138</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>6</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -2537,18 +2564,27 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>138</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>6</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -2566,27 +2602,18 @@
         <v>10</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
-      </c>
-      <c r="J23" t="s">
-        <v>303</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2604,12 +2631,21 @@
         <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>303</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>6</v>
@@ -2633,16 +2669,7 @@
         <v>10</v>
       </c>
       <c r="I25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2671,27 +2698,27 @@
         <v>10</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="K26">
         <v>3</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>315</v>
+        <v>7</v>
       </c>
       <c r="B27">
         <v>6</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2700,27 +2727,36 @@
         <v>90</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="J27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
       <c r="B28">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2738,21 +2774,12 @@
         <v>10</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" t="s">
-        <v>139</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -2776,12 +2803,21 @@
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J29" t="s">
+        <v>139</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>316</v>
+        <v>9</v>
       </c>
       <c r="B30">
         <v>6</v>
@@ -2796,21 +2832,21 @@
         <v>90</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2836,10 +2872,19 @@
       <c r="I31" t="s">
         <v>167</v>
       </c>
+      <c r="J31" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2865,25 +2910,16 @@
       <c r="I32" t="s">
         <v>167</v>
       </c>
-      <c r="J32" t="s">
-        <v>317</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2901,18 +2937,27 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>83</v>
+        <v>307</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2930,27 +2975,18 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" t="s">
-        <v>312</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2968,27 +3004,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3006,13 +3042,13 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="8" t="s">
         <v>166</v>
@@ -3020,13 +3056,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3047,18 +3083,18 @@
         <v>58</v>
       </c>
       <c r="J37" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="K37">
         <v>2</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B38">
         <v>6</v>
@@ -3085,18 +3121,18 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -3123,18 +3159,18 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3161,24 +3197,24 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3199,24 +3235,24 @@
         <v>58</v>
       </c>
       <c r="J41" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>87</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3237,7 +3273,7 @@
         <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3248,13 +3284,13 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3275,13 +3311,13 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3310,27 +3346,27 @@
         <v>10</v>
       </c>
       <c r="I44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="K44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3348,13 +3384,13 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J45" t="s">
         <v>205</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>163</v>
@@ -3362,7 +3398,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="B46">
         <v>6</v>
@@ -3389,7 +3425,7 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3400,13 +3436,13 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3425,17 +3461,26 @@
       </c>
       <c r="I47" t="s">
         <v>58</v>
+      </c>
+      <c r="J47" t="s">
+        <v>185</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3454,26 +3499,17 @@
       </c>
       <c r="I48" t="s">
         <v>58</v>
-      </c>
-      <c r="J48" t="s">
-        <v>185</v>
-      </c>
-      <c r="K48">
-        <v>3</v>
-      </c>
-      <c r="L48" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3494,10 +3530,10 @@
         <v>58</v>
       </c>
       <c r="J49" t="s">
-        <v>276</v>
+        <v>185</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>163</v>
@@ -3505,13 +3541,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3532,7 +3568,7 @@
         <v>58</v>
       </c>
       <c r="J50" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3543,13 +3579,13 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>15</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3570,10 +3606,10 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
       <c r="K51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>163</v>
@@ -3581,7 +3617,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>294</v>
       </c>
       <c r="B52">
         <v>6</v>
@@ -3608,10 +3644,10 @@
         <v>58</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="K52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L52" s="8" t="s">
         <v>163</v>
@@ -3619,13 +3655,13 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3646,10 +3682,10 @@
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>241</v>
+        <v>145</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L53" s="8" t="s">
         <v>163</v>
@@ -3657,13 +3693,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3684,7 +3720,7 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K54">
         <v>3</v>
@@ -3695,7 +3731,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>6</v>
@@ -3719,18 +3755,27 @@
         <v>10</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J55" t="s">
+        <v>245</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3748,13 +3793,13 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J56" t="s">
-        <v>146</v>
+        <v>321</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>163</v>
@@ -3762,13 +3807,13 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>267</v>
+        <v>92</v>
       </c>
       <c r="B57">
         <v>6</v>
       </c>
       <c r="C57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3786,10 +3831,10 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3800,13 +3845,13 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="B58">
         <v>6</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3824,27 +3869,27 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="J58" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
       <c r="L58" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3865,62 +3910,62 @@
         <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="K59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>90</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>59</v>
+      </c>
+      <c r="J60" t="s">
+        <v>245</v>
+      </c>
+      <c r="K60">
         <v>3</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>90</v>
-      </c>
-      <c r="F60">
-        <v>10</v>
-      </c>
-      <c r="G60">
-        <v>10</v>
-      </c>
-      <c r="H60">
-        <v>10</v>
-      </c>
-      <c r="I60" t="s">
-        <v>167</v>
-      </c>
-      <c r="J60" t="s">
-        <v>263</v>
-      </c>
-      <c r="K60">
-        <v>1</v>
-      </c>
       <c r="L60" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3938,27 +3983,27 @@
         <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J61" t="s">
-        <v>147</v>
+        <v>263</v>
       </c>
       <c r="K61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62">
         <v>6</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3979,24 +4024,24 @@
         <v>58</v>
       </c>
       <c r="J62" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -4017,7 +4062,7 @@
         <v>58</v>
       </c>
       <c r="J63" t="s">
-        <v>260</v>
+        <v>148</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4028,13 +4073,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -4055,10 +4100,10 @@
         <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>163</v>
@@ -4066,13 +4111,13 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -4090,18 +4135,27 @@
         <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J65" t="s">
+        <v>149</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="B66">
         <v>6</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -4120,15 +4174,6 @@
       </c>
       <c r="I66" t="s">
         <v>167</v>
-      </c>
-      <c r="J66" t="s">
-        <v>222</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -4157,10 +4202,10 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J67" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4171,7 +4216,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>6</v>
@@ -4198,7 +4243,7 @@
         <v>58</v>
       </c>
       <c r="J68" t="s">
-        <v>150</v>
+        <v>277</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4209,7 +4254,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="B69">
         <v>6</v>
@@ -4236,7 +4281,7 @@
         <v>58</v>
       </c>
       <c r="J69" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4247,13 +4292,13 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="B70">
         <v>6</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -4271,18 +4316,27 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J70" t="s">
+        <v>223</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>21</v>
+        <v>242</v>
       </c>
       <c r="B71">
         <v>6</v>
       </c>
       <c r="C71">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -4300,10 +4354,10 @@
         <v>10</v>
       </c>
       <c r="I71" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J71" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4314,7 +4368,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4338,27 +4392,27 @@
         <v>10</v>
       </c>
       <c r="I72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
       <c r="L72" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="B73">
         <v>6</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4376,10 +4430,10 @@
         <v>10</v>
       </c>
       <c r="I73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J73" t="s">
-        <v>291</v>
+        <v>152</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -4390,13 +4444,13 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="B74">
         <v>6</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -4414,10 +4468,10 @@
         <v>10</v>
       </c>
       <c r="I74" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J74" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4428,13 +4482,13 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>23</v>
+        <v>268</v>
       </c>
       <c r="B75">
         <v>6</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4452,10 +4506,10 @@
         <v>10</v>
       </c>
       <c r="I75" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J75" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -4466,13 +4520,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76">
         <v>6</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4490,10 +4544,10 @@
         <v>10</v>
       </c>
       <c r="I76" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s">
-        <v>153</v>
+        <v>278</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4504,7 +4558,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B77">
         <v>6</v>
@@ -4531,10 +4585,10 @@
         <v>59</v>
       </c>
       <c r="J77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L77" s="8" t="s">
         <v>164</v>
@@ -4542,13 +4596,13 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78">
         <v>6</v>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -4566,13 +4620,13 @@
         <v>10</v>
       </c>
       <c r="I78" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="J78" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L78" s="8" t="s">
         <v>164</v>
@@ -4580,42 +4634,51 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="B79">
         <v>6</v>
       </c>
       <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>90</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="I79" t="s">
+        <v>59</v>
+      </c>
+      <c r="J79" t="s">
+        <v>154</v>
+      </c>
+      <c r="K79">
         <v>3</v>
       </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="E79">
-        <v>90</v>
-      </c>
-      <c r="F79">
-        <v>7</v>
-      </c>
-      <c r="G79">
-        <v>7</v>
-      </c>
-      <c r="H79">
-        <v>7</v>
-      </c>
-      <c r="I79" t="s">
-        <v>167</v>
+      <c r="L79" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B80">
         <v>6</v>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4634,17 +4697,26 @@
       </c>
       <c r="I80" t="s">
         <v>58</v>
+      </c>
+      <c r="J80" t="s">
+        <v>155</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>318</v>
       </c>
       <c r="B81">
         <v>6</v>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -4662,27 +4734,18 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>59</v>
-      </c>
-      <c r="J81" t="s">
-        <v>292</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="B82">
         <v>6</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -4701,26 +4764,17 @@
       </c>
       <c r="I82" t="s">
         <v>58</v>
-      </c>
-      <c r="J82" t="s">
-        <v>264</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B83">
         <v>6</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -4738,27 +4792,27 @@
         <v>10</v>
       </c>
       <c r="I83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J83" t="s">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L83" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="B84">
         <v>6</v>
       </c>
       <c r="C84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -4776,10 +4830,10 @@
         <v>10</v>
       </c>
       <c r="I84" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>156</v>
+        <v>264</v>
       </c>
       <c r="K84">
         <v>3</v>
@@ -4790,7 +4844,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4817,18 +4871,18 @@
         <v>58</v>
       </c>
       <c r="J85" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="K85">
         <v>3</v>
       </c>
       <c r="L85" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B86">
         <v>6</v>
@@ -4852,10 +4906,10 @@
         <v>10</v>
       </c>
       <c r="I86" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J86" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K86">
         <v>3</v>
@@ -4866,13 +4920,13 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B87">
         <v>6</v>
       </c>
       <c r="C87">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4890,27 +4944,27 @@
         <v>10</v>
       </c>
       <c r="I87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J87" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4931,24 +4985,24 @@
         <v>58</v>
       </c>
       <c r="J88" t="s">
-        <v>301</v>
+        <v>160</v>
       </c>
       <c r="K88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L88" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="B89">
         <v>6</v>
       </c>
       <c r="C89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4966,10 +5020,10 @@
         <v>10</v>
       </c>
       <c r="I89" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="J89" t="s">
-        <v>301</v>
+        <v>157</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -4980,13 +5034,13 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
       <c r="C90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -5004,13 +5058,13 @@
         <v>10</v>
       </c>
       <c r="I90" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J90" t="s">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L90" s="8" t="s">
         <v>164</v>
@@ -5018,7 +5072,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>300</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -5042,10 +5096,10 @@
         <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J91" t="s">
-        <v>198</v>
+        <v>301</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -5056,13 +5110,13 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="B92">
         <v>6</v>
       </c>
       <c r="C92">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -5080,13 +5134,13 @@
         <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J92" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L92" s="8" t="s">
         <v>164</v>
@@ -5094,57 +5148,57 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="B93">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F93">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G93">
         <v>10</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J93" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="K93">
         <v>1</v>
       </c>
       <c r="L93" s="8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="B94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -5153,15 +5207,24 @@
         <v>10</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I94" t="s">
         <v>58</v>
+      </c>
+      <c r="J94" t="s">
+        <v>259</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="B95">
         <v>5</v>
@@ -5185,12 +5248,21 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="J95" t="s">
+        <v>225</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95" s="8" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>5</v>
@@ -5205,7 +5277,7 @@
         <v>80</v>
       </c>
       <c r="F96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -5214,12 +5286,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B97">
         <v>5</v>
@@ -5234,10 +5306,10 @@
         <v>80</v>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G97">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -5248,7 +5320,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>5</v>
@@ -5272,12 +5344,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="B99">
         <v>5</v>
@@ -5301,12 +5373,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="B100">
         <v>5</v>
@@ -5321,21 +5393,21 @@
         <v>80</v>
       </c>
       <c r="F100">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H100">
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B101">
         <v>5</v>
@@ -5350,7 +5422,7 @@
         <v>80</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <v>10</v>
@@ -5364,7 +5436,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="B102">
         <v>5</v>
@@ -5382,7 +5454,7 @@
         <v>10</v>
       </c>
       <c r="G102">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -5393,7 +5465,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="B103">
         <v>5</v>
@@ -5422,13 +5494,13 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B104">
         <v>5</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -5437,7 +5509,7 @@
         <v>80</v>
       </c>
       <c r="F104">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G104">
         <v>10</v>
@@ -5446,12 +5518,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>194</v>
       </c>
       <c r="B105">
         <v>5</v>
@@ -5466,36 +5538,27 @@
         <v>80</v>
       </c>
       <c r="F105">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H105">
         <v>0</v>
       </c>
       <c r="I105" t="s">
         <v>58</v>
-      </c>
-      <c r="J105" t="s">
-        <v>138</v>
-      </c>
-      <c r="K105">
-        <v>1</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="B106">
         <v>5</v>
       </c>
       <c r="C106">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -5518,7 +5581,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>5</v>
@@ -5542,12 +5605,21 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J107" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="B108">
         <v>5</v>
@@ -5571,18 +5643,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>252</v>
       </c>
       <c r="B109">
         <v>5</v>
       </c>
       <c r="C109">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -5600,12 +5672,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>103</v>
+        <v>221</v>
       </c>
       <c r="B110">
         <v>5</v>
@@ -5620,21 +5692,21 @@
         <v>80</v>
       </c>
       <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="G110">
         <v>7</v>
       </c>
-      <c r="G110">
-        <v>10</v>
-      </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B111">
         <v>5</v>
@@ -5658,18 +5730,18 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>5</v>
       </c>
       <c r="C112">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -5692,13 +5764,13 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>104</v>
+        <v>325</v>
       </c>
       <c r="B113">
         <v>5</v>
       </c>
       <c r="C113">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -5707,7 +5779,7 @@
         <v>80</v>
       </c>
       <c r="F113">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -5716,21 +5788,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>58</v>
-      </c>
-      <c r="J113" t="s">
-        <v>302</v>
-      </c>
-      <c r="K113">
-        <v>3</v>
-      </c>
-      <c r="L113" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>105</v>
+        <v>326</v>
       </c>
       <c r="B114">
         <v>5</v>
@@ -5745,7 +5808,7 @@
         <v>80</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G114">
         <v>10</v>
@@ -5754,12 +5817,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B115">
         <v>5</v>
@@ -5785,19 +5848,10 @@
       <c r="I115" t="s">
         <v>58</v>
       </c>
-      <c r="J115" t="s">
-        <v>137</v>
-      </c>
-      <c r="K115">
-        <v>1</v>
-      </c>
-      <c r="L115" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -5821,18 +5875,18 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B117">
         <v>5</v>
       </c>
       <c r="C117">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -5841,27 +5895,27 @@
         <v>80</v>
       </c>
       <c r="F117">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>256</v>
+        <v>104</v>
       </c>
       <c r="B118">
         <v>5</v>
       </c>
       <c r="C118">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -5870,7 +5924,7 @@
         <v>80</v>
       </c>
       <c r="F118">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -5879,12 +5933,21 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J118" t="s">
+        <v>302</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="B119">
         <v>5</v>
@@ -5899,7 +5962,7 @@
         <v>80</v>
       </c>
       <c r="F119">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G119">
         <v>10</v>
@@ -5913,7 +5976,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120">
         <v>5</v>
@@ -5928,21 +5991,30 @@
         <v>80</v>
       </c>
       <c r="F120">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G120">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J120" t="s">
+        <v>137</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="B121">
         <v>5</v>
@@ -5957,10 +6029,10 @@
         <v>80</v>
       </c>
       <c r="F121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -5971,13 +6043,13 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B122">
         <v>5</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -6000,13 +6072,13 @@
     </row>
     <row r="123" spans="1:12">
       <c r="A123" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
       <c r="B123">
         <v>5</v>
       </c>
       <c r="C123">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -6015,21 +6087,21 @@
         <v>80</v>
       </c>
       <c r="F123">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="B124">
         <v>5</v>
@@ -6044,7 +6116,7 @@
         <v>80</v>
       </c>
       <c r="F124">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G124">
         <v>10</v>
@@ -6054,20 +6126,11 @@
       </c>
       <c r="I124" t="s">
         <v>58</v>
-      </c>
-      <c r="J124" t="s">
-        <v>145</v>
-      </c>
-      <c r="K124">
-        <v>3</v>
-      </c>
-      <c r="L124" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B125">
         <v>5</v>
@@ -6082,21 +6145,21 @@
         <v>80</v>
       </c>
       <c r="F125">
+        <v>10</v>
+      </c>
+      <c r="G125">
         <v>7</v>
       </c>
-      <c r="G125">
-        <v>10</v>
-      </c>
       <c r="H125">
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="B126">
         <v>5</v>
@@ -6111,27 +6174,27 @@
         <v>80</v>
       </c>
       <c r="F126">
+        <v>10</v>
+      </c>
+      <c r="G126">
         <v>7</v>
       </c>
-      <c r="G126">
-        <v>10</v>
-      </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="A127" t="s">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="B127">
         <v>5</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -6143,27 +6206,18 @@
         <v>10</v>
       </c>
       <c r="G127">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H127">
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>58</v>
-      </c>
-      <c r="J127" t="s">
-        <v>186</v>
-      </c>
-      <c r="K127">
-        <v>3</v>
-      </c>
-      <c r="L127" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="A128" t="s">
-        <v>254</v>
+        <v>188</v>
       </c>
       <c r="B128">
         <v>5</v>
@@ -6178,21 +6232,21 @@
         <v>80</v>
       </c>
       <c r="F128">
+        <v>10</v>
+      </c>
+      <c r="G128">
         <v>7</v>
       </c>
-      <c r="G128">
-        <v>10</v>
-      </c>
       <c r="H128">
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="A129" t="s">
-        <v>280</v>
+        <v>108</v>
       </c>
       <c r="B129">
         <v>5</v>
@@ -6207,7 +6261,7 @@
         <v>80</v>
       </c>
       <c r="F129">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G129">
         <v>10</v>
@@ -6216,12 +6270,21 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J129" t="s">
+        <v>145</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="B130">
         <v>5</v>
@@ -6250,7 +6313,7 @@
     </row>
     <row r="131" spans="1:12">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>308</v>
       </c>
       <c r="B131">
         <v>5</v>
@@ -6279,7 +6342,7 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" t="s">
-        <v>111</v>
+        <v>217</v>
       </c>
       <c r="B132">
         <v>5</v>
@@ -6303,13 +6366,13 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J132" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L132" s="8" t="s">
         <v>163</v>
@@ -6317,7 +6380,7 @@
     </row>
     <row r="133" spans="1:12">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="B133">
         <v>5</v>
@@ -6341,12 +6404,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>280</v>
       </c>
       <c r="B134">
         <v>5</v>
@@ -6361,30 +6424,21 @@
         <v>80</v>
       </c>
       <c r="F134">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G134">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>58</v>
-      </c>
-      <c r="J134" t="s">
-        <v>144</v>
-      </c>
-      <c r="K134">
-        <v>1</v>
-      </c>
-      <c r="L134" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="A135" t="s">
-        <v>232</v>
+        <v>281</v>
       </c>
       <c r="B135">
         <v>5</v>
@@ -6413,7 +6467,7 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -6428,27 +6482,27 @@
         <v>80</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G136">
         <v>10</v>
       </c>
       <c r="H136">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="A137" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B137">
         <v>5</v>
       </c>
       <c r="C137">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -6457,7 +6511,7 @@
         <v>80</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -6466,18 +6520,27 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J137" t="s">
+        <v>159</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="B138">
         <v>5</v>
       </c>
       <c r="C138">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -6495,12 +6558,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="A139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B139">
         <v>5</v>
@@ -6515,21 +6578,30 @@
         <v>80</v>
       </c>
       <c r="F139">
+        <v>10</v>
+      </c>
+      <c r="G139">
         <v>7</v>
       </c>
-      <c r="G139">
-        <v>10</v>
-      </c>
       <c r="H139">
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J139" t="s">
+        <v>144</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="A140" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="B140">
         <v>5</v>
@@ -6558,7 +6630,7 @@
     </row>
     <row r="141" spans="1:12">
       <c r="A141" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="B141">
         <v>5</v>
@@ -6573,27 +6645,27 @@
         <v>80</v>
       </c>
       <c r="F141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G141">
         <v>10</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I141" t="s">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>114</v>
       </c>
       <c r="B142">
         <v>5</v>
       </c>
       <c r="C142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -6616,13 +6688,13 @@
     </row>
     <row r="143" spans="1:12">
       <c r="A143" t="s">
-        <v>116</v>
+        <v>296</v>
       </c>
       <c r="B143">
         <v>5</v>
       </c>
       <c r="C143">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -6642,25 +6714,16 @@
       <c r="I143" t="s">
         <v>58</v>
       </c>
-      <c r="J143" t="s">
-        <v>151</v>
-      </c>
-      <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" s="8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="144" spans="1:12">
       <c r="A144" t="s">
-        <v>314</v>
+        <v>115</v>
       </c>
       <c r="B144">
         <v>5</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -6678,12 +6741,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="A145" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="B145">
         <v>5</v>
@@ -6698,7 +6761,7 @@
         <v>80</v>
       </c>
       <c r="F145">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145">
         <v>10</v>
@@ -6707,12 +6770,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="B146">
         <v>5</v>
@@ -6727,10 +6790,10 @@
         <v>80</v>
       </c>
       <c r="F146">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G146">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -6741,7 +6804,7 @@
     </row>
     <row r="147" spans="1:12">
       <c r="A147" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="B147">
         <v>5</v>
@@ -6765,12 +6828,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="A148" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B148">
         <v>5</v>
@@ -6785,7 +6848,7 @@
         <v>80</v>
       </c>
       <c r="F148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -6794,18 +6857,27 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J148" t="s">
+        <v>151</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="A149" t="s">
-        <v>121</v>
+        <v>314</v>
       </c>
       <c r="B149">
         <v>5</v>
       </c>
       <c r="C149">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -6823,18 +6895,18 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="B150">
         <v>5</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -6843,7 +6915,7 @@
         <v>80</v>
       </c>
       <c r="F150">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -6852,12 +6924,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="A151" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B151">
         <v>5</v>
@@ -6875,18 +6947,18 @@
         <v>10</v>
       </c>
       <c r="G151">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H151">
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="A152" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B152">
         <v>5</v>
@@ -6910,21 +6982,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>58</v>
-      </c>
-      <c r="J152" t="s">
-        <v>155</v>
-      </c>
-      <c r="K152">
-        <v>1</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B153">
         <v>5</v>
@@ -6939,7 +7002,7 @@
         <v>80</v>
       </c>
       <c r="F153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G153">
         <v>10</v>
@@ -6948,12 +7011,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B154">
         <v>5</v>
@@ -6979,25 +7042,16 @@
       <c r="I154" t="s">
         <v>58</v>
       </c>
-      <c r="J154" t="s">
-        <v>155</v>
-      </c>
-      <c r="K154">
-        <v>1</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="155" spans="1:12">
       <c r="A155" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="B155">
         <v>5</v>
       </c>
       <c r="C155">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -7015,12 +7069,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="A156" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="B156">
         <v>5</v>
@@ -7035,7 +7089,7 @@
         <v>80</v>
       </c>
       <c r="F156">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G156">
         <v>10</v>
@@ -7044,12 +7098,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="157" spans="1:12">
       <c r="A157" t="s">
-        <v>126</v>
+        <v>327</v>
       </c>
       <c r="B157">
         <v>5</v>
@@ -7078,7 +7132,7 @@
     </row>
     <row r="158" spans="1:12">
       <c r="A158" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B158">
         <v>5</v>
@@ -7093,7 +7147,7 @@
         <v>80</v>
       </c>
       <c r="F158">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158">
         <v>10</v>
@@ -7105,18 +7159,18 @@
         <v>58</v>
       </c>
       <c r="J158" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K158">
         <v>1</v>
       </c>
       <c r="L158" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="159" spans="1:12">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B159">
         <v>5</v>
@@ -7142,19 +7196,10 @@
       <c r="I159" t="s">
         <v>58</v>
       </c>
-      <c r="J159" t="s">
-        <v>160</v>
-      </c>
-      <c r="K159">
-        <v>1</v>
-      </c>
-      <c r="L159" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="160" spans="1:12">
       <c r="A160" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B160">
         <v>5</v>
@@ -7169,7 +7214,7 @@
         <v>80</v>
       </c>
       <c r="F160">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G160">
         <v>10</v>
@@ -7181,7 +7226,7 @@
         <v>58</v>
       </c>
       <c r="J160" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -7192,7 +7237,7 @@
     </row>
     <row r="161" spans="1:12">
       <c r="A161" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="B161">
         <v>5</v>
@@ -7207,7 +7252,7 @@
         <v>80</v>
       </c>
       <c r="F161">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G161">
         <v>10</v>
@@ -7216,12 +7261,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" t="s">
-        <v>130</v>
+        <v>283</v>
       </c>
       <c r="B162">
         <v>5</v>
@@ -7236,36 +7281,27 @@
         <v>80</v>
       </c>
       <c r="F162">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G162">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
         <v>58</v>
-      </c>
-      <c r="J162" t="s">
-        <v>160</v>
-      </c>
-      <c r="K162">
-        <v>1</v>
-      </c>
-      <c r="L162" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:12">
       <c r="A163" t="s">
-        <v>297</v>
+        <v>126</v>
       </c>
       <c r="B163">
         <v>5</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -7288,7 +7324,7 @@
     </row>
     <row r="164" spans="1:12">
       <c r="A164" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B164">
         <v>5</v>
@@ -7314,10 +7350,19 @@
       <c r="I164" t="s">
         <v>58</v>
       </c>
+      <c r="J164" t="s">
+        <v>156</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="165" spans="1:12">
       <c r="A165" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B165">
         <v>5</v>
@@ -7335,18 +7380,27 @@
         <v>10</v>
       </c>
       <c r="G165">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J165" t="s">
+        <v>160</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="166" spans="1:12">
       <c r="A166" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="B166">
         <v>5</v>
@@ -7361,7 +7415,7 @@
         <v>80</v>
       </c>
       <c r="F166">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G166">
         <v>10</v>
@@ -7370,18 +7424,27 @@
         <v>0</v>
       </c>
       <c r="I166" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="J166" t="s">
+        <v>157</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="167" spans="1:12">
       <c r="A167" t="s">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="B167">
         <v>5</v>
       </c>
       <c r="C167">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -7390,7 +7453,7 @@
         <v>80</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G167">
         <v>10</v>
@@ -7399,12 +7462,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:12">
       <c r="A168" t="s">
-        <v>309</v>
+        <v>130</v>
       </c>
       <c r="B168">
         <v>5</v>
@@ -7419,27 +7482,36 @@
         <v>80</v>
       </c>
       <c r="F168">
+        <v>10</v>
+      </c>
+      <c r="G168">
         <v>7</v>
       </c>
-      <c r="G168">
-        <v>10</v>
-      </c>
       <c r="H168">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J168" t="s">
+        <v>160</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:12">
       <c r="A169" t="s">
-        <v>203</v>
+        <v>297</v>
       </c>
       <c r="B169">
         <v>5</v>
       </c>
       <c r="C169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -7457,15 +7529,15 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="B170">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -7474,7 +7546,7 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F170">
         <v>10</v>
@@ -7491,10 +7563,10 @@
     </row>
     <row r="171" spans="1:12">
       <c r="A171" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B171">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -7503,13 +7575,13 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F171">
+        <v>10</v>
+      </c>
+      <c r="G171">
         <v>7</v>
-      </c>
-      <c r="G171">
-        <v>10</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -7520,10 +7592,10 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="B172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C172">
         <v>6</v>
@@ -7532,10 +7604,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F172">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G172">
         <v>10</v>
@@ -7546,34 +7618,25 @@
       <c r="I172" t="s">
         <v>59</v>
       </c>
-      <c r="J172" t="s">
-        <v>305</v>
-      </c>
-      <c r="K172">
-        <v>3</v>
-      </c>
-      <c r="L172" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="173" spans="1:12">
       <c r="A173" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B173">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F173">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G173">
         <v>10</v>
@@ -7584,51 +7647,42 @@
       <c r="I173" t="s">
         <v>167</v>
       </c>
-      <c r="J173" t="s">
-        <v>161</v>
-      </c>
-      <c r="K173">
-        <v>1</v>
-      </c>
-      <c r="L173" s="8" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="174" spans="1:12">
       <c r="A174" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="B174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F174">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G174">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H174">
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:12">
       <c r="A175" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="B175">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C175">
         <v>6</v>
@@ -7637,24 +7691,24 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F175">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H175">
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
     </row>
     <row r="176" spans="1:12">
       <c r="A176" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="B176">
         <v>4</v>
@@ -7669,7 +7723,7 @@
         <v>70</v>
       </c>
       <c r="F176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G176">
         <v>10</v>
@@ -7683,13 +7737,13 @@
     </row>
     <row r="177" spans="1:12">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="B177">
         <v>4</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -7698,21 +7752,21 @@
         <v>70</v>
       </c>
       <c r="F177">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G177">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H177">
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:12">
       <c r="A178" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B178">
         <v>4</v>
@@ -7730,18 +7784,27 @@
         <v>10</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H178">
         <v>0</v>
       </c>
       <c r="I178" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="J178" t="s">
+        <v>305</v>
+      </c>
+      <c r="K178">
+        <v>3</v>
+      </c>
+      <c r="L178" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="179" spans="1:12">
       <c r="A179" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="B179">
         <v>4</v>
@@ -7756,7 +7819,7 @@
         <v>70</v>
       </c>
       <c r="F179">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G179">
         <v>10</v>
@@ -7767,16 +7830,25 @@
       <c r="I179" t="s">
         <v>167</v>
       </c>
+      <c r="J179" t="s">
+        <v>161</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="180" spans="1:12">
       <c r="A180" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="B180">
         <v>4</v>
       </c>
       <c r="C180">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -7788,18 +7860,18 @@
         <v>10</v>
       </c>
       <c r="G180">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H180">
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:12">
       <c r="A181" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="B181">
         <v>4</v>
@@ -7817,18 +7889,18 @@
         <v>10</v>
       </c>
       <c r="G181">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H181">
         <v>0</v>
       </c>
       <c r="I181" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:12">
       <c r="A182" t="s">
-        <v>285</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>4</v>
@@ -7852,18 +7924,18 @@
         <v>0</v>
       </c>
       <c r="I182" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:12">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B183">
         <v>4</v>
       </c>
       <c r="C183">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -7872,21 +7944,21 @@
         <v>70</v>
       </c>
       <c r="F183">
+        <v>10</v>
+      </c>
+      <c r="G183">
         <v>7</v>
       </c>
-      <c r="G183">
-        <v>10</v>
-      </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>167</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:12">
       <c r="A184" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B184">
         <v>4</v>
@@ -7901,10 +7973,10 @@
         <v>70</v>
       </c>
       <c r="F184">
+        <v>10</v>
+      </c>
+      <c r="G184">
         <v>7</v>
-      </c>
-      <c r="G184">
-        <v>10</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -7915,7 +7987,7 @@
     </row>
     <row r="185" spans="1:12">
       <c r="A185" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="B185">
         <v>4</v>
@@ -7939,21 +8011,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="s">
-        <v>58</v>
-      </c>
-      <c r="J185" t="s">
-        <v>159</v>
-      </c>
-      <c r="K185">
-        <v>1</v>
-      </c>
-      <c r="L185" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:12">
       <c r="A186" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B186">
         <v>4</v>
@@ -7968,7 +8031,7 @@
         <v>70</v>
       </c>
       <c r="F186">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G186">
         <v>10</v>
@@ -7977,21 +8040,12 @@
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>70</v>
-      </c>
-      <c r="J186" t="s">
-        <v>144</v>
-      </c>
-      <c r="K186">
-        <v>1</v>
-      </c>
-      <c r="L186" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187" spans="1:12">
       <c r="A187" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B187">
         <v>4</v>
@@ -8006,7 +8060,7 @@
         <v>70</v>
       </c>
       <c r="F187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G187">
         <v>10</v>
@@ -8020,7 +8074,7 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="B188">
         <v>4</v>
@@ -8035,21 +8089,21 @@
         <v>70</v>
       </c>
       <c r="F188">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G188">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="189" spans="1:12">
       <c r="A189" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="B189">
         <v>4</v>
@@ -8064,10 +8118,10 @@
         <v>70</v>
       </c>
       <c r="F189">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G189">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -8078,7 +8132,7 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="B190">
         <v>4</v>
@@ -8102,12 +8156,12 @@
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="191" spans="1:12">
       <c r="A191" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B191">
         <v>4</v>
@@ -8122,7 +8176,7 @@
         <v>70</v>
       </c>
       <c r="F191">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G191">
         <v>10</v>
@@ -8132,11 +8186,20 @@
       </c>
       <c r="I191" t="s">
         <v>58</v>
+      </c>
+      <c r="J191" t="s">
+        <v>159</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191" s="8" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="192" spans="1:12">
       <c r="A192" t="s">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="B192">
         <v>4</v>
@@ -8151,7 +8214,7 @@
         <v>70</v>
       </c>
       <c r="F192">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G192">
         <v>10</v>
@@ -8160,21 +8223,21 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="J192" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="K192">
         <v>1</v>
       </c>
       <c r="L192" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="193" spans="1:12">
       <c r="A193" t="s">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="B193">
         <v>4</v>
@@ -8189,10 +8252,10 @@
         <v>70</v>
       </c>
       <c r="F193">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G193">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -8203,7 +8266,7 @@
     </row>
     <row r="194" spans="1:12">
       <c r="A194" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="B194">
         <v>4</v>
@@ -8218,30 +8281,21 @@
         <v>70</v>
       </c>
       <c r="F194">
+        <v>10</v>
+      </c>
+      <c r="G194">
         <v>7</v>
       </c>
-      <c r="G194">
-        <v>10</v>
-      </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>167</v>
-      </c>
-      <c r="J194" t="s">
-        <v>162</v>
-      </c>
-      <c r="K194">
-        <v>1</v>
-      </c>
-      <c r="L194" s="8" t="s">
-        <v>164</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:12">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="B195">
         <v>4</v>
@@ -8256,21 +8310,21 @@
         <v>70</v>
       </c>
       <c r="F195">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G195">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" spans="1:12">
       <c r="A196" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="B196">
         <v>4</v>
@@ -8285,7 +8339,7 @@
         <v>70</v>
       </c>
       <c r="F196">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G196">
         <v>10</v>
@@ -8294,21 +8348,12 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>58</v>
-      </c>
-      <c r="J196" t="s">
-        <v>153</v>
-      </c>
-      <c r="K196">
-        <v>1</v>
-      </c>
-      <c r="L196" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="197" spans="1:12">
       <c r="A197" t="s">
-        <v>286</v>
+        <v>71</v>
       </c>
       <c r="B197">
         <v>4</v>
@@ -8323,7 +8368,7 @@
         <v>70</v>
       </c>
       <c r="F197">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G197">
         <v>10</v>
@@ -8332,12 +8377,12 @@
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="B198">
         <v>4</v>
@@ -8352,7 +8397,7 @@
         <v>70</v>
       </c>
       <c r="F198">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G198">
         <v>10</v>
@@ -8361,12 +8406,12 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="199" spans="1:12">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B199">
         <v>4</v>
@@ -8384,18 +8429,27 @@
         <v>10</v>
       </c>
       <c r="G199">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H199">
         <v>0</v>
       </c>
       <c r="I199" t="s">
         <v>58</v>
+      </c>
+      <c r="J199" t="s">
+        <v>192</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:12">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="B200">
         <v>4</v>
@@ -8410,21 +8464,21 @@
         <v>70</v>
       </c>
       <c r="F200">
+        <v>10</v>
+      </c>
+      <c r="G200">
         <v>7</v>
       </c>
-      <c r="G200">
-        <v>10</v>
-      </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:12">
       <c r="A201" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B201">
         <v>4</v>
@@ -8439,7 +8493,7 @@
         <v>70</v>
       </c>
       <c r="F201">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G201">
         <v>10</v>
@@ -8448,10 +8502,10 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J201" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K201">
         <v>1</v>
@@ -8462,7 +8516,7 @@
     </row>
     <row r="202" spans="1:12">
       <c r="A202" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="B202">
         <v>4</v>
@@ -8477,7 +8531,7 @@
         <v>70</v>
       </c>
       <c r="F202">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G202">
         <v>10</v>
@@ -8487,20 +8541,11 @@
       </c>
       <c r="I202" t="s">
         <v>58</v>
-      </c>
-      <c r="J202" t="s">
-        <v>157</v>
-      </c>
-      <c r="K202">
-        <v>3</v>
-      </c>
-      <c r="L202" s="8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="203" spans="1:12">
       <c r="A203" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B203">
         <v>4</v>
@@ -8515,7 +8560,7 @@
         <v>70</v>
       </c>
       <c r="F203">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G203">
         <v>10</v>
@@ -8525,87 +8570,96 @@
       </c>
       <c r="I203" t="s">
         <v>58</v>
+      </c>
+      <c r="J203" t="s">
+        <v>153</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="204" spans="1:12">
       <c r="A204" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="B204">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C204">
         <v>6</v>
       </c>
       <c r="D204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G204">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B205">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C205">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E205">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F205">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>279</v>
+        <v>59</v>
       </c>
     </row>
     <row r="206" spans="1:12">
       <c r="A206" t="s">
-        <v>270</v>
+        <v>202</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C206">
         <v>6</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E206">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -8616,122 +8670,343 @@
     </row>
     <row r="207" spans="1:12">
       <c r="A207" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="B207">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C207">
         <v>6</v>
       </c>
       <c r="D207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E207">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F207">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H207">
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" t="s">
+        <v>75</v>
+      </c>
+      <c r="B208">
+        <v>4</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208">
+        <v>2</v>
+      </c>
+      <c r="E208">
+        <v>70</v>
+      </c>
+      <c r="F208">
+        <v>10</v>
+      </c>
+      <c r="G208">
+        <v>10</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+      <c r="J208" t="s">
+        <v>158</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" t="s">
+        <v>76</v>
+      </c>
+      <c r="B209">
+        <v>4</v>
+      </c>
+      <c r="C209">
+        <v>6</v>
+      </c>
+      <c r="D209">
+        <v>2</v>
+      </c>
+      <c r="E209">
+        <v>70</v>
+      </c>
+      <c r="F209">
+        <v>10</v>
+      </c>
+      <c r="G209">
+        <v>10</v>
+      </c>
+      <c r="H209">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>58</v>
+      </c>
+      <c r="J209" t="s">
+        <v>157</v>
+      </c>
+      <c r="K209">
+        <v>3</v>
+      </c>
+      <c r="L209" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" t="s">
+        <v>77</v>
+      </c>
+      <c r="B210">
+        <v>4</v>
+      </c>
+      <c r="C210">
+        <v>6</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+      <c r="E210">
+        <v>70</v>
+      </c>
+      <c r="F210">
+        <v>7</v>
+      </c>
+      <c r="G210">
+        <v>10</v>
+      </c>
+      <c r="H210">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" t="s">
+        <v>269</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>6</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>30</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>0</v>
+      </c>
+      <c r="I211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" t="s">
+        <v>289</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>30</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" t="s">
+        <v>270</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>30</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" t="s">
+        <v>271</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>30</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" t="s">
         <v>272</v>
       </c>
-      <c r="B208">
+      <c r="B215">
         <v>1</v>
       </c>
-      <c r="C208">
-        <v>6</v>
-      </c>
-      <c r="D208">
-        <v>0</v>
-      </c>
-      <c r="E208">
+      <c r="C215">
+        <v>6</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
         <v>30</v>
       </c>
-      <c r="F208">
-        <v>0</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
-      <c r="A209" t="s">
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>0</v>
+      </c>
+      <c r="I215" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216" t="s">
         <v>273</v>
       </c>
-      <c r="B209">
+      <c r="B216">
         <v>1</v>
       </c>
-      <c r="C209">
-        <v>6</v>
-      </c>
-      <c r="D209">
-        <v>0</v>
-      </c>
-      <c r="E209">
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
         <v>30</v>
       </c>
-      <c r="F209">
-        <v>0</v>
-      </c>
-      <c r="G209">
-        <v>0</v>
-      </c>
-      <c r="H209">
-        <v>0</v>
-      </c>
-      <c r="I209" t="s">
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>0</v>
+      </c>
+      <c r="I216" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
-      <c r="A210" t="s">
+    <row r="217" spans="1:12">
+      <c r="A217" t="s">
         <v>299</v>
       </c>
-      <c r="B210">
+      <c r="B217">
         <v>1</v>
       </c>
-      <c r="C210">
-        <v>6</v>
-      </c>
-      <c r="D210">
-        <v>0</v>
-      </c>
-      <c r="E210">
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
         <v>30</v>
       </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-      <c r="H210">
-        <v>0</v>
-      </c>
-      <c r="I210" t="s">
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>0</v>
+      </c>
+      <c r="I217" t="s">
         <v>279</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L203" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:L210" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
     <filterColumn colId="6" showButton="0"/>
@@ -8743,20 +9018,20 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I211:I238" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I218:I245" xr:uid="{A8166145-CD83-4526-BE5E-2B372ACB9134}">
       <formula1>"elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L244:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L251:L1048576" xr:uid="{35D8C5A6-1D48-45E0-94E2-28AE42BE7947}">
       <formula1>"蓝色,绿色,灰色,红色,金色"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E1048576" xr:uid="{067929F4-68AD-4FCF-9645-B8AA87BCECB2}">
       <formula1>0</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L243" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L250" xr:uid="{4B8A5B42-2203-4F2F-B5D5-3836403806BE}">
       <formula1>"blue,green,grey,red,yellow"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I210" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I217" xr:uid="{368FC40C-689B-46DB-A600-7962187E38F1}">
       <formula1>"elite0,elite1,elite2,skin1,skin2,skin3"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K1048576" xr:uid="{7C51FEFB-34AE-4B58-A0CE-D8B56128B1B0}">

--- a/Source/arkD.xlsx
+++ b/Source/arkD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37b141e1e60375e0/Arknights/ArknightsIDcard-Ebranch/ArknightsIDCard/Source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="612" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC1D704-ED4D-4A7B-B32D-1BD4294577EF}"/>
+  <xr:revisionPtr revIDLastSave="823" documentId="13_ncr:1_{216329E4-AC41-4091-8697-D8EC19668201}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B53BA6D3-0988-4143-9AF4-473286AC804B}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="2010" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="练度表" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$210</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">练度表!$A$1:$L$225</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="349">
   <si>
     <t>陈</t>
   </si>
@@ -889,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MUS-X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SIE-X</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1185,9 +1181,6 @@
     <t>塑心</t>
   </si>
   <si>
-    <t>2023.12.10</t>
-  </si>
-  <si>
     <t>锏</t>
   </si>
   <si>
@@ -1213,6 +1206,72 @@
   </si>
   <si>
     <t>跃跃</t>
+  </si>
+  <si>
+    <t>杜宾</t>
+  </si>
+  <si>
+    <t>霜叶</t>
+  </si>
+  <si>
+    <t>莱伊</t>
+  </si>
+  <si>
+    <t>艾丝黛尔</t>
+  </si>
+  <si>
+    <t>FGT-Y</t>
+  </si>
+  <si>
+    <t>FGT-X</t>
+  </si>
+  <si>
+    <t>左乐</t>
+  </si>
+  <si>
+    <t>黍</t>
+  </si>
+  <si>
+    <t>万顷</t>
+  </si>
+  <si>
+    <t>小满</t>
+  </si>
+  <si>
+    <t>SBL-X</t>
+  </si>
+  <si>
+    <t>GUA-X</t>
+  </si>
+  <si>
+    <t>红隼</t>
+  </si>
+  <si>
+    <t>夜烟</t>
+  </si>
+  <si>
+    <t>2024.03.17</t>
+  </si>
+  <si>
+    <t>SPT-X</t>
+  </si>
+  <si>
+    <t>艾拉</t>
+  </si>
+  <si>
+    <t>TRP-Δ</t>
+  </si>
+  <si>
+    <t>导火索</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>双月</t>
+  </si>
+  <si>
+    <t>芳汀</t>
   </si>
 </sst>
 </file>
@@ -1640,7 +1699,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6"/>
@@ -1685,7 +1744,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1693,7 +1752,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1701,7 +1760,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1799,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L217"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A212" sqref="A212"/>
+      <pane ySplit="3" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I193" sqref="I193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1995,7 +2054,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6">
         <v>6</v>
@@ -2051,7 +2110,7 @@
         <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -2167,7 +2226,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -2261,7 +2320,7 @@
         <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2310,7 +2369,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2339,7 +2398,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16">
         <v>6</v>
@@ -2395,7 +2454,7 @@
         <v>58</v>
       </c>
       <c r="J17" t="s">
-        <v>240</v>
+        <v>337</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2433,7 +2492,7 @@
         <v>58</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2473,7 +2532,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -2604,10 +2663,19 @@
       <c r="I23" t="s">
         <v>59</v>
       </c>
+      <c r="J23" t="s">
+        <v>331</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -2634,7 +2702,7 @@
         <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -2750,7 +2818,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B28">
         <v>6</v>
@@ -2846,7 +2914,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31">
         <v>6</v>
@@ -2884,7 +2952,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -2908,18 +2976,27 @@
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>332</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>228</v>
+        <v>333</v>
       </c>
       <c r="B33">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -2937,10 +3014,10 @@
         <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J33" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2951,13 +3028,13 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2975,18 +3052,27 @@
         <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>167</v>
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>316</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>306</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -3004,27 +3090,27 @@
         <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J35" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -3042,27 +3128,27 @@
         <v>10</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -3080,13 +3166,13 @@
         <v>10</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37" t="s">
-        <v>208</v>
+        <v>316</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37" s="8" t="s">
         <v>166</v>
@@ -3094,13 +3180,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -3121,18 +3207,18 @@
         <v>58</v>
       </c>
       <c r="J38" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="K38">
         <v>2</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>6</v>
@@ -3159,18 +3245,18 @@
         <v>58</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>6</v>
@@ -3197,24 +3283,24 @@
         <v>58</v>
       </c>
       <c r="J40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="B41">
         <v>6</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3232,27 +3318,27 @@
         <v>10</v>
       </c>
       <c r="I41" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="J41" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="K41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B42">
         <v>6</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3273,24 +3359,24 @@
         <v>58</v>
       </c>
       <c r="J42" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43">
         <v>6</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3311,24 +3397,24 @@
         <v>58</v>
       </c>
       <c r="J43" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -3349,24 +3435,24 @@
         <v>58</v>
       </c>
       <c r="J44" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -3384,13 +3470,13 @@
         <v>10</v>
       </c>
       <c r="I45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" s="8" t="s">
         <v>163</v>
@@ -3398,13 +3484,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>196</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>6</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2</v>
@@ -3425,24 +3511,24 @@
         <v>58</v>
       </c>
       <c r="J46" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>6</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -3460,13 +3546,13 @@
         <v>10</v>
       </c>
       <c r="I47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J47" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47" s="8" t="s">
         <v>163</v>
@@ -3474,13 +3560,13 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="B48">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3500,16 +3586,25 @@
       <c r="I48" t="s">
         <v>58</v>
       </c>
+      <c r="J48" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3533,7 +3628,7 @@
         <v>185</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L49" s="8" t="s">
         <v>163</v>
@@ -3541,13 +3636,13 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>6</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3567,25 +3662,16 @@
       <c r="I50" t="s">
         <v>58</v>
       </c>
-      <c r="J50" t="s">
-        <v>276</v>
-      </c>
-      <c r="K50">
-        <v>1</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3606,10 +3692,10 @@
         <v>58</v>
       </c>
       <c r="J51" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L51" s="8" t="s">
         <v>163</v>
@@ -3617,13 +3703,13 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="B52">
         <v>6</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3641,21 +3727,12 @@
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>58</v>
-      </c>
-      <c r="J52" t="s">
-        <v>295</v>
-      </c>
-      <c r="K52">
-        <v>3</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="B53">
         <v>6</v>
@@ -3682,7 +3759,7 @@
         <v>58</v>
       </c>
       <c r="J53" t="s">
-        <v>145</v>
+        <v>275</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3693,13 +3770,13 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="B54">
         <v>6</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3720,10 +3797,10 @@
         <v>58</v>
       </c>
       <c r="J54" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="8" t="s">
         <v>163</v>
@@ -3731,13 +3808,13 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="B55">
         <v>6</v>
       </c>
       <c r="C55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3758,7 +3835,7 @@
         <v>58</v>
       </c>
       <c r="J55" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="K55">
         <v>3</v>
@@ -3769,13 +3846,13 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>6</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3793,13 +3870,13 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>145</v>
       </c>
       <c r="K56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L56" s="8" t="s">
         <v>163</v>
@@ -3807,7 +3884,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>6</v>
@@ -3834,10 +3911,10 @@
         <v>58</v>
       </c>
       <c r="J57" t="s">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="K57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L57" s="8" t="s">
         <v>163</v>
@@ -3845,7 +3922,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>27</v>
       </c>
       <c r="B58">
         <v>6</v>
@@ -3869,13 +3946,13 @@
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="J58" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" s="8" t="s">
         <v>163</v>
@@ -3883,13 +3960,13 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="B59">
         <v>6</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -3910,24 +3987,24 @@
         <v>59</v>
       </c>
       <c r="J59" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="K59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L59" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B60">
         <v>6</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3945,13 +4022,13 @@
         <v>10</v>
       </c>
       <c r="I60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J60" t="s">
-        <v>245</v>
+        <v>146</v>
       </c>
       <c r="K60">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L60" s="8" t="s">
         <v>163</v>
@@ -3959,13 +4036,13 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B61">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3986,18 +4063,18 @@
         <v>167</v>
       </c>
       <c r="J61" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
         <v>6</v>
@@ -4021,27 +4098,27 @@
         <v>10</v>
       </c>
       <c r="I62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>147</v>
+        <v>262</v>
       </c>
       <c r="K62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L62" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B63">
         <v>6</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -4059,13 +4136,13 @@
         <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J63" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L63" s="8" t="s">
         <v>163</v>
@@ -4073,13 +4150,13 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="B64">
         <v>6</v>
       </c>
       <c r="C64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -4100,24 +4177,24 @@
         <v>58</v>
       </c>
       <c r="J64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B65">
         <v>6</v>
       </c>
       <c r="C65">
-     